--- a/gd/副本系统/封妖设计.xlsx
+++ b/gd/副本系统/封妖设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\me\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -689,14 +689,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>封妖设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>封妖相关逻辑说明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>svn://10.21.2.47/gd/副本系统/封妖设计.xlsx</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -955,10 +947,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家点击对局UI中的背包图标——》序列中插入使用道具事件，战斗背景变暗，打开背包，图1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -968,10 +956,6 @@
   </si>
   <si>
     <t>——》选择使用道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——》插入事件结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2423,6 +2407,44 @@
   <si>
     <t xml:space="preserve">    若玩家没有使用道具，则只能通过点击“退出道具”按钮退出。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玩家点击对局UI中的背包图标——》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序列中插入使用道具事件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战斗背景变暗，打开背包，图1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——》道具使用结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM系统设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM相关逻辑说明</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3044,6 +3066,32 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3085,32 +3133,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7106,7 +7128,7 @@
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7124,7 +7146,7 @@
         <v>135</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>164</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7135,7 +7157,7 @@
         <v>136</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>165</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -7151,7 +7173,7 @@
         <v>139</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -7354,8 +7376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X121"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7368,26 +7390,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
     </row>
     <row r="2" spans="2:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
@@ -7401,7 +7423,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="18" x14ac:dyDescent="0.35">
@@ -7411,7 +7433,7 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -7426,19 +7448,19 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E13" s="33"/>
       <c r="H13" s="3" t="s">
@@ -7446,27 +7468,27 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="91"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="48" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H15" s="6">
         <v>5</v>
@@ -7474,10 +7496,10 @@
     </row>
     <row r="16" spans="2:22" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
+        <v>295</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="6" t="s">
         <v>38</v>
       </c>
@@ -7486,8 +7508,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="6" t="s">
         <v>39</v>
       </c>
@@ -7496,20 +7518,20 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="6" t="s">
         <v>40</v>
       </c>
@@ -7524,7 +7546,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,11 +7558,11 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B23" s="29"/>
       <c r="F23" s="33" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
@@ -7556,11 +7578,11 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="52" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B24" s="29"/>
       <c r="F24" s="33" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
@@ -7577,7 +7599,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="29"/>
       <c r="F25" s="33" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
@@ -7594,7 +7616,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" s="29"/>
       <c r="F26" s="33" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
@@ -7612,7 +7634,7 @@
       <c r="B27" s="29"/>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
@@ -7629,14 +7651,14 @@
       <c r="B28" s="29"/>
       <c r="F28" s="33"/>
       <c r="G28" s="34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="34" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K28" s="34"/>
       <c r="L28" s="33"/>
@@ -7650,11 +7672,11 @@
       <c r="B29" s="29"/>
       <c r="F29" s="33"/>
       <c r="G29" s="35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="35" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J29" s="69">
         <v>23</v>
@@ -7671,7 +7693,7 @@
       <c r="B30" s="29"/>
       <c r="F30" s="33"/>
       <c r="G30" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
@@ -7688,10 +7710,10 @@
       <c r="B31" s="29"/>
       <c r="F31" s="33"/>
       <c r="G31" s="34" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I31" s="34"/>
       <c r="J31" s="49"/>
@@ -7707,7 +7729,7 @@
       <c r="B32" s="29"/>
       <c r="F32" s="33"/>
       <c r="G32" s="35" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H32" s="69">
         <v>56</v>
@@ -7760,7 +7782,7 @@
       <c r="B37" s="29"/>
       <c r="E37" s="4"/>
       <c r="F37" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
@@ -7773,14 +7795,14 @@
       <c r="B39" s="29"/>
       <c r="E39" s="4"/>
       <c r="F39" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
       <c r="E40" s="4"/>
       <c r="F40" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
@@ -7838,10 +7860,10 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
@@ -7850,7 +7872,7 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="33" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>81</v>
@@ -7876,7 +7898,7 @@
     </row>
     <row r="52" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>75</v>
@@ -7896,78 +7918,78 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B55" s="29"/>
-      <c r="G55" s="89" t="s">
+      <c r="G55" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89" t="s">
+      <c r="H55" s="73"/>
+      <c r="I55" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="J55" s="89"/>
+      <c r="J55" s="73"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B56" s="29"/>
-      <c r="G56" s="90" t="s">
+      <c r="G56" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="91"/>
-      <c r="I56" s="86" t="s">
+      <c r="H56" s="75"/>
+      <c r="I56" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="J56" s="86"/>
+      <c r="J56" s="72"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B57" s="29"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="86" t="s">
+      <c r="G57" s="76"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="J57" s="86"/>
+      <c r="J57" s="72"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G58" s="94"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" s="78"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="J58" s="86"/>
+      <c r="J58" s="72"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
-      <c r="G59" s="86" t="s">
+      <c r="G59" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86" t="s">
+      <c r="H59" s="72"/>
+      <c r="I59" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="86"/>
+      <c r="J59" s="72"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="G60" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86" t="s">
+      <c r="H60" s="72"/>
+      <c r="I60" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="J60" s="86"/>
+      <c r="J60" s="72"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="25"/>
       <c r="B61" s="29"/>
       <c r="G61" s="37" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
@@ -7979,7 +8001,7 @@
       <c r="A62" s="25"/>
       <c r="B62" s="29"/>
       <c r="G62" s="37" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
@@ -7994,7 +8016,7 @@
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B63" s="29"/>
       <c r="F63" s="33" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
@@ -8011,7 +8033,7 @@
       <c r="B64" s="29"/>
       <c r="F64" s="33"/>
       <c r="G64" s="33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
@@ -8027,13 +8049,13 @@
       <c r="B65" s="29"/>
       <c r="F65" s="33"/>
       <c r="G65" s="34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J65" s="34"/>
       <c r="K65" s="33"/>
@@ -8050,7 +8072,7 @@
         <v>111</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I66" s="69">
         <v>20</v>
@@ -8070,7 +8092,7 @@
         <v>222</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I67" s="69">
         <v>90</v>
@@ -8087,7 +8109,7 @@
       <c r="B68" s="29"/>
       <c r="F68" s="33"/>
       <c r="G68" s="33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H68" s="33"/>
       <c r="I68" s="33"/>
@@ -8102,7 +8124,7 @@
     <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B69" s="29"/>
       <c r="F69" s="33" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
@@ -8119,7 +8141,7 @@
       <c r="B70" s="29"/>
       <c r="F70" s="33"/>
       <c r="G70" s="33" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H70" s="33"/>
       <c r="I70" s="33"/>
@@ -8135,7 +8157,7 @@
       <c r="B71" s="29"/>
       <c r="F71" s="33"/>
       <c r="G71" s="33" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="33"/>
@@ -8151,10 +8173,10 @@
       <c r="B72" s="29"/>
       <c r="F72" s="33"/>
       <c r="G72" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I72" s="33"/>
       <c r="J72" s="33"/>
@@ -8205,7 +8227,7 @@
       <c r="B75" s="29"/>
       <c r="F75" s="33"/>
       <c r="G75" s="33" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H75" s="33"/>
       <c r="I75" s="33"/>
@@ -8220,16 +8242,16 @@
     <row r="76" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B76" s="29"/>
       <c r="F76" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B77" s="28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N77" s="33"/>
       <c r="O77" s="33"/>
@@ -8244,10 +8266,10 @@
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B78" s="33" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
@@ -8276,15 +8298,15 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>93</v>
@@ -8292,10 +8314,10 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -8305,103 +8327,103 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G87" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G88" s="89" t="s">
+      <c r="G88" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="89"/>
+      <c r="H88" s="73"/>
       <c r="I88" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="J88" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="J88" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="K88" s="80"/>
-      <c r="L88" s="72" t="s">
-        <v>324</v>
-      </c>
-      <c r="M88" s="72"/>
+      <c r="K88" s="92"/>
+      <c r="L88" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="M88" s="84"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F89" s="25"/>
-      <c r="G89" s="81" t="s">
+      <c r="G89" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="H89" s="82"/>
-      <c r="I89" s="78">
+      <c r="H89" s="94"/>
+      <c r="I89" s="90">
         <v>5</v>
       </c>
-      <c r="J89" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="K89" s="71"/>
-      <c r="L89" s="74">
+      <c r="J89" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="K89" s="83"/>
+      <c r="L89" s="86">
         <v>50</v>
       </c>
-      <c r="M89" s="75"/>
+      <c r="M89" s="87"/>
       <c r="N89" s="25"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F90" s="25"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="84"/>
-      <c r="I90" s="79"/>
-      <c r="J90" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="K90" s="71"/>
-      <c r="L90" s="76"/>
-      <c r="M90" s="77"/>
+      <c r="G90" s="95"/>
+      <c r="H90" s="96"/>
+      <c r="I90" s="91"/>
+      <c r="J90" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="K90" s="83"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="89"/>
       <c r="N90" s="25"/>
       <c r="O90" s="25"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F91" s="25"/>
-      <c r="G91" s="85" t="s">
+      <c r="G91" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="H91" s="85"/>
+      <c r="H91" s="81"/>
       <c r="I91" s="44">
         <v>6</v>
       </c>
-      <c r="J91" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="K91" s="71"/>
-      <c r="L91" s="73">
+      <c r="J91" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="K91" s="83"/>
+      <c r="L91" s="85">
         <v>10</v>
       </c>
-      <c r="M91" s="73"/>
+      <c r="M91" s="85"/>
       <c r="N91" s="25"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F92" s="25"/>
-      <c r="G92" s="85" t="s">
+      <c r="G92" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="H92" s="85"/>
+      <c r="H92" s="81"/>
       <c r="I92" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="J92" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="J92" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="K92" s="71"/>
-      <c r="L92" s="73" t="s">
-        <v>326</v>
-      </c>
-      <c r="M92" s="73"/>
+      <c r="K92" s="83"/>
+      <c r="L92" s="85" t="s">
+        <v>322</v>
+      </c>
+      <c r="M92" s="85"/>
       <c r="N92" s="25"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F93" s="25"/>
       <c r="G93" s="42" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H93" s="42"/>
       <c r="I93" s="36"/>
@@ -8413,7 +8435,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F94" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
@@ -8426,11 +8448,11 @@
     </row>
     <row r="95" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B95" s="28" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
@@ -8442,7 +8464,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B96" s="33" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25" t="s">
@@ -8458,17 +8480,17 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F97" s="25"/>
-      <c r="G97" s="88" t="s">
+      <c r="G97" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="J97" s="88"/>
+      <c r="H97" s="82"/>
+      <c r="I97" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="J97" s="82"/>
       <c r="K97" s="25"/>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
@@ -8476,17 +8498,17 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F98" s="25"/>
-      <c r="G98" s="87" t="s">
+      <c r="G98" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="87"/>
-      <c r="I98" s="87">
+      <c r="H98" s="80"/>
+      <c r="I98" s="80">
         <v>10</v>
       </c>
-      <c r="J98" s="87"/>
+      <c r="J98" s="80"/>
       <c r="K98" s="25"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
@@ -8494,14 +8516,14 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F99" s="25"/>
-      <c r="G99" s="87" t="s">
+      <c r="G99" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H99" s="87"/>
-      <c r="I99" s="87">
+      <c r="H99" s="80"/>
+      <c r="I99" s="80">
         <v>20</v>
       </c>
-      <c r="J99" s="87"/>
+      <c r="J99" s="80"/>
       <c r="K99" s="25"/>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
@@ -8510,7 +8532,7 @@
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F100" s="25"/>
       <c r="G100" s="40" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H100" s="41"/>
       <c r="I100" s="39"/>
@@ -8536,7 +8558,7 @@
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F102" s="25"/>
       <c r="G102" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
@@ -8548,7 +8570,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F103" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
@@ -8562,7 +8584,7 @@
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F104" s="25"/>
       <c r="G104" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
@@ -8574,11 +8596,11 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B105" s="28" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F105" s="25"/>
       <c r="G105" s="25" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
@@ -8591,10 +8613,10 @@
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="25"/>
       <c r="B106" s="33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
@@ -8607,11 +8629,11 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F107" s="25"/>
       <c r="G107" s="25" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H107" s="33"/>
       <c r="I107" s="25"/>
@@ -8623,11 +8645,11 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F108" s="25"/>
       <c r="G108" s="33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H108" s="33"/>
       <c r="I108" s="33"/>
@@ -8639,11 +8661,11 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F109" s="25"/>
       <c r="G109" s="33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H109" s="33"/>
       <c r="I109" s="33"/>
@@ -8655,7 +8677,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="51" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>28</v>
@@ -8670,7 +8692,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E111" s="21"/>
       <c r="F111" s="21" t="s">
@@ -8733,7 +8755,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C121" s="27"/>
       <c r="D121" s="27"/>
@@ -8750,29 +8772,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="E1:V1"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H58"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:J97"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="J91:K91"/>
     <mergeCell ref="J92:K92"/>
@@ -8789,6 +8788,29 @@
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="I59:J59"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H58"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="E1:V1"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E15:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B47 B80:B95 B97:B105 B107:B1048576 B49:B77">
@@ -8810,8 +8832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N110" sqref="N110"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8822,26 +8844,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
     </row>
     <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
@@ -8856,15 +8878,15 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>51</v>
@@ -8872,10 +8894,10 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>231</v>
+        <v>504</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -8891,13 +8913,13 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -8912,13 +8934,13 @@
     </row>
     <row r="8" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -8933,10 +8955,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
@@ -8944,23 +8966,23 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>235</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O12" s="25"/>
     </row>
@@ -8981,17 +9003,17 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E28" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G29" s="33"/>
     </row>
@@ -9002,15 +9024,15 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E32" s="33" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -9039,7 +9061,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E49" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -9075,7 +9097,7 @@
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E57" s="25"/>
       <c r="F57" s="33" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
@@ -9095,7 +9117,7 @@
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F58" s="54"/>
       <c r="G58" s="54" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H58" s="54"/>
       <c r="I58" s="54"/>
@@ -9114,7 +9136,7 @@
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F59" s="54"/>
       <c r="G59" s="54" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
@@ -9133,7 +9155,7 @@
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F60" s="54"/>
       <c r="G60" s="54" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H60" s="54"/>
       <c r="I60" s="54"/>
@@ -9153,7 +9175,7 @@
       <c r="E61" s="53"/>
       <c r="F61" s="52"/>
       <c r="G61" s="52" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
@@ -9171,24 +9193,24 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O63" s="33"/>
       <c r="P63" s="33"/>
@@ -9196,10 +9218,10 @@
     </row>
     <row r="64" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>87</v>
@@ -9208,10 +9230,10 @@
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="33"/>
       <c r="B65" s="33" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
@@ -9219,16 +9241,16 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B66" s="25"/>
       <c r="F66" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>74</v>
@@ -9236,7 +9258,7 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>65</v>
@@ -9244,7 +9266,7 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="51" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>62</v>
@@ -9252,7 +9274,7 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="52" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>63</v>
@@ -9263,7 +9285,7 @@
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
       <c r="G71" s="45" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H71" s="45"/>
       <c r="I71" s="45"/>
@@ -9302,13 +9324,13 @@
     </row>
     <row r="73" spans="1:21" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
@@ -9329,14 +9351,14 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E74" s="45"/>
       <c r="F74" s="45" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="45"/>
@@ -9356,12 +9378,12 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B75" s="29"/>
       <c r="E75" s="45"/>
       <c r="F75" s="45" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G75" s="45"/>
       <c r="H75" s="45"/>
@@ -9381,14 +9403,14 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E76" s="45"/>
       <c r="F76" s="45" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="45"/>
@@ -9408,7 +9430,7 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E77" s="45"/>
       <c r="F77" s="45"/>
@@ -9430,7 +9452,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E78" s="45"/>
       <c r="F78" s="45"/>
@@ -9452,14 +9474,14 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="45" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G79" s="45"/>
       <c r="H79" s="45"/>
@@ -9479,7 +9501,7 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
@@ -9501,7 +9523,7 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E81" s="45"/>
       <c r="F81" s="45"/>
@@ -9523,7 +9545,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E82" s="45"/>
       <c r="F82" s="45"/>
@@ -9538,7 +9560,7 @@
       <c r="O82" s="45"/>
       <c r="P82" s="45"/>
       <c r="Q82" s="45" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="R82" s="45"/>
       <c r="S82" s="25"/>
@@ -9699,11 +9721,11 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E91" s="45"/>
       <c r="F91" s="45" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G91" s="45"/>
       <c r="H91" s="45"/>
@@ -9724,7 +9746,7 @@
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E92" s="45"/>
       <c r="F92" s="45" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G92" s="45"/>
       <c r="H92" s="45"/>
@@ -9745,7 +9767,7 @@
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E93" s="45"/>
       <c r="F93" s="45" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G93" s="45"/>
       <c r="H93" s="45"/>
@@ -9766,7 +9788,7 @@
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E94" s="45"/>
       <c r="F94" s="45" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G94" s="45"/>
       <c r="H94" s="45"/>
@@ -9786,15 +9808,15 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>13</v>
@@ -9802,18 +9824,18 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B97" s="28" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B98" s="33" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>71</v>
@@ -9825,7 +9847,7 @@
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B99" s="29"/>
       <c r="H99" s="33" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I99" s="33"/>
       <c r="J99" s="33"/>
@@ -9834,10 +9856,10 @@
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B100" s="29"/>
       <c r="G100" s="33" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I100" s="33"/>
       <c r="J100" s="33"/>
@@ -9852,18 +9874,18 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F102" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I103" s="33"/>
       <c r="J103" s="33"/>
@@ -9872,10 +9894,10 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>66</v>
@@ -9885,7 +9907,7 @@
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="F105" s="33" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
@@ -9899,7 +9921,7 @@
       <c r="B106" s="25"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -9912,7 +9934,7 @@
       <c r="B107" s="25"/>
       <c r="F107" s="33"/>
       <c r="G107" s="33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H107" s="33"/>
       <c r="I107" s="33"/>
@@ -9922,7 +9944,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E108" s="52" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F108" s="52"/>
       <c r="G108" s="52"/>
@@ -9938,7 +9960,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E109" s="52" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F109" s="52"/>
       <c r="G109" s="52"/>
@@ -9954,7 +9976,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D110" s="50" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E110" s="33"/>
       <c r="F110" s="33"/>
@@ -9966,10 +9988,10 @@
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D111" s="33"/>
       <c r="E111" s="33" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G111" s="33"/>
       <c r="H111" s="33"/>
@@ -9979,7 +10001,7 @@
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D112" s="33"/>
       <c r="E112" s="33" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -9991,7 +10013,7 @@
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
       <c r="F113" s="33" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G113" s="33"/>
       <c r="H113" s="33"/>
@@ -10000,12 +10022,12 @@
     </row>
     <row r="114" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B114" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="B115" s="33" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>82</v>
@@ -10013,7 +10035,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B116" s="33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>83</v>
@@ -10024,10 +10046,10 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B117" s="33" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I117" s="25"/>
       <c r="J117" s="25"/>
@@ -10037,13 +10059,13 @@
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B118" s="25"/>
       <c r="D118" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B119" s="25"/>
       <c r="D119" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E119" s="33"/>
       <c r="F119" s="33"/>
@@ -10054,7 +10076,7 @@
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B120" s="25"/>
       <c r="D120" s="33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E120" s="33"/>
       <c r="F120" s="33"/>
@@ -10071,7 +10093,7 @@
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D122" s="4"/>
       <c r="E122" s="50" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -10092,7 +10114,7 @@
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E123" s="25"/>
       <c r="F123" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
@@ -10111,11 +10133,11 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
@@ -10134,11 +10156,11 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="24" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G125" s="24"/>
       <c r="H125" s="24"/>
@@ -10158,7 +10180,7 @@
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E126" s="25"/>
       <c r="F126" s="25" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
@@ -10178,7 +10200,7 @@
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E127" s="25"/>
       <c r="F127" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
@@ -10467,7 +10489,7 @@
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E143" s="30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F143" s="25"/>
       <c r="G143" s="25"/>
@@ -10487,11 +10509,11 @@
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B144" s="28" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E144" s="25"/>
       <c r="F144" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
@@ -10510,11 +10532,11 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B145" s="33" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E145" s="25"/>
       <c r="F145" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
@@ -10535,7 +10557,7 @@
       <c r="E146" s="25"/>
       <c r="F146" s="25"/>
       <c r="G146" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
@@ -10556,7 +10578,7 @@
       <c r="F147" s="25"/>
       <c r="G147" s="31"/>
       <c r="H147" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I147" s="31"/>
       <c r="J147" s="31"/>
@@ -10576,7 +10598,7 @@
       <c r="F148" s="25"/>
       <c r="G148" s="31"/>
       <c r="H148" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I148" s="31"/>
       <c r="J148" s="31"/>
@@ -10595,7 +10617,7 @@
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
       <c r="G149" s="52" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
@@ -10613,13 +10635,13 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="26" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
       <c r="G150" s="25"/>
       <c r="H150" s="25" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -10636,13 +10658,13 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
       <c r="G151" s="25"/>
       <c r="H151" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
@@ -10659,13 +10681,13 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="51" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
       <c r="G152" s="25"/>
       <c r="H152" s="33" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I152" s="33"/>
       <c r="J152" s="33"/>
@@ -10686,7 +10708,7 @@
       <c r="F153" s="25"/>
       <c r="G153" s="25"/>
       <c r="H153" s="33" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I153" s="33"/>
       <c r="J153" s="33"/>
@@ -10706,7 +10728,7 @@
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
       <c r="G154" s="33" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H154" s="33"/>
       <c r="I154" s="33"/>
@@ -10727,7 +10749,7 @@
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
       <c r="G155" s="33" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H155" s="33"/>
       <c r="I155" s="33"/>
@@ -10746,7 +10768,7 @@
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E156" s="25"/>
       <c r="F156" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
@@ -10765,12 +10787,12 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B157" s="28" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
       <c r="G157" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
@@ -10788,12 +10810,12 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="51" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E158" s="25"/>
       <c r="F158" s="25"/>
       <c r="G158" s="33" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H158" s="33"/>
       <c r="I158" s="33"/>
@@ -10811,12 +10833,12 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="52" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
       <c r="G159" s="33" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H159" s="33"/>
       <c r="I159" s="33"/>
@@ -10835,7 +10857,7 @@
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E160" s="25"/>
       <c r="F160" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
@@ -10856,7 +10878,7 @@
       <c r="E161" s="25"/>
       <c r="F161" s="25"/>
       <c r="G161" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
@@ -10897,7 +10919,7 @@
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K163" s="25"/>
       <c r="L163" s="25"/>
@@ -10930,7 +10952,7 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D165" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E165" s="25"/>
       <c r="F165" s="25"/>
@@ -10952,7 +10974,7 @@
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D166" s="4"/>
       <c r="E166" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F166" s="25"/>
       <c r="G166" s="25"/>
@@ -10973,7 +10995,7 @@
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D167" s="4"/>
       <c r="E167" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F167" s="25"/>
       <c r="G167" s="25"/>
@@ -10994,7 +11016,7 @@
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D168" s="4"/>
       <c r="E168" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F168" s="25"/>
       <c r="G168" s="25"/>
@@ -11067,7 +11089,7 @@
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D172" s="4"/>
       <c r="E172" s="33" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -11088,7 +11110,7 @@
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D173" s="4"/>
       <c r="E173" s="52" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F173" s="52"/>
       <c r="G173" s="52"/>
@@ -11109,7 +11131,7 @@
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D174" s="4"/>
       <c r="E174" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F174" s="25"/>
       <c r="G174" s="25"/>
@@ -11129,12 +11151,12 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="25"/>
       <c r="F175" s="25" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G175" s="25"/>
       <c r="H175" s="33"/>
@@ -11153,11 +11175,11 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="33" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F176" s="25"/>
       <c r="G176" s="25"/>
@@ -11177,12 +11199,12 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="51" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="30"/>
       <c r="F177" s="25" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G177" s="25"/>
       <c r="H177" s="33"/>
@@ -11201,14 +11223,14 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="52" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E178" s="25"/>
       <c r="F178" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G178" s="25"/>
       <c r="H178" s="25"/>
@@ -11227,11 +11249,11 @@
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B179" s="33" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E179" s="25"/>
       <c r="F179" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G179" s="25"/>
       <c r="H179" s="25"/>
@@ -11250,11 +11272,11 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B180" s="33" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E180" s="25"/>
       <c r="F180" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
@@ -11275,7 +11297,7 @@
       <c r="E181" s="25"/>
       <c r="F181" s="25"/>
       <c r="G181" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
@@ -11294,7 +11316,7 @@
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E182" s="25"/>
       <c r="F182" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G182" s="25"/>
       <c r="H182" s="25"/>
@@ -11314,7 +11336,7 @@
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E183" s="25"/>
       <c r="F183" s="25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G183" s="25"/>
       <c r="H183" s="25"/>
@@ -11334,7 +11356,7 @@
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E184" s="25"/>
       <c r="F184" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G184" s="25"/>
       <c r="H184" s="25"/>
@@ -11353,12 +11375,12 @@
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B185" s="28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E185" s="25"/>
       <c r="F185" s="25"/>
       <c r="G185" s="25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
@@ -11376,7 +11398,7 @@
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B186" s="33" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E186" s="25"/>
       <c r="F186" s="25" t="s">
@@ -11420,7 +11442,7 @@
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E188" s="25"/>
       <c r="F188" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G188" s="25"/>
       <c r="H188" s="25"/>
@@ -11441,7 +11463,7 @@
       <c r="E189" s="25"/>
       <c r="F189" s="25"/>
       <c r="G189" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
@@ -11806,7 +11828,7 @@
     <row r="209" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E209" s="30"/>
       <c r="F209" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G209" s="25"/>
       <c r="H209" s="25"/>
@@ -11826,7 +11848,7 @@
     <row r="210" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E210" s="25"/>
       <c r="F210" s="25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G210" s="25"/>
       <c r="H210" s="25"/>
@@ -11847,17 +11869,17 @@
       <c r="E211" s="25"/>
       <c r="F211" s="25"/>
       <c r="G211" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H211" s="25"/>
       <c r="I211" s="25"/>
       <c r="J211" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K211" s="25"/>
       <c r="L211" s="25"/>
       <c r="M211" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N211" s="25"/>
       <c r="O211" s="25"/>
@@ -11926,7 +11948,7 @@
     <row r="215" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E215" s="25"/>
       <c r="F215" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G215" s="25"/>
       <c r="H215" s="25"/>
@@ -12215,7 +12237,7 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B231" s="28" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>102</v>
@@ -12223,16 +12245,16 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B232" s="33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D232" s="4"/>
       <c r="E232" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="52" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>103</v>
@@ -12240,19 +12262,19 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="51" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E235" s="25"/>
       <c r="F235" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G235" s="25"/>
       <c r="H235" s="25"/>
@@ -12264,7 +12286,7 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E236" s="25"/>
       <c r="F236" s="25" t="s">
@@ -12280,10 +12302,10 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E237" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F237" s="25"/>
       <c r="G237" s="25"/>
@@ -12309,11 +12331,11 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E239" s="25"/>
       <c r="F239" s="24" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G239" s="24"/>
       <c r="H239" s="46"/>
@@ -12331,11 +12353,11 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E240" s="25"/>
       <c r="F240" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G240" s="25"/>
       <c r="H240" s="25"/>
@@ -12353,7 +12375,7 @@
     <row r="241" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E241" s="25"/>
       <c r="F241" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G241" s="25"/>
       <c r="H241" s="25"/>
@@ -12389,7 +12411,7 @@
     <row r="258" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D258" s="4"/>
       <c r="E258" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F258" s="25"/>
       <c r="G258" s="25"/>
@@ -12409,7 +12431,7 @@
       <c r="D259" s="4"/>
       <c r="E259" s="25"/>
       <c r="F259" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G259" s="25"/>
       <c r="H259" s="25"/>
@@ -12429,7 +12451,7 @@
       <c r="E260" s="25"/>
       <c r="F260" s="25"/>
       <c r="G260" s="25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H260" s="25"/>
       <c r="I260" s="25"/>
@@ -12448,7 +12470,7 @@
       <c r="E261" s="25"/>
       <c r="F261" s="25"/>
       <c r="G261" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H261" s="25"/>
       <c r="I261" s="25"/>
@@ -12466,7 +12488,7 @@
       <c r="D262" s="4"/>
       <c r="E262" s="25"/>
       <c r="F262" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G262" s="25"/>
       <c r="H262" s="25"/>
@@ -12486,7 +12508,7 @@
       <c r="E263" s="25"/>
       <c r="F263" s="25"/>
       <c r="G263" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H263" s="25"/>
       <c r="I263" s="25"/>
@@ -12505,7 +12527,7 @@
       <c r="E264" s="25"/>
       <c r="F264" s="25"/>
       <c r="G264" s="25" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H264" s="25"/>
       <c r="I264" s="25"/>
@@ -12523,7 +12545,7 @@
       <c r="D265" s="4"/>
       <c r="E265" s="25"/>
       <c r="F265" s="25" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G265" s="25"/>
       <c r="H265" s="25"/>
@@ -12543,7 +12565,7 @@
       <c r="E266" s="25"/>
       <c r="F266" s="25"/>
       <c r="G266" s="31" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H266" s="31"/>
       <c r="I266" s="25"/>
@@ -12562,7 +12584,7 @@
       <c r="E267" s="25"/>
       <c r="F267" s="25"/>
       <c r="G267" s="25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I267" s="25"/>
       <c r="J267" s="25"/>
@@ -12580,7 +12602,7 @@
       <c r="E268" s="25"/>
       <c r="F268" s="45"/>
       <c r="G268" s="45" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H268" s="45"/>
       <c r="I268" s="45"/>
@@ -12600,7 +12622,7 @@
       <c r="F269" s="45"/>
       <c r="G269" s="45"/>
       <c r="H269" s="45" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I269" s="45"/>
       <c r="J269" s="45"/>
@@ -12619,7 +12641,7 @@
       <c r="F270" s="45"/>
       <c r="G270" s="45"/>
       <c r="H270" s="45" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I270" s="45"/>
       <c r="J270" s="45"/>
@@ -12638,7 +12660,7 @@
       <c r="F271" s="45"/>
       <c r="G271" s="45"/>
       <c r="H271" s="45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I271" s="45"/>
       <c r="J271" s="45"/>
@@ -12773,7 +12795,7 @@
     <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D279" s="4"/>
       <c r="E279" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F279" s="25"/>
       <c r="G279" s="25"/>
@@ -12793,7 +12815,7 @@
       <c r="D280" s="4"/>
       <c r="E280" s="25"/>
       <c r="F280" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G280" s="25"/>
       <c r="H280" s="25"/>
@@ -12811,7 +12833,7 @@
     <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E281" s="25"/>
       <c r="F281" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G281" s="25"/>
       <c r="H281" s="25"/>
@@ -12829,7 +12851,7 @@
     <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E282" s="25"/>
       <c r="F282" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G282" s="25"/>
       <c r="H282" s="25"/>
@@ -12861,11 +12883,11 @@
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D286" s="4"/>
       <c r="E286" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F286" s="25"/>
       <c r="G286" s="25"/>
@@ -12883,12 +12905,12 @@
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" s="33" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D287" s="4"/>
       <c r="E287" s="25"/>
       <c r="F287" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M287" s="25"/>
       <c r="N287" s="25"/>
@@ -12899,15 +12921,15 @@
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" s="51" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B288" s="28" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D288" s="4"/>
       <c r="E288" s="25"/>
       <c r="F288" s="24" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -12924,15 +12946,15 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289" s="33" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="25"/>
       <c r="F289" s="24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G289" s="24"/>
       <c r="H289" s="24"/>
@@ -12949,13 +12971,13 @@
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290" s="33" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B290" s="25"/>
       <c r="D290" s="4"/>
       <c r="E290" s="25"/>
       <c r="F290" s="46" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G290" s="46"/>
       <c r="H290" s="46"/>
@@ -12972,11 +12994,11 @@
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A291" s="33" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D291" s="4"/>
       <c r="E291" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F291" s="31"/>
       <c r="G291" s="31"/>
@@ -12995,15 +13017,15 @@
     </row>
     <row r="292" spans="1:19" ht="33" x14ac:dyDescent="0.3">
       <c r="A292" s="33" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B292" s="28" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D292" s="4"/>
       <c r="E292" s="31"/>
       <c r="F292" s="31" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G292" s="31"/>
       <c r="H292" s="31"/>
@@ -13021,7 +13043,7 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B293" s="33" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D293" s="4"/>
       <c r="E293" s="31"/>
@@ -13042,7 +13064,7 @@
     </row>
     <row r="294" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="28" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D294" s="4"/>
       <c r="E294" s="31"/>
@@ -13063,7 +13085,7 @@
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B295" s="33" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="31"/>
@@ -13140,7 +13162,7 @@
       <c r="D299" s="4"/>
       <c r="E299" s="31"/>
       <c r="F299" s="31" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G299" s="31"/>
       <c r="H299" s="31"/>
@@ -13160,7 +13182,7 @@
       <c r="D300" s="4"/>
       <c r="E300" s="1"/>
       <c r="F300" s="33" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G300" s="38"/>
       <c r="H300" s="38"/>
@@ -13183,40 +13205,40 @@
     <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D302" s="4"/>
       <c r="E302" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="303" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A303" s="26" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B303" s="28" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D303" s="4"/>
       <c r="F303" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" s="33" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B304" s="33" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="305" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E305" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="306" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F306" s="33" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G306" s="33"/>
       <c r="H306" s="33"/>
@@ -13230,12 +13252,12 @@
     </row>
     <row r="307" spans="2:22" x14ac:dyDescent="0.3">
       <c r="F307" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="308" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D308" s="50" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E308" s="33"/>
       <c r="F308" s="33"/>
@@ -13247,10 +13269,10 @@
     <row r="309" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D309" s="33"/>
       <c r="E309" s="33" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F309" s="33" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G309" s="33"/>
       <c r="H309" s="33"/>
@@ -13260,7 +13282,7 @@
     <row r="310" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D310" s="33"/>
       <c r="E310" s="33" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F310" s="33"/>
       <c r="G310" s="33"/>
@@ -13272,7 +13294,7 @@
       <c r="D311" s="33"/>
       <c r="E311" s="33"/>
       <c r="F311" s="33" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G311" s="33"/>
       <c r="H311" s="33"/>
@@ -13281,7 +13303,7 @@
     </row>
     <row r="312" spans="2:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B312" s="28" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C312" s="23" t="s">
         <v>110</v>
@@ -13308,7 +13330,7 @@
     </row>
     <row r="313" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B313" s="33" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C313" s="21"/>
       <c r="D313" s="21" t="s">
@@ -13336,7 +13358,7 @@
     <row r="314" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C314" s="21"/>
       <c r="D314" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E314" s="21"/>
       <c r="F314" s="21"/>
@@ -13360,7 +13382,7 @@
     <row r="315" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C315" s="21"/>
       <c r="D315" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E315" s="21"/>
       <c r="F315" s="21"/>
@@ -13384,7 +13406,7 @@
     <row r="316" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C316" s="21"/>
       <c r="D316" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E316" s="21"/>
       <c r="F316" s="21"/>
@@ -13763,7 +13785,7 @@
       <c r="K332" s="21"/>
       <c r="L332" s="21"/>
       <c r="M332" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N332" s="21"/>
       <c r="O332" s="21"/>
@@ -13827,7 +13849,7 @@
       <c r="C335" s="21"/>
       <c r="D335" s="21"/>
       <c r="E335" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
@@ -13876,7 +13898,7 @@
       <c r="D337" s="21"/>
       <c r="E337" s="21"/>
       <c r="F337" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G337" s="21"/>
       <c r="H337" s="21"/>
@@ -13900,7 +13922,7 @@
       <c r="D338" s="21"/>
       <c r="E338" s="21"/>
       <c r="F338" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G338" s="21"/>
       <c r="H338" s="21"/>
@@ -14067,7 +14089,7 @@
       <c r="C345" s="21"/>
       <c r="D345" s="21"/>
       <c r="E345" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
@@ -14114,7 +14136,7 @@
     <row r="347" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C347" s="21"/>
       <c r="D347" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E347" s="21"/>
       <c r="F347" s="21"/>
@@ -14139,7 +14161,7 @@
       <c r="C348" s="21"/>
       <c r="D348" s="21"/>
       <c r="E348" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
@@ -14259,7 +14281,7 @@
       <c r="C353" s="21"/>
       <c r="D353" s="20"/>
       <c r="E353" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>

--- a/gd/副本系统/封妖设计.xlsx
+++ b/gd/副本系统/封妖设计.xlsx
@@ -9,20 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
     <sheet name="封妖逻辑" sheetId="3" r:id="rId2"/>
     <sheet name="UI逻辑" sheetId="4" r:id="rId3"/>
-    <sheet name="自用" sheetId="1" r:id="rId4"/>
+    <sheet name="配置结构" sheetId="5" r:id="rId4"/>
+    <sheet name="自用" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="妲己魅惑">UI逻辑!$C$312</definedName>
+    <definedName name="_3._友好度按照怪物个体计算_不按照怪物种类计算">封妖逻辑!$F$34</definedName>
+    <definedName name="处于摸摸模式中时_屏蔽换怪操作。">UI逻辑!$E$286</definedName>
+    <definedName name="妲己魅惑">UI逻辑!$C$314</definedName>
     <definedName name="道具方式">UI逻辑!$C$2</definedName>
-    <definedName name="摸摸方式">UI逻辑!$C$115</definedName>
+    <definedName name="摸摸方式">UI逻辑!$C$116</definedName>
+    <definedName name="若玩家点击的是不可抓取的怪物_则屏幕弹出IM提示_你不能摸人家啦_人家不会跟你走的">UI逻辑!$F$57</definedName>
+    <definedName name="食物类型、食物ID、食物增加的友好度在道具中配置_配置结构如下">封妖逻辑!$G$67</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="562">
   <si>
     <t>抓宠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若玩家投喂的食物不在该怪物的喜好范围内，则怪物播放投喂错误的动作，此时好感度不上升，无好感度数值变化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物反应（投喂正确、投喂错误）动作待设计。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>喜好食物id/食物类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食物A的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饮料类型食物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各类型下的具体道具待设计。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当左上角桃心填充满时，即完成摸摸操作，增加摸摸操作提升的怪物好感度数值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参考</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,10 +447,6 @@
   </si>
   <si>
     <t>假设桃心高度为a，每次点击上升高度为b，点满桃心需要点击x次，则由b/a=1/x，可得b=a/x。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成摸摸后，再次摸到正确位置，则显示已满状态的桃心，继续摸摸无效果，即每个怪物每次对局只能通过摸摸操作增长一次好感度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -769,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物好感度部位感应区域：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以“怪物提升好感度的摸摸位置"配置的怪物摸摸位置的dummy点为中心，以30cm（暂定）为半径区域。</t>
   </si>
   <si>
@@ -780,9 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检测玩家手指点击点落在怪物好感度部位感应区域内，则判定为点击到，否则不算做点击到。</t>
-  </si>
-  <si>
     <t>摸摸点击次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,10 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家手指点击到怪物好感度部位感应区域，算做完成一次摸摸点击操作，完成规定数量的次数，才算成功完成一次摸摸操作，增长对应好感度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由于模型做动作可能造成位置变化，因此这个摸摸感应区域根据3d形象做相对位移。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,14 +829,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI表现：从怪物胸部向外冒出一个大的桃心，由小变大，最后爆掉，然后怪物头右上方冒出好感度增长数值（表现同使用道具的情况）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI表现：从怪物胸部向外冒出一个大的桃心，由小变大，最后爆掉，然后怪物头左上方冒出好感度增长到的数值（表现同使用道具的情况）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一种情况：成功完成一次摸摸操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -988,10 +954,6 @@
   </si>
   <si>
     <t>符咒的使用和施放动画需求可根据符咒种类配置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家投喂的食物在该怪物的喜好范围内，则怪物播放投喂正确的动作，同时播放好感度上升动画。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1252,10 +1214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    不同怪物的初始好感度都为0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1276,10 +1234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食物增加的好感度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食物ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1312,10 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加的好感度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1416,10 +1366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示：好感度达到30了哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以后基本也不用看了，直接投喂就行了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1445,14 +1391,6 @@
   </si>
   <si>
     <t>玩家手指离开屏幕后，回到屏幕，手状图标移动到玩家手指落点处（图标中心与落点重合），若点击到可摸摸的怪物，算作点击了怪物。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以“怪物提升好感度的摸摸位置"配置的怪物摸摸位置的dummy点为中心，以50cm（暂定）为半径区域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若怪物有多个好感度感应点，则会有多个“以dummy点为中心，以50cm（暂定）为半径区域”的感应区域，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1622,10 +1560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应世界观中的内容：借助仙狐妲己天赋魅惑之术，在战斗中增加妖怪的好感度，战斗后增加妖怪追随的几率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食物类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1634,10 +1568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多个感应区域重合不影响玩家操作，只要点击到好感度感应区域内（无论是哪个dummy点形成的），都算作成功点了一次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不难啊-，-真正点的时候怪物都被拉近了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1666,10 +1596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利用照妖镜照怪物时，提示怪物喜好的食物范围以及当前怪物对玩家的好感度数值、捕获成功率数值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注：若次数多于1次，限制每只怪物使用次数，每只没对局只能使用1次。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1686,10 +1612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物喜好食物、好感度、捕获成功率的提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已补充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1710,18 +1632,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主要应用在对局战斗中，依靠不同方式提高怪物对玩家的好感度，进而提升战斗结束后怪物跟随玩家的概率（捕获成功率）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>友好度是直接影响怪物跟随玩家概率的数值，根据友好度的不同，提升不同数值的怪物跟随玩家概率（捕获成功率）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>友好度与怪物捕获成功率对应关系表：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提升捕获成功率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1762,10 +1676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食物类型、食物ID、食物增加的友好度在道具中配置，配置结构如下：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食物增加的友好度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1811,10 +1721,6 @@
   </si>
   <si>
     <t>进入道具模式，相当于打开背包。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——》根据投喂结果播放怪物反应动作、好感度上升动画、捕获成功率增长动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1947,10 +1853,6 @@
   </si>
   <si>
     <t>但友好度/捕获成功率上升动画每使用一次道具就播放一次，连续使用时，前一个持续0.2秒后，后出现的内容将前一个内容挤至上方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在怪物头左上方弹出“友好度达到【好感度增加到的数字】了哦”，数字从怪物头右上方冒出后上升1s变淡消失。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2446,12 +2348,355 @@
     <t>IM相关逻辑说明</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试反馈回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对不能捕获的怪物使用道具的情况提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 友好度按照怪物个体计算，不按照怪物种类计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     举例：对局1有个怪物A，对局2也有个怪物A，对局1我把怪物A的友好度搞满，对局2的时候怪物A的友好度是重置的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友好度个体计算说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要应用在对局战斗中，依靠不同方式提高怪物对玩家的友好度，进而提升战斗结束后怪物跟随玩家的概率（捕获成功率）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    不同怪物的初始友好度都为0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应世界观中的内容：借助仙狐妲己天赋魅惑之术，在战斗中增加妖怪的友好度，战斗后增加妖怪追随的几率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物增加的友好度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物喜好食物、友好度、捕获成功率的提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用照妖镜照怪物时，提示怪物喜好的食物范围以及当前怪物对玩家的友好度数值、捕获成功率数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加的友好度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——》根据投喂结果播放怪物反应动作、友好度上升动画、捕获成功率增长动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家投喂的食物在该怪物的喜好范围内，则怪物播放投喂正确的动作，同时播放友好度上升动画。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家投喂的食物不在该怪物的喜好范围内，则怪物播放投喂错误的动作，此时友好度不上升，无友好度数值变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在怪物头左上方弹出“友好度达到【友好度增加到的数字】了哦”，数字从怪物头右上方冒出后上升1s变淡消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示：友好度达到30了哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家手指点击到怪物友好度部位感应区域，算做完成一次摸摸点击操作，完成规定数量的次数，才算成功完成一次摸摸操作，增长对应友好度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物友好度部位感应区域：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以“怪物提升友好度的摸摸位置"配置的怪物摸摸位置的dummy点为中心，以50cm（暂定）为半径区域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若怪物有多个友好度感应点，则会有多个“以dummy点为中心，以50cm（暂定）为半径区域”的感应区域，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个感应区域重合不影响玩家操作，只要点击到友好度感应区域内（无论是哪个dummy点形成的），都算作成功点了一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测玩家手指点击点落在怪物友好度部位感应区域内，则判定为点击到，否则不算做点击到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当左上角桃心填充满时，即完成摸摸操作，增加摸摸操作提升的怪物友好度数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI表现：从怪物胸部向外冒出一个大的桃心，由小变大，最后爆掉，然后怪物头左上方冒出友好度增长到的数值（表现同使用道具的情况）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成摸摸后，再次摸到正确位置，则显示已满状态的桃心，继续摸摸无效果，即每个怪物每次对局只能通过摸摸操作增长一次友好度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI表现：从怪物胸部向外冒出一个大的桃心，由小变大，最后爆掉，然后怪物头右上方冒出友好度增长数值（表现同使用道具的情况）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家点击的是不可抓取的怪物，则屏幕弹出IM提示：该怪物无法抓取，不能使用道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于摸摸模式中时，屏蔽换怪操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸过程中屏蔽换怪操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物id/怪物类型</t>
+  </si>
+  <si>
+    <t>monster id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友好度与怪物捕获成功率对应关系表：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友好度与怪物捕获成功率对应关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写怪物的id或者一种类型的怪物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升捕获成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始捕获成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始捕获成功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateCatchStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写数值
+填写5，代表初始成功率为5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写副本id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写数值段
+[x,y]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写数值，标示对应好友度段内的提升率
+填写5，代表成功率提升5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写怪物的id或者一种类型的怪物id
+多个时用,隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写怪物的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物、降妖符咒调用道具通用配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物C的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食物类型、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食物ID、食物增加的友好度在道具中配置，配置结构如下：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜好食物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜好食物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉食物类型属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加友好度
+填写friendly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品处填写规范如下，其余同道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本层怪物初始捕获率配置表（在副本配置表中增加对应缺少的字段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateCatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendly与rateCatch一一对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeTouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写dummy点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升友好度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendlyRaise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTouch与friendlyRaise一对一，timeTouch与placeTouch之间一对多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加配置结构切页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2603,8 +2848,61 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2632,6 +2930,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2936,7 +3240,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3066,32 +3370,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3134,6 +3412,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3164,6 +3491,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF66FF99"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
@@ -4511,13 +4842,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>231389</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4558,13 +4889,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4605,13 +4936,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4621,7 +4952,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6019801" y="68960999"/>
+          <a:off x="6019801" y="69380099"/>
           <a:ext cx="4400550" cy="2095501"/>
           <a:chOff x="723900" y="21202649"/>
           <a:chExt cx="5130559" cy="2562225"/>
@@ -4702,13 +5033,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4755,13 +5086,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>331</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4771,7 +5102,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8286749" y="71875650"/>
+          <a:off x="8286749" y="72294750"/>
           <a:ext cx="571500" cy="542925"/>
           <a:chOff x="3762375" y="2952750"/>
           <a:chExt cx="666750" cy="638175"/>
@@ -4878,13 +5209,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4938,13 +5269,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4997,13 +5328,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>189798</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>66332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5035,13 +5366,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533333</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>47566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5073,13 +5404,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>656756</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>7239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5120,13 +5451,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5158,13 +5489,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5205,13 +5536,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5252,13 +5583,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>388844</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>175747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>493837</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>4297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5336,13 +5667,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504758</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>57092</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5374,13 +5705,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5421,13 +5752,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>53157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5468,13 +5799,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5515,13 +5846,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>98382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5562,13 +5893,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5578,7 +5909,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7410450" y="58731151"/>
+          <a:off x="7410450" y="58940701"/>
           <a:ext cx="2809875" cy="1104900"/>
           <a:chOff x="8020050" y="54816375"/>
           <a:chExt cx="2847975" cy="1057275"/>
@@ -5723,13 +6054,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5782,13 +6113,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5841,13 +6172,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5900,13 +6231,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5916,7 +6247,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8286749" y="37061775"/>
+          <a:off x="8286749" y="37271325"/>
           <a:ext cx="571500" cy="542925"/>
           <a:chOff x="3762375" y="2952750"/>
           <a:chExt cx="666750" cy="638175"/>
@@ -6171,13 +6502,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6218,13 +6549,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6262,13 +6593,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6450,13 +6781,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>7843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>671925</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>131668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6488,13 +6819,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>176625</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6526,13 +6857,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657125</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>133306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6564,13 +6895,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190400</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>152356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6602,13 +6933,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6618,7 +6949,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6677025" y="41395650"/>
+          <a:off x="6677025" y="41605200"/>
           <a:ext cx="5514975" cy="2781300"/>
           <a:chOff x="6696075" y="38042850"/>
           <a:chExt cx="5591175" cy="2781300"/>
@@ -6709,13 +7040,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6725,7 +7056,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6686550" y="52520850"/>
+          <a:off x="6686550" y="52730400"/>
           <a:ext cx="5572125" cy="2505075"/>
           <a:chOff x="6705600" y="48748950"/>
           <a:chExt cx="5648325" cy="2714625"/>
@@ -7125,10 +7456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7143,10 +7474,10 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7154,33 +7485,33 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -7188,11 +7519,11 @@
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B12" s="59" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="61" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="61"/>
@@ -7201,10 +7532,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -7214,7 +7545,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="63"/>
@@ -7225,7 +7556,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="66"/>
@@ -7236,7 +7567,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -7246,7 +7577,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="55"/>
@@ -7257,7 +7588,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="55"/>
@@ -7268,7 +7599,7 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="57"/>
@@ -7280,25 +7611,25 @@
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -7307,53 +7638,103 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C23" s="18">
         <v>42102</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B24" s="9"/>
+      <c r="C24" s="18">
+        <v>42116</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="G24" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B25" s="9"/>
+      <c r="C25" s="18">
+        <v>42137</v>
+      </c>
+      <c r="E25" s="99"/>
+      <c r="G25" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H25" s="98" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="9"/>
+      <c r="C26" s="18"/>
+      <c r="H26" s="97" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="9"/>
+      <c r="C27" s="18"/>
+      <c r="H27" s="97" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="9"/>
+      <c r="C28" s="18"/>
+      <c r="H28" s="97" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="9"/>
+      <c r="C29" s="18"/>
+      <c r="H29" s="111" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7368,16 +7749,22 @@
     <mergeCell ref="D16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H25" location="若玩家点击的是不可抓取的怪物_则屏幕弹出IM提示_你不能摸人家啦_人家不会跟你走的" display="对不能捕获的怪物使用道具的情况提示"/>
+    <hyperlink ref="H26" location="_3._友好度按照怪物个体计算_不按照怪物种类计算" display="友好度个体计算说明"/>
+    <hyperlink ref="H27" location="处于摸摸模式中时_屏蔽换怪操作。" display="摸摸过程中屏蔽换怪操作"/>
+    <hyperlink ref="H28" location="食物类型、食物ID、食物增加的友好度在道具中配置_配置结构如下" display="去掉食物类型属性"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7390,26 +7777,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
     </row>
     <row r="2" spans="2:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
@@ -7423,7 +7810,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
-        <v>414</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="18" x14ac:dyDescent="0.35">
@@ -7433,7 +7820,7 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -7448,19 +7835,19 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
-        <v>416</v>
+        <v>517</v>
       </c>
       <c r="E13" s="33"/>
       <c r="H13" s="3" t="s">
@@ -7468,27 +7855,27 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="48" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H15" s="6">
         <v>5</v>
@@ -7496,10 +7883,10 @@
     </row>
     <row r="16" spans="2:22" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
+        <v>284</v>
+      </c>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
       <c r="G16" s="6" t="s">
         <v>38</v>
       </c>
@@ -7508,8 +7895,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="6" t="s">
         <v>39</v>
       </c>
@@ -7518,20 +7905,20 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="6" t="s">
         <v>40</v>
       </c>
@@ -7546,7 +7933,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,11 +7945,11 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="B23" s="29"/>
       <c r="F23" s="33" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
@@ -7578,11 +7965,11 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="52" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B24" s="29"/>
       <c r="F24" s="33" t="s">
-        <v>305</v>
+        <v>489</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
@@ -7599,7 +7986,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="29"/>
       <c r="F25" s="33" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
@@ -7616,7 +8003,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" s="29"/>
       <c r="F26" s="33" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
@@ -7634,7 +8021,7 @@
       <c r="B27" s="29"/>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
@@ -7651,14 +8038,14 @@
       <c r="B28" s="29"/>
       <c r="F28" s="33"/>
       <c r="G28" s="34" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="34" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="K28" s="34"/>
       <c r="L28" s="33"/>
@@ -7672,11 +8059,11 @@
       <c r="B29" s="29"/>
       <c r="F29" s="33"/>
       <c r="G29" s="35" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="35" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="J29" s="69">
         <v>23</v>
@@ -7693,7 +8080,7 @@
       <c r="B30" s="29"/>
       <c r="F30" s="33"/>
       <c r="G30" s="37" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
@@ -7710,10 +8097,10 @@
       <c r="B31" s="29"/>
       <c r="F31" s="33"/>
       <c r="G31" s="34" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>421</v>
+        <v>521</v>
       </c>
       <c r="I31" s="34"/>
       <c r="J31" s="49"/>
@@ -7729,7 +8116,7 @@
       <c r="B32" s="29"/>
       <c r="F32" s="33"/>
       <c r="G32" s="35" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="H32" s="69">
         <v>56</v>
@@ -7759,305 +8146,302 @@
       <c r="P33" s="33"/>
       <c r="Q33" s="25"/>
     </row>
-    <row r="34" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="C34" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="F34" s="99" t="s">
+        <v>485</v>
+      </c>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
-      <c r="D35" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="F35" s="99" t="s">
+        <v>486</v>
+      </c>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
-      <c r="E36" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+    </row>
+    <row r="37" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B37" s="29"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3" t="s">
-        <v>425</v>
-      </c>
+      <c r="C37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" s="25"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
-      <c r="E38" s="4" t="s">
-        <v>27</v>
+      <c r="D38" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3" t="s">
-        <v>424</v>
+      <c r="E39" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
       <c r="E40" s="4"/>
       <c r="F40" s="3" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
-      <c r="E41" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
+      <c r="E41" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
-      <c r="D43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="19"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
-      <c r="E44" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="E44" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
-      <c r="F45" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
-      <c r="G46" s="3" t="s">
+      <c r="D46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B47" s="29"/>
+      <c r="E47" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B48" s="29"/>
+      <c r="F48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="29"/>
+      <c r="G49" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B48" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="29"/>
-      <c r="F49" s="3" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="29"/>
+      <c r="F52" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="G50" s="7" t="s">
+    <row r="53" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B53" s="29"/>
+      <c r="G53" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="F51" s="3" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="29"/>
+      <c r="F54" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="G52" s="3" t="s">
+    <row r="55" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="29"/>
+      <c r="G56" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="29"/>
+      <c r="G57" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B58" s="29"/>
+      <c r="G58" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="J58" s="89"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="29"/>
+      <c r="G59" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="91"/>
+      <c r="I59" s="86" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="G53" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="G54" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="29"/>
-      <c r="G55" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="J55" s="73"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="G56" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" s="75"/>
-      <c r="I56" s="72" t="s">
+      <c r="J59" s="86"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="29"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="J56" s="72"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="J57" s="72"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="G58" s="78"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="J58" s="72"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="G59" s="72" t="s">
+      <c r="J60" s="86"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="G61" s="94"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="86" t="s">
+        <v>535</v>
+      </c>
+      <c r="J61" s="86"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B62" s="29"/>
+      <c r="G62" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72" t="s">
+      <c r="H62" s="86"/>
+      <c r="I62" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="72"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="G60" s="72" t="s">
+      <c r="J62" s="86"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="G63" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72" t="s">
+      <c r="H63" s="86"/>
+      <c r="I63" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="J60" s="72"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="29"/>
-      <c r="G61" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="29"/>
-      <c r="G62" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="F63" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J63" s="86"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
       <c r="B64" s="29"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
+      <c r="G64" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
       <c r="B65" s="29"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="I65" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="J65" s="34"/>
+      <c r="G65" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
       <c r="M65" s="33"/>
@@ -8065,19 +8449,15 @@
       <c r="O65" s="33"/>
       <c r="P65" s="33"/>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B66" s="29"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="35">
-        <v>111</v>
-      </c>
-      <c r="H66" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="I66" s="69">
-        <v>20</v>
-      </c>
-      <c r="J66" s="70"/>
+      <c r="F66" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
       <c r="K66" s="33"/>
       <c r="L66" s="33"/>
       <c r="M66" s="33"/>
@@ -8085,19 +8465,15 @@
       <c r="O66" s="33"/>
       <c r="P66" s="33"/>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B67" s="29"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="35">
-        <v>222</v>
-      </c>
-      <c r="H67" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="I67" s="69">
-        <v>90</v>
-      </c>
-      <c r="J67" s="70"/>
+      <c r="G67" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
       <c r="K67" s="33"/>
       <c r="L67" s="33"/>
       <c r="M67" s="33"/>
@@ -8105,15 +8481,19 @@
       <c r="O67" s="33"/>
       <c r="P67" s="33"/>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B68" s="29"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
+      <c r="G68" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="H68" s="104" t="s">
+        <v>375</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="J68" s="34"/>
       <c r="K68" s="33"/>
       <c r="L68" s="33"/>
       <c r="M68" s="33"/>
@@ -8121,15 +8501,19 @@
       <c r="O68" s="33"/>
       <c r="P68" s="33"/>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B69" s="29"/>
-      <c r="F69" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="35">
+        <v>111</v>
+      </c>
+      <c r="H69" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="I69" s="69">
+        <v>20</v>
+      </c>
+      <c r="J69" s="70"/>
       <c r="K69" s="33"/>
       <c r="L69" s="33"/>
       <c r="M69" s="33"/>
@@ -8137,15 +8521,19 @@
       <c r="O69" s="33"/>
       <c r="P69" s="33"/>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B70" s="29"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
+      <c r="G70" s="35">
+        <v>222</v>
+      </c>
+      <c r="H70" s="105" t="s">
+        <v>301</v>
+      </c>
+      <c r="I70" s="69">
+        <v>90</v>
+      </c>
+      <c r="J70" s="70"/>
       <c r="K70" s="33"/>
       <c r="L70" s="33"/>
       <c r="M70" s="33"/>
@@ -8153,11 +8541,11 @@
       <c r="O70" s="33"/>
       <c r="P70" s="33"/>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B71" s="29"/>
       <c r="F71" s="33"/>
       <c r="G71" s="33" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="33"/>
@@ -8169,15 +8557,13 @@
       <c r="O71" s="33"/>
       <c r="P71" s="33"/>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B72" s="29"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="34" t="s">
+      <c r="F72" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="H72" s="34" t="s">
-        <v>407</v>
-      </c>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
       <c r="I72" s="33"/>
       <c r="J72" s="33"/>
       <c r="K72" s="33"/>
@@ -8187,15 +8573,13 @@
       <c r="O72" s="33"/>
       <c r="P72" s="33"/>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="35">
-        <v>111</v>
-      </c>
-      <c r="H73" s="35">
-        <v>20</v>
-      </c>
+      <c r="G73" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="H73" s="33"/>
       <c r="I73" s="33"/>
       <c r="J73" s="33"/>
       <c r="K73" s="33"/>
@@ -8205,15 +8589,13 @@
       <c r="O73" s="33"/>
       <c r="P73" s="33"/>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B74" s="29"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="35">
-        <v>222</v>
-      </c>
-      <c r="H74" s="35">
-        <v>30</v>
-      </c>
+      <c r="G74" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="H74" s="33"/>
       <c r="I74" s="33"/>
       <c r="J74" s="33"/>
       <c r="K74" s="33"/>
@@ -8223,13 +8605,15 @@
       <c r="O74" s="33"/>
       <c r="P74" s="33"/>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B75" s="29"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="H75" s="33"/>
+      <c r="G75" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>387</v>
+      </c>
       <c r="I75" s="33"/>
       <c r="J75" s="33"/>
       <c r="K75" s="33"/>
@@ -8239,317 +8623,328 @@
       <c r="O75" s="33"/>
       <c r="P75" s="33"/>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B76" s="29"/>
-      <c r="F76" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="H76" s="33"/>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B77" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>403</v>
-      </c>
+      <c r="F76" s="33"/>
+      <c r="G76" s="35">
+        <v>111</v>
+      </c>
+      <c r="H76" s="35">
+        <v>20</v>
+      </c>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B77" s="29"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="35">
+        <v>222</v>
+      </c>
+      <c r="H77" s="35">
+        <v>30</v>
+      </c>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
       <c r="N77" s="33"/>
       <c r="O77" s="33"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="25"/>
-      <c r="S77" s="25"/>
-      <c r="T77" s="25"/>
-      <c r="U77" s="25"/>
-      <c r="V77" s="25"/>
-      <c r="W77" s="25"/>
-      <c r="X77" s="25"/>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B78" s="33" t="s">
-        <v>315</v>
-      </c>
+      <c r="P77" s="33"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B78" s="29"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="33" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E80" s="4" t="s">
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B79" s="29"/>
+      <c r="F79" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H79" s="33"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B80" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
+      <c r="V80" s="25"/>
+      <c r="W80" s="25"/>
+      <c r="X80" s="25"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B81" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E83" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F81" s="3" t="s">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F84" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G85" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G89" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G90" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G91" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="89"/>
+      <c r="I91" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="J91" s="80" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G82" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G86" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G87" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G88" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="73"/>
-      <c r="I88" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="J88" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="K88" s="92"/>
-      <c r="L88" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="M88" s="84"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F89" s="25"/>
-      <c r="G89" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" s="94"/>
-      <c r="I89" s="90">
-        <v>5</v>
-      </c>
-      <c r="J89" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="K89" s="83"/>
-      <c r="L89" s="86">
-        <v>50</v>
-      </c>
-      <c r="M89" s="87"/>
-      <c r="N89" s="25"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F90" s="25"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="96"/>
-      <c r="I90" s="91"/>
-      <c r="J90" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="K90" s="83"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="89"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F91" s="25"/>
-      <c r="G91" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H91" s="81"/>
-      <c r="I91" s="44">
-        <v>6</v>
-      </c>
-      <c r="J91" s="83" t="s">
-        <v>181</v>
-      </c>
-      <c r="K91" s="83"/>
-      <c r="L91" s="85">
-        <v>10</v>
-      </c>
-      <c r="M91" s="85"/>
-      <c r="N91" s="25"/>
+      <c r="K91" s="80"/>
+      <c r="L91" s="72" t="s">
+        <v>494</v>
+      </c>
+      <c r="M91" s="72"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F92" s="25"/>
       <c r="G92" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="H92" s="81"/>
-      <c r="I92" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="J92" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="K92" s="83"/>
-      <c r="L92" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="M92" s="85"/>
+        <v>36</v>
+      </c>
+      <c r="H92" s="82"/>
+      <c r="I92" s="78">
+        <v>5</v>
+      </c>
+      <c r="J92" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="K92" s="71"/>
+      <c r="L92" s="74">
+        <v>50</v>
+      </c>
+      <c r="M92" s="75"/>
       <c r="N92" s="25"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F93" s="25"/>
-      <c r="G93" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="H93" s="42"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="K93" s="71"/>
+      <c r="L93" s="76"/>
+      <c r="M93" s="77"/>
       <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F94" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="85"/>
+      <c r="I94" s="44">
+        <v>6</v>
+      </c>
+      <c r="J94" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="K94" s="71"/>
+      <c r="L94" s="73">
+        <v>10</v>
+      </c>
+      <c r="M94" s="73"/>
       <c r="N94" s="25"/>
     </row>
-    <row r="95" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="B95" s="28" t="s">
-        <v>299</v>
-      </c>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F95" s="25"/>
-      <c r="G95" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="25"/>
-      <c r="L95" s="25"/>
-      <c r="M95" s="25"/>
+      <c r="G95" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="85"/>
+      <c r="I95" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J95" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="K95" s="71"/>
+      <c r="L95" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="M95" s="73"/>
       <c r="N95" s="25"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="33" t="s">
-        <v>316</v>
-      </c>
       <c r="F96" s="25"/>
-      <c r="G96" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25"/>
-      <c r="K96" s="25"/>
+      <c r="G96" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="H96" s="42"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
       <c r="N96" s="25"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="F97" s="25"/>
-      <c r="G97" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="82"/>
-      <c r="I97" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="J97" s="82"/>
+      <c r="F97" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
       <c r="K97" s="25"/>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
       <c r="N97" s="25"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
-        <v>397</v>
+    <row r="98" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B98" s="28" t="s">
+        <v>288</v>
       </c>
       <c r="F98" s="25"/>
-      <c r="G98" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H98" s="80"/>
-      <c r="I98" s="80">
-        <v>10</v>
-      </c>
-      <c r="J98" s="80"/>
+      <c r="G98" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
       <c r="K98" s="25"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
       <c r="N98" s="25"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B99" s="33" t="s">
+        <v>303</v>
+      </c>
       <c r="F99" s="25"/>
-      <c r="G99" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="H99" s="80"/>
-      <c r="I99" s="80">
-        <v>20</v>
-      </c>
-      <c r="J99" s="80"/>
+      <c r="G99" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
       <c r="K99" s="25"/>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
       <c r="N99" s="25"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="26" t="s">
+        <v>239</v>
+      </c>
       <c r="F100" s="25"/>
-      <c r="G100" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
+      <c r="G100" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="88"/>
+      <c r="I100" s="88" t="s">
+        <v>304</v>
+      </c>
+      <c r="J100" s="88"/>
       <c r="K100" s="25"/>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
       <c r="N100" s="25"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="33" t="s">
+        <v>378</v>
+      </c>
       <c r="F101" s="25"/>
-      <c r="G101" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
+      <c r="G101" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" s="87"/>
+      <c r="I101" s="87">
+        <v>10</v>
+      </c>
+      <c r="J101" s="87"/>
       <c r="K101" s="25"/>
       <c r="L101" s="25"/>
       <c r="M101" s="25"/>
@@ -8557,25 +8952,27 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F102" s="25"/>
-      <c r="G102" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
+      <c r="G102" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" s="87"/>
+      <c r="I102" s="87">
+        <v>20</v>
+      </c>
+      <c r="J102" s="87"/>
       <c r="K102" s="25"/>
       <c r="L102" s="25"/>
       <c r="M102" s="25"/>
       <c r="N102" s="25"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F103" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="H103" s="41"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
       <c r="K103" s="25"/>
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
@@ -8584,7 +8981,7 @@
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F104" s="25"/>
       <c r="G104" s="25" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
@@ -8595,12 +8992,9 @@
       <c r="N104" s="25"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B105" s="28" t="s">
-        <v>300</v>
-      </c>
       <c r="F105" s="25"/>
       <c r="G105" s="25" t="s">
-        <v>438</v>
+        <v>182</v>
       </c>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
@@ -8611,12 +9005,8 @@
       <c r="N105" s="25"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="25"/>
-      <c r="B106" s="33" t="s">
-        <v>323</v>
-      </c>
       <c r="F106" s="25" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
@@ -8628,14 +9018,11 @@
       <c r="N106" s="25"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="26" t="s">
-        <v>251</v>
-      </c>
       <c r="F107" s="25"/>
       <c r="G107" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="H107" s="33"/>
+        <v>184</v>
+      </c>
+      <c r="H107" s="25"/>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
@@ -8644,84 +9031,94 @@
       <c r="N107" s="25"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="26" t="s">
-        <v>269</v>
+      <c r="B108" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="F108" s="25"/>
-      <c r="G108" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="33"/>
+      <c r="G108" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
       <c r="N108" s="25"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="F109" s="25"/>
-      <c r="G109" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
-      <c r="M109" s="33"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
       <c r="N109" s="25"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="51" t="s">
-        <v>477</v>
-      </c>
-      <c r="E110" s="20" t="s">
+      <c r="A110" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="H110" s="33"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F111" s="25"/>
+      <c r="G111" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="H111" s="33"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="33"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="25"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="F112" s="25"/>
+      <c r="G112" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="33"/>
+      <c r="L112" s="33"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="25"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="E113" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
-      <c r="J111" s="21"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="21"/>
-    </row>
-    <row r="112" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H112" s="21"/>
-      <c r="I112" s="21"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="21"/>
-      <c r="L112" s="21"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E113" s="21"/>
-      <c r="F113" s="21" t="s">
-        <v>115</v>
-      </c>
+      <c r="F113" s="21"/>
       <c r="G113" s="21"/>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
@@ -8730,22 +9127,25 @@
       <c r="L113" s="21"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="33" t="s">
+        <v>458</v>
+      </c>
       <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21" t="s">
-        <v>116</v>
-      </c>
+      <c r="F114" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G114" s="21"/>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="21"/>
       <c r="K114" s="21"/>
       <c r="L114" s="21"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E115" s="21"/>
       <c r="F115" s="21"/>
-      <c r="G115" s="21" t="s">
-        <v>117</v>
+      <c r="G115" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
@@ -8753,75 +9153,111 @@
       <c r="K115" s="21"/>
       <c r="L115" s="21"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
-      <c r="M121" s="27"/>
-      <c r="N121" s="27"/>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E116" s="21"/>
+      <c r="F116" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="27"/>
+      <c r="N124" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="L89:M90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="G89:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H58"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="E1:V1"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E15:F17"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="G59:H61"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="L92:M93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="G92:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I62:J62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B47 B80:B95 B97:B105 B107:B1048576 B49:B77">
+  <conditionalFormatting sqref="B83:B98 B100:B108 B110:B1048576 B52:B80 B1:B50">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>B1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G50" location="道具方式" display="见UI逻辑，快速通道。"/>
-    <hyperlink ref="G82" location="摸摸方式" display="见UI逻辑，快速通道。"/>
-    <hyperlink ref="G112" location="妲己魅惑" display="见UI逻辑，快速通道。"/>
+    <hyperlink ref="G53" location="道具方式" display="见UI逻辑，快速通道。"/>
+    <hyperlink ref="G85" location="摸摸方式" display="见UI逻辑，快速通道。"/>
+    <hyperlink ref="G115" location="妲己魅惑" display="见UI逻辑，快速通道。"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8830,10 +9266,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB354"/>
+  <dimension ref="A1:AB356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A252" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E286" sqref="E286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8844,26 +9280,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
     </row>
     <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
@@ -8878,15 +9314,15 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>51</v>
@@ -8894,10 +9330,10 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -8913,13 +9349,13 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -8934,13 +9370,13 @@
     </row>
     <row r="8" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -8955,10 +9391,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
@@ -8966,23 +9402,23 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="O12" s="25"/>
     </row>
@@ -8993,7 +9429,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D26" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
@@ -9003,36 +9439,36 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E28" s="3" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G29" s="33"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E30" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E32" s="33" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -9051,17 +9487,17 @@
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F47" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E49" s="3" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -9095,48 +9531,42 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E57" s="25"/>
-      <c r="F57" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
+      <c r="F57" s="99" t="s">
+        <v>511</v>
+      </c>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="F58" s="54"/>
-      <c r="G58" s="54" t="s">
-        <v>473</v>
-      </c>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F59" s="54"/>
       <c r="G59" s="54" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
@@ -9155,7 +9585,7 @@
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F60" s="54"/>
       <c r="G60" s="54" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="H60" s="54"/>
       <c r="I60" s="54"/>
@@ -9172,194 +9602,186 @@
       <c r="T60" s="54"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E61" s="53"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52" t="s">
-        <v>495</v>
-      </c>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54" t="s">
+        <v>467</v>
+      </c>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>278</v>
+      <c r="E62" s="53"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>320</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="64" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
-        <v>336</v>
+      <c r="A64" s="26" t="s">
+        <v>245</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="H65" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
+        <v>319</v>
+      </c>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+    </row>
+    <row r="65" spans="1:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="F66" s="3" t="s">
-        <v>230</v>
-      </c>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>74</v>
+        <v>249</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="F67" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="A68" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="G69" s="3" t="s">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="52" t="s">
-        <v>498</v>
-      </c>
-      <c r="G70" s="3" t="s">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="45" t="s">
-        <v>442</v>
-      </c>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="45"/>
-      <c r="P71" s="45"/>
-      <c r="Q71" s="45"/>
-      <c r="R71" s="45"/>
-      <c r="S71" s="45"/>
-      <c r="T71" s="25"/>
-      <c r="U71" s="25"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="25"/>
-      <c r="S72" s="25"/>
+      <c r="G72" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
       <c r="T72" s="25"/>
       <c r="U72" s="25"/>
     </row>
-    <row r="73" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="E73" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="45"/>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
       <c r="U73" s="25"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45" t="s">
-        <v>237</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="F74" s="45"/>
       <c r="G74" s="45"/>
       <c r="H74" s="45"/>
       <c r="I74" s="45"/>
@@ -9378,12 +9800,14 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B75" s="29"/>
+        <v>260</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>445</v>
+      </c>
       <c r="E75" s="45"/>
       <c r="F75" s="45" t="s">
-        <v>444</v>
+        <v>227</v>
       </c>
       <c r="G75" s="45"/>
       <c r="H75" s="45"/>
@@ -9402,15 +9826,13 @@
       <c r="U75" s="25"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>281</v>
-      </c>
+      <c r="A76" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B76" s="29"/>
       <c r="E76" s="45"/>
       <c r="F76" s="45" t="s">
-        <v>233</v>
+        <v>419</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="45"/>
@@ -9430,10 +9852,15 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>338</v>
+        <v>323</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
+      <c r="F77" s="45" t="s">
+        <v>223</v>
+      </c>
       <c r="G77" s="45"/>
       <c r="H77" s="45"/>
       <c r="I77" s="45"/>
@@ -9452,7 +9879,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E78" s="45"/>
       <c r="F78" s="45"/>
@@ -9474,15 +9901,10 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="E79" s="45"/>
-      <c r="F79" s="45" t="s">
-        <v>234</v>
-      </c>
+      <c r="F79" s="45"/>
       <c r="G79" s="45"/>
       <c r="H79" s="45"/>
       <c r="I79" s="45"/>
@@ -9501,10 +9923,15 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>341</v>
+        <v>326</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
+      <c r="F80" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
       <c r="I80" s="45"/>
@@ -9523,7 +9950,7 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E81" s="45"/>
       <c r="F81" s="45"/>
@@ -9545,7 +9972,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E82" s="45"/>
       <c r="F82" s="45"/>
@@ -9559,15 +9986,16 @@
       <c r="N82" s="45"/>
       <c r="O82" s="45"/>
       <c r="P82" s="45"/>
-      <c r="Q82" s="45" t="s">
-        <v>445</v>
-      </c>
+      <c r="Q82" s="45"/>
       <c r="R82" s="45"/>
       <c r="S82" s="25"/>
       <c r="T82" s="25"/>
       <c r="U82" s="25"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A83" s="33" t="s">
+        <v>330</v>
+      </c>
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
       <c r="G83" s="45"/>
@@ -9580,7 +10008,9 @@
       <c r="N83" s="45"/>
       <c r="O83" s="45"/>
       <c r="P83" s="45"/>
-      <c r="Q83" s="45"/>
+      <c r="Q83" s="45" t="s">
+        <v>420</v>
+      </c>
       <c r="R83" s="45"/>
       <c r="S83" s="25"/>
       <c r="T83" s="25"/>
@@ -9720,13 +10150,8 @@
       <c r="U90" s="25"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="26" t="s">
-        <v>258</v>
-      </c>
       <c r="E91" s="45"/>
-      <c r="F91" s="45" t="s">
-        <v>235</v>
-      </c>
+      <c r="F91" s="45"/>
       <c r="G91" s="45"/>
       <c r="H91" s="45"/>
       <c r="I91" s="45"/>
@@ -9744,9 +10169,12 @@
       <c r="U91" s="25"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
+        <v>247</v>
+      </c>
       <c r="E92" s="45"/>
       <c r="F92" s="45" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G92" s="45"/>
       <c r="H92" s="45"/>
@@ -9767,7 +10195,7 @@
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E93" s="45"/>
       <c r="F93" s="45" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G93" s="45"/>
       <c r="H93" s="45"/>
@@ -9788,7 +10216,7 @@
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E94" s="45"/>
       <c r="F94" s="45" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G94" s="45"/>
       <c r="H94" s="45"/>
@@ -9807,122 +10235,130 @@
       <c r="U94" s="25"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>410</v>
-      </c>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="45"/>
+      <c r="N95" s="45"/>
+      <c r="O95" s="45"/>
+      <c r="P95" s="45"/>
+      <c r="Q95" s="45"/>
+      <c r="R95" s="45"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="A96" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B97" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="G97" s="3" t="s">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B98" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B98" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B99" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B99" s="29"/>
-      <c r="H99" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
+      <c r="H99" s="3" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B100" s="29"/>
-      <c r="G100" s="33" t="s">
-        <v>447</v>
-      </c>
       <c r="H100" s="33" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="I100" s="33"/>
       <c r="J100" s="33"/>
       <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G101" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="B101" s="29"/>
+      <c r="G101" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="H101" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F102" s="3" t="s">
-        <v>411</v>
+      <c r="G102" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A103" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
+      <c r="F103" s="3" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A104" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>346</v>
+      <c r="A104" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>273</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="33"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="F105" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33" t="s">
-        <v>412</v>
-      </c>
+      <c r="F106" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
       <c r="J106" s="33"/>
@@ -9934,7 +10370,7 @@
       <c r="B107" s="25"/>
       <c r="F107" s="33"/>
       <c r="G107" s="33" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H107" s="33"/>
       <c r="I107" s="33"/>
@@ -9943,24 +10379,21 @@
       <c r="L107" s="33"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E108" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="52"/>
-      <c r="K108" s="52"/>
-      <c r="L108" s="52"/>
-      <c r="M108" s="52"/>
-      <c r="N108" s="52"/>
-      <c r="O108" s="52"/>
-      <c r="P108" s="52"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E109" s="52" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="F109" s="52"/>
       <c r="G109" s="52"/>
@@ -9975,24 +10408,27 @@
       <c r="P109" s="52"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D110" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="33"/>
+      <c r="E110" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="52"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="52"/>
+      <c r="N110" s="52"/>
+      <c r="O110" s="52"/>
+      <c r="P110" s="52"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D111" s="33"/>
-      <c r="E111" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="F111" s="33" t="s">
-        <v>464</v>
-      </c>
+      <c r="D111" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
       <c r="G111" s="33"/>
       <c r="H111" s="33"/>
       <c r="I111" s="33"/>
@@ -10001,9 +10437,11 @@
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D112" s="33"/>
       <c r="E112" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="F112" s="33"/>
+        <v>438</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>439</v>
+      </c>
       <c r="G112" s="33"/>
       <c r="H112" s="33"/>
       <c r="I112" s="33"/>
@@ -10011,72 +10449,72 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33" t="s">
-        <v>469</v>
-      </c>
+      <c r="E113" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F113" s="33"/>
       <c r="G113" s="33"/>
       <c r="H113" s="33"/>
       <c r="I113" s="33"/>
       <c r="J113" s="33"/>
     </row>
-    <row r="114" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B114" s="28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="B115" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+    </row>
+    <row r="115" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B115" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="B116" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>112</v>
+        <v>333</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B117" s="33" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="I117" s="25"/>
-      <c r="J117" s="25"/>
-      <c r="O117" s="25"/>
-      <c r="P117" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B118" s="25"/>
+      <c r="B118" s="33" t="s">
+        <v>332</v>
+      </c>
       <c r="D118" s="3" t="s">
-        <v>166</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B119" s="25"/>
-      <c r="D119" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
+      <c r="D119" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B120" s="25"/>
       <c r="D120" s="33" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="E120" s="33"/>
       <c r="F120" s="33"/>
@@ -10086,37 +10524,28 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B121" s="25"/>
-      <c r="D121" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="D121" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D122" s="4"/>
-      <c r="E122" s="50" t="s">
-        <v>453</v>
-      </c>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="25"/>
-      <c r="O122" s="25"/>
-      <c r="P122" s="25"/>
-      <c r="Q122" s="25"/>
-      <c r="R122" s="25"/>
-      <c r="S122" s="25"/>
-      <c r="T122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="D122" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E123" s="25"/>
-      <c r="F123" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G123" s="25"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
@@ -10132,12 +10561,9 @@
       <c r="T123" s="25"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
-        <v>262</v>
-      </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
@@ -10146,53 +10572,56 @@
       <c r="K124" s="25"/>
       <c r="L124" s="25"/>
       <c r="M124" s="25"/>
-      <c r="N124" s="33"/>
-      <c r="O124" s="33"/>
-      <c r="P124" s="33"/>
-      <c r="Q124" s="33"/>
+      <c r="N124" s="25"/>
+      <c r="O124" s="25"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="25"/>
       <c r="R124" s="25"/>
       <c r="S124" s="25"/>
       <c r="T124" s="25"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E125" s="25"/>
-      <c r="F125" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="24"/>
-      <c r="K125" s="24"/>
-      <c r="L125" s="24"/>
-      <c r="M125" s="24"/>
-      <c r="N125" s="46"/>
-      <c r="O125" s="45"/>
-      <c r="P125" s="45"/>
+      <c r="F125" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="33"/>
+      <c r="O125" s="33"/>
+      <c r="P125" s="33"/>
       <c r="Q125" s="33"/>
       <c r="R125" s="25"/>
       <c r="S125" s="25"/>
       <c r="T125" s="25"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A126" s="26" t="s">
+        <v>251</v>
+      </c>
       <c r="E126" s="25"/>
-      <c r="F126" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="33"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="25"/>
-      <c r="N126" s="25"/>
-      <c r="O126" s="25"/>
-      <c r="P126" s="25"/>
-      <c r="Q126" s="25"/>
+      <c r="F126" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="46"/>
+      <c r="O126" s="45"/>
+      <c r="P126" s="45"/>
+      <c r="Q126" s="33"/>
       <c r="R126" s="25"/>
       <c r="S126" s="25"/>
       <c r="T126" s="25"/>
@@ -10200,13 +10629,13 @@
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E127" s="25"/>
       <c r="F127" s="25" t="s">
-        <v>223</v>
+        <v>427</v>
       </c>
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
+      <c r="K127" s="33"/>
       <c r="L127" s="25"/>
       <c r="M127" s="25"/>
       <c r="N127" s="25"/>
@@ -10219,7 +10648,9 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
+      <c r="F128" s="25" t="s">
+        <v>213</v>
+      </c>
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
@@ -10235,7 +10666,7 @@
       <c r="S128" s="25"/>
       <c r="T128" s="25"/>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E129" s="25"/>
       <c r="F129" s="25"/>
       <c r="G129" s="25"/>
@@ -10253,7 +10684,7 @@
       <c r="S129" s="25"/>
       <c r="T129" s="25"/>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E130" s="25"/>
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
@@ -10271,7 +10702,7 @@
       <c r="S130" s="25"/>
       <c r="T130" s="25"/>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
       <c r="G131" s="25"/>
@@ -10289,7 +10720,7 @@
       <c r="S131" s="25"/>
       <c r="T131" s="25"/>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E132" s="25"/>
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
@@ -10307,7 +10738,7 @@
       <c r="S132" s="25"/>
       <c r="T132" s="25"/>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E133" s="25"/>
       <c r="F133" s="25"/>
       <c r="G133" s="25"/>
@@ -10325,7 +10756,7 @@
       <c r="S133" s="25"/>
       <c r="T133" s="25"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
@@ -10343,7 +10774,7 @@
       <c r="S134" s="25"/>
       <c r="T134" s="25"/>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E135" s="25"/>
       <c r="F135" s="25"/>
       <c r="G135" s="25"/>
@@ -10361,7 +10792,7 @@
       <c r="S135" s="25"/>
       <c r="T135" s="25"/>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E136" s="25"/>
       <c r="F136" s="25"/>
       <c r="G136" s="25"/>
@@ -10379,7 +10810,7 @@
       <c r="S136" s="25"/>
       <c r="T136" s="25"/>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E137" s="25"/>
       <c r="F137" s="25"/>
       <c r="G137" s="25"/>
@@ -10397,7 +10828,7 @@
       <c r="S137" s="25"/>
       <c r="T137" s="25"/>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
       <c r="G138" s="25"/>
@@ -10415,7 +10846,7 @@
       <c r="S138" s="25"/>
       <c r="T138" s="25"/>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E139" s="25"/>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -10433,7 +10864,7 @@
       <c r="S139" s="25"/>
       <c r="T139" s="25"/>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E140" s="25"/>
       <c r="F140" s="25"/>
       <c r="G140" s="25"/>
@@ -10451,7 +10882,7 @@
       <c r="S140" s="25"/>
       <c r="T140" s="25"/>
     </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E141" s="25"/>
       <c r="F141" s="25"/>
       <c r="G141" s="25"/>
@@ -10469,7 +10900,7 @@
       <c r="S141" s="25"/>
       <c r="T141" s="25"/>
     </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E142" s="25"/>
       <c r="F142" s="25"/>
       <c r="G142" s="25"/>
@@ -10487,10 +10918,8 @@
       <c r="S142" s="25"/>
       <c r="T142" s="25"/>
     </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E143" s="30" t="s">
-        <v>241</v>
-      </c>
+    <row r="143" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E143" s="25"/>
       <c r="F143" s="25"/>
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
@@ -10507,14 +10936,11 @@
       <c r="S143" s="25"/>
       <c r="T143" s="25"/>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B144" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25" t="s">
-        <v>190</v>
-      </c>
+    <row r="144" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E144" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F144" s="25"/>
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
@@ -10531,12 +10957,12 @@
       <c r="T144" s="25"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B145" s="33" t="s">
-        <v>352</v>
+      <c r="B145" s="28" t="s">
+        <v>275</v>
       </c>
       <c r="E145" s="25"/>
       <c r="F145" s="25" t="s">
-        <v>184</v>
+        <v>500</v>
       </c>
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
@@ -10554,21 +10980,24 @@
       <c r="T145" s="25"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B146" s="33" t="s">
+        <v>337</v>
+      </c>
       <c r="E146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="H146" s="31"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
-      <c r="K146" s="31"/>
-      <c r="L146" s="31"/>
-      <c r="M146" s="31"/>
-      <c r="N146" s="31"/>
-      <c r="O146" s="31"/>
-      <c r="P146" s="31"/>
-      <c r="Q146" s="31"/>
+      <c r="F146" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="25"/>
+      <c r="L146" s="25"/>
+      <c r="M146" s="25"/>
+      <c r="N146" s="25"/>
+      <c r="O146" s="25"/>
+      <c r="P146" s="25"/>
+      <c r="Q146" s="25"/>
       <c r="R146" s="25"/>
       <c r="S146" s="25"/>
       <c r="T146" s="25"/>
@@ -10576,10 +11005,10 @@
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E147" s="25"/>
       <c r="F147" s="25"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31" t="s">
+      <c r="G147" s="31" t="s">
         <v>185</v>
       </c>
+      <c r="H147" s="31"/>
       <c r="I147" s="31"/>
       <c r="J147" s="31"/>
       <c r="K147" s="31"/>
@@ -10598,7 +11027,7 @@
       <c r="F148" s="25"/>
       <c r="G148" s="31"/>
       <c r="H148" s="31" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I148" s="31"/>
       <c r="J148" s="31"/>
@@ -10616,33 +11045,30 @@
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
-      <c r="G149" s="52" t="s">
-        <v>490</v>
-      </c>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="25"/>
-      <c r="K149" s="25"/>
-      <c r="L149" s="25"/>
-      <c r="M149" s="25"/>
-      <c r="N149" s="25"/>
-      <c r="O149" s="25"/>
-      <c r="P149" s="25"/>
-      <c r="Q149" s="25"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="I149" s="31"/>
+      <c r="J149" s="31"/>
+      <c r="K149" s="31"/>
+      <c r="L149" s="31"/>
+      <c r="M149" s="31"/>
+      <c r="N149" s="31"/>
+      <c r="O149" s="31"/>
+      <c r="P149" s="31"/>
+      <c r="Q149" s="31"/>
       <c r="R149" s="25"/>
       <c r="S149" s="25"/>
       <c r="T149" s="25"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="26" t="s">
-        <v>302</v>
-      </c>
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25" t="s">
-        <v>354</v>
-      </c>
+      <c r="G150" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="H150" s="25"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
       <c r="K150" s="25"/>
@@ -10658,13 +11084,13 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="26" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
       <c r="G151" s="25"/>
       <c r="H151" s="25" t="s">
-        <v>191</v>
+        <v>502</v>
       </c>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
@@ -10680,35 +11106,37 @@
       <c r="T151" s="25"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="51" t="s">
-        <v>479</v>
+      <c r="A152" s="26" t="s">
+        <v>257</v>
       </c>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
       <c r="G152" s="25"/>
-      <c r="H152" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="I152" s="33"/>
-      <c r="J152" s="33"/>
-      <c r="K152" s="33"/>
-      <c r="L152" s="33"/>
-      <c r="M152" s="33"/>
-      <c r="N152" s="33"/>
-      <c r="O152" s="33"/>
-      <c r="P152" s="33"/>
-      <c r="Q152" s="33"/>
-      <c r="R152" s="33"/>
-      <c r="S152" s="33"/>
+      <c r="H152" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I152" s="25"/>
+      <c r="J152" s="25"/>
+      <c r="K152" s="25"/>
+      <c r="L152" s="25"/>
+      <c r="M152" s="25"/>
+      <c r="N152" s="25"/>
+      <c r="O152" s="25"/>
+      <c r="P152" s="25"/>
+      <c r="Q152" s="25"/>
+      <c r="R152" s="25"/>
+      <c r="S152" s="25"/>
       <c r="T152" s="25"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="25"/>
+      <c r="A153" s="51" t="s">
+        <v>453</v>
+      </c>
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
       <c r="G153" s="25"/>
       <c r="H153" s="33" t="s">
-        <v>395</v>
+        <v>503</v>
       </c>
       <c r="I153" s="33"/>
       <c r="J153" s="33"/>
@@ -10727,10 +11155,10 @@
       <c r="A154" s="25"/>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
-      <c r="G154" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="H154" s="33"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="33" t="s">
+        <v>504</v>
+      </c>
       <c r="I154" s="33"/>
       <c r="J154" s="33"/>
       <c r="K154" s="33"/>
@@ -10740,8 +11168,8 @@
       <c r="O154" s="33"/>
       <c r="P154" s="33"/>
       <c r="Q154" s="33"/>
-      <c r="R154" s="25"/>
-      <c r="S154" s="25"/>
+      <c r="R154" s="33"/>
+      <c r="S154" s="33"/>
       <c r="T154" s="25"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
@@ -10749,7 +11177,7 @@
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
       <c r="G155" s="33" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="H155" s="33"/>
       <c r="I155" s="33"/>
@@ -10766,34 +11194,32 @@
       <c r="T155" s="25"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A156" s="25"/>
       <c r="E156" s="25"/>
-      <c r="F156" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="25"/>
-      <c r="K156" s="25"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="25"/>
-      <c r="N156" s="25"/>
-      <c r="O156" s="25"/>
-      <c r="P156" s="25"/>
-      <c r="Q156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="H156" s="33"/>
+      <c r="I156" s="33"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="33"/>
+      <c r="L156" s="33"/>
+      <c r="M156" s="33"/>
+      <c r="N156" s="33"/>
+      <c r="O156" s="33"/>
+      <c r="P156" s="33"/>
+      <c r="Q156" s="33"/>
       <c r="R156" s="25"/>
       <c r="S156" s="25"/>
       <c r="T156" s="25"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B157" s="28" t="s">
-        <v>287</v>
-      </c>
       <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="25" t="s">
-        <v>187</v>
-      </c>
+      <c r="F157" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
       <c r="J157" s="25"/>
@@ -10809,20 +11235,20 @@
       <c r="T157" s="25"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A158" s="51" t="s">
-        <v>480</v>
+      <c r="B158" s="28" t="s">
+        <v>276</v>
       </c>
       <c r="E158" s="25"/>
       <c r="F158" s="25"/>
-      <c r="G158" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="H158" s="33"/>
-      <c r="I158" s="33"/>
-      <c r="J158" s="33"/>
-      <c r="K158" s="33"/>
-      <c r="L158" s="33"/>
-      <c r="M158" s="33"/>
+      <c r="G158" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="25"/>
       <c r="N158" s="25"/>
       <c r="O158" s="25"/>
       <c r="P158" s="25"/>
@@ -10832,13 +11258,13 @@
       <c r="T158" s="25"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="52" t="s">
-        <v>500</v>
+      <c r="A159" s="51" t="s">
+        <v>454</v>
       </c>
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
       <c r="G159" s="33" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="H159" s="33"/>
       <c r="I159" s="33"/>
@@ -10855,17 +11281,20 @@
       <c r="T159" s="25"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A160" s="52" t="s">
+        <v>474</v>
+      </c>
       <c r="E160" s="25"/>
-      <c r="F160" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="25"/>
-      <c r="J160" s="25"/>
-      <c r="K160" s="25"/>
-      <c r="L160" s="25"/>
-      <c r="M160" s="25"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="H160" s="33"/>
+      <c r="I160" s="33"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="33"/>
+      <c r="L160" s="33"/>
+      <c r="M160" s="33"/>
       <c r="N160" s="25"/>
       <c r="O160" s="25"/>
       <c r="P160" s="25"/>
@@ -10876,10 +11305,10 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E161" s="25"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="25" t="s">
-        <v>212</v>
-      </c>
+      <c r="F161" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
@@ -10897,7 +11326,9 @@
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E162" s="25"/>
       <c r="F162" s="25"/>
-      <c r="G162" s="25"/>
+      <c r="G162" s="25" t="s">
+        <v>202</v>
+      </c>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
@@ -10918,9 +11349,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="25" t="s">
-        <v>214</v>
-      </c>
+      <c r="J163" s="25"/>
       <c r="K163" s="25"/>
       <c r="L163" s="25"/>
       <c r="M163" s="25"/>
@@ -10938,7 +11367,9 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="25"/>
+      <c r="J164" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="K164" s="25"/>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -10951,9 +11382,6 @@
       <c r="T164" s="25"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D165" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E165" s="25"/>
       <c r="F165" s="25"/>
       <c r="G165" s="25"/>
@@ -10972,10 +11400,10 @@
       <c r="T165" s="25"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D166" s="4"/>
-      <c r="E166" s="25" t="s">
-        <v>226</v>
-      </c>
+      <c r="D166" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E166" s="25"/>
       <c r="F166" s="25"/>
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
@@ -10995,7 +11423,7 @@
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D167" s="4"/>
       <c r="E167" s="25" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F167" s="25"/>
       <c r="G167" s="25"/>
@@ -11016,7 +11444,7 @@
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D168" s="4"/>
       <c r="E168" s="25" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F168" s="25"/>
       <c r="G168" s="25"/>
@@ -11035,6 +11463,17 @@
       <c r="T168" s="25"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D169" s="4"/>
+      <c r="E169" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="25"/>
+      <c r="K169" s="25"/>
+      <c r="L169" s="25"/>
       <c r="M169" s="25"/>
       <c r="N169" s="25"/>
       <c r="O169" s="25"/>
@@ -11045,17 +11484,6 @@
       <c r="T169" s="25"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D170" s="4"/>
-      <c r="E170" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F170" s="25"/>
-      <c r="G170" s="25"/>
-      <c r="H170" s="25"/>
-      <c r="I170" s="25"/>
-      <c r="J170" s="25"/>
-      <c r="K170" s="25"/>
-      <c r="L170" s="25"/>
       <c r="M170" s="25"/>
       <c r="N170" s="25"/>
       <c r="O170" s="25"/>
@@ -11068,7 +11496,7 @@
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D171" s="4"/>
       <c r="E171" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F171" s="25"/>
       <c r="G171" s="25"/>
@@ -11088,17 +11516,17 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D172" s="4"/>
-      <c r="E172" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="33"/>
-      <c r="K172" s="33"/>
-      <c r="L172" s="33"/>
-      <c r="M172" s="33"/>
+      <c r="E172" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="25"/>
+      <c r="K172" s="25"/>
+      <c r="L172" s="25"/>
+      <c r="M172" s="25"/>
       <c r="N172" s="25"/>
       <c r="O172" s="25"/>
       <c r="P172" s="25"/>
@@ -11109,19 +11537,19 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D173" s="4"/>
-      <c r="E173" s="52" t="s">
-        <v>496</v>
-      </c>
-      <c r="F173" s="52"/>
-      <c r="G173" s="52"/>
-      <c r="H173" s="52"/>
-      <c r="I173" s="52"/>
-      <c r="J173" s="52"/>
-      <c r="K173" s="52"/>
-      <c r="L173" s="52"/>
-      <c r="M173" s="52"/>
-      <c r="N173" s="52"/>
-      <c r="O173" s="52"/>
+      <c r="E173" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="33"/>
+      <c r="J173" s="33"/>
+      <c r="K173" s="33"/>
+      <c r="L173" s="33"/>
+      <c r="M173" s="33"/>
+      <c r="N173" s="25"/>
+      <c r="O173" s="25"/>
       <c r="P173" s="25"/>
       <c r="Q173" s="25"/>
       <c r="R173" s="25"/>
@@ -11130,19 +11558,19 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D174" s="4"/>
-      <c r="E174" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F174" s="25"/>
-      <c r="G174" s="25"/>
-      <c r="H174" s="25"/>
-      <c r="I174" s="25"/>
-      <c r="J174" s="25"/>
-      <c r="K174" s="25"/>
-      <c r="L174" s="25"/>
-      <c r="M174" s="25"/>
-      <c r="N174" s="25"/>
-      <c r="O174" s="25"/>
+      <c r="E174" s="52" t="s">
+        <v>470</v>
+      </c>
+      <c r="F174" s="52"/>
+      <c r="G174" s="52"/>
+      <c r="H174" s="52"/>
+      <c r="I174" s="52"/>
+      <c r="J174" s="52"/>
+      <c r="K174" s="52"/>
+      <c r="L174" s="52"/>
+      <c r="M174" s="52"/>
+      <c r="N174" s="52"/>
+      <c r="O174" s="52"/>
       <c r="P174" s="25"/>
       <c r="Q174" s="25"/>
       <c r="R174" s="25"/>
@@ -11150,17 +11578,14 @@
       <c r="T174" s="25"/>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A175" s="26" t="s">
-        <v>273</v>
-      </c>
       <c r="D175" s="4"/>
-      <c r="E175" s="25"/>
-      <c r="F175" s="25" t="s">
-        <v>363</v>
-      </c>
+      <c r="E175" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F175" s="25"/>
       <c r="G175" s="25"/>
-      <c r="H175" s="33"/>
-      <c r="I175" s="33"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
       <c r="J175" s="25"/>
       <c r="K175" s="25"/>
       <c r="L175" s="25"/>
@@ -11174,17 +11599,17 @@
       <c r="T175" s="25"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="33" t="s">
-        <v>360</v>
+      <c r="A176" s="26" t="s">
+        <v>262</v>
       </c>
       <c r="D176" s="4"/>
-      <c r="E176" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F176" s="25"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="25" t="s">
+        <v>346</v>
+      </c>
       <c r="G176" s="25"/>
-      <c r="H176" s="25"/>
-      <c r="I176" s="25"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
       <c r="J176" s="25"/>
       <c r="K176" s="25"/>
       <c r="L176" s="25"/>
@@ -11198,18 +11623,18 @@
       <c r="T176" s="25"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="51" t="s">
-        <v>481</v>
+      <c r="A177" s="33" t="s">
+        <v>343</v>
       </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="30"/>
-      <c r="F177" s="25" t="s">
-        <v>374</v>
-      </c>
+      <c r="E177" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F177" s="25"/>
       <c r="G177" s="25"/>
-      <c r="H177" s="33"/>
-      <c r="I177" s="33"/>
-      <c r="J177" s="33"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="25"/>
       <c r="K177" s="25"/>
       <c r="L177" s="25"/>
       <c r="M177" s="25"/>
@@ -11222,20 +11647,18 @@
       <c r="T177" s="25"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="52" t="s">
-        <v>501</v>
-      </c>
-      <c r="B178" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="E178" s="25"/>
+      <c r="A178" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="30"/>
       <c r="F178" s="25" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="G178" s="25"/>
-      <c r="H178" s="25"/>
-      <c r="I178" s="25"/>
-      <c r="J178" s="25"/>
+      <c r="H178" s="33"/>
+      <c r="I178" s="33"/>
+      <c r="J178" s="33"/>
       <c r="K178" s="25"/>
       <c r="L178" s="25"/>
       <c r="M178" s="25"/>
@@ -11248,12 +11671,15 @@
       <c r="T178" s="25"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B179" s="33" t="s">
-        <v>364</v>
+      <c r="A179" s="52" t="s">
+        <v>475</v>
+      </c>
+      <c r="B179" s="28" t="s">
+        <v>277</v>
       </c>
       <c r="E179" s="25"/>
       <c r="F179" s="25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G179" s="25"/>
       <c r="H179" s="25"/>
@@ -11272,11 +11698,11 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B180" s="33" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E180" s="25"/>
       <c r="F180" s="25" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
@@ -11294,11 +11720,14 @@
       <c r="T180" s="25"/>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B181" s="33" t="s">
+        <v>348</v>
+      </c>
       <c r="E181" s="25"/>
-      <c r="F181" s="25"/>
-      <c r="G181" s="25" t="s">
-        <v>201</v>
-      </c>
+      <c r="F181" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G181" s="25"/>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
       <c r="J181" s="25"/>
@@ -11315,10 +11744,10 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E182" s="25"/>
-      <c r="F182" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="G182" s="25"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="25" t="s">
+        <v>193</v>
+      </c>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
@@ -11336,7 +11765,7 @@
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E183" s="25"/>
       <c r="F183" s="25" t="s">
-        <v>454</v>
+        <v>190</v>
       </c>
       <c r="G183" s="25"/>
       <c r="H183" s="25"/>
@@ -11356,7 +11785,7 @@
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E184" s="25"/>
       <c r="F184" s="25" t="s">
-        <v>200</v>
+        <v>429</v>
       </c>
       <c r="G184" s="25"/>
       <c r="H184" s="25"/>
@@ -11374,14 +11803,11 @@
       <c r="T184" s="25"/>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B185" s="28" t="s">
-        <v>289</v>
-      </c>
       <c r="E185" s="25"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="25" t="s">
-        <v>362</v>
-      </c>
+      <c r="F185" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G185" s="25"/>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
       <c r="J185" s="25"/>
@@ -11397,14 +11823,14 @@
       <c r="T185" s="25"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B186" s="33" t="s">
-        <v>361</v>
+      <c r="B186" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="E186" s="25"/>
-      <c r="F186" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G186" s="25"/>
+      <c r="F186" s="25"/>
+      <c r="G186" s="25" t="s">
+        <v>345</v>
+      </c>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
@@ -11420,11 +11846,14 @@
       <c r="T186" s="25"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B187" s="33" t="s">
+        <v>344</v>
+      </c>
       <c r="E187" s="25"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="25" t="s">
-        <v>106</v>
-      </c>
+      <c r="F187" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
       <c r="J187" s="25"/>
@@ -11441,10 +11870,10 @@
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E188" s="25"/>
-      <c r="F188" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="G188" s="25"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
       <c r="J188" s="25"/>
@@ -11461,10 +11890,10 @@
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E189" s="25"/>
-      <c r="F189" s="25"/>
-      <c r="G189" s="25" t="s">
-        <v>203</v>
-      </c>
+      <c r="F189" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G189" s="25"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
       <c r="J189" s="25"/>
@@ -11482,7 +11911,9 @@
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E190" s="25"/>
       <c r="F190" s="25"/>
-      <c r="G190" s="25"/>
+      <c r="G190" s="25" t="s">
+        <v>195</v>
+      </c>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
       <c r="J190" s="25"/>
@@ -11732,9 +12163,7 @@
       <c r="T203" s="25"/>
     </row>
     <row r="204" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E204" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="E204" s="25"/>
       <c r="F204" s="25"/>
       <c r="G204" s="25"/>
       <c r="H204" s="25"/>
@@ -11752,7 +12181,9 @@
       <c r="T204" s="25"/>
     </row>
     <row r="205" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E205" s="25"/>
+      <c r="E205" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="F205" s="25"/>
       <c r="G205" s="25"/>
       <c r="H205" s="25"/>
@@ -11806,9 +12237,7 @@
       <c r="T207" s="25"/>
     </row>
     <row r="208" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E208" s="30" t="s">
-        <v>88</v>
-      </c>
+      <c r="E208" s="25"/>
       <c r="F208" s="25"/>
       <c r="G208" s="25"/>
       <c r="H208" s="25"/>
@@ -11826,10 +12255,10 @@
       <c r="T208" s="25"/>
     </row>
     <row r="209" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E209" s="30"/>
-      <c r="F209" s="25" t="s">
-        <v>213</v>
-      </c>
+      <c r="E209" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F209" s="25"/>
       <c r="G209" s="25"/>
       <c r="H209" s="25"/>
       <c r="I209" s="25"/>
@@ -11846,9 +12275,9 @@
       <c r="T209" s="25"/>
     </row>
     <row r="210" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E210" s="25"/>
+      <c r="E210" s="30"/>
       <c r="F210" s="25" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G210" s="25"/>
       <c r="H210" s="25"/>
@@ -11867,20 +12296,16 @@
     </row>
     <row r="211" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E211" s="25"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="25" t="s">
-        <v>205</v>
-      </c>
+      <c r="F211" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G211" s="25"/>
       <c r="H211" s="25"/>
       <c r="I211" s="25"/>
-      <c r="J211" s="25" t="s">
-        <v>214</v>
-      </c>
+      <c r="J211" s="25"/>
       <c r="K211" s="25"/>
       <c r="L211" s="25"/>
-      <c r="M211" s="25" t="s">
-        <v>215</v>
-      </c>
+      <c r="M211" s="25"/>
       <c r="N211" s="25"/>
       <c r="O211" s="25"/>
       <c r="P211" s="25"/>
@@ -11893,14 +12318,18 @@
       <c r="E212" s="25"/>
       <c r="F212" s="25"/>
       <c r="G212" s="25" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="H212" s="25"/>
       <c r="I212" s="25"/>
-      <c r="J212" s="25"/>
+      <c r="J212" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="K212" s="25"/>
       <c r="L212" s="25"/>
-      <c r="M212" s="25"/>
+      <c r="M212" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="N212" s="25"/>
       <c r="O212" s="25"/>
       <c r="P212" s="25"/>
@@ -11912,7 +12341,9 @@
     <row r="213" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E213" s="25"/>
       <c r="F213" s="25"/>
-      <c r="G213" s="25"/>
+      <c r="G213" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="H213" s="25"/>
       <c r="I213" s="25"/>
       <c r="J213" s="25"/>
@@ -11947,9 +12378,7 @@
     </row>
     <row r="215" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E215" s="25"/>
-      <c r="F215" s="25" t="s">
-        <v>216</v>
-      </c>
+      <c r="F215" s="25"/>
       <c r="G215" s="25"/>
       <c r="H215" s="25"/>
       <c r="I215" s="25"/>
@@ -11968,7 +12397,7 @@
     <row r="216" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E216" s="25"/>
       <c r="F216" s="25" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="G216" s="25"/>
       <c r="H216" s="25"/>
@@ -11986,9 +12415,10 @@
       <c r="T216" s="25"/>
     </row>
     <row r="217" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D217" s="30"/>
       <c r="E217" s="25"/>
-      <c r="F217" s="25"/>
+      <c r="F217" s="25" t="s">
+        <v>86</v>
+      </c>
       <c r="G217" s="25"/>
       <c r="H217" s="25"/>
       <c r="I217" s="25"/>
@@ -12233,64 +12663,67 @@
       <c r="T229" s="25"/>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D230" s="4"/>
+      <c r="D230" s="30"/>
+      <c r="E230" s="25"/>
+      <c r="F230" s="25"/>
+      <c r="G230" s="25"/>
+      <c r="H230" s="25"/>
+      <c r="I230" s="25"/>
+      <c r="J230" s="25"/>
+      <c r="K230" s="25"/>
+      <c r="L230" s="25"/>
+      <c r="M230" s="25"/>
+      <c r="N230" s="25"/>
+      <c r="O230" s="25"/>
+      <c r="P230" s="25"/>
+      <c r="Q230" s="25"/>
+      <c r="R230" s="25"/>
+      <c r="S230" s="25"/>
+      <c r="T230" s="25"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B231" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="D231" s="4"/>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B232" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="D232" s="4"/>
-      <c r="E232" s="3" t="s">
-        <v>177</v>
+      <c r="B232" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A233" s="52" t="s">
-        <v>485</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>103</v>
+      <c r="B233" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D233" s="4"/>
+      <c r="E233" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="51" t="s">
-        <v>482</v>
+      <c r="A234" s="52" t="s">
+        <v>459</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>207</v>
+        <v>506</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="E235" s="25"/>
-      <c r="F235" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="G235" s="25"/>
-      <c r="H235" s="25"/>
-      <c r="I235" s="25"/>
-      <c r="J235" s="25"/>
-      <c r="K235" s="25"/>
-      <c r="L235" s="25"/>
-      <c r="M235" s="25"/>
+      <c r="A235" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="33" t="s">
-        <v>366</v>
+      <c r="A236" s="26" t="s">
+        <v>253</v>
       </c>
       <c r="E236" s="25"/>
       <c r="F236" s="25" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="G236" s="25"/>
       <c r="H236" s="25"/>
@@ -12301,13 +12734,13 @@
       <c r="M236" s="25"/>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A237" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="E237" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F237" s="25"/>
+      <c r="A237" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="E237" s="25"/>
+      <c r="F237" s="25" t="s">
+        <v>508</v>
+      </c>
       <c r="G237" s="25"/>
       <c r="H237" s="25"/>
       <c r="I237" s="25"/>
@@ -12317,10 +12750,13 @@
       <c r="M237" s="25"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E238" s="25"/>
-      <c r="F238" s="25" t="s">
-        <v>103</v>
-      </c>
+      <c r="A238" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E238" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F238" s="25"/>
       <c r="G238" s="25"/>
       <c r="H238" s="25"/>
       <c r="I238" s="25"/>
@@ -12330,38 +12766,29 @@
       <c r="M238" s="25"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A239" s="26" t="s">
-        <v>265</v>
-      </c>
       <c r="E239" s="25"/>
-      <c r="F239" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="G239" s="24"/>
-      <c r="H239" s="46"/>
-      <c r="I239" s="24"/>
-      <c r="J239" s="24"/>
-      <c r="K239" s="24"/>
-      <c r="L239" s="24"/>
-      <c r="M239" s="24"/>
-      <c r="N239" s="24"/>
-      <c r="O239" s="24"/>
-      <c r="P239" s="24"/>
-      <c r="Q239" s="24"/>
-      <c r="R239" s="24"/>
-      <c r="S239" s="25"/>
+      <c r="F239" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="G239" s="25"/>
+      <c r="H239" s="25"/>
+      <c r="I239" s="25"/>
+      <c r="J239" s="25"/>
+      <c r="K239" s="25"/>
+      <c r="L239" s="25"/>
+      <c r="M239" s="25"/>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A240" s="33" t="s">
-        <v>368</v>
+      <c r="A240" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="E240" s="25"/>
-      <c r="F240" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G240" s="25"/>
-      <c r="H240" s="25"/>
-      <c r="I240" s="25"/>
+      <c r="F240" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G240" s="24"/>
+      <c r="H240" s="46"/>
+      <c r="I240" s="24"/>
       <c r="J240" s="24"/>
       <c r="K240" s="24"/>
       <c r="L240" s="24"/>
@@ -12371,16 +12798,20 @@
       <c r="P240" s="24"/>
       <c r="Q240" s="24"/>
       <c r="R240" s="24"/>
-    </row>
-    <row r="241" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="S240" s="25"/>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A241" s="33" t="s">
+        <v>351</v>
+      </c>
       <c r="E241" s="25"/>
       <c r="F241" s="25" t="s">
-        <v>217</v>
+        <v>509</v>
       </c>
       <c r="G241" s="25"/>
       <c r="H241" s="25"/>
       <c r="I241" s="25"/>
-      <c r="J241" s="25"/>
+      <c r="J241" s="24"/>
       <c r="K241" s="24"/>
       <c r="L241" s="24"/>
       <c r="M241" s="24"/>
@@ -12390,49 +12821,48 @@
       <c r="Q241" s="24"/>
       <c r="R241" s="24"/>
     </row>
-    <row r="242" spans="5:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E242" s="25"/>
       <c r="F242" s="25" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="G242" s="25"/>
       <c r="H242" s="25"/>
       <c r="I242" s="25"/>
       <c r="J242" s="25"/>
-      <c r="K242" s="25"/>
-      <c r="L242" s="25"/>
-      <c r="M242" s="25"/>
-    </row>
-    <row r="257" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D257" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="K242" s="24"/>
+      <c r="L242" s="24"/>
+      <c r="M242" s="24"/>
+      <c r="N242" s="24"/>
+      <c r="O242" s="24"/>
+      <c r="P242" s="24"/>
+      <c r="Q242" s="24"/>
+      <c r="R242" s="24"/>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E243" s="25"/>
+      <c r="F243" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="G243" s="25"/>
+      <c r="H243" s="25"/>
+      <c r="I243" s="25"/>
+      <c r="J243" s="25"/>
+      <c r="K243" s="25"/>
+      <c r="L243" s="25"/>
+      <c r="M243" s="25"/>
     </row>
     <row r="258" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D258" s="4"/>
-      <c r="E258" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="F258" s="25"/>
-      <c r="G258" s="25"/>
-      <c r="H258" s="25"/>
-      <c r="I258" s="25"/>
-      <c r="J258" s="25"/>
-      <c r="K258" s="25"/>
-      <c r="L258" s="25"/>
-      <c r="M258" s="25"/>
-      <c r="N258" s="25"/>
-      <c r="O258" s="25"/>
-      <c r="P258" s="25"/>
-      <c r="Q258" s="25"/>
-      <c r="R258" s="25"/>
+      <c r="D258" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="259" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D259" s="4"/>
-      <c r="E259" s="25"/>
-      <c r="F259" s="25" t="s">
-        <v>208</v>
-      </c>
+      <c r="E259" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F259" s="25"/>
       <c r="G259" s="25"/>
       <c r="H259" s="25"/>
       <c r="I259" s="25"/>
@@ -12449,10 +12879,10 @@
     <row r="260" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D260" s="4"/>
       <c r="E260" s="25"/>
-      <c r="F260" s="25"/>
-      <c r="G260" s="25" t="s">
-        <v>457</v>
-      </c>
+      <c r="F260" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G260" s="25"/>
       <c r="H260" s="25"/>
       <c r="I260" s="25"/>
       <c r="J260" s="25"/>
@@ -12470,7 +12900,7 @@
       <c r="E261" s="25"/>
       <c r="F261" s="25"/>
       <c r="G261" s="25" t="s">
-        <v>210</v>
+        <v>432</v>
       </c>
       <c r="H261" s="25"/>
       <c r="I261" s="25"/>
@@ -12487,10 +12917,10 @@
     <row r="262" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D262" s="4"/>
       <c r="E262" s="25"/>
-      <c r="F262" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G262" s="25"/>
+      <c r="F262" s="25"/>
+      <c r="G262" s="25" t="s">
+        <v>200</v>
+      </c>
       <c r="H262" s="25"/>
       <c r="I262" s="25"/>
       <c r="J262" s="25"/>
@@ -12506,10 +12936,10 @@
     <row r="263" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D263" s="4"/>
       <c r="E263" s="25"/>
-      <c r="F263" s="25"/>
-      <c r="G263" s="25" t="s">
-        <v>243</v>
-      </c>
+      <c r="F263" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G263" s="25"/>
       <c r="H263" s="25"/>
       <c r="I263" s="25"/>
       <c r="J263" s="25"/>
@@ -12527,7 +12957,7 @@
       <c r="E264" s="25"/>
       <c r="F264" s="25"/>
       <c r="G264" s="25" t="s">
-        <v>461</v>
+        <v>232</v>
       </c>
       <c r="H264" s="25"/>
       <c r="I264" s="25"/>
@@ -12544,10 +12974,10 @@
     <row r="265" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D265" s="4"/>
       <c r="E265" s="25"/>
-      <c r="F265" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="G265" s="25"/>
+      <c r="F265" s="25"/>
+      <c r="G265" s="25" t="s">
+        <v>436</v>
+      </c>
       <c r="H265" s="25"/>
       <c r="I265" s="25"/>
       <c r="J265" s="25"/>
@@ -12563,11 +12993,11 @@
     <row r="266" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D266" s="4"/>
       <c r="E266" s="25"/>
-      <c r="F266" s="25"/>
-      <c r="G266" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="H266" s="31"/>
+      <c r="F266" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="G266" s="25"/>
+      <c r="H266" s="25"/>
       <c r="I266" s="25"/>
       <c r="J266" s="25"/>
       <c r="K266" s="25"/>
@@ -12583,9 +13013,10 @@
       <c r="D267" s="4"/>
       <c r="E267" s="25"/>
       <c r="F267" s="25"/>
-      <c r="G267" s="25" t="s">
-        <v>245</v>
-      </c>
+      <c r="G267" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="H267" s="31"/>
       <c r="I267" s="25"/>
       <c r="J267" s="25"/>
       <c r="K267" s="25"/>
@@ -12600,30 +13031,29 @@
     <row r="268" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D268" s="4"/>
       <c r="E268" s="25"/>
-      <c r="F268" s="45"/>
-      <c r="G268" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="H268" s="45"/>
-      <c r="I268" s="45"/>
-      <c r="J268" s="45"/>
-      <c r="K268" s="45"/>
-      <c r="L268" s="45"/>
-      <c r="M268" s="45"/>
-      <c r="N268" s="45"/>
-      <c r="O268" s="45"/>
-      <c r="P268" s="45"/>
-      <c r="Q268" s="45"/>
-      <c r="R268" s="31"/>
+      <c r="F268" s="25"/>
+      <c r="G268" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I268" s="25"/>
+      <c r="J268" s="25"/>
+      <c r="K268" s="25"/>
+      <c r="L268" s="25"/>
+      <c r="M268" s="25"/>
+      <c r="N268" s="25"/>
+      <c r="O268" s="25"/>
+      <c r="P268" s="25"/>
+      <c r="Q268" s="25"/>
+      <c r="R268" s="25"/>
     </row>
     <row r="269" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D269" s="4"/>
       <c r="E269" s="25"/>
       <c r="F269" s="45"/>
-      <c r="G269" s="45"/>
-      <c r="H269" s="45" t="s">
-        <v>460</v>
-      </c>
+      <c r="G269" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="H269" s="45"/>
       <c r="I269" s="45"/>
       <c r="J269" s="45"/>
       <c r="K269" s="45"/>
@@ -12641,7 +13071,7 @@
       <c r="F270" s="45"/>
       <c r="G270" s="45"/>
       <c r="H270" s="45" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="I270" s="45"/>
       <c r="J270" s="45"/>
@@ -12660,7 +13090,7 @@
       <c r="F271" s="45"/>
       <c r="G271" s="45"/>
       <c r="H271" s="45" t="s">
-        <v>210</v>
+        <v>432</v>
       </c>
       <c r="I271" s="45"/>
       <c r="J271" s="45"/>
@@ -12678,7 +13108,9 @@
       <c r="E272" s="25"/>
       <c r="F272" s="45"/>
       <c r="G272" s="45"/>
-      <c r="H272" s="45"/>
+      <c r="H272" s="45" t="s">
+        <v>200</v>
+      </c>
       <c r="I272" s="45"/>
       <c r="J272" s="45"/>
       <c r="K272" s="45"/>
@@ -12778,25 +13210,23 @@
     <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D278" s="4"/>
       <c r="E278" s="25"/>
-      <c r="F278" s="25"/>
-      <c r="G278" s="25"/>
-      <c r="H278" s="25"/>
-      <c r="I278" s="25"/>
-      <c r="J278" s="25"/>
-      <c r="K278" s="25"/>
-      <c r="L278" s="25"/>
-      <c r="M278" s="25"/>
-      <c r="N278" s="25"/>
-      <c r="O278" s="25"/>
-      <c r="P278" s="25"/>
-      <c r="Q278" s="25"/>
-      <c r="R278" s="25"/>
+      <c r="F278" s="45"/>
+      <c r="G278" s="45"/>
+      <c r="H278" s="45"/>
+      <c r="I278" s="45"/>
+      <c r="J278" s="45"/>
+      <c r="K278" s="45"/>
+      <c r="L278" s="45"/>
+      <c r="M278" s="45"/>
+      <c r="N278" s="45"/>
+      <c r="O278" s="45"/>
+      <c r="P278" s="45"/>
+      <c r="Q278" s="45"/>
+      <c r="R278" s="31"/>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D279" s="4"/>
-      <c r="E279" s="25" t="s">
-        <v>218</v>
-      </c>
+      <c r="E279" s="25"/>
       <c r="F279" s="25"/>
       <c r="G279" s="25"/>
       <c r="H279" s="25"/>
@@ -12813,10 +13243,10 @@
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D280" s="4"/>
-      <c r="E280" s="25"/>
-      <c r="F280" s="25" t="s">
-        <v>219</v>
-      </c>
+      <c r="E280" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F280" s="25"/>
       <c r="G280" s="25"/>
       <c r="H280" s="25"/>
       <c r="I280" s="25"/>
@@ -12831,9 +13261,10 @@
       <c r="R280" s="25"/>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D281" s="4"/>
       <c r="E281" s="25"/>
       <c r="F281" s="25" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G281" s="25"/>
       <c r="H281" s="25"/>
@@ -12851,7 +13282,7 @@
     <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E282" s="25"/>
       <c r="F282" s="25" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G282" s="25"/>
       <c r="H282" s="25"/>
@@ -12867,75 +13298,60 @@
       <c r="R282" s="25"/>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D283" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="E283" s="25"/>
+      <c r="F283" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G283" s="25"/>
+      <c r="H283" s="25"/>
+      <c r="I283" s="25"/>
+      <c r="J283" s="25"/>
+      <c r="K283" s="25"/>
+      <c r="L283" s="25"/>
+      <c r="M283" s="25"/>
+      <c r="N283" s="25"/>
+      <c r="O283" s="25"/>
+      <c r="P283" s="25"/>
+      <c r="Q283" s="25"/>
+      <c r="R283" s="25"/>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E284" s="3" t="s">
-        <v>97</v>
+      <c r="D284" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D285" s="4" t="s">
-        <v>98</v>
+      <c r="E285" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A286" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D286" s="4"/>
-      <c r="E286" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F286" s="25"/>
-      <c r="G286" s="25"/>
-      <c r="H286" s="25"/>
-      <c r="I286" s="25"/>
-      <c r="J286" s="25"/>
-      <c r="K286" s="25"/>
-      <c r="L286" s="25"/>
-      <c r="M286" s="25"/>
-      <c r="N286" s="25"/>
-      <c r="O286" s="25"/>
-      <c r="P286" s="25"/>
-      <c r="Q286" s="25"/>
-      <c r="R286" s="25"/>
+      <c r="E286" s="99" t="s">
+        <v>512</v>
+      </c>
+      <c r="F286" s="99"/>
+      <c r="G286" s="99"/>
+      <c r="H286" s="99"/>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A287" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="D287" s="4"/>
-      <c r="E287" s="25"/>
-      <c r="F287" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M287" s="25"/>
-      <c r="N287" s="25"/>
-      <c r="O287" s="25"/>
-      <c r="P287" s="25"/>
-      <c r="Q287" s="25"/>
-      <c r="R287" s="25"/>
+      <c r="D287" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A288" s="51" t="s">
-        <v>483</v>
-      </c>
-      <c r="B288" s="28" t="s">
-        <v>291</v>
+      <c r="A288" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="D288" s="4"/>
-      <c r="E288" s="25"/>
-      <c r="F288" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="G288" s="24"/>
-      <c r="H288" s="24"/>
-      <c r="I288" s="24"/>
-      <c r="J288" s="24"/>
-      <c r="K288" s="24"/>
+      <c r="E288" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F288" s="25"/>
+      <c r="G288" s="25"/>
+      <c r="H288" s="25"/>
+      <c r="I288" s="25"/>
+      <c r="J288" s="25"/>
+      <c r="K288" s="25"/>
       <c r="L288" s="25"/>
       <c r="M288" s="25"/>
       <c r="N288" s="25"/>
@@ -12946,22 +13362,13 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="B289" s="33" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D289" s="4"/>
       <c r="E289" s="25"/>
-      <c r="F289" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G289" s="24"/>
-      <c r="H289" s="24"/>
-      <c r="I289" s="24"/>
-      <c r="J289" s="24"/>
-      <c r="K289" s="24"/>
-      <c r="L289" s="24"/>
+      <c r="F289" s="3" t="s">
+        <v>362</v>
+      </c>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
       <c r="O289" s="25"/>
@@ -12970,22 +13377,24 @@
       <c r="R289" s="25"/>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A290" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="B290" s="25"/>
+      <c r="A290" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="B290" s="28" t="s">
+        <v>280</v>
+      </c>
       <c r="D290" s="4"/>
       <c r="E290" s="25"/>
-      <c r="F290" s="46" t="s">
-        <v>382</v>
-      </c>
-      <c r="G290" s="46"/>
-      <c r="H290" s="46"/>
-      <c r="I290" s="46"/>
-      <c r="J290" s="46"/>
-      <c r="K290" s="46"/>
-      <c r="L290" s="46"/>
-      <c r="M290" s="24"/>
+      <c r="F290" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="G290" s="102"/>
+      <c r="H290" s="102"/>
+      <c r="I290" s="102"/>
+      <c r="J290" s="102"/>
+      <c r="K290" s="102"/>
+      <c r="L290" s="25"/>
+      <c r="M290" s="25"/>
       <c r="N290" s="25"/>
       <c r="O290" s="25"/>
       <c r="P290" s="25"/>
@@ -12994,59 +13403,60 @@
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A291" s="33" t="s">
-        <v>488</v>
+        <v>460</v>
+      </c>
+      <c r="B291" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="D291" s="4"/>
-      <c r="E291" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="F291" s="31"/>
-      <c r="G291" s="31"/>
-      <c r="H291" s="31"/>
-      <c r="I291" s="31"/>
-      <c r="J291" s="31"/>
-      <c r="K291" s="31"/>
-      <c r="L291" s="31"/>
-      <c r="M291" s="31"/>
-      <c r="N291" s="31"/>
-      <c r="O291" s="31"/>
-      <c r="P291" s="31"/>
-      <c r="Q291" s="31"/>
-      <c r="R291" s="31"/>
-      <c r="S291" s="19"/>
-    </row>
-    <row r="292" spans="1:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="E291" s="25"/>
+      <c r="F291" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="G291" s="24"/>
+      <c r="H291" s="24"/>
+      <c r="I291" s="24"/>
+      <c r="J291" s="24"/>
+      <c r="K291" s="24"/>
+      <c r="L291" s="24"/>
+      <c r="M291" s="25"/>
+      <c r="N291" s="25"/>
+      <c r="O291" s="25"/>
+      <c r="P291" s="25"/>
+      <c r="Q291" s="25"/>
+      <c r="R291" s="25"/>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="B292" s="28" t="s">
-        <v>371</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B292" s="25"/>
       <c r="D292" s="4"/>
-      <c r="E292" s="31"/>
-      <c r="F292" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="G292" s="31"/>
-      <c r="H292" s="31"/>
-      <c r="I292" s="31"/>
-      <c r="J292" s="31"/>
-      <c r="K292" s="31"/>
-      <c r="L292" s="31"/>
-      <c r="M292" s="31"/>
-      <c r="N292" s="31"/>
-      <c r="O292" s="31"/>
-      <c r="P292" s="31"/>
-      <c r="Q292" s="31"/>
-      <c r="R292" s="31"/>
-      <c r="S292" s="19"/>
+      <c r="E292" s="25"/>
+      <c r="F292" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G292" s="46"/>
+      <c r="H292" s="46"/>
+      <c r="I292" s="46"/>
+      <c r="J292" s="46"/>
+      <c r="K292" s="46"/>
+      <c r="L292" s="46"/>
+      <c r="M292" s="24"/>
+      <c r="N292" s="25"/>
+      <c r="O292" s="25"/>
+      <c r="P292" s="25"/>
+      <c r="Q292" s="25"/>
+      <c r="R292" s="25"/>
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B293" s="33" t="s">
-        <v>378</v>
+      <c r="A293" s="33" t="s">
+        <v>462</v>
       </c>
       <c r="D293" s="4"/>
-      <c r="E293" s="31"/>
+      <c r="E293" s="24" t="s">
+        <v>215</v>
+      </c>
       <c r="F293" s="31"/>
       <c r="G293" s="31"/>
       <c r="H293" s="31"/>
@@ -13062,13 +13472,18 @@
       <c r="R293" s="31"/>
       <c r="S293" s="19"/>
     </row>
-    <row r="294" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="A294" s="33" t="s">
+        <v>463</v>
+      </c>
       <c r="B294" s="28" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="D294" s="4"/>
       <c r="E294" s="31"/>
-      <c r="F294" s="31"/>
+      <c r="F294" s="31" t="s">
+        <v>353</v>
+      </c>
       <c r="G294" s="31"/>
       <c r="H294" s="31"/>
       <c r="I294" s="31"/>
@@ -13085,7 +13500,7 @@
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B295" s="33" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="31"/>
@@ -13104,8 +13519,10 @@
       <c r="R295" s="31"/>
       <c r="S295" s="19"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B296" s="25"/>
+    <row r="296" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="28" t="s">
+        <v>368</v>
+      </c>
       <c r="D296" s="4"/>
       <c r="E296" s="31"/>
       <c r="F296" s="31"/>
@@ -13124,6 +13541,9 @@
       <c r="S296" s="19"/>
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B297" s="33" t="s">
+        <v>361</v>
+      </c>
       <c r="D297" s="4"/>
       <c r="E297" s="31"/>
       <c r="F297" s="31"/>
@@ -13142,6 +13562,8 @@
       <c r="S297" s="19"/>
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B298" s="25"/>
+      <c r="D298" s="4"/>
       <c r="E298" s="31"/>
       <c r="F298" s="31"/>
       <c r="G298" s="31"/>
@@ -13161,9 +13583,7 @@
     <row r="299" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D299" s="4"/>
       <c r="E299" s="31"/>
-      <c r="F299" s="31" t="s">
-        <v>372</v>
-      </c>
+      <c r="F299" s="31"/>
       <c r="G299" s="31"/>
       <c r="H299" s="31"/>
       <c r="I299" s="31"/>
@@ -13178,188 +13598,174 @@
       <c r="R299" s="31"/>
       <c r="S299" s="19"/>
     </row>
-    <row r="300" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D300" s="4"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="G300" s="38"/>
-      <c r="H300" s="38"/>
-      <c r="I300" s="38"/>
-      <c r="J300" s="38"/>
-      <c r="K300" s="38"/>
-      <c r="L300" s="38"/>
-      <c r="M300" s="33"/>
-      <c r="N300" s="25"/>
-      <c r="O300" s="25"/>
-      <c r="P300" s="25"/>
-      <c r="Q300" s="25"/>
-      <c r="R300" s="25"/>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E300" s="31"/>
+      <c r="F300" s="31"/>
+      <c r="G300" s="31"/>
+      <c r="H300" s="31"/>
+      <c r="I300" s="31"/>
+      <c r="J300" s="31"/>
+      <c r="K300" s="31"/>
+      <c r="L300" s="31"/>
+      <c r="M300" s="31"/>
+      <c r="N300" s="31"/>
+      <c r="O300" s="31"/>
+      <c r="P300" s="31"/>
+      <c r="Q300" s="31"/>
+      <c r="R300" s="31"/>
+      <c r="S300" s="19"/>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D301" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D301" s="4"/>
+      <c r="E301" s="31"/>
+      <c r="F301" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="G301" s="31"/>
+      <c r="H301" s="31"/>
+      <c r="I301" s="31"/>
+      <c r="J301" s="31"/>
+      <c r="K301" s="31"/>
+      <c r="L301" s="31"/>
+      <c r="M301" s="31"/>
+      <c r="N301" s="31"/>
+      <c r="O301" s="31"/>
+      <c r="P301" s="31"/>
+      <c r="Q301" s="31"/>
+      <c r="R301" s="31"/>
+      <c r="S301" s="19"/>
+    </row>
+    <row r="302" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D302" s="4"/>
-      <c r="E302" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="303" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A303" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="B303" s="28" t="s">
+      <c r="E302" s="1"/>
+      <c r="F302" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="G302" s="38"/>
+      <c r="H302" s="38"/>
+      <c r="I302" s="38"/>
+      <c r="J302" s="38"/>
+      <c r="K302" s="38"/>
+      <c r="L302" s="38"/>
+      <c r="M302" s="33"/>
+      <c r="N302" s="25"/>
+      <c r="O302" s="25"/>
+      <c r="P302" s="25"/>
+      <c r="Q302" s="25"/>
+      <c r="R302" s="25"/>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D303" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D304" s="4"/>
+      <c r="E304" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A305" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D303" s="4"/>
-      <c r="F303" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A304" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="B304" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="305" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="E305" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="306" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="F306" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="G306" s="33"/>
-      <c r="H306" s="33"/>
-      <c r="I306" s="33"/>
-      <c r="J306" s="33"/>
-      <c r="K306" s="33"/>
-      <c r="L306" s="33"/>
-      <c r="M306" s="33"/>
-      <c r="N306" s="33"/>
-      <c r="O306" s="33"/>
-    </row>
-    <row r="307" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="F307" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="308" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="D308" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="E308" s="33"/>
-      <c r="F308" s="33"/>
+      <c r="B305" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="F305" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A306" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B306" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E307" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F308" s="33" t="s">
+        <v>371</v>
+      </c>
       <c r="G308" s="33"/>
       <c r="H308" s="33"/>
       <c r="I308" s="33"/>
       <c r="J308" s="33"/>
-    </row>
-    <row r="309" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="D309" s="33"/>
-      <c r="E309" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="F309" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="G309" s="33"/>
-      <c r="H309" s="33"/>
-      <c r="I309" s="33"/>
-      <c r="J309" s="33"/>
-    </row>
-    <row r="310" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="D310" s="33"/>
-      <c r="E310" s="33" t="s">
-        <v>465</v>
-      </c>
+      <c r="K308" s="33"/>
+      <c r="L308" s="33"/>
+      <c r="M308" s="33"/>
+      <c r="N308" s="33"/>
+      <c r="O308" s="33"/>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F309" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D310" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="E310" s="33"/>
       <c r="F310" s="33"/>
       <c r="G310" s="33"/>
       <c r="H310" s="33"/>
       <c r="I310" s="33"/>
       <c r="J310" s="33"/>
     </row>
-    <row r="311" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D311" s="33"/>
-      <c r="E311" s="33"/>
+      <c r="E311" s="33" t="s">
+        <v>438</v>
+      </c>
       <c r="F311" s="33" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="G311" s="33"/>
       <c r="H311" s="33"/>
       <c r="I311" s="33"/>
       <c r="J311" s="33"/>
     </row>
-    <row r="312" spans="2:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="B312" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="C312" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D312" s="21"/>
-      <c r="E312" s="21"/>
-      <c r="F312" s="21"/>
-      <c r="G312" s="21"/>
-      <c r="H312" s="21"/>
-      <c r="I312" s="21"/>
-      <c r="J312" s="21"/>
-      <c r="K312" s="21"/>
-      <c r="L312" s="21"/>
-      <c r="M312" s="21"/>
-      <c r="N312" s="21"/>
-      <c r="O312" s="21"/>
-      <c r="P312" s="21"/>
-      <c r="Q312" s="21"/>
-      <c r="R312" s="21"/>
-      <c r="S312" s="21"/>
-      <c r="T312" s="21"/>
-      <c r="U312" s="21"/>
-      <c r="V312" s="21"/>
-    </row>
-    <row r="313" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B313" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C313" s="21"/>
-      <c r="D313" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E313" s="21"/>
-      <c r="F313" s="21"/>
-      <c r="G313" s="21"/>
-      <c r="H313" s="21"/>
-      <c r="I313" s="21"/>
-      <c r="J313" s="21"/>
-      <c r="K313" s="21"/>
-      <c r="L313" s="21"/>
-      <c r="M313" s="21"/>
-      <c r="N313" s="21"/>
-      <c r="O313" s="21"/>
-      <c r="P313" s="21"/>
-      <c r="Q313" s="21"/>
-      <c r="R313" s="21"/>
-      <c r="S313" s="21"/>
-      <c r="T313" s="21"/>
-      <c r="U313" s="21"/>
-      <c r="V313" s="21"/>
-    </row>
-    <row r="314" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C314" s="21"/>
-      <c r="D314" s="21" t="s">
-        <v>165</v>
-      </c>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D312" s="33"/>
+      <c r="E312" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F312" s="33"/>
+      <c r="G312" s="33"/>
+      <c r="H312" s="33"/>
+      <c r="I312" s="33"/>
+      <c r="J312" s="33"/>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D313" s="33"/>
+      <c r="E313" s="33"/>
+      <c r="F313" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="G313" s="33"/>
+      <c r="H313" s="33"/>
+      <c r="I313" s="33"/>
+      <c r="J313" s="33"/>
+    </row>
+    <row r="314" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B314" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C314" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D314" s="21"/>
       <c r="E314" s="21"/>
       <c r="F314" s="21"/>
       <c r="G314" s="21"/>
@@ -13379,10 +13785,13 @@
       <c r="U314" s="21"/>
       <c r="V314" s="21"/>
     </row>
-    <row r="315" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B315" s="33" t="s">
+        <v>356</v>
+      </c>
       <c r="C315" s="21"/>
       <c r="D315" s="21" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="E315" s="21"/>
       <c r="F315" s="21"/>
@@ -13403,10 +13812,10 @@
       <c r="U315" s="21"/>
       <c r="V315" s="21"/>
     </row>
-    <row r="316" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C316" s="21"/>
       <c r="D316" s="21" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E316" s="21"/>
       <c r="F316" s="21"/>
@@ -13427,9 +13836,11 @@
       <c r="U316" s="21"/>
       <c r="V316" s="21"/>
     </row>
-    <row r="317" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C317" s="21"/>
-      <c r="D317" s="21"/>
+      <c r="D317" s="21" t="s">
+        <v>163</v>
+      </c>
       <c r="E317" s="21"/>
       <c r="F317" s="21"/>
       <c r="G317" s="21"/>
@@ -13449,9 +13860,11 @@
       <c r="U317" s="21"/>
       <c r="V317" s="21"/>
     </row>
-    <row r="318" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C318" s="21"/>
-      <c r="D318" s="21"/>
+      <c r="D318" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="E318" s="21"/>
       <c r="F318" s="21"/>
       <c r="G318" s="21"/>
@@ -13471,7 +13884,7 @@
       <c r="U318" s="21"/>
       <c r="V318" s="21"/>
     </row>
-    <row r="319" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C319" s="21"/>
       <c r="D319" s="21"/>
       <c r="E319" s="21"/>
@@ -13493,7 +13906,7 @@
       <c r="U319" s="21"/>
       <c r="V319" s="21"/>
     </row>
-    <row r="320" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C320" s="21"/>
       <c r="D320" s="21"/>
       <c r="E320" s="21"/>
@@ -13590,14 +14003,10 @@
       <c r="H324" s="21"/>
       <c r="I324" s="21"/>
       <c r="J324" s="21"/>
-      <c r="K324" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="K324" s="21"/>
       <c r="L324" s="21"/>
       <c r="M324" s="21"/>
-      <c r="N324" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="N324" s="21"/>
       <c r="O324" s="21"/>
       <c r="P324" s="21"/>
       <c r="Q324" s="21"/>
@@ -13619,9 +14028,7 @@
       <c r="K325" s="21"/>
       <c r="L325" s="21"/>
       <c r="M325" s="21"/>
-      <c r="N325" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="N325" s="21"/>
       <c r="O325" s="21"/>
       <c r="P325" s="21"/>
       <c r="Q325" s="21"/>
@@ -13640,11 +14047,13 @@
       <c r="H326" s="21"/>
       <c r="I326" s="21"/>
       <c r="J326" s="21"/>
-      <c r="K326" s="21"/>
+      <c r="K326" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="L326" s="21"/>
       <c r="M326" s="21"/>
       <c r="N326" s="21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O326" s="21"/>
       <c r="P326" s="21"/>
@@ -13667,7 +14076,9 @@
       <c r="K327" s="21"/>
       <c r="L327" s="21"/>
       <c r="M327" s="21"/>
-      <c r="N327" s="21"/>
+      <c r="N327" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="O327" s="21"/>
       <c r="P327" s="21"/>
       <c r="Q327" s="21"/>
@@ -13679,9 +14090,7 @@
     </row>
     <row r="328" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C328" s="21"/>
-      <c r="D328" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="D328" s="21"/>
       <c r="E328" s="21"/>
       <c r="F328" s="21"/>
       <c r="G328" s="21"/>
@@ -13691,7 +14100,9 @@
       <c r="K328" s="21"/>
       <c r="L328" s="21"/>
       <c r="M328" s="21"/>
-      <c r="N328" s="21"/>
+      <c r="N328" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="O328" s="21"/>
       <c r="P328" s="21"/>
       <c r="Q328" s="21"/>
@@ -13704,9 +14115,7 @@
     <row r="329" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C329" s="21"/>
       <c r="D329" s="21"/>
-      <c r="E329" s="21" t="s">
-        <v>113</v>
-      </c>
+      <c r="E329" s="21"/>
       <c r="F329" s="21"/>
       <c r="G329" s="21"/>
       <c r="H329" s="21"/>
@@ -13727,10 +14136,10 @@
     </row>
     <row r="330" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="D330" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E330" s="21"/>
       <c r="F330" s="21"/>
       <c r="G330" s="21"/>
       <c r="H330" s="21"/>
@@ -13752,7 +14161,9 @@
     <row r="331" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C331" s="21"/>
       <c r="D331" s="21"/>
-      <c r="E331" s="21"/>
+      <c r="E331" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
       <c r="H331" s="21"/>
@@ -13775,7 +14186,7 @@
       <c r="C332" s="21"/>
       <c r="D332" s="21"/>
       <c r="E332" s="21" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
@@ -13784,9 +14195,7 @@
       <c r="J332" s="21"/>
       <c r="K332" s="21"/>
       <c r="L332" s="21"/>
-      <c r="M332" s="21" t="s">
-        <v>170</v>
-      </c>
+      <c r="M332" s="21"/>
       <c r="N332" s="21"/>
       <c r="O332" s="21"/>
       <c r="P332" s="21"/>
@@ -13800,9 +14209,7 @@
     <row r="333" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C333" s="21"/>
       <c r="D333" s="21"/>
-      <c r="E333" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="E333" s="21"/>
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
       <c r="H333" s="21"/>
@@ -13823,10 +14230,10 @@
     </row>
     <row r="334" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C334" s="21"/>
-      <c r="D334" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E334" s="21"/>
+      <c r="D334" s="21"/>
+      <c r="E334" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
       <c r="H334" s="21"/>
@@ -13834,7 +14241,9 @@
       <c r="J334" s="21"/>
       <c r="K334" s="21"/>
       <c r="L334" s="21"/>
-      <c r="M334" s="21"/>
+      <c r="M334" s="21" t="s">
+        <v>165</v>
+      </c>
       <c r="N334" s="21"/>
       <c r="O334" s="21"/>
       <c r="P334" s="21"/>
@@ -13849,7 +14258,7 @@
       <c r="C335" s="21"/>
       <c r="D335" s="21"/>
       <c r="E335" s="21" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
@@ -13871,10 +14280,10 @@
     </row>
     <row r="336" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C336" s="21"/>
-      <c r="D336" s="21"/>
-      <c r="E336" s="21" t="s">
-        <v>120</v>
-      </c>
+      <c r="D336" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E336" s="21"/>
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
       <c r="H336" s="21"/>
@@ -13896,10 +14305,10 @@
     <row r="337" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C337" s="21"/>
       <c r="D337" s="21"/>
-      <c r="E337" s="21"/>
-      <c r="F337" s="21" t="s">
-        <v>172</v>
-      </c>
+      <c r="E337" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F337" s="21"/>
       <c r="G337" s="21"/>
       <c r="H337" s="21"/>
       <c r="I337" s="21"/>
@@ -13920,10 +14329,10 @@
     <row r="338" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C338" s="21"/>
       <c r="D338" s="21"/>
-      <c r="E338" s="21"/>
-      <c r="F338" s="21" t="s">
-        <v>173</v>
-      </c>
+      <c r="E338" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F338" s="21"/>
       <c r="G338" s="21"/>
       <c r="H338" s="21"/>
       <c r="I338" s="21"/>
@@ -13943,11 +14352,11 @@
     </row>
     <row r="339" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C339" s="21"/>
-      <c r="D339" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="D339" s="21"/>
       <c r="E339" s="21"/>
-      <c r="F339" s="21"/>
+      <c r="F339" s="21" t="s">
+        <v>167</v>
+      </c>
       <c r="G339" s="21"/>
       <c r="H339" s="21"/>
       <c r="I339" s="21"/>
@@ -13967,11 +14376,11 @@
     </row>
     <row r="340" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C340" s="21"/>
-      <c r="D340" s="20"/>
-      <c r="E340" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F340" s="21"/>
+      <c r="D340" s="21"/>
+      <c r="E340" s="21"/>
+      <c r="F340" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="G340" s="21"/>
       <c r="H340" s="21"/>
       <c r="I340" s="21"/>
@@ -13991,10 +14400,10 @@
     </row>
     <row r="341" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C341" s="21"/>
-      <c r="D341" s="21"/>
-      <c r="E341" s="21" t="s">
-        <v>123</v>
-      </c>
+      <c r="D341" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E341" s="21"/>
       <c r="F341" s="21"/>
       <c r="G341" s="21"/>
       <c r="H341" s="21"/>
@@ -14015,9 +14424,9 @@
     </row>
     <row r="342" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C342" s="21"/>
-      <c r="D342" s="21"/>
+      <c r="D342" s="20"/>
       <c r="E342" s="21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
@@ -14039,10 +14448,10 @@
     </row>
     <row r="343" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C343" s="21"/>
-      <c r="D343" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E343" s="21"/>
+      <c r="D343" s="21"/>
+      <c r="E343" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
       <c r="H343" s="21"/>
@@ -14063,9 +14472,9 @@
     </row>
     <row r="344" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C344" s="21"/>
-      <c r="D344" s="20"/>
+      <c r="D344" s="21"/>
       <c r="E344" s="21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F344" s="21"/>
       <c r="G344" s="21"/>
@@ -14087,10 +14496,10 @@
     </row>
     <row r="345" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C345" s="21"/>
-      <c r="D345" s="21"/>
-      <c r="E345" s="21" t="s">
-        <v>174</v>
-      </c>
+      <c r="D345" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E345" s="21"/>
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
       <c r="H345" s="21"/>
@@ -14111,9 +14520,9 @@
     </row>
     <row r="346" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C346" s="21"/>
-      <c r="D346" s="21"/>
+      <c r="D346" s="20"/>
       <c r="E346" s="21" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
@@ -14135,10 +14544,10 @@
     </row>
     <row r="347" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C347" s="21"/>
-      <c r="D347" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E347" s="21"/>
+      <c r="D347" s="21"/>
+      <c r="E347" s="21" t="s">
+        <v>169</v>
+      </c>
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
       <c r="H347" s="21"/>
@@ -14161,7 +14570,7 @@
       <c r="C348" s="21"/>
       <c r="D348" s="21"/>
       <c r="E348" s="21" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
@@ -14184,7 +14593,7 @@
     <row r="349" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C349" s="21"/>
       <c r="D349" s="20" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="E349" s="21"/>
       <c r="F349" s="21"/>
@@ -14207,9 +14616,9 @@
     </row>
     <row r="350" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C350" s="21"/>
-      <c r="D350" s="20"/>
+      <c r="D350" s="21"/>
       <c r="E350" s="21" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
@@ -14231,10 +14640,10 @@
     </row>
     <row r="351" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C351" s="21"/>
-      <c r="D351" s="20"/>
-      <c r="E351" s="21" t="s">
-        <v>128</v>
-      </c>
+      <c r="D351" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E351" s="21"/>
       <c r="F351" s="21"/>
       <c r="G351" s="21"/>
       <c r="H351" s="21"/>
@@ -14255,10 +14664,10 @@
     </row>
     <row r="352" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C352" s="21"/>
-      <c r="D352" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E352" s="21"/>
+      <c r="D352" s="20"/>
+      <c r="E352" s="21" t="s">
+        <v>122</v>
+      </c>
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
       <c r="H352" s="21"/>
@@ -14281,7 +14690,7 @@
       <c r="C353" s="21"/>
       <c r="D353" s="20"/>
       <c r="E353" s="21" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
@@ -14303,10 +14712,10 @@
     </row>
     <row r="354" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C354" s="21"/>
-      <c r="D354" s="20"/>
-      <c r="E354" s="21" t="s">
-        <v>129</v>
-      </c>
+      <c r="D354" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E354" s="21"/>
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
       <c r="H354" s="21"/>
@@ -14325,12 +14734,60 @@
       <c r="U354" s="21"/>
       <c r="V354" s="21"/>
     </row>
+    <row r="355" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C355" s="21"/>
+      <c r="D355" s="20"/>
+      <c r="E355" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F355" s="21"/>
+      <c r="G355" s="21"/>
+      <c r="H355" s="21"/>
+      <c r="I355" s="21"/>
+      <c r="J355" s="21"/>
+      <c r="K355" s="21"/>
+      <c r="L355" s="21"/>
+      <c r="M355" s="21"/>
+      <c r="N355" s="21"/>
+      <c r="O355" s="21"/>
+      <c r="P355" s="21"/>
+      <c r="Q355" s="21"/>
+      <c r="R355" s="21"/>
+      <c r="S355" s="21"/>
+      <c r="T355" s="21"/>
+      <c r="U355" s="21"/>
+      <c r="V355" s="21"/>
+    </row>
+    <row r="356" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C356" s="21"/>
+      <c r="D356" s="20"/>
+      <c r="E356" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F356" s="21"/>
+      <c r="G356" s="21"/>
+      <c r="H356" s="21"/>
+      <c r="I356" s="21"/>
+      <c r="J356" s="21"/>
+      <c r="K356" s="21"/>
+      <c r="L356" s="21"/>
+      <c r="M356" s="21"/>
+      <c r="N356" s="21"/>
+      <c r="O356" s="21"/>
+      <c r="P356" s="21"/>
+      <c r="Q356" s="21"/>
+      <c r="R356" s="21"/>
+      <c r="S356" s="21"/>
+      <c r="T356" s="21"/>
+      <c r="U356" s="21"/>
+      <c r="V356" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B314:B592 B122:B144 B181:B185 B291:B292 B294 B305:B312 B233:B288 B297:B303 B187:B231 B13:B54 B63:B64 B67:B73 B1:B9 B75:B97 B99:B103 B108:B114 B146:B168 B170:B178">
+  <conditionalFormatting sqref="B316:B594 B123:B145 B182:B186 B293:B294 B296 B307:B314 B234:B290 B299:B305 B188:B232 B13:B54 B64:B65 B68:B74 B1:B9 B76:B98 B100:B104 B109:B115 B147:B169 B171:B179">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>B1&lt;&gt;""</formula>
     </cfRule>
@@ -14342,6 +14799,229 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" style="100"/>
+    <col min="2" max="3" width="14.25" style="100" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="100" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="100" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="100" customWidth="1"/>
+    <col min="7" max="7" width="17" style="100" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="100" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="100" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="100"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="109" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="101" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>554</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>550</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>559</v>
+      </c>
+      <c r="I3" s="101" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="101" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>522</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>538</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>520</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>549</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>558</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="100" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>531</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>530</v>
+      </c>
+      <c r="G5" s="100" t="s">
+        <v>551</v>
+      </c>
+      <c r="H5" s="100" t="s">
+        <v>551</v>
+      </c>
+      <c r="I5" s="100" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="110" t="s">
+        <v>555</v>
+      </c>
+      <c r="F6" s="103"/>
+      <c r="G6" s="100" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="109" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="101" t="s">
+        <v>526</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>515</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="101" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>532</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="100" t="s">
+        <v>516</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>533</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="109" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="101"/>
+      <c r="B16" s="100" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="106" t="s">
+        <v>540</v>
+      </c>
+      <c r="C17" s="106"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="108" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="108" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>545</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L21"/>
   <sheetViews>

--- a/gd/副本系统/封妖设计.xlsx
+++ b/gd/副本系统/封妖设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,10 @@
   </sheets>
   <definedNames>
     <definedName name="_3._友好度按照怪物个体计算_不按照怪物种类计算">封妖逻辑!$F$34</definedName>
-    <definedName name="处于摸摸模式中时_屏蔽换怪操作。">UI逻辑!$E$286</definedName>
-    <definedName name="妲己魅惑">UI逻辑!$C$314</definedName>
+    <definedName name="处于摸摸模式中时_屏蔽换怪操作。">UI逻辑!$E$287</definedName>
+    <definedName name="妲己魅惑">UI逻辑!$C$315</definedName>
     <definedName name="道具方式">UI逻辑!$C$2</definedName>
-    <definedName name="摸摸方式">UI逻辑!$C$116</definedName>
+    <definedName name="摸摸方式">UI逻辑!$C$117</definedName>
     <definedName name="若玩家点击的是不可抓取的怪物_则屏幕弹出IM提示_你不能摸人家啦_人家不会跟你走的">UI逻辑!$F$57</definedName>
     <definedName name="食物类型、食物ID、食物增加的友好度在道具中配置_配置结构如下">封妖逻辑!$G$67</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="563">
   <si>
     <t>抓宠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2275,10 +2275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若选择的怪物友好度已经达到100了，则再对该怪物使用道具时，弹出IM提示：友好度已经达到100了，不要浪费食物啦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若选择的怪物友好度已经达到100了，则选择该怪物时，弹出IM提示：咱俩友好度已经100了，不要再摸啦！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2689,6 +2685,14 @@
   </si>
   <si>
     <t>增加配置结构切页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若选择的怪物友好度已经达到100了，则再对该怪物使用道具时，道具不消耗且弹出IM提示：友好度已经达到100了，不要浪费食物啦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若选择的怪物捕获成功率已经达到100%了，则再对该怪物使用道具时，道具不消耗且弹出IM提示：捕获成功率已经达到满了哦！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3322,6 +3326,26 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3370,6 +3394,32 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3412,55 +3462,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4842,13 +4846,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>231389</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4889,13 +4893,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4936,13 +4940,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4952,7 +4956,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6019801" y="69380099"/>
+          <a:off x="6019801" y="69589649"/>
           <a:ext cx="4400550" cy="2095501"/>
           <a:chOff x="723900" y="21202649"/>
           <a:chExt cx="5130559" cy="2562225"/>
@@ -5033,13 +5037,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5086,13 +5090,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5102,7 +5106,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8286749" y="72294750"/>
+          <a:off x="8286749" y="72504300"/>
           <a:ext cx="571500" cy="542925"/>
           <a:chOff x="3762375" y="2952750"/>
           <a:chExt cx="666750" cy="638175"/>
@@ -5209,13 +5213,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5269,13 +5273,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5328,13 +5332,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>189798</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>66332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5366,13 +5370,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533333</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>47566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5404,13 +5408,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>656756</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>7239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5451,13 +5455,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5489,13 +5493,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5536,13 +5540,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5583,13 +5587,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>388844</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>175747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>493837</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>4297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5667,13 +5671,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504758</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>57092</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5705,13 +5709,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5752,13 +5756,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>53157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5799,13 +5803,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5846,13 +5850,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>98382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5893,13 +5897,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5909,7 +5913,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7410450" y="58940701"/>
+          <a:off x="7410450" y="59150251"/>
           <a:ext cx="2809875" cy="1104900"/>
           <a:chOff x="8020050" y="54816375"/>
           <a:chExt cx="2847975" cy="1057275"/>
@@ -6054,13 +6058,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6113,13 +6117,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6172,13 +6176,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6231,13 +6235,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6247,7 +6251,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8286749" y="37271325"/>
+          <a:off x="8286749" y="37480875"/>
           <a:ext cx="571500" cy="542925"/>
           <a:chOff x="3762375" y="2952750"/>
           <a:chExt cx="666750" cy="638175"/>
@@ -6502,13 +6506,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6549,13 +6553,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6593,13 +6597,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6781,13 +6785,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>7843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>671925</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>131668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6819,13 +6823,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>176625</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6857,13 +6861,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657125</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>133306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6895,13 +6899,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190400</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>152356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6933,13 +6937,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6949,7 +6953,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6677025" y="41605200"/>
+          <a:off x="6677025" y="41814750"/>
           <a:ext cx="5514975" cy="2781300"/>
           <a:chOff x="6696075" y="38042850"/>
           <a:chExt cx="5591175" cy="2781300"/>
@@ -7040,13 +7044,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7056,7 +7060,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6686550" y="52730400"/>
+          <a:off x="6686550" y="52939950"/>
           <a:ext cx="5572125" cy="2505075"/>
           <a:chOff x="6705600" y="48748950"/>
           <a:chExt cx="5648325" cy="2714625"/>
@@ -7477,7 +7481,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7488,7 +7492,7 @@
         <v>131</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -7518,17 +7522,17 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
@@ -7537,76 +7541,76 @@
       <c r="C13" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>139</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>142</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="16" t="s">
         <v>144</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -7657,10 +7661,10 @@
       </c>
       <c r="E24" s="33"/>
       <c r="G24" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
@@ -7668,40 +7672,40 @@
       <c r="C25" s="18">
         <v>42137</v>
       </c>
-      <c r="E25" s="99"/>
+      <c r="E25" s="57"/>
       <c r="G25" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="H25" s="98" t="s">
-        <v>484</v>
+        <v>481</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
       <c r="C26" s="18"/>
-      <c r="H26" s="97" t="s">
-        <v>487</v>
+      <c r="H26" s="55" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
       <c r="C27" s="18"/>
-      <c r="H27" s="97" t="s">
-        <v>513</v>
+      <c r="H27" s="55" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
       <c r="C28" s="18"/>
-      <c r="H28" s="97" t="s">
-        <v>539</v>
+      <c r="H28" s="55" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="C29" s="18"/>
-      <c r="H29" s="111" t="s">
-        <v>561</v>
+      <c r="H29" s="68" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -7763,7 +7767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
@@ -7777,26 +7781,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
     </row>
     <row r="2" spans="2:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
@@ -7810,7 +7814,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="18" x14ac:dyDescent="0.35">
@@ -7847,7 +7851,7 @@
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E13" s="33"/>
       <c r="H13" s="3" t="s">
@@ -7855,10 +7859,10 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
@@ -7870,10 +7874,10 @@
       <c r="B15" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="91"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="48" t="s">
         <v>293</v>
       </c>
@@ -7885,8 +7889,8 @@
       <c r="B16" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="6" t="s">
         <v>38</v>
       </c>
@@ -7895,8 +7899,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="6" t="s">
         <v>39</v>
       </c>
@@ -7965,11 +7969,11 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B24" s="29"/>
       <c r="F24" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
@@ -8065,10 +8069,10 @@
       <c r="I29" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="J29" s="69">
+      <c r="J29" s="83">
         <v>23</v>
       </c>
-      <c r="K29" s="70"/>
+      <c r="K29" s="84"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
@@ -8100,7 +8104,7 @@
         <v>294</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I31" s="34"/>
       <c r="J31" s="49"/>
@@ -8118,10 +8122,10 @@
       <c r="G32" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="83">
         <v>56</v>
       </c>
-      <c r="I32" s="70"/>
+      <c r="I32" s="84"/>
       <c r="J32" s="49"/>
       <c r="K32" s="49"/>
       <c r="L32" s="33"/>
@@ -8148,36 +8152,36 @@
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="F34" s="99" t="s">
-        <v>485</v>
-      </c>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
+      <c r="F34" s="57" t="s">
+        <v>484</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
       <c r="Q34" s="25"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
-      <c r="F35" s="99" t="s">
-        <v>486</v>
-      </c>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
+      <c r="F35" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
       <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
@@ -8238,7 +8242,7 @@
       <c r="B43" s="29"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
@@ -8354,21 +8358,21 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B58" s="29"/>
-      <c r="G58" s="89" t="s">
+      <c r="G58" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89" t="s">
-        <v>537</v>
-      </c>
-      <c r="J58" s="89"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87" t="s">
+        <v>536</v>
+      </c>
+      <c r="J58" s="87"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
-      <c r="G59" s="90" t="s">
+      <c r="G59" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="91"/>
+      <c r="H59" s="89"/>
       <c r="I59" s="86" t="s">
         <v>75</v>
       </c>
@@ -8376,8 +8380,8 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="93"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="91"/>
       <c r="I60" s="86" t="s">
         <v>77</v>
       </c>
@@ -8387,10 +8391,10 @@
       <c r="B61" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="G61" s="94"/>
-      <c r="H61" s="95"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="93"/>
       <c r="I61" s="86" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J61" s="86"/>
     </row>
@@ -8452,7 +8456,7 @@
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B66" s="29"/>
       <c r="F66" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
@@ -8469,7 +8473,7 @@
       <c r="B67" s="29"/>
       <c r="F67" s="33"/>
       <c r="G67" s="33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H67" s="33"/>
       <c r="I67" s="33"/>
@@ -8487,7 +8491,7 @@
       <c r="G68" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="H68" s="104" t="s">
+      <c r="H68" s="62" t="s">
         <v>375</v>
       </c>
       <c r="I68" s="34" t="s">
@@ -8507,13 +8511,13 @@
       <c r="G69" s="35">
         <v>111</v>
       </c>
-      <c r="H69" s="105" t="s">
+      <c r="H69" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="I69" s="69">
+      <c r="I69" s="83">
         <v>20</v>
       </c>
-      <c r="J69" s="70"/>
+      <c r="J69" s="84"/>
       <c r="K69" s="33"/>
       <c r="L69" s="33"/>
       <c r="M69" s="33"/>
@@ -8527,13 +8531,13 @@
       <c r="G70" s="35">
         <v>222</v>
       </c>
-      <c r="H70" s="105" t="s">
+      <c r="H70" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="I70" s="69">
+      <c r="I70" s="83">
         <v>90</v>
       </c>
-      <c r="J70" s="70"/>
+      <c r="J70" s="84"/>
       <c r="K70" s="33"/>
       <c r="L70" s="33"/>
       <c r="M70" s="33"/>
@@ -8678,7 +8682,7 @@
     <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B79" s="29"/>
       <c r="F79" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H79" s="33"/>
     </row>
@@ -8687,7 +8691,7 @@
         <v>287</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N80" s="33"/>
       <c r="O80" s="33"/>
@@ -8769,91 +8773,91 @@
       <c r="I90" s="33"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G91" s="89" t="s">
+      <c r="G91" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="H91" s="89"/>
+      <c r="H91" s="87"/>
       <c r="I91" s="34" t="s">
-        <v>548</v>
-      </c>
-      <c r="J91" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="J91" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="K91" s="80"/>
-      <c r="L91" s="72" t="s">
-        <v>494</v>
-      </c>
-      <c r="M91" s="72"/>
+      <c r="K91" s="106"/>
+      <c r="L91" s="98" t="s">
+        <v>493</v>
+      </c>
+      <c r="M91" s="98"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F92" s="25"/>
-      <c r="G92" s="81" t="s">
+      <c r="G92" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="H92" s="82"/>
-      <c r="I92" s="78">
+      <c r="H92" s="108"/>
+      <c r="I92" s="104">
         <v>5</v>
       </c>
-      <c r="J92" s="71" t="s">
+      <c r="J92" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="K92" s="71"/>
-      <c r="L92" s="74">
+      <c r="K92" s="97"/>
+      <c r="L92" s="100">
         <v>50</v>
       </c>
-      <c r="M92" s="75"/>
+      <c r="M92" s="101"/>
       <c r="N92" s="25"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F93" s="25"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="79"/>
-      <c r="J93" s="71" t="s">
+      <c r="G93" s="109"/>
+      <c r="H93" s="110"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="K93" s="71"/>
-      <c r="L93" s="76"/>
-      <c r="M93" s="77"/>
+      <c r="K93" s="97"/>
+      <c r="L93" s="102"/>
+      <c r="M93" s="103"/>
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F94" s="25"/>
-      <c r="G94" s="85" t="s">
+      <c r="G94" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="H94" s="85"/>
+      <c r="H94" s="95"/>
       <c r="I94" s="44">
         <v>6</v>
       </c>
-      <c r="J94" s="71" t="s">
+      <c r="J94" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="K94" s="71"/>
-      <c r="L94" s="73">
+      <c r="K94" s="97"/>
+      <c r="L94" s="99">
         <v>10</v>
       </c>
-      <c r="M94" s="73"/>
+      <c r="M94" s="99"/>
       <c r="N94" s="25"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F95" s="25"/>
-      <c r="G95" s="85" t="s">
+      <c r="G95" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="H95" s="85"/>
+      <c r="H95" s="95"/>
       <c r="I95" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="J95" s="71" t="s">
+      <c r="J95" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="K95" s="71"/>
-      <c r="L95" s="73" t="s">
+      <c r="K95" s="97"/>
+      <c r="L95" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="M95" s="73"/>
+      <c r="M95" s="99"/>
       <c r="N95" s="25"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -8919,14 +8923,14 @@
         <v>239</v>
       </c>
       <c r="F100" s="25"/>
-      <c r="G100" s="88" t="s">
+      <c r="G100" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H100" s="88"/>
-      <c r="I100" s="88" t="s">
+      <c r="H100" s="96"/>
+      <c r="I100" s="96" t="s">
         <v>304</v>
       </c>
-      <c r="J100" s="88"/>
+      <c r="J100" s="96"/>
       <c r="K100" s="25"/>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
@@ -8937,14 +8941,14 @@
         <v>378</v>
       </c>
       <c r="F101" s="25"/>
-      <c r="G101" s="87" t="s">
+      <c r="G101" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="H101" s="87"/>
-      <c r="I101" s="87">
+      <c r="H101" s="94"/>
+      <c r="I101" s="94">
         <v>10</v>
       </c>
-      <c r="J101" s="87"/>
+      <c r="J101" s="94"/>
       <c r="K101" s="25"/>
       <c r="L101" s="25"/>
       <c r="M101" s="25"/>
@@ -8952,14 +8956,14 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F102" s="25"/>
-      <c r="G102" s="87" t="s">
+      <c r="G102" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="H102" s="87"/>
-      <c r="I102" s="87">
+      <c r="H102" s="94"/>
+      <c r="I102" s="94">
         <v>20</v>
       </c>
-      <c r="J102" s="87"/>
+      <c r="J102" s="94"/>
       <c r="K102" s="25"/>
       <c r="L102" s="25"/>
       <c r="M102" s="25"/>
@@ -9208,29 +9212,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="E1:V1"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="G59:H61"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:J100"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="J94:K94"/>
     <mergeCell ref="J95:K95"/>
@@ -9247,6 +9228,29 @@
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="I62:J62"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="G59:H61"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="E1:V1"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E15:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B83:B98 B100:B108 B110:B1048576 B52:B80 B1:B50">
@@ -9266,10 +9270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB356"/>
+  <dimension ref="A1:AB357"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E286" sqref="E286"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9280,26 +9284,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
     </row>
     <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
@@ -9333,7 +9337,7 @@
         <v>314</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -9394,7 +9398,7 @@
         <v>243</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
@@ -9408,7 +9412,7 @@
         <v>310</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -9531,17 +9535,17 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="F57" s="99" t="s">
-        <v>511</v>
-      </c>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="99"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
+      <c r="F57" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E58" s="25"/>
@@ -9624,7 +9628,7 @@
       <c r="E62" s="53"/>
       <c r="F62" s="52"/>
       <c r="G62" s="52" t="s">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
@@ -9641,174 +9645,167 @@
       <c r="T62" s="52"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+      <c r="E63" s="53"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B64" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="33" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="s">
+    <row r="65" spans="1:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B65" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-    </row>
-    <row r="65" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+    </row>
+    <row r="66" spans="1:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B66" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33" t="s">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="H66" s="33" t="s">
+      <c r="H67" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B67" s="25"/>
-      <c r="F67" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="F68" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A72" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="51" t="s">
-        <v>452</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="52" t="s">
-        <v>472</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="45"/>
-      <c r="S72" s="45"/>
-      <c r="T72" s="25"/>
-      <c r="U72" s="25"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="25"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
+      <c r="G73" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45"/>
       <c r="T73" s="25"/>
       <c r="U73" s="25"/>
     </row>
-    <row r="74" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
-      <c r="Q74" s="45"/>
-      <c r="R74" s="45"/>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
       <c r="S74" s="25"/>
       <c r="T74" s="25"/>
       <c r="U74" s="25"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45" t="s">
-        <v>227</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="F75" s="45"/>
       <c r="G75" s="45"/>
       <c r="H75" s="45"/>
       <c r="I75" s="45"/>
@@ -9827,12 +9824,14 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="B76" s="29"/>
+        <v>260</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>445</v>
+      </c>
       <c r="E76" s="45"/>
       <c r="F76" s="45" t="s">
-        <v>419</v>
+        <v>227</v>
       </c>
       <c r="G76" s="45"/>
       <c r="H76" s="45"/>
@@ -9851,15 +9850,13 @@
       <c r="U76" s="25"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>270</v>
-      </c>
+      <c r="A77" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="29"/>
       <c r="E77" s="45"/>
       <c r="F77" s="45" t="s">
-        <v>223</v>
+        <v>419</v>
       </c>
       <c r="G77" s="45"/>
       <c r="H77" s="45"/>
@@ -9879,10 +9876,15 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>270</v>
       </c>
       <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
+      <c r="F78" s="45" t="s">
+        <v>223</v>
+      </c>
       <c r="G78" s="45"/>
       <c r="H78" s="45"/>
       <c r="I78" s="45"/>
@@ -9901,7 +9903,7 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="45"/>
@@ -9923,15 +9925,10 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="E80" s="45"/>
-      <c r="F80" s="45" t="s">
-        <v>224</v>
-      </c>
+      <c r="F80" s="45"/>
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
       <c r="I80" s="45"/>
@@ -9950,10 +9947,15 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
+      <c r="F81" s="45" t="s">
+        <v>224</v>
+      </c>
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
@@ -9972,7 +9974,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E82" s="45"/>
       <c r="F82" s="45"/>
@@ -9994,7 +9996,7 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
@@ -10008,15 +10010,16 @@
       <c r="N83" s="45"/>
       <c r="O83" s="45"/>
       <c r="P83" s="45"/>
-      <c r="Q83" s="45" t="s">
-        <v>420</v>
-      </c>
+      <c r="Q83" s="45"/>
       <c r="R83" s="45"/>
       <c r="S83" s="25"/>
       <c r="T83" s="25"/>
       <c r="U83" s="25"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A84" s="33" t="s">
+        <v>330</v>
+      </c>
       <c r="E84" s="45"/>
       <c r="F84" s="45"/>
       <c r="G84" s="45"/>
@@ -10029,7 +10032,9 @@
       <c r="N84" s="45"/>
       <c r="O84" s="45"/>
       <c r="P84" s="45"/>
-      <c r="Q84" s="45"/>
+      <c r="Q84" s="45" t="s">
+        <v>420</v>
+      </c>
       <c r="R84" s="45"/>
       <c r="S84" s="25"/>
       <c r="T84" s="25"/>
@@ -10169,13 +10174,8 @@
       <c r="U91" s="25"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="26" t="s">
-        <v>247</v>
-      </c>
       <c r="E92" s="45"/>
-      <c r="F92" s="45" t="s">
-        <v>225</v>
-      </c>
+      <c r="F92" s="45"/>
       <c r="G92" s="45"/>
       <c r="H92" s="45"/>
       <c r="I92" s="45"/>
@@ -10193,9 +10193,12 @@
       <c r="U92" s="25"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A93" s="26" t="s">
+        <v>247</v>
+      </c>
       <c r="E93" s="45"/>
       <c r="F93" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G93" s="45"/>
       <c r="H93" s="45"/>
@@ -10216,7 +10219,7 @@
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E94" s="45"/>
       <c r="F94" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G94" s="45"/>
       <c r="H94" s="45"/>
@@ -10237,7 +10240,7 @@
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E95" s="45"/>
       <c r="F95" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G95" s="45"/>
       <c r="H95" s="45"/>
@@ -10256,122 +10259,130 @@
       <c r="U95" s="25"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="26" t="s">
+      <c r="E96" s="45"/>
+      <c r="F96" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E97" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A97" s="33" t="s">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B98" s="28" t="s">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B99" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H99" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B100" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B99" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B100" s="29"/>
-      <c r="H100" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B101" s="29"/>
-      <c r="G101" s="33" t="s">
-        <v>422</v>
-      </c>
       <c r="H101" s="33" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I101" s="33"/>
       <c r="J101" s="33"/>
       <c r="K101" s="33"/>
-      <c r="L101" s="33"/>
-      <c r="M101" s="33"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G102" s="3" t="s">
+      <c r="B102" s="29"/>
+      <c r="G102" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="H102" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G103" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F103" s="3" t="s">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F104" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A104" s="26" t="s">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B105" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G105" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B106" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="33"/>
-      <c r="L104" s="33"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A105" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="F106" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="33"/>
-      <c r="K106" s="33"/>
-      <c r="L106" s="33"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33" t="s">
-        <v>391</v>
-      </c>
+      <c r="F107" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="G107" s="33"/>
       <c r="H107" s="33"/>
       <c r="I107" s="33"/>
       <c r="J107" s="33"/>
@@ -10383,7 +10394,7 @@
       <c r="B108" s="25"/>
       <c r="F108" s="33"/>
       <c r="G108" s="33" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H108" s="33"/>
       <c r="I108" s="33"/>
@@ -10392,24 +10403,21 @@
       <c r="L108" s="33"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E109" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="F109" s="52"/>
-      <c r="G109" s="52"/>
-      <c r="H109" s="52"/>
-      <c r="I109" s="52"/>
-      <c r="J109" s="52"/>
-      <c r="K109" s="52"/>
-      <c r="L109" s="52"/>
-      <c r="M109" s="52"/>
-      <c r="N109" s="52"/>
-      <c r="O109" s="52"/>
-      <c r="P109" s="52"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="H109" s="33"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="33"/>
+      <c r="L109" s="33"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E110" s="52" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F110" s="52"/>
       <c r="G110" s="52"/>
@@ -10424,24 +10432,27 @@
       <c r="P110" s="52"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D111" s="50" t="s">
+      <c r="E111" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="52"/>
+      <c r="J111" s="52"/>
+      <c r="K111" s="52"/>
+      <c r="L111" s="52"/>
+      <c r="M111" s="52"/>
+      <c r="N111" s="52"/>
+      <c r="O111" s="52"/>
+      <c r="P111" s="52"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D112" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="33"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D112" s="33"/>
-      <c r="E112" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="F112" s="33" t="s">
-        <v>439</v>
-      </c>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
       <c r="G112" s="33"/>
       <c r="H112" s="33"/>
       <c r="I112" s="33"/>
@@ -10450,9 +10461,11 @@
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D113" s="33"/>
       <c r="E113" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="F113" s="33"/>
+        <v>438</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>439</v>
+      </c>
       <c r="G113" s="33"/>
       <c r="H113" s="33"/>
       <c r="I113" s="33"/>
@@ -10460,72 +10473,72 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33" t="s">
-        <v>444</v>
-      </c>
+      <c r="E114" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F114" s="33"/>
       <c r="G114" s="33"/>
       <c r="H114" s="33"/>
       <c r="I114" s="33"/>
       <c r="J114" s="33"/>
     </row>
-    <row r="115" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B115" s="28" t="s">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="33"/>
+    </row>
+    <row r="116" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B116" s="28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="B116" s="33" t="s">
+    <row r="117" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="B117" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B117" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B118" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B119" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="O118" s="25"/>
-      <c r="P118" s="25"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B119" s="25"/>
-      <c r="D119" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B120" s="25"/>
-      <c r="D120" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
+      <c r="D120" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B121" s="25"/>
       <c r="D121" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E121" s="33"/>
       <c r="F121" s="33"/>
@@ -10535,37 +10548,28 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B122" s="25"/>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B123" s="25"/>
+      <c r="D123" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D123" s="4"/>
-      <c r="E123" s="50" t="s">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D124" s="4"/>
+      <c r="E124" s="50" t="s">
         <v>428</v>
       </c>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="25"/>
-      <c r="O123" s="25"/>
-      <c r="P123" s="25"/>
-      <c r="Q123" s="25"/>
-      <c r="R123" s="25"/>
-      <c r="S123" s="25"/>
-      <c r="T123" s="25"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E124" s="25"/>
-      <c r="F124" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="G124" s="25"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
@@ -10581,12 +10585,9 @@
       <c r="T124" s="25"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A125" s="26" t="s">
-        <v>251</v>
-      </c>
       <c r="E125" s="25"/>
       <c r="F125" s="25" t="s">
-        <v>338</v>
+        <v>177</v>
       </c>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
@@ -10595,10 +10596,10 @@
       <c r="K125" s="25"/>
       <c r="L125" s="25"/>
       <c r="M125" s="25"/>
-      <c r="N125" s="33"/>
-      <c r="O125" s="33"/>
-      <c r="P125" s="33"/>
-      <c r="Q125" s="33"/>
+      <c r="N125" s="25"/>
+      <c r="O125" s="25"/>
+      <c r="P125" s="25"/>
+      <c r="Q125" s="25"/>
       <c r="R125" s="25"/>
       <c r="S125" s="25"/>
       <c r="T125" s="25"/>
@@ -10608,40 +10609,43 @@
         <v>251</v>
       </c>
       <c r="E126" s="25"/>
-      <c r="F126" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="24"/>
-      <c r="N126" s="46"/>
-      <c r="O126" s="45"/>
-      <c r="P126" s="45"/>
+      <c r="F126" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="25"/>
+      <c r="L126" s="25"/>
+      <c r="M126" s="25"/>
+      <c r="N126" s="33"/>
+      <c r="O126" s="33"/>
+      <c r="P126" s="33"/>
       <c r="Q126" s="33"/>
       <c r="R126" s="25"/>
       <c r="S126" s="25"/>
       <c r="T126" s="25"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A127" s="26" t="s">
+        <v>251</v>
+      </c>
       <c r="E127" s="25"/>
-      <c r="F127" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="33"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
-      <c r="N127" s="25"/>
-      <c r="O127" s="25"/>
-      <c r="P127" s="25"/>
-      <c r="Q127" s="25"/>
+      <c r="F127" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="46"/>
+      <c r="O127" s="45"/>
+      <c r="P127" s="45"/>
+      <c r="Q127" s="33"/>
       <c r="R127" s="25"/>
       <c r="S127" s="25"/>
       <c r="T127" s="25"/>
@@ -10649,13 +10653,13 @@
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E128" s="25"/>
       <c r="F128" s="25" t="s">
-        <v>213</v>
+        <v>427</v>
       </c>
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
+      <c r="K128" s="33"/>
       <c r="L128" s="25"/>
       <c r="M128" s="25"/>
       <c r="N128" s="25"/>
@@ -10668,7 +10672,9 @@
     </row>
     <row r="129" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
+      <c r="F129" s="25" t="s">
+        <v>213</v>
+      </c>
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
@@ -10937,9 +10943,7 @@
       <c r="T143" s="25"/>
     </row>
     <row r="144" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E144" s="30" t="s">
-        <v>230</v>
-      </c>
+      <c r="E144" s="25"/>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
@@ -10957,13 +10961,10 @@
       <c r="T144" s="25"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B145" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="E145" s="25"/>
-      <c r="F145" s="25" t="s">
-        <v>500</v>
-      </c>
+      <c r="E145" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F145" s="25"/>
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
@@ -10980,12 +10981,12 @@
       <c r="T145" s="25"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B146" s="33" t="s">
-        <v>337</v>
+      <c r="B146" s="28" t="s">
+        <v>275</v>
       </c>
       <c r="E146" s="25"/>
       <c r="F146" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
@@ -11003,21 +11004,24 @@
       <c r="T146" s="25"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B147" s="33" t="s">
+        <v>337</v>
+      </c>
       <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="31"/>
-      <c r="L147" s="31"/>
-      <c r="M147" s="31"/>
-      <c r="N147" s="31"/>
-      <c r="O147" s="31"/>
-      <c r="P147" s="31"/>
-      <c r="Q147" s="31"/>
+      <c r="F147" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="25"/>
+      <c r="N147" s="25"/>
+      <c r="O147" s="25"/>
+      <c r="P147" s="25"/>
+      <c r="Q147" s="25"/>
       <c r="R147" s="25"/>
       <c r="S147" s="25"/>
       <c r="T147" s="25"/>
@@ -11025,10 +11029,10 @@
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31" t="s">
-        <v>179</v>
-      </c>
+      <c r="G148" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H148" s="31"/>
       <c r="I148" s="31"/>
       <c r="J148" s="31"/>
       <c r="K148" s="31"/>
@@ -11047,7 +11051,7 @@
       <c r="F149" s="25"/>
       <c r="G149" s="31"/>
       <c r="H149" s="31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I149" s="31"/>
       <c r="J149" s="31"/>
@@ -11065,33 +11069,30 @@
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
-      <c r="G150" s="52" t="s">
-        <v>464</v>
-      </c>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="25"/>
-      <c r="L150" s="25"/>
-      <c r="M150" s="25"/>
-      <c r="N150" s="25"/>
-      <c r="O150" s="25"/>
-      <c r="P150" s="25"/>
-      <c r="Q150" s="25"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="I150" s="31"/>
+      <c r="J150" s="31"/>
+      <c r="K150" s="31"/>
+      <c r="L150" s="31"/>
+      <c r="M150" s="31"/>
+      <c r="N150" s="31"/>
+      <c r="O150" s="31"/>
+      <c r="P150" s="31"/>
+      <c r="Q150" s="31"/>
       <c r="R150" s="25"/>
       <c r="S150" s="25"/>
       <c r="T150" s="25"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="26" t="s">
-        <v>291</v>
-      </c>
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25" t="s">
-        <v>502</v>
-      </c>
+      <c r="G151" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="H151" s="25"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
       <c r="K151" s="25"/>
@@ -11107,13 +11108,13 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="26" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
       <c r="G152" s="25"/>
       <c r="H152" s="25" t="s">
-        <v>183</v>
+        <v>501</v>
       </c>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -11129,35 +11130,37 @@
       <c r="T152" s="25"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="51" t="s">
-        <v>453</v>
+      <c r="A153" s="26" t="s">
+        <v>257</v>
       </c>
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
       <c r="G153" s="25"/>
-      <c r="H153" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="I153" s="33"/>
-      <c r="J153" s="33"/>
-      <c r="K153" s="33"/>
-      <c r="L153" s="33"/>
-      <c r="M153" s="33"/>
-      <c r="N153" s="33"/>
-      <c r="O153" s="33"/>
-      <c r="P153" s="33"/>
-      <c r="Q153" s="33"/>
-      <c r="R153" s="33"/>
-      <c r="S153" s="33"/>
+      <c r="H153" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="25"/>
+      <c r="M153" s="25"/>
+      <c r="N153" s="25"/>
+      <c r="O153" s="25"/>
+      <c r="P153" s="25"/>
+      <c r="Q153" s="25"/>
+      <c r="R153" s="25"/>
+      <c r="S153" s="25"/>
       <c r="T153" s="25"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="25"/>
+      <c r="A154" s="51" t="s">
+        <v>453</v>
+      </c>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
       <c r="G154" s="25"/>
       <c r="H154" s="33" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I154" s="33"/>
       <c r="J154" s="33"/>
@@ -11176,10 +11179,10 @@
       <c r="A155" s="25"/>
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
-      <c r="G155" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="H155" s="33"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="33" t="s">
+        <v>503</v>
+      </c>
       <c r="I155" s="33"/>
       <c r="J155" s="33"/>
       <c r="K155" s="33"/>
@@ -11189,8 +11192,8 @@
       <c r="O155" s="33"/>
       <c r="P155" s="33"/>
       <c r="Q155" s="33"/>
-      <c r="R155" s="25"/>
-      <c r="S155" s="25"/>
+      <c r="R155" s="33"/>
+      <c r="S155" s="33"/>
       <c r="T155" s="25"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
@@ -11198,7 +11201,7 @@
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
       <c r="G156" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H156" s="33"/>
       <c r="I156" s="33"/>
@@ -11215,34 +11218,32 @@
       <c r="T156" s="25"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A157" s="25"/>
       <c r="E157" s="25"/>
-      <c r="F157" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="25"/>
-      <c r="K157" s="25"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="25"/>
-      <c r="N157" s="25"/>
-      <c r="O157" s="25"/>
-      <c r="P157" s="25"/>
-      <c r="Q157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="H157" s="33"/>
+      <c r="I157" s="33"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="33"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
+      <c r="P157" s="33"/>
+      <c r="Q157" s="33"/>
       <c r="R157" s="25"/>
       <c r="S157" s="25"/>
       <c r="T157" s="25"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B158" s="28" t="s">
-        <v>276</v>
-      </c>
       <c r="E158" s="25"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="25" t="s">
-        <v>505</v>
-      </c>
+      <c r="F158" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
       <c r="J158" s="25"/>
@@ -11258,20 +11259,20 @@
       <c r="T158" s="25"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="51" t="s">
-        <v>454</v>
+      <c r="B159" s="28" t="s">
+        <v>276</v>
       </c>
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
-      <c r="G159" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="33"/>
-      <c r="K159" s="33"/>
-      <c r="L159" s="33"/>
-      <c r="M159" s="33"/>
+      <c r="G159" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="25"/>
+      <c r="M159" s="25"/>
       <c r="N159" s="25"/>
       <c r="O159" s="25"/>
       <c r="P159" s="25"/>
@@ -11281,13 +11282,13 @@
       <c r="T159" s="25"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A160" s="52" t="s">
-        <v>474</v>
+      <c r="A160" s="51" t="s">
+        <v>454</v>
       </c>
       <c r="E160" s="25"/>
       <c r="F160" s="25"/>
       <c r="G160" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H160" s="33"/>
       <c r="I160" s="33"/>
@@ -11304,17 +11305,20 @@
       <c r="T160" s="25"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A161" s="52" t="s">
+        <v>473</v>
+      </c>
       <c r="E161" s="25"/>
-      <c r="F161" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
-      <c r="I161" s="25"/>
-      <c r="J161" s="25"/>
-      <c r="K161" s="25"/>
-      <c r="L161" s="25"/>
-      <c r="M161" s="25"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="H161" s="33"/>
+      <c r="I161" s="33"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="33"/>
+      <c r="L161" s="33"/>
+      <c r="M161" s="33"/>
       <c r="N161" s="25"/>
       <c r="O161" s="25"/>
       <c r="P161" s="25"/>
@@ -11325,10 +11329,10 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E162" s="25"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="25" t="s">
-        <v>202</v>
-      </c>
+      <c r="F162" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
@@ -11346,7 +11350,9 @@
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
-      <c r="G163" s="25"/>
+      <c r="G163" s="25" t="s">
+        <v>202</v>
+      </c>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
@@ -11367,9 +11373,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="25" t="s">
-        <v>204</v>
-      </c>
+      <c r="J164" s="25"/>
       <c r="K164" s="25"/>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -11387,7 +11391,9 @@
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="25"/>
+      <c r="J165" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="K165" s="25"/>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -11400,9 +11406,6 @@
       <c r="T165" s="25"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D166" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="E166" s="25"/>
       <c r="F166" s="25"/>
       <c r="G166" s="25"/>
@@ -11421,10 +11424,10 @@
       <c r="T166" s="25"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D167" s="4"/>
-      <c r="E167" s="25" t="s">
-        <v>216</v>
-      </c>
+      <c r="D167" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E167" s="25"/>
       <c r="F167" s="25"/>
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
@@ -11444,7 +11447,7 @@
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D168" s="4"/>
       <c r="E168" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F168" s="25"/>
       <c r="G168" s="25"/>
@@ -11465,7 +11468,7 @@
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D169" s="4"/>
       <c r="E169" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F169" s="25"/>
       <c r="G169" s="25"/>
@@ -11484,6 +11487,17 @@
       <c r="T169" s="25"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D170" s="4"/>
+      <c r="E170" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="25"/>
+      <c r="K170" s="25"/>
+      <c r="L170" s="25"/>
       <c r="M170" s="25"/>
       <c r="N170" s="25"/>
       <c r="O170" s="25"/>
@@ -11494,17 +11508,6 @@
       <c r="T170" s="25"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D171" s="4"/>
-      <c r="E171" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="25"/>
-      <c r="I171" s="25"/>
-      <c r="J171" s="25"/>
-      <c r="K171" s="25"/>
-      <c r="L171" s="25"/>
       <c r="M171" s="25"/>
       <c r="N171" s="25"/>
       <c r="O171" s="25"/>
@@ -11517,7 +11520,7 @@
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D172" s="4"/>
       <c r="E172" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F172" s="25"/>
       <c r="G172" s="25"/>
@@ -11537,17 +11540,17 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D173" s="4"/>
-      <c r="E173" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="F173" s="33"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="33"/>
-      <c r="I173" s="33"/>
-      <c r="J173" s="33"/>
-      <c r="K173" s="33"/>
-      <c r="L173" s="33"/>
-      <c r="M173" s="33"/>
+      <c r="E173" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="25"/>
+      <c r="K173" s="25"/>
+      <c r="L173" s="25"/>
+      <c r="M173" s="25"/>
       <c r="N173" s="25"/>
       <c r="O173" s="25"/>
       <c r="P173" s="25"/>
@@ -11558,19 +11561,19 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D174" s="4"/>
-      <c r="E174" s="52" t="s">
-        <v>470</v>
-      </c>
-      <c r="F174" s="52"/>
-      <c r="G174" s="52"/>
-      <c r="H174" s="52"/>
-      <c r="I174" s="52"/>
-      <c r="J174" s="52"/>
-      <c r="K174" s="52"/>
-      <c r="L174" s="52"/>
-      <c r="M174" s="52"/>
-      <c r="N174" s="52"/>
-      <c r="O174" s="52"/>
+      <c r="E174" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="33"/>
+      <c r="I174" s="33"/>
+      <c r="J174" s="33"/>
+      <c r="K174" s="33"/>
+      <c r="L174" s="33"/>
+      <c r="M174" s="33"/>
+      <c r="N174" s="25"/>
+      <c r="O174" s="25"/>
       <c r="P174" s="25"/>
       <c r="Q174" s="25"/>
       <c r="R174" s="25"/>
@@ -11579,19 +11582,19 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D175" s="4"/>
-      <c r="E175" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F175" s="25"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="25"/>
-      <c r="I175" s="25"/>
-      <c r="J175" s="25"/>
-      <c r="K175" s="25"/>
-      <c r="L175" s="25"/>
-      <c r="M175" s="25"/>
-      <c r="N175" s="25"/>
-      <c r="O175" s="25"/>
+      <c r="E175" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="F175" s="52"/>
+      <c r="G175" s="52"/>
+      <c r="H175" s="52"/>
+      <c r="I175" s="52"/>
+      <c r="J175" s="52"/>
+      <c r="K175" s="52"/>
+      <c r="L175" s="52"/>
+      <c r="M175" s="52"/>
+      <c r="N175" s="52"/>
+      <c r="O175" s="52"/>
       <c r="P175" s="25"/>
       <c r="Q175" s="25"/>
       <c r="R175" s="25"/>
@@ -11599,17 +11602,14 @@
       <c r="T175" s="25"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="26" t="s">
-        <v>262</v>
-      </c>
       <c r="D176" s="4"/>
-      <c r="E176" s="25"/>
-      <c r="F176" s="25" t="s">
-        <v>346</v>
-      </c>
+      <c r="E176" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F176" s="25"/>
       <c r="G176" s="25"/>
-      <c r="H176" s="33"/>
-      <c r="I176" s="33"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
       <c r="J176" s="25"/>
       <c r="K176" s="25"/>
       <c r="L176" s="25"/>
@@ -11623,17 +11623,17 @@
       <c r="T176" s="25"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="33" t="s">
-        <v>343</v>
+      <c r="A177" s="26" t="s">
+        <v>262</v>
       </c>
       <c r="D177" s="4"/>
-      <c r="E177" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25" t="s">
+        <v>346</v>
+      </c>
       <c r="G177" s="25"/>
-      <c r="H177" s="25"/>
-      <c r="I177" s="25"/>
+      <c r="H177" s="33"/>
+      <c r="I177" s="33"/>
       <c r="J177" s="25"/>
       <c r="K177" s="25"/>
       <c r="L177" s="25"/>
@@ -11647,18 +11647,18 @@
       <c r="T177" s="25"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="51" t="s">
-        <v>455</v>
+      <c r="A178" s="33" t="s">
+        <v>343</v>
       </c>
       <c r="D178" s="4"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="25" t="s">
-        <v>357</v>
-      </c>
+      <c r="E178" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F178" s="25"/>
       <c r="G178" s="25"/>
-      <c r="H178" s="33"/>
-      <c r="I178" s="33"/>
-      <c r="J178" s="33"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="25"/>
       <c r="K178" s="25"/>
       <c r="L178" s="25"/>
       <c r="M178" s="25"/>
@@ -11671,20 +11671,18 @@
       <c r="T178" s="25"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="52" t="s">
-        <v>475</v>
-      </c>
-      <c r="B179" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="E179" s="25"/>
+      <c r="A179" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="30"/>
       <c r="F179" s="25" t="s">
-        <v>189</v>
+        <v>357</v>
       </c>
       <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
-      <c r="I179" s="25"/>
-      <c r="J179" s="25"/>
+      <c r="H179" s="33"/>
+      <c r="I179" s="33"/>
+      <c r="J179" s="33"/>
       <c r="K179" s="25"/>
       <c r="L179" s="25"/>
       <c r="M179" s="25"/>
@@ -11697,12 +11695,15 @@
       <c r="T179" s="25"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B180" s="33" t="s">
-        <v>347</v>
+      <c r="A180" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="B180" s="28" t="s">
+        <v>277</v>
       </c>
       <c r="E180" s="25"/>
       <c r="F180" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
@@ -11721,11 +11722,11 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B181" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E181" s="25"/>
       <c r="F181" s="25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G181" s="25"/>
       <c r="H181" s="25"/>
@@ -11743,11 +11744,14 @@
       <c r="T181" s="25"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B182" s="33" t="s">
+        <v>348</v>
+      </c>
       <c r="E182" s="25"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25" t="s">
-        <v>193</v>
-      </c>
+      <c r="F182" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G182" s="25"/>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
@@ -11764,10 +11768,10 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E183" s="25"/>
-      <c r="F183" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="G183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="25" t="s">
+        <v>193</v>
+      </c>
       <c r="H183" s="25"/>
       <c r="I183" s="25"/>
       <c r="J183" s="25"/>
@@ -11785,7 +11789,7 @@
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E184" s="25"/>
       <c r="F184" s="25" t="s">
-        <v>429</v>
+        <v>190</v>
       </c>
       <c r="G184" s="25"/>
       <c r="H184" s="25"/>
@@ -11805,7 +11809,7 @@
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E185" s="25"/>
       <c r="F185" s="25" t="s">
-        <v>192</v>
+        <v>429</v>
       </c>
       <c r="G185" s="25"/>
       <c r="H185" s="25"/>
@@ -11823,14 +11827,11 @@
       <c r="T185" s="25"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B186" s="28" t="s">
-        <v>278</v>
-      </c>
       <c r="E186" s="25"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="25" t="s">
-        <v>345</v>
-      </c>
+      <c r="F186" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G186" s="25"/>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
@@ -11846,14 +11847,14 @@
       <c r="T186" s="25"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B187" s="33" t="s">
-        <v>344</v>
+      <c r="B187" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="E187" s="25"/>
-      <c r="F187" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="25" t="s">
+        <v>345</v>
+      </c>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
       <c r="J187" s="25"/>
@@ -11869,11 +11870,14 @@
       <c r="T187" s="25"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B188" s="33" t="s">
+        <v>344</v>
+      </c>
       <c r="E188" s="25"/>
-      <c r="F188" s="25"/>
-      <c r="G188" s="25" t="s">
-        <v>102</v>
-      </c>
+      <c r="F188" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G188" s="25"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
       <c r="J188" s="25"/>
@@ -11890,10 +11894,10 @@
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E189" s="25"/>
-      <c r="F189" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G189" s="25"/>
+      <c r="F189" s="25"/>
+      <c r="G189" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
       <c r="J189" s="25"/>
@@ -11910,10 +11914,10 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E190" s="25"/>
-      <c r="F190" s="25"/>
-      <c r="G190" s="25" t="s">
-        <v>195</v>
-      </c>
+      <c r="F190" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G190" s="25"/>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
       <c r="J190" s="25"/>
@@ -11931,7 +11935,9 @@
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E191" s="25"/>
       <c r="F191" s="25"/>
-      <c r="G191" s="25"/>
+      <c r="G191" s="25" t="s">
+        <v>195</v>
+      </c>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
       <c r="J191" s="25"/>
@@ -12181,9 +12187,7 @@
       <c r="T204" s="25"/>
     </row>
     <row r="205" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E205" s="25" t="s">
-        <v>100</v>
-      </c>
+      <c r="E205" s="25"/>
       <c r="F205" s="25"/>
       <c r="G205" s="25"/>
       <c r="H205" s="25"/>
@@ -12201,7 +12205,9 @@
       <c r="T205" s="25"/>
     </row>
     <row r="206" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E206" s="25"/>
+      <c r="E206" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="F206" s="25"/>
       <c r="G206" s="25"/>
       <c r="H206" s="25"/>
@@ -12255,9 +12261,7 @@
       <c r="T208" s="25"/>
     </row>
     <row r="209" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E209" s="30" t="s">
-        <v>85</v>
-      </c>
+      <c r="E209" s="25"/>
       <c r="F209" s="25"/>
       <c r="G209" s="25"/>
       <c r="H209" s="25"/>
@@ -12275,10 +12279,10 @@
       <c r="T209" s="25"/>
     </row>
     <row r="210" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E210" s="30"/>
-      <c r="F210" s="25" t="s">
-        <v>203</v>
-      </c>
+      <c r="E210" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F210" s="25"/>
       <c r="G210" s="25"/>
       <c r="H210" s="25"/>
       <c r="I210" s="25"/>
@@ -12295,9 +12299,9 @@
       <c r="T210" s="25"/>
     </row>
     <row r="211" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E211" s="25"/>
+      <c r="E211" s="30"/>
       <c r="F211" s="25" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G211" s="25"/>
       <c r="H211" s="25"/>
@@ -12316,20 +12320,16 @@
     </row>
     <row r="212" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E212" s="25"/>
-      <c r="F212" s="25"/>
-      <c r="G212" s="25" t="s">
-        <v>197</v>
-      </c>
+      <c r="F212" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G212" s="25"/>
       <c r="H212" s="25"/>
       <c r="I212" s="25"/>
-      <c r="J212" s="25" t="s">
-        <v>204</v>
-      </c>
+      <c r="J212" s="25"/>
       <c r="K212" s="25"/>
       <c r="L212" s="25"/>
-      <c r="M212" s="25" t="s">
-        <v>205</v>
-      </c>
+      <c r="M212" s="25"/>
       <c r="N212" s="25"/>
       <c r="O212" s="25"/>
       <c r="P212" s="25"/>
@@ -12342,14 +12342,18 @@
       <c r="E213" s="25"/>
       <c r="F213" s="25"/>
       <c r="G213" s="25" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="H213" s="25"/>
       <c r="I213" s="25"/>
-      <c r="J213" s="25"/>
+      <c r="J213" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="K213" s="25"/>
       <c r="L213" s="25"/>
-      <c r="M213" s="25"/>
+      <c r="M213" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="N213" s="25"/>
       <c r="O213" s="25"/>
       <c r="P213" s="25"/>
@@ -12361,7 +12365,9 @@
     <row r="214" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E214" s="25"/>
       <c r="F214" s="25"/>
-      <c r="G214" s="25"/>
+      <c r="G214" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="H214" s="25"/>
       <c r="I214" s="25"/>
       <c r="J214" s="25"/>
@@ -12396,9 +12402,7 @@
     </row>
     <row r="216" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E216" s="25"/>
-      <c r="F216" s="25" t="s">
-        <v>206</v>
-      </c>
+      <c r="F216" s="25"/>
       <c r="G216" s="25"/>
       <c r="H216" s="25"/>
       <c r="I216" s="25"/>
@@ -12417,7 +12421,7 @@
     <row r="217" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E217" s="25"/>
       <c r="F217" s="25" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="G217" s="25"/>
       <c r="H217" s="25"/>
@@ -12435,9 +12439,10 @@
       <c r="T217" s="25"/>
     </row>
     <row r="218" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D218" s="30"/>
       <c r="E218" s="25"/>
-      <c r="F218" s="25"/>
+      <c r="F218" s="25" t="s">
+        <v>86</v>
+      </c>
       <c r="G218" s="25"/>
       <c r="H218" s="25"/>
       <c r="I218" s="25"/>
@@ -12682,64 +12687,67 @@
       <c r="T230" s="25"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D231" s="4"/>
+      <c r="D231" s="30"/>
+      <c r="E231" s="25"/>
+      <c r="F231" s="25"/>
+      <c r="G231" s="25"/>
+      <c r="H231" s="25"/>
+      <c r="I231" s="25"/>
+      <c r="J231" s="25"/>
+      <c r="K231" s="25"/>
+      <c r="L231" s="25"/>
+      <c r="M231" s="25"/>
+      <c r="N231" s="25"/>
+      <c r="O231" s="25"/>
+      <c r="P231" s="25"/>
+      <c r="Q231" s="25"/>
+      <c r="R231" s="25"/>
+      <c r="S231" s="25"/>
+      <c r="T231" s="25"/>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B232" s="28" t="s">
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B233" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="D232" s="4" t="s">
+      <c r="D233" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B233" s="33" t="s">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B234" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="D233" s="4"/>
-      <c r="E233" s="3" t="s">
+      <c r="D234" s="4"/>
+      <c r="E234" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A234" s="52" t="s">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A235" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="F235" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A236" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="F236" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A235" s="51" t="s">
-        <v>456</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A236" s="26" t="s">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A237" s="26" t="s">
         <v>253</v>
-      </c>
-      <c r="E236" s="25"/>
-      <c r="F236" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="G236" s="25"/>
-      <c r="H236" s="25"/>
-      <c r="I236" s="25"/>
-      <c r="J236" s="25"/>
-      <c r="K236" s="25"/>
-      <c r="L236" s="25"/>
-      <c r="M236" s="25"/>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A237" s="33" t="s">
-        <v>349</v>
       </c>
       <c r="E237" s="25"/>
       <c r="F237" s="25" t="s">
-        <v>508</v>
+        <v>207</v>
       </c>
       <c r="G237" s="25"/>
       <c r="H237" s="25"/>
@@ -12750,13 +12758,13 @@
       <c r="M237" s="25"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="E238" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F238" s="25"/>
+      <c r="A238" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="E238" s="25"/>
+      <c r="F238" s="25" t="s">
+        <v>507</v>
+      </c>
       <c r="G238" s="25"/>
       <c r="H238" s="25"/>
       <c r="I238" s="25"/>
@@ -12766,10 +12774,13 @@
       <c r="M238" s="25"/>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E239" s="25"/>
-      <c r="F239" s="25" t="s">
-        <v>506</v>
-      </c>
+      <c r="A239" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E239" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F239" s="25"/>
       <c r="G239" s="25"/>
       <c r="H239" s="25"/>
       <c r="I239" s="25"/>
@@ -12779,38 +12790,29 @@
       <c r="M239" s="25"/>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A240" s="26" t="s">
+      <c r="E240" s="25"/>
+      <c r="F240" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="G240" s="25"/>
+      <c r="H240" s="25"/>
+      <c r="I240" s="25"/>
+      <c r="J240" s="25"/>
+      <c r="K240" s="25"/>
+      <c r="L240" s="25"/>
+      <c r="M240" s="25"/>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A241" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="E240" s="25"/>
-      <c r="F240" s="24" t="s">
+      <c r="E241" s="25"/>
+      <c r="F241" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="G240" s="24"/>
-      <c r="H240" s="46"/>
-      <c r="I240" s="24"/>
-      <c r="J240" s="24"/>
-      <c r="K240" s="24"/>
-      <c r="L240" s="24"/>
-      <c r="M240" s="24"/>
-      <c r="N240" s="24"/>
-      <c r="O240" s="24"/>
-      <c r="P240" s="24"/>
-      <c r="Q240" s="24"/>
-      <c r="R240" s="24"/>
-      <c r="S240" s="25"/>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A241" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="E241" s="25"/>
-      <c r="F241" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="G241" s="25"/>
-      <c r="H241" s="25"/>
-      <c r="I241" s="25"/>
+      <c r="G241" s="24"/>
+      <c r="H241" s="46"/>
+      <c r="I241" s="24"/>
       <c r="J241" s="24"/>
       <c r="K241" s="24"/>
       <c r="L241" s="24"/>
@@ -12820,16 +12822,20 @@
       <c r="P241" s="24"/>
       <c r="Q241" s="24"/>
       <c r="R241" s="24"/>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S241" s="25"/>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A242" s="33" t="s">
+        <v>351</v>
+      </c>
       <c r="E242" s="25"/>
       <c r="F242" s="25" t="s">
-        <v>207</v>
+        <v>508</v>
       </c>
       <c r="G242" s="25"/>
       <c r="H242" s="25"/>
       <c r="I242" s="25"/>
-      <c r="J242" s="25"/>
+      <c r="J242" s="24"/>
       <c r="K242" s="24"/>
       <c r="L242" s="24"/>
       <c r="M242" s="24"/>
@@ -12839,49 +12845,48 @@
       <c r="Q242" s="24"/>
       <c r="R242" s="24"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E243" s="25"/>
       <c r="F243" s="25" t="s">
-        <v>508</v>
+        <v>207</v>
       </c>
       <c r="G243" s="25"/>
       <c r="H243" s="25"/>
       <c r="I243" s="25"/>
       <c r="J243" s="25"/>
-      <c r="K243" s="25"/>
-      <c r="L243" s="25"/>
-      <c r="M243" s="25"/>
-    </row>
-    <row r="258" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D258" s="4" t="s">
+      <c r="K243" s="24"/>
+      <c r="L243" s="24"/>
+      <c r="M243" s="24"/>
+      <c r="N243" s="24"/>
+      <c r="O243" s="24"/>
+      <c r="P243" s="24"/>
+      <c r="Q243" s="24"/>
+      <c r="R243" s="24"/>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E244" s="25"/>
+      <c r="F244" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="G244" s="25"/>
+      <c r="H244" s="25"/>
+      <c r="I244" s="25"/>
+      <c r="J244" s="25"/>
+      <c r="K244" s="25"/>
+      <c r="L244" s="25"/>
+      <c r="M244" s="25"/>
+    </row>
+    <row r="259" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D259" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="259" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D259" s="4"/>
-      <c r="E259" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F259" s="25"/>
-      <c r="G259" s="25"/>
-      <c r="H259" s="25"/>
-      <c r="I259" s="25"/>
-      <c r="J259" s="25"/>
-      <c r="K259" s="25"/>
-      <c r="L259" s="25"/>
-      <c r="M259" s="25"/>
-      <c r="N259" s="25"/>
-      <c r="O259" s="25"/>
-      <c r="P259" s="25"/>
-      <c r="Q259" s="25"/>
-      <c r="R259" s="25"/>
     </row>
     <row r="260" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D260" s="4"/>
-      <c r="E260" s="25"/>
-      <c r="F260" s="25" t="s">
-        <v>198</v>
-      </c>
+      <c r="E260" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F260" s="25"/>
       <c r="G260" s="25"/>
       <c r="H260" s="25"/>
       <c r="I260" s="25"/>
@@ -12898,10 +12903,10 @@
     <row r="261" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D261" s="4"/>
       <c r="E261" s="25"/>
-      <c r="F261" s="25"/>
-      <c r="G261" s="25" t="s">
-        <v>432</v>
-      </c>
+      <c r="F261" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G261" s="25"/>
       <c r="H261" s="25"/>
       <c r="I261" s="25"/>
       <c r="J261" s="25"/>
@@ -12919,7 +12924,7 @@
       <c r="E262" s="25"/>
       <c r="F262" s="25"/>
       <c r="G262" s="25" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="H262" s="25"/>
       <c r="I262" s="25"/>
@@ -12936,10 +12941,10 @@
     <row r="263" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D263" s="4"/>
       <c r="E263" s="25"/>
-      <c r="F263" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G263" s="25"/>
+      <c r="F263" s="25"/>
+      <c r="G263" s="25" t="s">
+        <v>200</v>
+      </c>
       <c r="H263" s="25"/>
       <c r="I263" s="25"/>
       <c r="J263" s="25"/>
@@ -12955,10 +12960,10 @@
     <row r="264" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D264" s="4"/>
       <c r="E264" s="25"/>
-      <c r="F264" s="25"/>
-      <c r="G264" s="25" t="s">
-        <v>232</v>
-      </c>
+      <c r="F264" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G264" s="25"/>
       <c r="H264" s="25"/>
       <c r="I264" s="25"/>
       <c r="J264" s="25"/>
@@ -12976,7 +12981,7 @@
       <c r="E265" s="25"/>
       <c r="F265" s="25"/>
       <c r="G265" s="25" t="s">
-        <v>436</v>
+        <v>232</v>
       </c>
       <c r="H265" s="25"/>
       <c r="I265" s="25"/>
@@ -12993,10 +12998,10 @@
     <row r="266" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D266" s="4"/>
       <c r="E266" s="25"/>
-      <c r="F266" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="G266" s="25"/>
+      <c r="F266" s="25"/>
+      <c r="G266" s="25" t="s">
+        <v>436</v>
+      </c>
       <c r="H266" s="25"/>
       <c r="I266" s="25"/>
       <c r="J266" s="25"/>
@@ -13012,11 +13017,11 @@
     <row r="267" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D267" s="4"/>
       <c r="E267" s="25"/>
-      <c r="F267" s="25"/>
-      <c r="G267" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="H267" s="31"/>
+      <c r="F267" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="G267" s="25"/>
+      <c r="H267" s="25"/>
       <c r="I267" s="25"/>
       <c r="J267" s="25"/>
       <c r="K267" s="25"/>
@@ -13032,9 +13037,10 @@
       <c r="D268" s="4"/>
       <c r="E268" s="25"/>
       <c r="F268" s="25"/>
-      <c r="G268" s="25" t="s">
-        <v>234</v>
-      </c>
+      <c r="G268" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="H268" s="31"/>
       <c r="I268" s="25"/>
       <c r="J268" s="25"/>
       <c r="K268" s="25"/>
@@ -13049,30 +13055,29 @@
     <row r="269" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D269" s="4"/>
       <c r="E269" s="25"/>
-      <c r="F269" s="45"/>
-      <c r="G269" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="H269" s="45"/>
-      <c r="I269" s="45"/>
-      <c r="J269" s="45"/>
-      <c r="K269" s="45"/>
-      <c r="L269" s="45"/>
-      <c r="M269" s="45"/>
-      <c r="N269" s="45"/>
-      <c r="O269" s="45"/>
-      <c r="P269" s="45"/>
-      <c r="Q269" s="45"/>
-      <c r="R269" s="31"/>
+      <c r="F269" s="25"/>
+      <c r="G269" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I269" s="25"/>
+      <c r="J269" s="25"/>
+      <c r="K269" s="25"/>
+      <c r="L269" s="25"/>
+      <c r="M269" s="25"/>
+      <c r="N269" s="25"/>
+      <c r="O269" s="25"/>
+      <c r="P269" s="25"/>
+      <c r="Q269" s="25"/>
+      <c r="R269" s="25"/>
     </row>
     <row r="270" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D270" s="4"/>
       <c r="E270" s="25"/>
       <c r="F270" s="45"/>
-      <c r="G270" s="45"/>
-      <c r="H270" s="45" t="s">
-        <v>435</v>
-      </c>
+      <c r="G270" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="H270" s="45"/>
       <c r="I270" s="45"/>
       <c r="J270" s="45"/>
       <c r="K270" s="45"/>
@@ -13090,7 +13095,7 @@
       <c r="F271" s="45"/>
       <c r="G271" s="45"/>
       <c r="H271" s="45" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="I271" s="45"/>
       <c r="J271" s="45"/>
@@ -13109,7 +13114,7 @@
       <c r="F272" s="45"/>
       <c r="G272" s="45"/>
       <c r="H272" s="45" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="I272" s="45"/>
       <c r="J272" s="45"/>
@@ -13122,12 +13127,14 @@
       <c r="Q272" s="45"/>
       <c r="R272" s="31"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D273" s="4"/>
       <c r="E273" s="25"/>
       <c r="F273" s="45"/>
       <c r="G273" s="45"/>
-      <c r="H273" s="45"/>
+      <c r="H273" s="45" t="s">
+        <v>200</v>
+      </c>
       <c r="I273" s="45"/>
       <c r="J273" s="45"/>
       <c r="K273" s="45"/>
@@ -13139,7 +13146,7 @@
       <c r="Q273" s="45"/>
       <c r="R273" s="31"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D274" s="4"/>
       <c r="E274" s="25"/>
       <c r="F274" s="45"/>
@@ -13156,7 +13163,7 @@
       <c r="Q274" s="45"/>
       <c r="R274" s="31"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D275" s="4"/>
       <c r="E275" s="25"/>
       <c r="F275" s="45"/>
@@ -13173,7 +13180,7 @@
       <c r="Q275" s="45"/>
       <c r="R275" s="31"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D276" s="4"/>
       <c r="E276" s="25"/>
       <c r="F276" s="45"/>
@@ -13190,7 +13197,7 @@
       <c r="Q276" s="45"/>
       <c r="R276" s="31"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D277" s="4"/>
       <c r="E277" s="25"/>
       <c r="F277" s="45"/>
@@ -13207,7 +13214,7 @@
       <c r="Q277" s="45"/>
       <c r="R277" s="31"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D278" s="4"/>
       <c r="E278" s="25"/>
       <c r="F278" s="45"/>
@@ -13224,28 +13231,26 @@
       <c r="Q278" s="45"/>
       <c r="R278" s="31"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D279" s="4"/>
       <c r="E279" s="25"/>
-      <c r="F279" s="25"/>
-      <c r="G279" s="25"/>
-      <c r="H279" s="25"/>
-      <c r="I279" s="25"/>
-      <c r="J279" s="25"/>
-      <c r="K279" s="25"/>
-      <c r="L279" s="25"/>
-      <c r="M279" s="25"/>
-      <c r="N279" s="25"/>
-      <c r="O279" s="25"/>
-      <c r="P279" s="25"/>
-      <c r="Q279" s="25"/>
-      <c r="R279" s="25"/>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F279" s="45"/>
+      <c r="G279" s="45"/>
+      <c r="H279" s="45"/>
+      <c r="I279" s="45"/>
+      <c r="J279" s="45"/>
+      <c r="K279" s="45"/>
+      <c r="L279" s="45"/>
+      <c r="M279" s="45"/>
+      <c r="N279" s="45"/>
+      <c r="O279" s="45"/>
+      <c r="P279" s="45"/>
+      <c r="Q279" s="45"/>
+      <c r="R279" s="31"/>
+    </row>
+    <row r="280" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D280" s="4"/>
-      <c r="E280" s="25" t="s">
-        <v>208</v>
-      </c>
+      <c r="E280" s="25"/>
       <c r="F280" s="25"/>
       <c r="G280" s="25"/>
       <c r="H280" s="25"/>
@@ -13260,12 +13265,12 @@
       <c r="Q280" s="25"/>
       <c r="R280" s="25"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D281" s="4"/>
-      <c r="E281" s="25"/>
-      <c r="F281" s="25" t="s">
-        <v>209</v>
-      </c>
+      <c r="E281" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F281" s="25"/>
       <c r="G281" s="25"/>
       <c r="H281" s="25"/>
       <c r="I281" s="25"/>
@@ -13279,10 +13284,11 @@
       <c r="Q281" s="25"/>
       <c r="R281" s="25"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D282" s="4"/>
       <c r="E282" s="25"/>
       <c r="F282" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G282" s="25"/>
       <c r="H282" s="25"/>
@@ -13297,10 +13303,10 @@
       <c r="Q282" s="25"/>
       <c r="R282" s="25"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E283" s="25"/>
       <c r="F283" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G283" s="25"/>
       <c r="H283" s="25"/>
@@ -13315,60 +13321,62 @@
       <c r="Q283" s="25"/>
       <c r="R283" s="25"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D284" s="4" t="s">
+    <row r="284" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E284" s="25"/>
+      <c r="F284" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G284" s="25"/>
+      <c r="H284" s="25"/>
+      <c r="I284" s="25"/>
+      <c r="J284" s="25"/>
+      <c r="K284" s="25"/>
+      <c r="L284" s="25"/>
+      <c r="M284" s="25"/>
+      <c r="N284" s="25"/>
+      <c r="O284" s="25"/>
+      <c r="P284" s="25"/>
+      <c r="Q284" s="25"/>
+      <c r="R284" s="25"/>
+    </row>
+    <row r="285" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D285" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E285" s="3" t="s">
+    <row r="286" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E286" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E286" s="99" t="s">
-        <v>512</v>
-      </c>
-      <c r="F286" s="99"/>
-      <c r="G286" s="99"/>
-      <c r="H286" s="99"/>
-    </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D287" s="4" t="s">
+    <row r="287" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E287" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="F287" s="57"/>
+      <c r="G287" s="57"/>
+      <c r="H287" s="57"/>
+    </row>
+    <row r="288" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D288" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A288" s="26" t="s">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A289" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D288" s="4"/>
-      <c r="E288" s="25" t="s">
+      <c r="D289" s="4"/>
+      <c r="E289" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F288" s="25"/>
-      <c r="G288" s="25"/>
-      <c r="H288" s="25"/>
-      <c r="I288" s="25"/>
-      <c r="J288" s="25"/>
-      <c r="K288" s="25"/>
-      <c r="L288" s="25"/>
-      <c r="M288" s="25"/>
-      <c r="N288" s="25"/>
-      <c r="O288" s="25"/>
-      <c r="P288" s="25"/>
-      <c r="Q288" s="25"/>
-      <c r="R288" s="25"/>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A289" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="D289" s="4"/>
-      <c r="E289" s="25"/>
-      <c r="F289" s="3" t="s">
-        <v>362</v>
-      </c>
+      <c r="F289" s="25"/>
+      <c r="G289" s="25"/>
+      <c r="H289" s="25"/>
+      <c r="I289" s="25"/>
+      <c r="J289" s="25"/>
+      <c r="K289" s="25"/>
+      <c r="L289" s="25"/>
       <c r="M289" s="25"/>
       <c r="N289" s="25"/>
       <c r="O289" s="25"/>
@@ -13377,23 +13385,14 @@
       <c r="R289" s="25"/>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A290" s="51" t="s">
-        <v>457</v>
-      </c>
-      <c r="B290" s="28" t="s">
-        <v>280</v>
+      <c r="A290" s="33" t="s">
+        <v>360</v>
       </c>
       <c r="D290" s="4"/>
       <c r="E290" s="25"/>
-      <c r="F290" s="102" t="s">
-        <v>363</v>
-      </c>
-      <c r="G290" s="102"/>
-      <c r="H290" s="102"/>
-      <c r="I290" s="102"/>
-      <c r="J290" s="102"/>
-      <c r="K290" s="102"/>
-      <c r="L290" s="25"/>
+      <c r="F290" s="3" t="s">
+        <v>362</v>
+      </c>
       <c r="M290" s="25"/>
       <c r="N290" s="25"/>
       <c r="O290" s="25"/>
@@ -13402,23 +13401,23 @@
       <c r="R290" s="25"/>
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A291" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="B291" s="33" t="s">
-        <v>359</v>
+      <c r="A291" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="B291" s="28" t="s">
+        <v>280</v>
       </c>
       <c r="D291" s="4"/>
       <c r="E291" s="25"/>
-      <c r="F291" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="G291" s="24"/>
-      <c r="H291" s="24"/>
-      <c r="I291" s="24"/>
-      <c r="J291" s="24"/>
-      <c r="K291" s="24"/>
-      <c r="L291" s="24"/>
+      <c r="F291" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="G291" s="60"/>
+      <c r="H291" s="60"/>
+      <c r="I291" s="60"/>
+      <c r="J291" s="60"/>
+      <c r="K291" s="60"/>
+      <c r="L291" s="25"/>
       <c r="M291" s="25"/>
       <c r="N291" s="25"/>
       <c r="O291" s="25"/>
@@ -13428,21 +13427,23 @@
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="B292" s="25"/>
+        <v>460</v>
+      </c>
+      <c r="B292" s="33" t="s">
+        <v>359</v>
+      </c>
       <c r="D292" s="4"/>
       <c r="E292" s="25"/>
-      <c r="F292" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="G292" s="46"/>
-      <c r="H292" s="46"/>
-      <c r="I292" s="46"/>
-      <c r="J292" s="46"/>
-      <c r="K292" s="46"/>
-      <c r="L292" s="46"/>
-      <c r="M292" s="24"/>
+      <c r="F292" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="G292" s="24"/>
+      <c r="H292" s="24"/>
+      <c r="I292" s="24"/>
+      <c r="J292" s="24"/>
+      <c r="K292" s="24"/>
+      <c r="L292" s="24"/>
+      <c r="M292" s="25"/>
       <c r="N292" s="25"/>
       <c r="O292" s="25"/>
       <c r="P292" s="25"/>
@@ -13451,39 +13452,36 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A293" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="B293" s="25"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="25"/>
+      <c r="F293" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G293" s="46"/>
+      <c r="H293" s="46"/>
+      <c r="I293" s="46"/>
+      <c r="J293" s="46"/>
+      <c r="K293" s="46"/>
+      <c r="L293" s="46"/>
+      <c r="M293" s="24"/>
+      <c r="N293" s="25"/>
+      <c r="O293" s="25"/>
+      <c r="P293" s="25"/>
+      <c r="Q293" s="25"/>
+      <c r="R293" s="25"/>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A294" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="D293" s="4"/>
-      <c r="E293" s="24" t="s">
+      <c r="D294" s="4"/>
+      <c r="E294" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="F293" s="31"/>
-      <c r="G293" s="31"/>
-      <c r="H293" s="31"/>
-      <c r="I293" s="31"/>
-      <c r="J293" s="31"/>
-      <c r="K293" s="31"/>
-      <c r="L293" s="31"/>
-      <c r="M293" s="31"/>
-      <c r="N293" s="31"/>
-      <c r="O293" s="31"/>
-      <c r="P293" s="31"/>
-      <c r="Q293" s="31"/>
-      <c r="R293" s="31"/>
-      <c r="S293" s="19"/>
-    </row>
-    <row r="294" spans="1:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="A294" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B294" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="D294" s="4"/>
-      <c r="E294" s="31"/>
-      <c r="F294" s="31" t="s">
-        <v>353</v>
-      </c>
+      <c r="F294" s="31"/>
       <c r="G294" s="31"/>
       <c r="H294" s="31"/>
       <c r="I294" s="31"/>
@@ -13498,13 +13496,18 @@
       <c r="R294" s="31"/>
       <c r="S294" s="19"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B295" s="33" t="s">
-        <v>361</v>
+    <row r="295" spans="1:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="A295" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="B295" s="28" t="s">
+        <v>354</v>
       </c>
       <c r="D295" s="4"/>
       <c r="E295" s="31"/>
-      <c r="F295" s="31"/>
+      <c r="F295" s="31" t="s">
+        <v>353</v>
+      </c>
       <c r="G295" s="31"/>
       <c r="H295" s="31"/>
       <c r="I295" s="31"/>
@@ -13519,9 +13522,9 @@
       <c r="R295" s="31"/>
       <c r="S295" s="19"/>
     </row>
-    <row r="296" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="28" t="s">
-        <v>368</v>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B296" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="D296" s="4"/>
       <c r="E296" s="31"/>
@@ -13540,9 +13543,9 @@
       <c r="R296" s="31"/>
       <c r="S296" s="19"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B297" s="33" t="s">
-        <v>361</v>
+    <row r="297" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="28" t="s">
+        <v>368</v>
       </c>
       <c r="D297" s="4"/>
       <c r="E297" s="31"/>
@@ -13562,7 +13565,9 @@
       <c r="S297" s="19"/>
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B298" s="25"/>
+      <c r="B298" s="33" t="s">
+        <v>361</v>
+      </c>
       <c r="D298" s="4"/>
       <c r="E298" s="31"/>
       <c r="F298" s="31"/>
@@ -13581,6 +13586,7 @@
       <c r="S298" s="19"/>
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B299" s="25"/>
       <c r="D299" s="4"/>
       <c r="E299" s="31"/>
       <c r="F299" s="31"/>
@@ -13599,6 +13605,7 @@
       <c r="S299" s="19"/>
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D300" s="4"/>
       <c r="E300" s="31"/>
       <c r="F300" s="31"/>
       <c r="G300" s="31"/>
@@ -13616,11 +13623,8 @@
       <c r="S300" s="19"/>
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D301" s="4"/>
       <c r="E301" s="31"/>
-      <c r="F301" s="31" t="s">
-        <v>355</v>
-      </c>
+      <c r="F301" s="31"/>
       <c r="G301" s="31"/>
       <c r="H301" s="31"/>
       <c r="I301" s="31"/>
@@ -13635,102 +13639,109 @@
       <c r="R301" s="31"/>
       <c r="S301" s="19"/>
     </row>
-    <row r="302" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D302" s="4"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="33" t="s">
+      <c r="E302" s="31"/>
+      <c r="F302" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="G302" s="31"/>
+      <c r="H302" s="31"/>
+      <c r="I302" s="31"/>
+      <c r="J302" s="31"/>
+      <c r="K302" s="31"/>
+      <c r="L302" s="31"/>
+      <c r="M302" s="31"/>
+      <c r="N302" s="31"/>
+      <c r="O302" s="31"/>
+      <c r="P302" s="31"/>
+      <c r="Q302" s="31"/>
+      <c r="R302" s="31"/>
+      <c r="S302" s="19"/>
+    </row>
+    <row r="303" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D303" s="4"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="G302" s="38"/>
-      <c r="H302" s="38"/>
-      <c r="I302" s="38"/>
-      <c r="J302" s="38"/>
-      <c r="K302" s="38"/>
-      <c r="L302" s="38"/>
-      <c r="M302" s="33"/>
-      <c r="N302" s="25"/>
-      <c r="O302" s="25"/>
-      <c r="P302" s="25"/>
-      <c r="Q302" s="25"/>
-      <c r="R302" s="25"/>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D303" s="4" t="s">
+      <c r="G303" s="38"/>
+      <c r="H303" s="38"/>
+      <c r="I303" s="38"/>
+      <c r="J303" s="38"/>
+      <c r="K303" s="38"/>
+      <c r="L303" s="38"/>
+      <c r="M303" s="33"/>
+      <c r="N303" s="25"/>
+      <c r="O303" s="25"/>
+      <c r="P303" s="25"/>
+      <c r="Q303" s="25"/>
+      <c r="R303" s="25"/>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D304" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D304" s="4"/>
-      <c r="E304" s="3" t="s">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D305" s="4"/>
+      <c r="E305" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="305" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A305" s="26" t="s">
+    <row r="306" spans="1:22" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A306" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="B305" s="28" t="s">
+      <c r="B306" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="D305" s="4"/>
-      <c r="F305" s="3" t="s">
+      <c r="D306" s="4"/>
+      <c r="F306" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A306" s="33" t="s">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A307" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="B306" s="33" t="s">
+      <c r="B307" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="F306" s="3" t="s">
+      <c r="F307" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E307" s="3" t="s">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E308" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F308" s="33" t="s">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F309" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="G308" s="33"/>
-      <c r="H308" s="33"/>
-      <c r="I308" s="33"/>
-      <c r="J308" s="33"/>
-      <c r="K308" s="33"/>
-      <c r="L308" s="33"/>
-      <c r="M308" s="33"/>
-      <c r="N308" s="33"/>
-      <c r="O308" s="33"/>
-    </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F309" s="3" t="s">
+      <c r="G309" s="33"/>
+      <c r="H309" s="33"/>
+      <c r="I309" s="33"/>
+      <c r="J309" s="33"/>
+      <c r="K309" s="33"/>
+      <c r="L309" s="33"/>
+      <c r="M309" s="33"/>
+      <c r="N309" s="33"/>
+      <c r="O309" s="33"/>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F310" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D310" s="50" t="s">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D311" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="E310" s="33"/>
-      <c r="F310" s="33"/>
-      <c r="G310" s="33"/>
-      <c r="H310" s="33"/>
-      <c r="I310" s="33"/>
-      <c r="J310" s="33"/>
-    </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D311" s="33"/>
-      <c r="E311" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="F311" s="33" t="s">
-        <v>439</v>
-      </c>
+      <c r="E311" s="33"/>
+      <c r="F311" s="33"/>
       <c r="G311" s="33"/>
       <c r="H311" s="33"/>
       <c r="I311" s="33"/>
@@ -13739,9 +13750,11 @@
     <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D312" s="33"/>
       <c r="E312" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="F312" s="33"/>
+        <v>438</v>
+      </c>
+      <c r="F312" s="33" t="s">
+        <v>439</v>
+      </c>
       <c r="G312" s="33"/>
       <c r="H312" s="33"/>
       <c r="I312" s="33"/>
@@ -13749,50 +13762,34 @@
     </row>
     <row r="313" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D313" s="33"/>
-      <c r="E313" s="33"/>
-      <c r="F313" s="33" t="s">
-        <v>441</v>
-      </c>
+      <c r="E313" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F313" s="33"/>
       <c r="G313" s="33"/>
       <c r="H313" s="33"/>
       <c r="I313" s="33"/>
       <c r="J313" s="33"/>
     </row>
-    <row r="314" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="B314" s="28" t="s">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D314" s="33"/>
+      <c r="E314" s="33"/>
+      <c r="F314" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="G314" s="33"/>
+      <c r="H314" s="33"/>
+      <c r="I314" s="33"/>
+      <c r="J314" s="33"/>
+    </row>
+    <row r="315" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B315" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="C314" s="23" t="s">
+      <c r="C315" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D314" s="21"/>
-      <c r="E314" s="21"/>
-      <c r="F314" s="21"/>
-      <c r="G314" s="21"/>
-      <c r="H314" s="21"/>
-      <c r="I314" s="21"/>
-      <c r="J314" s="21"/>
-      <c r="K314" s="21"/>
-      <c r="L314" s="21"/>
-      <c r="M314" s="21"/>
-      <c r="N314" s="21"/>
-      <c r="O314" s="21"/>
-      <c r="P314" s="21"/>
-      <c r="Q314" s="21"/>
-      <c r="R314" s="21"/>
-      <c r="S314" s="21"/>
-      <c r="T314" s="21"/>
-      <c r="U314" s="21"/>
-      <c r="V314" s="21"/>
-    </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B315" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="C315" s="21"/>
-      <c r="D315" s="21" t="s">
-        <v>106</v>
-      </c>
+      <c r="D315" s="21"/>
       <c r="E315" s="21"/>
       <c r="F315" s="21"/>
       <c r="G315" s="21"/>
@@ -13813,9 +13810,12 @@
       <c r="V315" s="21"/>
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B316" s="33" t="s">
+        <v>356</v>
+      </c>
       <c r="C316" s="21"/>
       <c r="D316" s="21" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="E316" s="21"/>
       <c r="F316" s="21"/>
@@ -13839,7 +13839,7 @@
     <row r="317" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C317" s="21"/>
       <c r="D317" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E317" s="21"/>
       <c r="F317" s="21"/>
@@ -13863,7 +13863,7 @@
     <row r="318" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C318" s="21"/>
       <c r="D318" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E318" s="21"/>
       <c r="F318" s="21"/>
@@ -13886,7 +13886,9 @@
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C319" s="21"/>
-      <c r="D319" s="21"/>
+      <c r="D319" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="E319" s="21"/>
       <c r="F319" s="21"/>
       <c r="G319" s="21"/>
@@ -14047,14 +14049,10 @@
       <c r="H326" s="21"/>
       <c r="I326" s="21"/>
       <c r="J326" s="21"/>
-      <c r="K326" s="21" t="s">
-        <v>125</v>
-      </c>
+      <c r="K326" s="21"/>
       <c r="L326" s="21"/>
       <c r="M326" s="21"/>
-      <c r="N326" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="N326" s="21"/>
       <c r="O326" s="21"/>
       <c r="P326" s="21"/>
       <c r="Q326" s="21"/>
@@ -14073,11 +14071,13 @@
       <c r="H327" s="21"/>
       <c r="I327" s="21"/>
       <c r="J327" s="21"/>
-      <c r="K327" s="21"/>
+      <c r="K327" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="L327" s="21"/>
       <c r="M327" s="21"/>
       <c r="N327" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O327" s="21"/>
       <c r="P327" s="21"/>
@@ -14101,7 +14101,7 @@
       <c r="L328" s="21"/>
       <c r="M328" s="21"/>
       <c r="N328" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O328" s="21"/>
       <c r="P328" s="21"/>
@@ -14124,7 +14124,9 @@
       <c r="K329" s="21"/>
       <c r="L329" s="21"/>
       <c r="M329" s="21"/>
-      <c r="N329" s="21"/>
+      <c r="N329" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="O329" s="21"/>
       <c r="P329" s="21"/>
       <c r="Q329" s="21"/>
@@ -14136,9 +14138,7 @@
     </row>
     <row r="330" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C330" s="21"/>
-      <c r="D330" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="D330" s="21"/>
       <c r="E330" s="21"/>
       <c r="F330" s="21"/>
       <c r="G330" s="21"/>
@@ -14160,10 +14160,10 @@
     </row>
     <row r="331" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C331" s="21"/>
-      <c r="D331" s="21"/>
-      <c r="E331" s="21" t="s">
-        <v>108</v>
-      </c>
+      <c r="D331" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E331" s="21"/>
       <c r="F331" s="21"/>
       <c r="G331" s="21"/>
       <c r="H331" s="21"/>
@@ -14186,7 +14186,7 @@
       <c r="C332" s="21"/>
       <c r="D332" s="21"/>
       <c r="E332" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F332" s="21"/>
       <c r="G332" s="21"/>
@@ -14209,7 +14209,9 @@
     <row r="333" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C333" s="21"/>
       <c r="D333" s="21"/>
-      <c r="E333" s="21"/>
+      <c r="E333" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
       <c r="H333" s="21"/>
@@ -14231,9 +14233,7 @@
     <row r="334" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C334" s="21"/>
       <c r="D334" s="21"/>
-      <c r="E334" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="E334" s="21"/>
       <c r="F334" s="21"/>
       <c r="G334" s="21"/>
       <c r="H334" s="21"/>
@@ -14241,9 +14241,7 @@
       <c r="J334" s="21"/>
       <c r="K334" s="21"/>
       <c r="L334" s="21"/>
-      <c r="M334" s="21" t="s">
-        <v>165</v>
-      </c>
+      <c r="M334" s="21"/>
       <c r="N334" s="21"/>
       <c r="O334" s="21"/>
       <c r="P334" s="21"/>
@@ -14258,7 +14256,7 @@
       <c r="C335" s="21"/>
       <c r="D335" s="21"/>
       <c r="E335" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F335" s="21"/>
       <c r="G335" s="21"/>
@@ -14267,7 +14265,9 @@
       <c r="J335" s="21"/>
       <c r="K335" s="21"/>
       <c r="L335" s="21"/>
-      <c r="M335" s="21"/>
+      <c r="M335" s="21" t="s">
+        <v>165</v>
+      </c>
       <c r="N335" s="21"/>
       <c r="O335" s="21"/>
       <c r="P335" s="21"/>
@@ -14280,10 +14280,10 @@
     </row>
     <row r="336" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C336" s="21"/>
-      <c r="D336" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E336" s="21"/>
+      <c r="D336" s="21"/>
+      <c r="E336" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="F336" s="21"/>
       <c r="G336" s="21"/>
       <c r="H336" s="21"/>
@@ -14304,10 +14304,10 @@
     </row>
     <row r="337" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C337" s="21"/>
-      <c r="D337" s="21"/>
-      <c r="E337" s="21" t="s">
-        <v>166</v>
-      </c>
+      <c r="D337" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E337" s="21"/>
       <c r="F337" s="21"/>
       <c r="G337" s="21"/>
       <c r="H337" s="21"/>
@@ -14330,7 +14330,7 @@
       <c r="C338" s="21"/>
       <c r="D338" s="21"/>
       <c r="E338" s="21" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="F338" s="21"/>
       <c r="G338" s="21"/>
@@ -14353,10 +14353,10 @@
     <row r="339" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C339" s="21"/>
       <c r="D339" s="21"/>
-      <c r="E339" s="21"/>
-      <c r="F339" s="21" t="s">
-        <v>167</v>
-      </c>
+      <c r="E339" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F339" s="21"/>
       <c r="G339" s="21"/>
       <c r="H339" s="21"/>
       <c r="I339" s="21"/>
@@ -14379,7 +14379,7 @@
       <c r="D340" s="21"/>
       <c r="E340" s="21"/>
       <c r="F340" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G340" s="21"/>
       <c r="H340" s="21"/>
@@ -14400,11 +14400,11 @@
     </row>
     <row r="341" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C341" s="21"/>
-      <c r="D341" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="D341" s="21"/>
       <c r="E341" s="21"/>
-      <c r="F341" s="21"/>
+      <c r="F341" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="G341" s="21"/>
       <c r="H341" s="21"/>
       <c r="I341" s="21"/>
@@ -14424,10 +14424,10 @@
     </row>
     <row r="342" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C342" s="21"/>
-      <c r="D342" s="20"/>
-      <c r="E342" s="21" t="s">
-        <v>116</v>
-      </c>
+      <c r="D342" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E342" s="21"/>
       <c r="F342" s="21"/>
       <c r="G342" s="21"/>
       <c r="H342" s="21"/>
@@ -14448,9 +14448,9 @@
     </row>
     <row r="343" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C343" s="21"/>
-      <c r="D343" s="21"/>
+      <c r="D343" s="20"/>
       <c r="E343" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
@@ -14474,7 +14474,7 @@
       <c r="C344" s="21"/>
       <c r="D344" s="21"/>
       <c r="E344" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F344" s="21"/>
       <c r="G344" s="21"/>
@@ -14496,10 +14496,10 @@
     </row>
     <row r="345" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C345" s="21"/>
-      <c r="D345" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E345" s="21"/>
+      <c r="D345" s="21"/>
+      <c r="E345" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
       <c r="H345" s="21"/>
@@ -14520,10 +14520,10 @@
     </row>
     <row r="346" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C346" s="21"/>
-      <c r="D346" s="20"/>
-      <c r="E346" s="21" t="s">
-        <v>120</v>
-      </c>
+      <c r="D346" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E346" s="21"/>
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
       <c r="H346" s="21"/>
@@ -14544,9 +14544,9 @@
     </row>
     <row r="347" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C347" s="21"/>
-      <c r="D347" s="21"/>
+      <c r="D347" s="20"/>
       <c r="E347" s="21" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
@@ -14570,7 +14570,7 @@
       <c r="C348" s="21"/>
       <c r="D348" s="21"/>
       <c r="E348" s="21" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
@@ -14592,10 +14592,10 @@
     </row>
     <row r="349" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C349" s="21"/>
-      <c r="D349" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E349" s="21"/>
+      <c r="D349" s="21"/>
+      <c r="E349" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="F349" s="21"/>
       <c r="G349" s="21"/>
       <c r="H349" s="21"/>
@@ -14616,10 +14616,10 @@
     </row>
     <row r="350" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C350" s="21"/>
-      <c r="D350" s="21"/>
-      <c r="E350" s="21" t="s">
-        <v>171</v>
-      </c>
+      <c r="D350" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E350" s="21"/>
       <c r="F350" s="21"/>
       <c r="G350" s="21"/>
       <c r="H350" s="21"/>
@@ -14640,10 +14640,10 @@
     </row>
     <row r="351" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C351" s="21"/>
-      <c r="D351" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E351" s="21"/>
+      <c r="D351" s="21"/>
+      <c r="E351" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="F351" s="21"/>
       <c r="G351" s="21"/>
       <c r="H351" s="21"/>
@@ -14664,10 +14664,10 @@
     </row>
     <row r="352" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C352" s="21"/>
-      <c r="D352" s="20"/>
-      <c r="E352" s="21" t="s">
-        <v>122</v>
-      </c>
+      <c r="D352" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E352" s="21"/>
       <c r="F352" s="21"/>
       <c r="G352" s="21"/>
       <c r="H352" s="21"/>
@@ -14690,7 +14690,7 @@
       <c r="C353" s="21"/>
       <c r="D353" s="20"/>
       <c r="E353" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F353" s="21"/>
       <c r="G353" s="21"/>
@@ -14712,10 +14712,10 @@
     </row>
     <row r="354" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C354" s="21"/>
-      <c r="D354" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E354" s="21"/>
+      <c r="D354" s="20"/>
+      <c r="E354" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="F354" s="21"/>
       <c r="G354" s="21"/>
       <c r="H354" s="21"/>
@@ -14736,10 +14736,10 @@
     </row>
     <row r="355" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C355" s="21"/>
-      <c r="D355" s="20"/>
-      <c r="E355" s="21" t="s">
-        <v>162</v>
-      </c>
+      <c r="D355" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E355" s="21"/>
       <c r="F355" s="21"/>
       <c r="G355" s="21"/>
       <c r="H355" s="21"/>
@@ -14762,7 +14762,7 @@
       <c r="C356" s="21"/>
       <c r="D356" s="20"/>
       <c r="E356" s="21" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="F356" s="21"/>
       <c r="G356" s="21"/>
@@ -14782,12 +14782,36 @@
       <c r="U356" s="21"/>
       <c r="V356" s="21"/>
     </row>
+    <row r="357" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C357" s="21"/>
+      <c r="D357" s="20"/>
+      <c r="E357" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F357" s="21"/>
+      <c r="G357" s="21"/>
+      <c r="H357" s="21"/>
+      <c r="I357" s="21"/>
+      <c r="J357" s="21"/>
+      <c r="K357" s="21"/>
+      <c r="L357" s="21"/>
+      <c r="M357" s="21"/>
+      <c r="N357" s="21"/>
+      <c r="O357" s="21"/>
+      <c r="P357" s="21"/>
+      <c r="Q357" s="21"/>
+      <c r="R357" s="21"/>
+      <c r="S357" s="21"/>
+      <c r="T357" s="21"/>
+      <c r="U357" s="21"/>
+      <c r="V357" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B316:B594 B123:B145 B182:B186 B293:B294 B296 B307:B314 B234:B290 B299:B305 B188:B232 B13:B54 B64:B65 B68:B74 B1:B9 B76:B98 B100:B104 B109:B115 B147:B169 B171:B179">
+  <conditionalFormatting sqref="B317:B595 B124:B146 B183:B187 B294:B295 B297 B308:B315 B235:B291 B300:B306 B189:B233 B13:B54 B65:B66 B69:B75 B1:B9 B77:B99 B101:B105 B110:B116 B148:B170 B172:B180">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>B1&lt;&gt;""</formula>
     </cfRule>
@@ -14808,208 +14832,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="100"/>
-    <col min="2" max="3" width="14.25" style="100" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="100" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="100" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="100" customWidth="1"/>
-    <col min="7" max="7" width="17" style="100" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="100" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="100" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="100"/>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="3" width="14.25" style="58" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="17" style="58" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="58" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="58" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
-        <v>510</v>
+      <c r="A1" s="59" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="66" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>558</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="101" t="s">
+      <c r="C5" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>530</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>529</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="58" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="66" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>531</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="B12" s="61" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>532</v>
+      </c>
+      <c r="D12" s="61" t="s">
         <v>523</v>
       </c>
-      <c r="D3" s="101" t="s">
-        <v>528</v>
-      </c>
-      <c r="E3" s="101" t="s">
-        <v>553</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>554</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>550</v>
-      </c>
-      <c r="H3" s="101" t="s">
-        <v>559</v>
-      </c>
-      <c r="I3" s="101" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="101" t="s">
-        <v>514</v>
-      </c>
-      <c r="C4" s="101" t="s">
-        <v>522</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>538</v>
-      </c>
-      <c r="E4" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="101" t="s">
-        <v>520</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>549</v>
-      </c>
-      <c r="H4" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="I4" s="101" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="100" t="s">
-        <v>516</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>519</v>
-      </c>
-      <c r="C5" s="103" t="s">
-        <v>524</v>
-      </c>
-      <c r="D5" s="103" t="s">
-        <v>531</v>
-      </c>
-      <c r="E5" s="103" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="66" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="59"/>
+      <c r="B16" s="58" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="111" t="s">
+        <v>539</v>
+      </c>
+      <c r="C17" s="111"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="65" t="s">
+        <v>540</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="65" t="s">
+        <v>542</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>544</v>
+      </c>
+      <c r="C20" s="61" t="s">
         <v>529</v>
-      </c>
-      <c r="F5" s="103" t="s">
-        <v>530</v>
-      </c>
-      <c r="G5" s="100" t="s">
-        <v>551</v>
-      </c>
-      <c r="H5" s="100" t="s">
-        <v>551</v>
-      </c>
-      <c r="I5" s="100" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="110" t="s">
-        <v>555</v>
-      </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="100" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="109" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="101" t="s">
-        <v>526</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>515</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="101" t="s">
-        <v>525</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>532</v>
-      </c>
-      <c r="D11" s="101" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="100" t="s">
-        <v>516</v>
-      </c>
-      <c r="B12" s="103" t="s">
-        <v>527</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>533</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="109" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="101"/>
-      <c r="B16" s="100" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="106" t="s">
-        <v>540</v>
-      </c>
-      <c r="C17" s="106"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="108" t="s">
-        <v>541</v>
-      </c>
-      <c r="C18" s="107" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="108" t="s">
-        <v>543</v>
-      </c>
-      <c r="C19" s="107" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="103" t="s">
-        <v>545</v>
-      </c>
-      <c r="C20" s="103" t="s">
-        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/gd/副本系统/封妖设计.xlsx
+++ b/gd/副本系统/封妖设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="20730" windowHeight="11730" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -22,22 +22,30 @@
   <definedNames>
     <definedName name="_1_投喂怪物喜好的食物_以此增加怪物对玩家的友好度。">封妖逻辑!$G$28</definedName>
     <definedName name="_3._友好度按照怪物个体计算_不按照怪物种类计算">封妖逻辑!$D$15</definedName>
-    <definedName name="处于摸摸模式中时_屏蔽换怪操作。">UI逻辑!$E$239</definedName>
+    <definedName name="处于摸摸模式中时_屏蔽换怪操作。">UI逻辑!$E$240</definedName>
     <definedName name="妲己魅惑">UI逻辑!#REF!</definedName>
     <definedName name="道具方式">UI逻辑!$C$2</definedName>
     <definedName name="道具使用规则">封妖逻辑!$F$42</definedName>
+    <definedName name="点击时小手图标表现">UI逻辑!$F$122</definedName>
     <definedName name="见“摸摸位置的逻辑”">UI逻辑!$G$118</definedName>
-    <definedName name="镜头拉回正常对局镜头_隐藏怪物出现_手状图标消失_左上角设置按钮旁的桃心图标飞出界面_向上飞出">UI逻辑!$G$226</definedName>
+    <definedName name="进入摸摸模式_游戏屏幕中出现一个小手状的图标。">UI逻辑!$D$89</definedName>
+    <definedName name="镜头拉回正常对局镜头_隐藏怪物出现_手状图标消失_左上角设置按钮旁的桃心图标飞出界面_向上飞出">UI逻辑!$G$227</definedName>
+    <definedName name="可使用怪物_投喂的食物道具只能对敌方怪物使用_若玩家点击自己的怪物_则在怪物身上出现禁止使用的图标_闪烁两次后消失。">UI逻辑!$F$52</definedName>
     <definedName name="摸摸方式">UI逻辑!$C$87</definedName>
     <definedName name="摸摸位置的逻辑">封妖逻辑!$G$50</definedName>
+    <definedName name="屏幕上显示摸摸区域_摸摸区域需要一个圆形边框_内部存在半透遮罩。">UI逻辑!$F$140</definedName>
+    <definedName name="屏幕左上角设置图标右侧出现一个带翅膀的桃心。">UI逻辑!$F$141</definedName>
     <definedName name="若玩家点击的是不可抓取的怪物_则屏幕弹出IM提示_你不能摸人家啦_人家不会跟你走的">UI逻辑!$F$57</definedName>
     <definedName name="若选择的怪物捕获成功率已经达到100_了_则再对该怪物使用道具时_道具不消耗且弹出IM提示_捕获成功率已经满了哦_摸也白摸哦">UI逻辑!#REF!</definedName>
     <definedName name="若选择的怪物已使用过道具了_则再对该怪物使用道具时_道具不消耗且弹出IM提示_每个怪物只能使用一次道具哦">UI逻辑!$G$60</definedName>
     <definedName name="食物类型、食物ID、食物增加的友好度在道具中配置_配置结构如下">封妖逻辑!#REF!</definedName>
     <definedName name="通过使用道具增加怪物友好度。">封妖逻辑!$F$21:$H$21</definedName>
+    <definedName name="玩家点击到错误位置时_怪物无反应_在点击位置出现错误图标提示玩家摸错了_图标出现停留0.5秒消失。">UI逻辑!$F$173</definedName>
+    <definedName name="友好度上升动画_投喂食物时使用">UI逻辑!$F$77</definedName>
     <definedName name="友好度是标示怪物跟随玩家的概率_相当于捕获成功率。">封妖逻辑!$D$11</definedName>
+    <definedName name="在道具图标下方_原先照妖镜位置处_增加一个图标_作用为退出使用道具的模式。">UI逻辑!$E$31</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -47,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="431">
   <si>
     <t>抓宠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可使用怪物：投喂的食物、降妖符咒等道具只能对敌方怪物使用，若玩家点击自己的怪物，则在怪物身上出现禁止使用的图标，闪烁两次后消失。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">     直到玩家选择任一只敌方怪物后，完成选择怪物使用道具的操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +253,6 @@
   </si>
   <si>
     <t>动画与某个道具或者某个类型的道具相对应，比如投喂一瓶牛奶，则在怪物上方出现一瓶牛奶倾倒的动画。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为节省成本，可将道具分为几类，制作几类动画即可，比如饮品类、食物类、符咒类等，具体待设计。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -768,10 +768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前面说用符咒提高的是跟随概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>镜头拉倒什么程度，如果想点的方便，建议镜头中只有要摸的怪物自己</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,18 +797,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>画符成功和失败呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是显示“好感度+10”还是显示“20+10”？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关于道具抓宠，辛师傅以前说一场战斗20s，20s我需要用放大镜观察怪喜欢吃啥，然后用一次道具后中间就有间隙，要保证多次用道具的间隙小于20s，才能保证最高概率抓宠（非付费），太难了，中间要是在插入摸摸，更难了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作叫摸摸，结果点击才算摸成功，十分不合理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,18 +902,6 @@
   </si>
   <si>
     <t>前一个切页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以后基本也不用看了，直接投喂就行了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先是20s一场的战斗，多数为副本中的小怪对局，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这种怪本身数量就很多，你用照妖镜看一次他爱吃啥，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1071,14 +1047,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封妖方式（其实是提高宠物对玩家的友好度）一是模仿传统抓妖的方式，比如魅惑、降妖符咒等；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在对局中通过摸摸模式提升怪物友好度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,10 +1080,6 @@
   </si>
   <si>
     <t>若该怪物没有喜好食物，则都算作投喂错误。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已补充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1402,10 +1366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在怪物头左上方弹出“友好度达到【友好度增加到的数字】了哦”，数字从怪物头右上方冒出后上升1s变淡消失。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示：友好度达到30了哦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1447,10 +1407,6 @@
   </si>
   <si>
     <t>填写怪物的id或者一种类型的怪物id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1464,27 +1420,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食物、降妖符咒调用道具通用配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜好食物id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去掉食物类型属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消耗品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1529,10 +1469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提升友好度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加配置结构切页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1542,10 +1478,6 @@
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物喜好的食物可以配置为某个道具的ID。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1609,10 +1541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在屏幕上的落点为B，则在以B点为圆心，以50cm（暂定）为半径的屏幕区域内，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>见“摸摸位置的逻辑”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1625,10 +1553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检测玩家手指点击点与与摸摸点重合，则判定为点击到，否则不算做点击到。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手指不离开滑动，划拉多久多远都白划拉，不算点击操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1681,24 +1605,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以设计某个怪物喜好的食物，以此配置来判定玩家投喂的食物是否正确。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物友好度、喜好食物配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>monster id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>怪物id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写食物id
-多个时用,隔开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1868,19 +1779,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>友好度上升动画（投喂食物时使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 怪物反应以及友好度上升动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸提升友好度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物友好度、喜好食物配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为节省成本，可将道具分为几类，制作几类动画即可，比如饮品类、食物类等，具体待设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用怪物：投喂的食物道具只能对敌方怪物使用，若玩家点击自己的怪物，则在怪物身上出现禁止使用的图标，闪烁两次后消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖方式（其实是提高宠物对玩家的友好度）一是模仿传统抓妖的方式，比如魅惑等；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测玩家手指抬起点与摸摸点重合，则判定为点击到，否则不算做点击到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加摸摸区域的UI显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 摸摸区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小手图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 摸摸指示桃心（屏幕左上角）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃心空心、填满状态、桃心内部秒数倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示桃心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕上显示摸摸区域，摸摸区域需要一个圆形边框，内部存在半透遮罩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3. 友好度上升提示文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 摸摸指示桃心（屏幕左上角）、桃心内部秒数倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友好度上升动画（投喂食物时使用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 怪物反应以及友好度上升动画</t>
+    <t>在屏幕上的落点为B，则在以B点为圆心，以150像素（暂定）为半径的屏幕区域内，称为摸摸区域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以设计某个怪物喜好的食物类型，以此配置来判定玩家投喂的食物是否正确。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在怪物头左上方弹出“友好度上升【友好度增加的数字】了哦”，数字从怪物头右上方冒出后上升1s变淡消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜好食物类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写食物类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物喜好的食物配置为食物类型，每种怪物喜好的食物类型只有一种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物调用道具通用配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">addAttrType </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">addAttrValue </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改食物调用道具通用配置表属性名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2086,7 +2117,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2132,6 +2163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,7 +2381,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2419,6 +2456,12 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2467,12 +2510,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2503,13 +2550,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF00CC99"/>
-      <color rgb="FF66CCFF"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3856,13 +3903,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>231389</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3903,13 +3950,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4026,13 +4073,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>656756</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>7239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4073,13 +4120,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4111,13 +4158,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4158,13 +4205,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4205,13 +4252,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>388844</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>175747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>493837</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>4297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4468,13 +4515,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>98382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4531,7 +4578,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8286749" y="28889325"/>
+          <a:off x="8286749" y="28051125"/>
           <a:ext cx="571500" cy="542925"/>
           <a:chOff x="3762375" y="2952750"/>
           <a:chExt cx="666750" cy="638175"/>
@@ -4930,13 +4977,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>7843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>671925</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>131668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4968,13 +5015,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>176625</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5006,13 +5053,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657125</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>133306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5044,13 +5091,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190400</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>152356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5082,13 +5129,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5098,7 +5145,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6677025" y="33223200"/>
+          <a:off x="6677025" y="32594550"/>
           <a:ext cx="5514975" cy="2781300"/>
           <a:chOff x="6696075" y="38042850"/>
           <a:chExt cx="5591175" cy="2781300"/>
@@ -5189,13 +5236,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5205,7 +5252,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6686550" y="44348400"/>
+          <a:off x="6686550" y="43719750"/>
           <a:ext cx="5572125" cy="2505075"/>
           <a:chOff x="6705600" y="48748950"/>
           <a:chExt cx="5648325" cy="2714625"/>
@@ -5337,6 +5384,248 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="椭圆 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="33547050"/>
+          <a:ext cx="971550" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="66CCFF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504323</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>199734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="4029075"/>
+          <a:ext cx="4019048" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3143250" y="5657850"/>
+          <a:ext cx="609600" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1409700" y="4619625"/>
+          <a:ext cx="1057276" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="5886450"/>
+          <a:ext cx="466725" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5605,10 +5894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N37"/>
+  <dimension ref="A2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5623,10 +5912,10 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -5634,151 +5923,151 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
+      <c r="B12" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+        <v>93</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+        <v>92</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -5787,16 +6076,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="16">
         <v>42102</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
@@ -5806,10 +6095,10 @@
       </c>
       <c r="E24" s="25"/>
       <c r="G24" s="8" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
@@ -5819,38 +6108,38 @@
       </c>
       <c r="E25" s="35"/>
       <c r="G25" s="8" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
       <c r="C26" s="16"/>
       <c r="H26" s="33" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
       <c r="C27" s="16"/>
       <c r="H27" s="33" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="16"/>
       <c r="H28" s="33" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="16"/>
       <c r="H29" s="42" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -5860,16 +6149,16 @@
       </c>
       <c r="E30" s="45"/>
       <c r="G30" s="8" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -5877,7 +6166,7 @@
       <c r="C31" s="16"/>
       <c r="E31" s="45"/>
       <c r="H31" s="33" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
@@ -5887,18 +6176,18 @@
       <c r="C32" s="16"/>
       <c r="E32" s="45"/>
       <c r="H32" s="36" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -5906,13 +6195,13 @@
       <c r="C33" s="16"/>
       <c r="E33" s="45"/>
       <c r="H33" s="33" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
@@ -5923,7 +6212,7 @@
       <c r="C34" s="16"/>
       <c r="E34" s="45"/>
       <c r="H34" s="33" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
@@ -5932,36 +6221,67 @@
       <c r="N34" s="33"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="16"/>
+      <c r="E35" s="45"/>
+      <c r="H35" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+    </row>
+    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B36" s="7"/>
+      <c r="C36" s="16">
+        <v>42153</v>
+      </c>
+      <c r="E36" s="69"/>
+      <c r="G36" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>430</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
       <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5990,6 +6310,8 @@
     <hyperlink ref="H33" location="道具使用规则" display="增加道具使用限制"/>
     <hyperlink ref="J33" location="道具使用规则" display="位置1"/>
     <hyperlink ref="K33" location="若选择的怪物已使用过道具了_则再对该怪物使用道具时_道具不消耗且弹出IM提示_每个怪物只能使用一次道具哦" display="位置2"/>
+    <hyperlink ref="H35" location="屏幕上显示摸摸区域_摸摸区域需要一个圆形边框_内部存在半透遮罩。" display="增加摸摸区域的UI显示"/>
+    <hyperlink ref="H36" location="配置结构!B12" display="修改食物调用道具通用配置表属性名称"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5999,8 +6321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6013,26 +6335,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
@@ -6046,7 +6368,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.35">
@@ -6056,7 +6378,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
-        <v>251</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -6071,7 +6393,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" s="43" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
@@ -6087,7 +6409,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="43" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -6105,7 +6427,7 @@
       <c r="A13" s="19"/>
       <c r="B13" s="22"/>
       <c r="D13" s="43" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
@@ -6123,7 +6445,7 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="D14" s="43" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
@@ -6141,7 +6463,7 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15" s="22"/>
       <c r="D15" s="35" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -6158,7 +6480,7 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="D16" s="35" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -6203,14 +6525,14 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="E20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="E21" s="4"/>
       <c r="F21" s="43" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
@@ -6225,14 +6547,14 @@
       <c r="B23" s="22"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="E24" s="4"/>
       <c r="F24" s="3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
@@ -6245,19 +6567,19 @@
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="E26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="F27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="G28" s="43" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
@@ -6267,25 +6589,25 @@
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="19"/>
       <c r="G29" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="F30" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="G31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
       <c r="F32" s="43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
@@ -6300,11 +6622,11 @@
     </row>
     <row r="33" spans="1:24" ht="33" x14ac:dyDescent="0.3">
       <c r="B33" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="43" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
@@ -6320,7 +6642,7 @@
       <c r="B34" s="22"/>
       <c r="F34" s="43"/>
       <c r="G34" s="43" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
@@ -6336,7 +6658,7 @@
       <c r="B35" s="22"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
@@ -6352,12 +6674,12 @@
       <c r="A36" s="19"/>
       <c r="B36" s="22"/>
       <c r="F36" s="43"/>
-      <c r="G36" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
+      <c r="G36" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
       <c r="K36" s="43"/>
       <c r="L36" s="43"/>
       <c r="M36" s="43"/>
@@ -6368,7 +6690,7 @@
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
       <c r="F37" s="43" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="43"/>
@@ -6385,7 +6707,7 @@
       <c r="B38" s="22"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="H38" s="43"/>
       <c r="I38" s="43"/>
@@ -6400,16 +6722,16 @@
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
       <c r="F39" s="3" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B40" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
@@ -6424,10 +6746,10 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
@@ -6438,7 +6760,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="43" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="43"/>
@@ -6452,7 +6774,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="43"/>
       <c r="G43" s="43" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="H43" s="43"/>
       <c r="I43" s="43"/>
@@ -6472,36 +6794,36 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F46" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G47" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="H50" s="43"/>
       <c r="I50" s="43"/>
@@ -6516,7 +6838,7 @@
       <c r="A51" s="19"/>
       <c r="G51" s="43"/>
       <c r="H51" s="43" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="I51" s="43"/>
       <c r="J51" s="43"/>
@@ -6530,7 +6852,7 @@
       <c r="A52" s="19"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="I52" s="43"/>
       <c r="J52" s="43"/>
@@ -6544,7 +6866,7 @@
       <c r="A53" s="19"/>
       <c r="G53" s="43"/>
       <c r="H53" s="43" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="I53" s="43"/>
       <c r="J53" s="43"/>
@@ -6556,19 +6878,19 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G54" s="3" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G55" s="25" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F56" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
@@ -6581,11 +6903,11 @@
     </row>
     <row r="57" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -6597,11 +6919,11 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B58" s="25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -6615,7 +6937,7 @@
       <c r="B59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -6627,7 +6949,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F60" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
@@ -6641,7 +6963,7 @@
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -6653,11 +6975,11 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B62" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -6670,10 +6992,10 @@
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
@@ -6686,11 +7008,11 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="19" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="19"/>
@@ -6702,11 +7024,11 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="25" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
@@ -6718,11 +7040,11 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="25" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
@@ -6734,7 +7056,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F67" s="43" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="G67" s="43"/>
       <c r="H67" s="43"/>
@@ -6745,7 +7067,7 @@
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F68" s="43"/>
       <c r="G68" s="43" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="H68" s="43"/>
       <c r="I68" s="43"/>
@@ -6755,7 +7077,7 @@
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F69" s="43"/>
       <c r="G69" s="43" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="H69" s="43"/>
       <c r="I69" s="43"/>
@@ -6783,10 +7105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB257"/>
+  <dimension ref="A1:AB258"/>
   <sheetViews>
-    <sheetView topLeftCell="B181" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView topLeftCell="A65" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6797,26 +7119,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
     </row>
     <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
@@ -6831,15 +7153,15 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>39</v>
@@ -6847,10 +7169,10 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -6866,13 +7188,13 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -6887,13 +7209,13 @@
     </row>
     <row r="8" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -6908,10 +7230,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
@@ -6919,34 +7241,34 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O12" s="19"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F24" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
@@ -6956,36 +7278,36 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E28" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G29" s="25"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E32" s="25" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
@@ -7004,17 +7326,17 @@
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F47" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E49" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -7029,27 +7351,27 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F52" s="3" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G53" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G55" s="3" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F57" s="35" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
@@ -7063,7 +7385,7 @@
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E58" s="19"/>
       <c r="F58" s="25" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
@@ -7084,7 +7406,7 @@
       <c r="E59" s="32"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="H59" s="31"/>
       <c r="I59" s="31"/>
@@ -7104,7 +7426,7 @@
       <c r="E60" s="32"/>
       <c r="F60" s="43"/>
       <c r="G60" s="43" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="H60" s="43"/>
       <c r="I60" s="43"/>
@@ -7122,25 +7444,25 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="T61" s="19"/>
     </row>
     <row r="62" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
@@ -7148,22 +7470,22 @@
     </row>
     <row r="63" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
       <c r="B64" s="25" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
@@ -7171,47 +7493,48 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B65" s="19"/>
       <c r="F65" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
+      <c r="B70" s="22"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -7231,47 +7554,43 @@
       <c r="U70" s="19"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="A71" s="19"/>
+      <c r="B71" s="22"/>
       <c r="E71" s="3" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
-        <v>250</v>
-      </c>
+      <c r="A72" s="19"/>
+      <c r="B72" s="22"/>
       <c r="F72" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B73" s="21" t="s">
-        <v>188</v>
-      </c>
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
       <c r="G73" s="3" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B74" s="25" t="s">
-        <v>261</v>
-      </c>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
       <c r="G74" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B75" s="22"/>
       <c r="H75" s="25" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
@@ -7279,23 +7598,23 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G76" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F77" s="3" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
@@ -7304,18 +7623,21 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="G79" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E80" s="31" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
@@ -7331,7 +7653,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E81" s="31" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
@@ -7347,7 +7669,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D82" s="29" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
@@ -7359,10 +7681,10 @@
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D83" s="25"/>
       <c r="E83" s="25" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
@@ -7370,9 +7692,10 @@
       <c r="J83" s="25"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B84" s="22"/>
       <c r="D84" s="25"/>
       <c r="E84" s="25" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
@@ -7381,46 +7704,39 @@
       <c r="J84" s="25"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B85" s="22"/>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="25" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" spans="1:20" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B86" s="21" t="s">
-        <v>190</v>
-      </c>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B86" s="22"/>
     </row>
     <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="B87" s="25" t="s">
-        <v>218</v>
-      </c>
+      <c r="B87" s="19"/>
       <c r="C87" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B88" s="25" t="s">
-        <v>219</v>
-      </c>
+      <c r="B88" s="19"/>
       <c r="D88" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B89" s="25" t="s">
-        <v>217</v>
-      </c>
+      <c r="B89" s="19"/>
       <c r="D89" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I89" s="19"/>
       <c r="J89" s="19"/>
@@ -7430,13 +7746,13 @@
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B90" s="19"/>
       <c r="D90" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B91" s="19"/>
       <c r="D91" s="25" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
@@ -7447,7 +7763,7 @@
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B92" s="19"/>
       <c r="D92" s="25" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
@@ -7458,13 +7774,13 @@
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B93" s="19"/>
       <c r="D93" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D94" s="4"/>
       <c r="E94" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
@@ -7485,7 +7801,7 @@
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E95" s="19"/>
       <c r="F95" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
@@ -7504,11 +7820,11 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="19" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
@@ -7527,11 +7843,11 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="18" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
@@ -7551,7 +7867,7 @@
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E98" s="19"/>
       <c r="F98" s="19" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
@@ -7571,7 +7887,7 @@
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E99" s="19"/>
       <c r="F99" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
@@ -7860,7 +8176,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E115" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
@@ -7880,11 +8196,11 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B116" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="19" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
@@ -7903,11 +8219,11 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B117" s="25" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="19" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
@@ -7928,7 +8244,7 @@
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
       <c r="G118" s="44" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="H118" s="43"/>
       <c r="I118" s="43"/>
@@ -7947,7 +8263,7 @@
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E119" s="19"/>
       <c r="F119" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
@@ -7966,14 +8282,14 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B120" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
       <c r="G120" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="H120" s="19"/>
+        <v>404</v>
+      </c>
+      <c r="H120" s="43"/>
       <c r="I120" s="43"/>
       <c r="J120" s="43"/>
       <c r="K120" s="19"/>
@@ -7992,7 +8308,7 @@
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
       <c r="G121" s="25" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
@@ -8011,7 +8327,7 @@
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E122" s="19"/>
       <c r="F122" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
@@ -8032,7 +8348,7 @@
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
       <c r="G123" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -8073,7 +8389,7 @@
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
       <c r="J125" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K125" s="19"/>
       <c r="L125" s="19"/>
@@ -8106,7 +8422,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D127" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
@@ -8128,7 +8444,7 @@
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D128" s="4"/>
       <c r="E128" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
@@ -8149,7 +8465,7 @@
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D129" s="4"/>
       <c r="E129" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
@@ -8170,7 +8486,7 @@
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D130" s="4"/>
       <c r="E130" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
@@ -8201,7 +8517,7 @@
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D132" s="4"/>
       <c r="E132" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
@@ -8222,7 +8538,7 @@
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D133" s="4"/>
       <c r="E133" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
@@ -8243,7 +8559,7 @@
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D134" s="4"/>
       <c r="E134" s="25" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
@@ -8264,7 +8580,7 @@
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D135" s="4"/>
       <c r="E135" s="31" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F135" s="31"/>
       <c r="G135" s="31"/>
@@ -8285,7 +8601,7 @@
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D136" s="4"/>
       <c r="E136" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
@@ -8305,12 +8621,12 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="19"/>
       <c r="F137" s="19" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G137" s="19"/>
       <c r="H137" s="25"/>
@@ -8329,11 +8645,11 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
@@ -8353,12 +8669,12 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="30" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="23"/>
       <c r="F139" s="19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G139" s="19"/>
       <c r="H139" s="25"/>
@@ -8376,22 +8692,18 @@
       <c r="T139" s="19"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="B140" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
+      <c r="A140" s="19"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="43"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="43"/>
       <c r="M140" s="19"/>
       <c r="N140" s="19"/>
       <c r="O140" s="19"/>
@@ -8402,12 +8714,15 @@
       <c r="T140" s="19"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B141" s="25" t="s">
-        <v>227</v>
+      <c r="A141" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G141" s="19"/>
       <c r="H141" s="19"/>
@@ -8426,11 +8741,11 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B142" s="25" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
@@ -8448,11 +8763,14 @@
       <c r="T142" s="19"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B143" s="25" t="s">
+        <v>220</v>
+      </c>
       <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="F143" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G143" s="19"/>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
       <c r="J143" s="19"/>
@@ -8469,10 +8787,10 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E144" s="19"/>
-      <c r="F144" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
       <c r="J144" s="19"/>
@@ -8490,7 +8808,7 @@
     <row r="145" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E145" s="19"/>
       <c r="F145" s="19" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="G145" s="19"/>
       <c r="H145" s="19"/>
@@ -8510,7 +8828,7 @@
     <row r="146" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E146" s="19"/>
       <c r="F146" s="19" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="G146" s="19"/>
       <c r="H146" s="19"/>
@@ -8528,14 +8846,11 @@
       <c r="T146" s="19"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B147" s="21" t="s">
-        <v>194</v>
-      </c>
       <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19" t="s">
-        <v>225</v>
-      </c>
+      <c r="F147" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G147" s="19"/>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
       <c r="J147" s="19"/>
@@ -8551,14 +8866,14 @@
       <c r="T147" s="19"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B148" s="25" t="s">
-        <v>224</v>
+      <c r="B148" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="E148" s="19"/>
-      <c r="F148" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19" t="s">
+        <v>217</v>
+      </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
       <c r="J148" s="19"/>
@@ -8574,11 +8889,14 @@
       <c r="T148" s="19"/>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B149" s="25" t="s">
+        <v>216</v>
+      </c>
       <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19" t="s">
-        <v>82</v>
-      </c>
+      <c r="F149" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G149" s="19"/>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
       <c r="J149" s="19"/>
@@ -8595,10 +8913,10 @@
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E150" s="19"/>
-      <c r="F150" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
       <c r="J150" s="19"/>
@@ -8615,10 +8933,10 @@
     </row>
     <row r="151" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="F151" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G151" s="19"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
       <c r="J151" s="19"/>
@@ -8636,7 +8954,9 @@
     <row r="152" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
+      <c r="G152" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="19"/>
@@ -8886,9 +9206,7 @@
       <c r="T165" s="19"/>
     </row>
     <row r="166" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E166" s="19" t="s">
-        <v>80</v>
-      </c>
+      <c r="E166" s="19"/>
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
@@ -8906,7 +9224,9 @@
       <c r="T166" s="19"/>
     </row>
     <row r="167" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E167" s="19"/>
+      <c r="E167" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
@@ -8960,9 +9280,7 @@
       <c r="T169" s="19"/>
     </row>
     <row r="170" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E170" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="E170" s="19"/>
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
       <c r="H170" s="19"/>
@@ -8980,10 +9298,10 @@
       <c r="T170" s="19"/>
     </row>
     <row r="171" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E171" s="23"/>
-      <c r="F171" s="19" t="s">
-        <v>138</v>
-      </c>
+      <c r="E171" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F171" s="19"/>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -9000,9 +9318,9 @@
       <c r="T171" s="19"/>
     </row>
     <row r="172" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E172" s="19"/>
+      <c r="E172" s="23"/>
       <c r="F172" s="19" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
@@ -9021,20 +9339,16 @@
     </row>
     <row r="173" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="F173" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G173" s="19"/>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
-      <c r="J173" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="J173" s="19"/>
       <c r="K173" s="19"/>
       <c r="L173" s="19"/>
-      <c r="M173" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="M173" s="19"/>
       <c r="N173" s="19"/>
       <c r="O173" s="19"/>
       <c r="P173" s="19"/>
@@ -9047,14 +9361,18 @@
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
       <c r="G174" s="19" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
+      <c r="J174" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="K174" s="19"/>
       <c r="L174" s="19"/>
-      <c r="M174" s="19"/>
+      <c r="M174" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="N174" s="19"/>
       <c r="O174" s="19"/>
       <c r="P174" s="19"/>
@@ -9066,7 +9384,9 @@
     <row r="175" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
+      <c r="G175" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
       <c r="J175" s="19"/>
@@ -9101,9 +9421,7 @@
     </row>
     <row r="177" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E177" s="19"/>
-      <c r="F177" s="19" t="s">
-        <v>141</v>
-      </c>
+      <c r="F177" s="19"/>
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -9122,7 +9440,7 @@
     <row r="178" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E178" s="19"/>
       <c r="F178" s="19" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="G178" s="19"/>
       <c r="H178" s="19"/>
@@ -9140,12 +9458,13 @@
       <c r="T178" s="19"/>
     </row>
     <row r="179" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D179" s="23"/>
       <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
+      <c r="F179" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G179" s="50"/>
+      <c r="H179" s="50"/>
+      <c r="I179" s="50"/>
       <c r="J179" s="19"/>
       <c r="K179" s="19"/>
       <c r="L179" s="19"/>
@@ -9387,64 +9706,67 @@
       <c r="T191" s="19"/>
     </row>
     <row r="192" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D192" s="4"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="19"/>
+      <c r="N192" s="19"/>
+      <c r="O192" s="19"/>
+      <c r="P192" s="19"/>
+      <c r="Q192" s="19"/>
+      <c r="R192" s="19"/>
+      <c r="S192" s="19"/>
+      <c r="T192" s="19"/>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B193" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="D193" s="4"/>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B194" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D194" s="4"/>
-      <c r="E194" s="3" t="s">
-        <v>115</v>
+      <c r="B194" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A195" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>310</v>
+      <c r="B195" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A196" s="30" t="s">
-        <v>283</v>
+      <c r="A196" s="31" t="s">
+        <v>273</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A197" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G197" s="19"/>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
-      <c r="K197" s="19"/>
-      <c r="L197" s="19"/>
-      <c r="M197" s="19"/>
+      <c r="A197" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A198" s="25" t="s">
-        <v>229</v>
+      <c r="A198" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="E198" s="19"/>
       <c r="F198" s="19" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="G198" s="19"/>
       <c r="H198" s="19"/>
@@ -9455,153 +9777,155 @@
       <c r="M198" s="19"/>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A199" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E199" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="F199" s="65"/>
-      <c r="G199" s="65"/>
-      <c r="H199" s="65"/>
-      <c r="I199" s="65"/>
-      <c r="J199" s="65"/>
-      <c r="K199" s="65"/>
-      <c r="L199" s="65"/>
-      <c r="M199" s="65"/>
-      <c r="N199" s="65"/>
-      <c r="O199" s="65"/>
-      <c r="P199" s="65"/>
-      <c r="Q199" s="65"/>
-      <c r="R199" s="65"/>
+      <c r="A199" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E199" s="19"/>
+      <c r="F199" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="G199" s="50"/>
+      <c r="H199" s="50"/>
+      <c r="I199" s="50"/>
+      <c r="J199" s="50"/>
+      <c r="K199" s="50"/>
+      <c r="L199" s="50"/>
+      <c r="M199" s="50"/>
+      <c r="N199" s="50"/>
+      <c r="O199" s="50"/>
+      <c r="P199" s="50"/>
+      <c r="Q199" s="50"/>
+      <c r="R199" s="50"/>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E200" s="65"/>
-      <c r="F200" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="G200" s="65"/>
-      <c r="H200" s="65"/>
-      <c r="I200" s="65"/>
-      <c r="J200" s="65"/>
-      <c r="K200" s="65"/>
-      <c r="L200" s="65"/>
-      <c r="M200" s="65"/>
-      <c r="N200" s="65"/>
-      <c r="O200" s="65"/>
-      <c r="P200" s="65"/>
-      <c r="Q200" s="65"/>
-      <c r="R200" s="65"/>
+      <c r="A200" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E200" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F200" s="48"/>
+      <c r="G200" s="48"/>
+      <c r="H200" s="48"/>
+      <c r="I200" s="48"/>
+      <c r="J200" s="48"/>
+      <c r="K200" s="48"/>
+      <c r="L200" s="48"/>
+      <c r="M200" s="48"/>
+      <c r="N200" s="48"/>
+      <c r="O200" s="48"/>
+      <c r="P200" s="48"/>
+      <c r="Q200" s="48"/>
+      <c r="R200" s="48"/>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A201" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E201" s="65"/>
-      <c r="F201" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="G201" s="65"/>
-      <c r="H201" s="65"/>
-      <c r="I201" s="65"/>
-      <c r="J201" s="65"/>
-      <c r="K201" s="65"/>
-      <c r="L201" s="65"/>
-      <c r="M201" s="65"/>
-      <c r="N201" s="65"/>
-      <c r="O201" s="65"/>
-      <c r="P201" s="65"/>
-      <c r="Q201" s="65"/>
-      <c r="R201" s="65"/>
-      <c r="S201" s="19"/>
+      <c r="E201" s="48"/>
+      <c r="F201" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="G201" s="48"/>
+      <c r="H201" s="48"/>
+      <c r="I201" s="48"/>
+      <c r="J201" s="48"/>
+      <c r="K201" s="48"/>
+      <c r="L201" s="48"/>
+      <c r="M201" s="48"/>
+      <c r="N201" s="48"/>
+      <c r="O201" s="48"/>
+      <c r="P201" s="48"/>
+      <c r="Q201" s="48"/>
+      <c r="R201" s="48"/>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A202" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E202" s="65"/>
-      <c r="F202" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="G202" s="65"/>
-      <c r="H202" s="65"/>
-      <c r="I202" s="65"/>
-      <c r="J202" s="65"/>
-      <c r="K202" s="65"/>
-      <c r="L202" s="65"/>
-      <c r="M202" s="65"/>
-      <c r="N202" s="65"/>
-      <c r="O202" s="65"/>
-      <c r="P202" s="65"/>
-      <c r="Q202" s="65"/>
-      <c r="R202" s="65"/>
+      <c r="A202" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E202" s="48"/>
+      <c r="F202" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="G202" s="48"/>
+      <c r="H202" s="48"/>
+      <c r="I202" s="48"/>
+      <c r="J202" s="48"/>
+      <c r="K202" s="48"/>
+      <c r="L202" s="48"/>
+      <c r="M202" s="48"/>
+      <c r="N202" s="48"/>
+      <c r="O202" s="48"/>
+      <c r="P202" s="48"/>
+      <c r="Q202" s="48"/>
+      <c r="R202" s="48"/>
+      <c r="S202" s="19"/>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E203" s="65"/>
-      <c r="F203" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="G203" s="65"/>
-      <c r="H203" s="65"/>
-      <c r="I203" s="65"/>
-      <c r="J203" s="65"/>
-      <c r="K203" s="65"/>
-      <c r="L203" s="65"/>
-      <c r="M203" s="65"/>
-      <c r="N203" s="65"/>
-      <c r="O203" s="65"/>
-      <c r="P203" s="65"/>
-      <c r="Q203" s="65"/>
-      <c r="R203" s="65"/>
+      <c r="A203" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E203" s="48"/>
+      <c r="F203" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="G203" s="48"/>
+      <c r="H203" s="48"/>
+      <c r="I203" s="48"/>
+      <c r="J203" s="48"/>
+      <c r="K203" s="48"/>
+      <c r="L203" s="48"/>
+      <c r="M203" s="48"/>
+      <c r="N203" s="48"/>
+      <c r="O203" s="48"/>
+      <c r="P203" s="48"/>
+      <c r="Q203" s="48"/>
+      <c r="R203" s="48"/>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E204" s="19"/>
-      <c r="F204" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="G204" s="24"/>
-      <c r="H204" s="24"/>
-      <c r="I204" s="24"/>
-      <c r="J204" s="24"/>
-      <c r="K204" s="24"/>
-      <c r="L204" s="24"/>
-      <c r="M204" s="24"/>
-      <c r="N204" s="17"/>
-      <c r="O204" s="17"/>
-      <c r="P204" s="17"/>
-      <c r="Q204" s="17"/>
-      <c r="R204" s="17"/>
-    </row>
-    <row r="219" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D219" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E204" s="48"/>
+      <c r="F204" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G204" s="48"/>
+      <c r="H204" s="48"/>
+      <c r="I204" s="48"/>
+      <c r="J204" s="48"/>
+      <c r="K204" s="48"/>
+      <c r="L204" s="48"/>
+      <c r="M204" s="48"/>
+      <c r="N204" s="48"/>
+      <c r="O204" s="48"/>
+      <c r="P204" s="48"/>
+      <c r="Q204" s="48"/>
+      <c r="R204" s="48"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E205" s="19"/>
+      <c r="F205" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="G205" s="24"/>
+      <c r="H205" s="24"/>
+      <c r="I205" s="24"/>
+      <c r="J205" s="24"/>
+      <c r="K205" s="24"/>
+      <c r="L205" s="24"/>
+      <c r="M205" s="24"/>
+      <c r="N205" s="17"/>
+      <c r="O205" s="17"/>
+      <c r="P205" s="17"/>
+      <c r="Q205" s="17"/>
+      <c r="R205" s="17"/>
     </row>
     <row r="220" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D220" s="4"/>
-      <c r="E220" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F220" s="19"/>
-      <c r="G220" s="19"/>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="19"/>
-      <c r="K220" s="19"/>
-      <c r="L220" s="19"/>
-      <c r="M220" s="19"/>
-      <c r="N220" s="19"/>
-      <c r="O220" s="19"/>
-      <c r="P220" s="19"/>
-      <c r="Q220" s="19"/>
-      <c r="R220" s="19"/>
+      <c r="D220" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="221" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D221" s="4"/>
-      <c r="E221" s="19"/>
-      <c r="F221" s="19" t="s">
-        <v>133</v>
-      </c>
+      <c r="E221" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F221" s="19"/>
       <c r="G221" s="19"/>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -9618,10 +9942,10 @@
     <row r="222" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D222" s="4"/>
       <c r="E222" s="19"/>
-      <c r="F222" s="19"/>
-      <c r="G222" s="19" t="s">
-        <v>268</v>
-      </c>
+      <c r="F222" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G222" s="19"/>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
       <c r="J222" s="19"/>
@@ -9639,7 +9963,7 @@
       <c r="E223" s="19"/>
       <c r="F223" s="19"/>
       <c r="G223" s="19" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -9656,10 +9980,10 @@
     <row r="224" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D224" s="4"/>
       <c r="E224" s="19"/>
-      <c r="F224" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G224" s="19"/>
+      <c r="F224" s="19"/>
+      <c r="G224" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
       <c r="J224" s="19"/>
@@ -9675,10 +9999,10 @@
     <row r="225" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D225" s="4"/>
       <c r="E225" s="19"/>
-      <c r="F225" s="19"/>
-      <c r="G225" s="19" t="s">
-        <v>159</v>
-      </c>
+      <c r="F225" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G225" s="19"/>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
       <c r="J225" s="19"/>
@@ -9695,19 +10019,19 @@
       <c r="D226" s="4"/>
       <c r="E226" s="19"/>
       <c r="F226" s="19"/>
-      <c r="G226" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="H226" s="43"/>
-      <c r="I226" s="43"/>
-      <c r="J226" s="43"/>
-      <c r="K226" s="43"/>
-      <c r="L226" s="43"/>
-      <c r="M226" s="43"/>
-      <c r="N226" s="43"/>
-      <c r="O226" s="43"/>
-      <c r="P226" s="43"/>
-      <c r="Q226" s="43"/>
+      <c r="G226" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H226" s="19"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="19"/>
+      <c r="K226" s="19"/>
+      <c r="L226" s="19"/>
+      <c r="M226" s="19"/>
+      <c r="N226" s="19"/>
+      <c r="O226" s="19"/>
+      <c r="P226" s="19"/>
+      <c r="Q226" s="19"/>
       <c r="R226" s="19"/>
     </row>
     <row r="227" spans="4:18" x14ac:dyDescent="0.3">
@@ -9715,7 +10039,7 @@
       <c r="E227" s="19"/>
       <c r="F227" s="19"/>
       <c r="G227" s="43" t="s">
-        <v>363</v>
+        <v>257</v>
       </c>
       <c r="H227" s="43"/>
       <c r="I227" s="43"/>
@@ -9733,28 +10057,28 @@
       <c r="D228" s="4"/>
       <c r="E228" s="19"/>
       <c r="F228" s="19"/>
-      <c r="G228" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="19"/>
-      <c r="K228" s="19"/>
-      <c r="L228" s="19"/>
-      <c r="M228" s="19"/>
-      <c r="N228" s="19"/>
-      <c r="O228" s="19"/>
-      <c r="P228" s="19"/>
-      <c r="Q228" s="19"/>
+      <c r="G228" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="H228" s="43"/>
+      <c r="I228" s="43"/>
+      <c r="J228" s="43"/>
+      <c r="K228" s="43"/>
+      <c r="L228" s="43"/>
+      <c r="M228" s="43"/>
+      <c r="N228" s="43"/>
+      <c r="O228" s="43"/>
+      <c r="P228" s="43"/>
+      <c r="Q228" s="43"/>
       <c r="R228" s="19"/>
     </row>
     <row r="229" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D229" s="4"/>
       <c r="E229" s="19"/>
-      <c r="F229" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="G229" s="19"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="19" t="s">
+        <v>258</v>
+      </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
       <c r="J229" s="19"/>
@@ -9770,10 +10094,11 @@
     <row r="230" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D230" s="4"/>
       <c r="E230" s="19"/>
-      <c r="F230" s="19"/>
-      <c r="G230" s="19" t="s">
-        <v>161</v>
-      </c>
+      <c r="F230" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G230" s="19"/>
+      <c r="H230" s="19"/>
       <c r="I230" s="19"/>
       <c r="J230" s="19"/>
       <c r="K230" s="19"/>
@@ -9789,19 +10114,18 @@
       <c r="D231" s="4"/>
       <c r="E231" s="19"/>
       <c r="F231" s="19"/>
-      <c r="G231" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="H231" s="43"/>
-      <c r="I231" s="43"/>
-      <c r="J231" s="43"/>
-      <c r="K231" s="43"/>
-      <c r="L231" s="43"/>
-      <c r="M231" s="43"/>
-      <c r="N231" s="43"/>
-      <c r="O231" s="43"/>
-      <c r="P231" s="43"/>
-      <c r="Q231" s="43"/>
+      <c r="G231" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I231" s="19"/>
+      <c r="J231" s="19"/>
+      <c r="K231" s="19"/>
+      <c r="L231" s="19"/>
+      <c r="M231" s="19"/>
+      <c r="N231" s="19"/>
+      <c r="O231" s="19"/>
+      <c r="P231" s="19"/>
+      <c r="Q231" s="19"/>
       <c r="R231" s="19"/>
     </row>
     <row r="232" spans="4:18" x14ac:dyDescent="0.3">
@@ -9809,7 +10133,7 @@
       <c r="E232" s="19"/>
       <c r="F232" s="19"/>
       <c r="G232" s="43" t="s">
-        <v>364</v>
+        <v>257</v>
       </c>
       <c r="H232" s="43"/>
       <c r="I232" s="43"/>
@@ -9825,29 +10149,29 @@
     </row>
     <row r="233" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D233" s="4"/>
-      <c r="E233" s="19" t="s">
-        <v>143</v>
-      </c>
+      <c r="E233" s="19"/>
       <c r="F233" s="19"/>
-      <c r="G233" s="19"/>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="19"/>
-      <c r="K233" s="19"/>
-      <c r="L233" s="19"/>
-      <c r="M233" s="19"/>
-      <c r="N233" s="19"/>
-      <c r="O233" s="19"/>
-      <c r="P233" s="19"/>
-      <c r="Q233" s="19"/>
+      <c r="G233" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="H233" s="43"/>
+      <c r="I233" s="43"/>
+      <c r="J233" s="43"/>
+      <c r="K233" s="43"/>
+      <c r="L233" s="43"/>
+      <c r="M233" s="43"/>
+      <c r="N233" s="43"/>
+      <c r="O233" s="43"/>
+      <c r="P233" s="43"/>
+      <c r="Q233" s="43"/>
       <c r="R233" s="19"/>
     </row>
     <row r="234" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D234" s="4"/>
-      <c r="E234" s="19"/>
-      <c r="F234" s="19" t="s">
-        <v>144</v>
-      </c>
+      <c r="E234" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F234" s="19"/>
       <c r="G234" s="19"/>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -9862,9 +10186,10 @@
       <c r="R234" s="19"/>
     </row>
     <row r="235" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D235" s="4"/>
       <c r="E235" s="19"/>
       <c r="F235" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G235" s="19"/>
       <c r="H235" s="19"/>
@@ -9882,7 +10207,7 @@
     <row r="236" spans="4:18" x14ac:dyDescent="0.3">
       <c r="E236" s="19"/>
       <c r="F236" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G236" s="19"/>
       <c r="H236" s="19"/>
@@ -9898,59 +10223,61 @@
       <c r="R236" s="19"/>
     </row>
     <row r="237" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D237" s="4" t="s">
+      <c r="E237" s="19"/>
+      <c r="F237" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G237" s="19"/>
+      <c r="H237" s="19"/>
+      <c r="I237" s="19"/>
+      <c r="J237" s="19"/>
+      <c r="K237" s="19"/>
+      <c r="L237" s="19"/>
+      <c r="M237" s="19"/>
+      <c r="N237" s="19"/>
+      <c r="O237" s="19"/>
+      <c r="P237" s="19"/>
+      <c r="Q237" s="19"/>
+      <c r="R237" s="19"/>
+    </row>
+    <row r="238" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D238" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="239" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E239" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="240" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E240" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="F240" s="35"/>
+      <c r="G240" s="35"/>
+      <c r="H240" s="35"/>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D241" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="238" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E238" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="239" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E239" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="F239" s="35"/>
-      <c r="G239" s="35"/>
-      <c r="H239" s="35"/>
-    </row>
-    <row r="240" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D240" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A241" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D241" s="4"/>
-      <c r="E241" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F241" s="19"/>
-      <c r="G241" s="19"/>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="19"/>
-      <c r="K241" s="19"/>
-      <c r="L241" s="19"/>
-      <c r="M241" s="19"/>
-      <c r="N241" s="19"/>
-      <c r="O241" s="19"/>
-      <c r="P241" s="19"/>
-      <c r="Q241" s="19"/>
-      <c r="R241" s="19"/>
-    </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A242" s="25" t="s">
-        <v>236</v>
+      <c r="A242" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="D242" s="4"/>
-      <c r="E242" s="19"/>
-      <c r="F242" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="E242" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F242" s="19"/>
+      <c r="G242" s="19"/>
+      <c r="H242" s="19"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="19"/>
+      <c r="K242" s="19"/>
+      <c r="L242" s="19"/>
       <c r="M242" s="19"/>
       <c r="N242" s="19"/>
       <c r="O242" s="19"/>
@@ -9960,22 +10287,13 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="B243" s="25" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D243" s="4"/>
       <c r="E243" s="19"/>
-      <c r="F243" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G243" s="18"/>
-      <c r="H243" s="18"/>
-      <c r="I243" s="18"/>
-      <c r="J243" s="18"/>
-      <c r="K243" s="18"/>
-      <c r="L243" s="18"/>
+      <c r="F243" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="M243" s="19"/>
       <c r="N243" s="19"/>
       <c r="O243" s="19"/>
@@ -9985,21 +10303,23 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="B244" s="19"/>
+        <v>274</v>
+      </c>
+      <c r="B244" s="25" t="s">
+        <v>227</v>
+      </c>
       <c r="D244" s="4"/>
       <c r="E244" s="19"/>
-      <c r="F244" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G244" s="28"/>
-      <c r="H244" s="28"/>
-      <c r="I244" s="28"/>
-      <c r="J244" s="28"/>
-      <c r="K244" s="28"/>
-      <c r="L244" s="28"/>
-      <c r="M244" s="18"/>
+      <c r="F244" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="G244" s="18"/>
+      <c r="H244" s="18"/>
+      <c r="I244" s="18"/>
+      <c r="J244" s="18"/>
+      <c r="K244" s="18"/>
+      <c r="L244" s="18"/>
+      <c r="M244" s="19"/>
       <c r="N244" s="19"/>
       <c r="O244" s="19"/>
       <c r="P244" s="19"/>
@@ -10008,123 +10328,133 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" s="25" t="s">
-        <v>287</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B245" s="19"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F245" s="24"/>
-      <c r="G245" s="24"/>
-      <c r="H245" s="24"/>
-      <c r="I245" s="24"/>
-      <c r="J245" s="24"/>
-      <c r="K245" s="24"/>
-      <c r="L245" s="24"/>
-      <c r="M245" s="24"/>
-      <c r="N245" s="24"/>
-      <c r="O245" s="24"/>
-      <c r="P245" s="24"/>
-      <c r="Q245" s="24"/>
-      <c r="R245" s="24"/>
-      <c r="S245" s="17"/>
-    </row>
-    <row r="246" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E245" s="19"/>
+      <c r="F245" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G245" s="28"/>
+      <c r="H245" s="28"/>
+      <c r="I245" s="28"/>
+      <c r="J245" s="28"/>
+      <c r="K245" s="28"/>
+      <c r="L245" s="28"/>
+      <c r="M245" s="18"/>
+      <c r="N245" s="19"/>
+      <c r="O245" s="19"/>
+      <c r="P245" s="19"/>
+      <c r="Q245" s="19"/>
+      <c r="R245" s="19"/>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A246" s="25" t="s">
+        <v>276</v>
+      </c>
       <c r="D246" s="4"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="G246" s="26"/>
-      <c r="H246" s="26"/>
-      <c r="I246" s="26"/>
-      <c r="J246" s="26"/>
-      <c r="K246" s="26"/>
-      <c r="L246" s="26"/>
-      <c r="M246" s="25"/>
-      <c r="N246" s="19"/>
-      <c r="O246" s="19"/>
-      <c r="P246" s="19"/>
-      <c r="Q246" s="19"/>
-      <c r="R246" s="19"/>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D247" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="E246" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F246" s="24"/>
+      <c r="G246" s="24"/>
+      <c r="H246" s="24"/>
+      <c r="I246" s="24"/>
+      <c r="J246" s="24"/>
+      <c r="K246" s="24"/>
+      <c r="L246" s="24"/>
+      <c r="M246" s="24"/>
+      <c r="N246" s="24"/>
+      <c r="O246" s="24"/>
+      <c r="P246" s="24"/>
+      <c r="Q246" s="24"/>
+      <c r="R246" s="24"/>
+      <c r="S246" s="17"/>
+    </row>
+    <row r="247" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D247" s="4"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G247" s="26"/>
+      <c r="H247" s="26"/>
+      <c r="I247" s="26"/>
+      <c r="J247" s="26"/>
+      <c r="K247" s="26"/>
+      <c r="L247" s="26"/>
+      <c r="M247" s="25"/>
+      <c r="N247" s="19"/>
+      <c r="O247" s="19"/>
+      <c r="P247" s="19"/>
+      <c r="Q247" s="19"/>
+      <c r="R247" s="19"/>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D248" s="4"/>
-      <c r="E248" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A249" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B249" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="D248" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D249" s="4"/>
-      <c r="F249" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A250" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B250" s="25" t="s">
-        <v>242</v>
-      </c>
+      <c r="E249" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A250" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B250" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D250" s="4"/>
       <c r="F250" s="3" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E251" s="3" t="s">
+      <c r="A251" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B251" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F251" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F252" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="G252" s="25"/>
-      <c r="H252" s="25"/>
-      <c r="I252" s="25"/>
-      <c r="J252" s="25"/>
-      <c r="K252" s="25"/>
-      <c r="L252" s="25"/>
-      <c r="M252" s="25"/>
-      <c r="N252" s="25"/>
-      <c r="O252" s="25"/>
+      <c r="E252" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F253" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="F253" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G253" s="25"/>
+      <c r="H253" s="25"/>
+      <c r="I253" s="25"/>
+      <c r="J253" s="25"/>
+      <c r="K253" s="25"/>
+      <c r="L253" s="25"/>
+      <c r="M253" s="25"/>
+      <c r="N253" s="25"/>
+      <c r="O253" s="25"/>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D254" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E254" s="25"/>
-      <c r="F254" s="25"/>
-      <c r="G254" s="25"/>
-      <c r="H254" s="25"/>
-      <c r="I254" s="25"/>
-      <c r="J254" s="25"/>
+      <c r="F254" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D255" s="25"/>
-      <c r="E255" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F255" s="25" t="s">
-        <v>272</v>
-      </c>
+      <c r="D255" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E255" s="25"/>
+      <c r="F255" s="25"/>
       <c r="G255" s="25"/>
       <c r="H255" s="25"/>
       <c r="I255" s="25"/>
@@ -10133,9 +10463,11 @@
     <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D256" s="25"/>
       <c r="E256" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="F256" s="25"/>
+        <v>260</v>
+      </c>
+      <c r="F256" s="25" t="s">
+        <v>261</v>
+      </c>
       <c r="G256" s="25"/>
       <c r="H256" s="25"/>
       <c r="I256" s="25"/>
@@ -10143,21 +10475,32 @@
     </row>
     <row r="257" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D257" s="25"/>
-      <c r="E257" s="25"/>
-      <c r="F257" s="25" t="s">
-        <v>274</v>
-      </c>
+      <c r="E257" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F257" s="25"/>
       <c r="G257" s="25"/>
       <c r="H257" s="25"/>
       <c r="I257" s="25"/>
       <c r="J257" s="25"/>
+    </row>
+    <row r="258" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D258" s="25"/>
+      <c r="E258" s="25"/>
+      <c r="F258" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G258" s="25"/>
+      <c r="H258" s="25"/>
+      <c r="I258" s="25"/>
+      <c r="J258" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B94:B116 B143:B147 B149:B193 B13:B54 B62:B63 B1:B9 B80:B86 B118:B130 B66:B73 B195:B242 B245:B249 B132:B140 B251:B494 B75:B78">
+  <conditionalFormatting sqref="B94:B116 B144:B148 B150:B194 B13:B54 B62:B63 B1:B9 B80:B86 B118:B130 B66:B73 B196:B243 B246:B250 B132:B141 B252:B495 B75:B78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>B1&lt;&gt;""</formula>
     </cfRule>
@@ -10175,8 +10518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -10193,84 +10536,84 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>337</v>
-      </c>
       <c r="E3" s="37" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="37" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>339</v>
+        <v>369</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>335</v>
-      </c>
       <c r="F5" s="38" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -10280,35 +10623,35 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
-        <v>323</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="36" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" s="61"/>
+      <c r="B11" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="67"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>328</v>
+      <c r="B12" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="40" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="82.5" x14ac:dyDescent="0.35">
@@ -10316,10 +10659,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -10333,10 +10676,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -10345,99 +10688,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="A1" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
     </row>
     <row r="2" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E4" s="36" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E5" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="64" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="64" t="s">
-        <v>420</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="47" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="47" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>415</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E8" s="33" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E10" s="33" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="64" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="64" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D11" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="1:22" s="47" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>418</v>
+      <c r="D13" s="36" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D14" s="36" t="s">
-        <v>422</v>
+      <c r="E14" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D15" s="36" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D16" s="36" t="s">
-        <v>419</v>
+      <c r="E16" s="36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E36" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -10445,7 +10850,18 @@
     <mergeCell ref="A1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F14" location="点击时小手图标表现" display="文档位置2"/>
+    <hyperlink ref="E14" location="进入摸摸模式_游戏屏幕中出现一个小手状的图标。" display="文档位置1"/>
+    <hyperlink ref="E17" location="屏幕左上角设置图标右侧出现一个带翅膀的桃心。" display="文档位置"/>
+    <hyperlink ref="E19" location="玩家点击到错误位置时_怪物无反应_在点击位置出现错误图标提示玩家摸错了_图标出现停留0.5秒消失。" display="文档位置"/>
+    <hyperlink ref="E21" location="屏幕上显示摸摸区域_摸摸区域需要一个圆形边框_内部存在半透遮罩。" display="文档位置"/>
+    <hyperlink ref="E8" location="在道具图标下方_原先照妖镜位置处_增加一个图标_作用为退出使用道具的模式。" display="文档位置"/>
+    <hyperlink ref="E10" location="可使用怪物_投喂的食物道具只能对敌方怪物使用_若玩家点击自己的怪物_则在怪物身上出现禁止使用的图标_闪烁两次后消失。" display="文档位置"/>
+    <hyperlink ref="E12" location="友好度上升动画_投喂食物时使用" display="文档位置"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10454,7 +10870,7 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/gd/副本系统/封妖设计.xlsx
+++ b/gd/副本系统/封妖设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\副本系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,45 +17,56 @@
     <sheet name="UI逻辑" sheetId="4" r:id="rId3"/>
     <sheet name="配置结构" sheetId="5" r:id="rId4"/>
     <sheet name="美术需求" sheetId="6" r:id="rId5"/>
-    <sheet name="自用" sheetId="1" r:id="rId6"/>
+    <sheet name="程序任务拆分" sheetId="7" r:id="rId6"/>
+    <sheet name="自用" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_1_投喂怪物喜好的食物_以此增加怪物对玩家的友好度。">封妖逻辑!$G$28</definedName>
     <definedName name="_3._友好度按照怪物个体计算_不按照怪物种类计算">封妖逻辑!$D$15</definedName>
-    <definedName name="处于摸摸模式中时_屏蔽换怪操作。">UI逻辑!$E$240</definedName>
+    <definedName name="_4_若选中可摸摸怪物_被选中的怪物脚下出现一个光圈_从光圈向上方缓缓上升星星和桃心的特效_上升到一定高度消失。">UI逻辑!$E$134</definedName>
+    <definedName name="_5_若选中怪物已被玩家成功摸过一次_则弹出提示信息_你已经摸过人家啦">UI逻辑!$E$136</definedName>
+    <definedName name="UI表现_从怪物胸部向外冒出一个大的桃心_由小变大_最后爆掉_然后怪物头左上方冒出友好度增长到的数值_表现同使用道具的情况_。">UI逻辑!$F$198</definedName>
+    <definedName name="UI表现_从怪物胸部向外冒出一个大的桃心_在桃心中央显示摸摸提升的好感度数值_桃心_好感度由小变大_最后爆掉。">UI逻辑!$F$198</definedName>
+    <definedName name="UI动画_玩家摸摸时">UI逻辑!$F$148</definedName>
+    <definedName name="unitData.csv配置表">配置结构!$A$8</definedName>
+    <definedName name="被抓到的怪物位于屏幕中央_怪物背面出现类似下图特效_特效需求动态旋转。">封妖逻辑!$F$76</definedName>
+    <definedName name="插入事件等待状态提示">UI逻辑!$E$134</definedName>
+    <definedName name="处于摸摸模式中时_屏蔽换怪操作。">UI逻辑!$E$246</definedName>
     <definedName name="妲己魅惑">UI逻辑!#REF!</definedName>
     <definedName name="道具方式">UI逻辑!$C$2</definedName>
     <definedName name="道具使用规则">封妖逻辑!$F$42</definedName>
-    <definedName name="点击时小手图标表现">UI逻辑!$F$122</definedName>
-    <definedName name="见“摸摸位置的逻辑”">UI逻辑!$G$118</definedName>
+    <definedName name="点击时小手图标表现">UI逻辑!$F$120</definedName>
+    <definedName name="封妖结果处理">封妖逻辑!$D$70</definedName>
+    <definedName name="怪物表现_怪物捂脸_扭动身体、小幅度跺脚做害羞动作。">UI逻辑!$F$203</definedName>
+    <definedName name="怪物反应">UI逻辑!$F$72</definedName>
+    <definedName name="怪物下方写明怪物名称_名称下方有底图。">封妖逻辑!$F$78</definedName>
+    <definedName name="见“摸摸位置的逻辑”">UI逻辑!$G$116</definedName>
     <definedName name="进入摸摸模式_游戏屏幕中出现一个小手状的图标。">UI逻辑!$D$89</definedName>
-    <definedName name="镜头拉回正常对局镜头_隐藏怪物出现_手状图标消失_左上角设置按钮旁的桃心图标飞出界面_向上飞出">UI逻辑!$G$227</definedName>
+    <definedName name="镜头拉回正常对局镜头_隐藏怪物出现_手状图标消失_左上角设置按钮旁的桃心图标飞出界面_向上飞出">UI逻辑!$G$233</definedName>
     <definedName name="可使用怪物_投喂的食物道具只能对敌方怪物使用_若玩家点击自己的怪物_则在怪物身上出现禁止使用的图标_闪烁两次后消失。">UI逻辑!$F$52</definedName>
+    <definedName name="每个对局对每只怪物只能完成1次摸摸操作。">封妖逻辑!$G$64</definedName>
     <definedName name="摸摸方式">UI逻辑!$C$87</definedName>
     <definedName name="摸摸位置的逻辑">封妖逻辑!$G$50</definedName>
-    <definedName name="屏幕上显示摸摸区域_摸摸区域需要一个圆形边框_内部存在半透遮罩。">UI逻辑!$F$140</definedName>
-    <definedName name="屏幕左上角设置图标右侧出现一个带翅膀的桃心。">UI逻辑!$F$141</definedName>
+    <definedName name="屏幕上显示摸摸区域_摸摸区域需要一个圆形边框_内部存在半透遮罩。">UI逻辑!$F$141</definedName>
+    <definedName name="屏幕左上角设置图标右侧出现一个带翅膀的桃心。">UI逻辑!$F$142</definedName>
     <definedName name="若玩家点击的是不可抓取的怪物_则屏幕弹出IM提示_你不能摸人家啦_人家不会跟你走的">UI逻辑!$F$57</definedName>
     <definedName name="若选择的怪物捕获成功率已经达到100_了_则再对该怪物使用道具时_道具不消耗且弹出IM提示_捕获成功率已经满了哦_摸也白摸哦">UI逻辑!#REF!</definedName>
     <definedName name="若选择的怪物已使用过道具了_则再对该怪物使用道具时_道具不消耗且弹出IM提示_每个怪物只能使用一次道具哦">UI逻辑!$G$60</definedName>
     <definedName name="食物类型、食物ID、食物增加的友好度在道具中配置_配置结构如下">封妖逻辑!#REF!</definedName>
     <definedName name="通过使用道具增加怪物友好度。">封妖逻辑!$F$21:$H$21</definedName>
-    <definedName name="玩家点击到错误位置时_怪物无反应_在点击位置出现错误图标提示玩家摸错了_图标出现停留0.5秒消失。">UI逻辑!$F$173</definedName>
+    <definedName name="玩家点击到错误位置时_怪物无反应_在点击位置出现错误图标提示玩家摸错了_图标出现停留0.5秒消失。">UI逻辑!$F$174</definedName>
+    <definedName name="隐藏加速图标、托管图标、背包图标、照妖镜图标、怪物血条、名称、等级信息。">UI逻辑!$F$140</definedName>
     <definedName name="友好度上升动画_投喂食物时使用">UI逻辑!$F$77</definedName>
     <definedName name="友好度是标示怪物跟随玩家的概率_相当于捕获成功率。">封妖逻辑!$D$11</definedName>
     <definedName name="在道具图标下方_原先照妖镜位置处_增加一个图标_作用为退出使用道具的模式。">UI逻辑!$E$31</definedName>
+    <definedName name="在怪物头左上方弹出“友好度上升【友好度增加的数字】了哦”_数字从怪物头右上方冒出后上升1s变淡消失。">UI逻辑!$G$202</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="484">
   <si>
     <t>抓宠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在对局战斗中，通过点击摸摸图标进入摸摸模式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    同时隐藏照妖镜、摸摸、加速、托管的图标。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,10 +352,6 @@
   </si>
   <si>
     <t>屏蔽操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处于摸摸模式中时，屏蔽集火目标的操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,10 +507,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>图标默认出现在屏幕中央。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方案一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,14 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI动画（玩家非点击时）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI动画（玩家点击时）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>翅膀煽动，带着桃心在小范围内上下飞动，桃心内部液体随着桃心跳动有动态效果。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,10 +651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若玩家点击自己的怪物，则在怪物身上出现禁止使用的图标，闪烁两次后消失。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -761,10 +748,6 @@
   </si>
   <si>
     <t>为什么不像用道具一样全部禁掉呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没说摸一次涨多少好感度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -957,10 +940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隐藏加速图标、托管图标、背包图标、照妖镜图标。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第三种情况：未达到规定时间，玩家主动退出摸摸模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -989,32 +968,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>处于摸摸模式中时，玩家通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击技能图标释放大招、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击加速图标、托管图标，完成对应操作，但不影响摸摸模式，摸摸小手图标仍然在，玩家可继续摸摸。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1099,14 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摸摸图标右下角有数字显示当前对局可进行的摸摸次数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若次数减少到0，则显示0，且摸摸图标置灰，不响应点击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>镜头拉回正常对局镜头，隐藏怪物出现，手状图标消失，左上角设置按钮旁的桃心图标飞出界面（向上飞出），</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1129,10 +1074,6 @@
   <si>
     <t>形象</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被选中的摸摸怪物模型闪烁，作为被选中的提示。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>状态变化提示君C</t>
@@ -1290,10 +1231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若选择的怪物友好度已经达到100了，则选择该怪物时，弹出IM提示：咱俩友好度已经100了，不要再摸啦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1374,10 +1311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI表现：从怪物胸部向外冒出一个大的桃心，由小变大，最后爆掉，然后怪物头左上方冒出友好度增长到的数值（表现同使用道具的情况）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成摸摸后，再次摸到正确位置，则显示已满状态的桃心，继续摸摸无效果，即每个怪物每次对局只能通过摸摸操作增长一次友好度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1403,10 +1336,6 @@
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写怪物的id或者一种类型的怪物id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1494,14 +1423,6 @@
   </si>
   <si>
     <t>随机一个点作为摸摸点，则点击摸摸点规定次数后，视为摸摸成功并增长配置的友好度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：若次数多于1次，限制每只怪物使用次数，每只每对局只能使用1次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个对局只能完成1次（暂定）摸摸操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1557,10 +1478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若玩家点击的是不可抓取的怪物，则屏幕弹出IM提示：你不能摸人家啦！人家不会跟你走的！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>插入事件结束，恢复正常对局流程。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1747,171 +1664,517 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止使用图标类似效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 禁止使用道具图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友好度上升动画（投喂食物时使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 怪物反应以及友好度上升动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸提升友好度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物友好度、喜好食物配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为节省成本，可将道具分为几类，制作几类动画即可，比如饮品类、食物类等，具体待设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用怪物：投喂的食物道具只能对敌方怪物使用，若玩家点击自己的怪物，则在怪物身上出现禁止使用的图标，闪烁两次后消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖方式（其实是提高宠物对玩家的友好度）一是模仿传统抓妖的方式，比如魅惑等；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测玩家手指抬起点与摸摸点重合，则判定为点击到，否则不算做点击到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加摸摸区域的UI显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小手图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃心空心、填满状态、桃心内部秒数倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示桃心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕上显示摸摸区域，摸摸区域需要一个圆形边框，内部存在半透遮罩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在屏幕上的落点为B，则在以B点为圆心，以150像素（暂定）为半径的屏幕区域内，称为摸摸区域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以设计某个怪物喜好的食物类型，以此配置来判定玩家投喂的食物是否正确。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在怪物头左上方弹出“友好度上升【友好度增加的数字】了哦”，数字从怪物头右上方冒出后上升1s变淡消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜好食物类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写食物类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物调用道具通用配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物喜好的食物配置为食物类型，每种怪物喜好的食物类型只有一种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI动画（玩家非摸摸时）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI动画（玩家摸摸时）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改食物调用道具通用配置表属性名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">addAttrType </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">addAttrValue </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写怪物的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖三方后回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw、珍珍、木木、兔桑、文生、雷神、孙大大、雪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确摸摸过程，道具相关内容本期不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小手图标图标默认出现在屏幕中央。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对局战斗中，通过点击摸摸UI图标进入摸摸模式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充摸摸插入事件等待状态的提示效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖结果处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若抓到怪物，在对局胜利/失败动画后增加抓到怪物的展示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若没有抓到怪物，无提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对局结算时，判定玩家是否抓到怪物。判定方法见副本结算文档。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓到的怪物展示表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物下方写明怪物名称，名称下方有底图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成摸摸的怪物反馈动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>投喂食物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 退出道具UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>禁止使用图标类似效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 禁止使用道具图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 摸摸的小手图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 摸错位置的怪物反馈图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成摸摸的怪物反馈动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友好度上升动画（投喂食物时使用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 怪物反应以及友好度上升动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸摸提升友好度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物友好度、喜好食物配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为节省成本，可将道具分为几类，制作几类动画即可，比如饮品类、食物类等，具体待设计。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用怪物：投喂的食物道具只能对敌方怪物使用，若玩家点击自己的怪物，则在怪物身上出现禁止使用的图标，闪烁两次后消失。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封妖方式（其实是提高宠物对玩家的友好度）一是模仿传统抓妖的方式，比如魅惑等；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测玩家手指抬起点与摸摸点重合，则判定为点击到，否则不算做点击到。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加摸摸区域的UI显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 摸摸区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小手图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档位置1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档位置2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 摸摸指示桃心（屏幕左上角）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃心空心、填满状态、桃心内部秒数倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指示桃心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸摸区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕上显示摸摸区域，摸摸区域需要一个圆形边框，内部存在半透遮罩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 友好度上升提示文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在屏幕上的落点为B，则在以B点为圆心，以150像素（暂定）为半径的屏幕区域内，称为摸摸区域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以设计某个怪物喜好的食物类型，以此配置来判定玩家投喂的食物是否正确。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在怪物头左上方弹出“友好度上升【友好度增加的数字】了哦”，数字从怪物头右上方冒出后上升1s变淡消失。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜好食物类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写食物类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物喜好的食物配置为食物类型，每种怪物喜好的食物类型只有一种。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物调用道具通用配置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">addAttrType </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">addAttrValue </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改食物调用道具通用配置表属性名称</t>
+    <t>获得怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 怪物背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 怪物名称底图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）若玩家点击自己的怪物，则在怪物身上出现禁止使用的图标，闪烁两次后消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）若玩家点击的是不可抓取的怪物，则屏幕弹出IM提示：你不能摸人家啦！人家不会跟你走的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）若选择的怪物友好度已经达到100了，则选择该怪物时，弹出IM提示：咱俩友好度已经100了，不要再摸啦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）若选中可摸摸怪物，被选中的怪物脚下出现一个光圈，从光圈向上方缓缓上升星星和桃心的特效，上升到一定高度消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 选中摸摸怪物时的提示特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 摸摸指示桃心（屏幕左上角）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 摸错位置的怪物反馈图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 摸摸区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充封妖结果的处理方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏加速图标、托管图标、背包图标、照妖镜图标、怪物血条、名称、等级信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸镜头拉近怪物后，怪物名称、血条、等级信息隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸时的向外散出小桃心的特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友好度上升动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 友好度上升提示文字及特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于摸摸模式中时，屏蔽集火目标/取消集火的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>处于摸摸模式中时，玩家通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击加速图标、托管图标，完成对应操作，但不影响摸摸模式，摸摸小手图标仍然在，玩家可继续摸摸。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速通道</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充“美术需求”切页的特效需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改好感度上升提示动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此特效一直持续到插入事件开始执行，镜头开始拉近，特效渐渐消失，不是突然中断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被抓到的怪物位于屏幕中央，怪物背面出现类似下图特效，特效需求动态旋转。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物形象使用2D原画。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个对局对每只怪物只能完成1次摸摸操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切进程时，如果是同一只怪物换状态，不会增加怪物可摸的次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸摸操作次数限制变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除摸摸UI图标右下角数字显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此状态停留1秒，桃心爆掉，变成四散的小桃心+小星星落地消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当左上角桃心填充满时，即完成摸摸操作，增加摸摸操作提升的怪物友好度数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效播放完后，进入退出摸摸模式的处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 摸摸成功的提示UI及特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）若选中怪物已被玩家成功摸过一次，则弹出提示信息：你已经摸过人家啦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖</t>
+    <rPh sb="0" eb="1">
+      <t>feng'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>摸摸数据表配置</t>
+  </si>
+  <si>
+    <t>摸摸进入退出逻辑</t>
+  </si>
+  <si>
+    <t>摸摸ui特效表现</t>
+  </si>
+  <si>
+    <t>摸摸暂停对局隐藏怪物功能</t>
+  </si>
+  <si>
+    <t>摸摸好感度上升是否需要和服务器同步</t>
+  </si>
+  <si>
+    <t>客户端处理，不做同步，需要考虑结算时是否进行验证</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kao'lv</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yan'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得宠物时处理方式</t>
+  </si>
+  <si>
+    <t>总计</t>
+    <rPh sb="0" eb="1">
+      <t>zong'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划还包括道具投喂</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'ji'hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'kuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后友好度数值开始增长，数值增长到当前友好度（怪物固有友好度+摸摸增长的友好度）时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI表现：从怪物胸部向外由小到大冒出一个桃心，桃心达到最大形状时，桃心表面出现文字“友好度  固有友好度数值”，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitData.csv配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加怪物固有友好度配置列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将怪物固有友好度配置列移到怪物表中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1919,7 +2182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2102,22 +2365,43 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFCC99FF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2169,6 +2453,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2381,7 +2683,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2458,10 +2760,41 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="19" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2510,16 +2843,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2550,13 +2885,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF00CC99"/>
+      <color rgb="FF66FF99"/>
       <color rgb="FF66CCFF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FF00CC99"/>
-      <color rgb="FFFFCCFF"/>
-      <color rgb="FF66FF99"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2571,6 +2906,630 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18908</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7200758" y="16925925"/>
+          <a:ext cx="5115067" cy="3295650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460933</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>201307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="luwu2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8995333" y="17430749"/>
+          <a:ext cx="1891742" cy="1572908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8305800" y="19735800"/>
+          <a:ext cx="3333750" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10496550" y="18449925"/>
+          <a:ext cx="2314575" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10048875" y="19326225"/>
+          <a:ext cx="2800350" cy="95251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95392</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7172325" y="23622000"/>
+          <a:ext cx="5115067" cy="3295650"/>
+          <a:chOff x="7172325" y="24041100"/>
+          <a:chExt cx="5115067" cy="3295650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7172325" y="24041100"/>
+            <a:ext cx="5115067" cy="3295650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="图片 9" descr="luwu2.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9098821" y="24850724"/>
+            <a:ext cx="1638172" cy="1362075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="图片 10" descr="luwu2.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7823758" y="24907874"/>
+            <a:ext cx="1520267" cy="1264041"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="图片 11" descr="luwu2.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10439400" y="24926925"/>
+            <a:ext cx="1523615" cy="1266825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="图片 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7620000" y="26403300"/>
+            <a:ext cx="1609524" cy="257143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10248900" y="26412825"/>
+            <a:ext cx="1609524" cy="257143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Picture 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8020050" y="26870025"/>
+            <a:ext cx="3333750" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85867</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="组合 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7162800" y="20278725"/>
+          <a:ext cx="5115067" cy="3295650"/>
+          <a:chOff x="7172325" y="24041100"/>
+          <a:chExt cx="5115067" cy="3295650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="Picture 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7172325" y="24041100"/>
+            <a:ext cx="5115067" cy="3295650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="图片 19" descr="luwu2.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8233333" y="24907874"/>
+            <a:ext cx="1520267" cy="1264041"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="图片 20" descr="luwu2.png"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9772650" y="24926925"/>
+            <a:ext cx="1523615" cy="1266825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="图片 21"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8048625" y="26403300"/>
+            <a:ext cx="1609524" cy="257143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="图片 22"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9648825" y="26403300"/>
+            <a:ext cx="1609524" cy="257143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8020050" y="26870025"/>
+            <a:ext cx="3333750" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3903,13 +4862,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>231389</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3950,13 +4909,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3997,13 +4956,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>189798</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>66332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4073,13 +5032,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>656756</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>7239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4120,13 +5079,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4158,13 +5117,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4205,13 +5164,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4252,13 +5211,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>388844</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>175747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>493837</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>4297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4336,13 +5295,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504758</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57092</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4374,13 +5333,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4421,13 +5380,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>53157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4468,13 +5427,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4515,13 +5474,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>98382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4562,13 +5521,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4578,7 +5537,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8286749" y="28051125"/>
+          <a:off x="8286749" y="27632025"/>
           <a:ext cx="571500" cy="542925"/>
           <a:chOff x="3762375" y="2952750"/>
           <a:chExt cx="666750" cy="638175"/>
@@ -4977,13 +5936,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>7843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>671925</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>131668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5015,13 +5974,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>176625</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5053,13 +6012,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657125</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>133306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5091,13 +6050,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190400</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>152356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5129,13 +6088,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5145,7 +6104,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6677025" y="32594550"/>
+          <a:off x="6677025" y="32804100"/>
           <a:ext cx="5514975" cy="2781300"/>
           <a:chOff x="6696075" y="38042850"/>
           <a:chExt cx="5591175" cy="2781300"/>
@@ -5236,13 +6195,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5252,7 +6211,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6686550" y="43719750"/>
+          <a:off x="6686550" y="44977050"/>
           <a:ext cx="5572125" cy="2505075"/>
           <a:chOff x="6705600" y="48748950"/>
           <a:chExt cx="5648325" cy="2714625"/>
@@ -5390,13 +6349,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5444,22 +6403,264 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571445</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>9468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="34032825"/>
+          <a:ext cx="438095" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657170</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>171393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10258425" y="39852600"/>
+          <a:ext cx="438095" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171395</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>171393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15859125" y="39852600"/>
+          <a:ext cx="438095" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657170</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>76143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="45415200"/>
+          <a:ext cx="438095" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文本框 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="46281975"/>
+          <a:ext cx="809625" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>友好度</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>   30</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>504323</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>199734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5491,13 +6692,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5538,13 +6739,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5585,13 +6786,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5626,6 +6827,44 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352370</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="8562975"/>
+          <a:ext cx="438095" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5894,13 +7133,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N39"/>
+  <dimension ref="A2:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" style="6"/>
     <col min="2" max="2" width="27.875" style="6" customWidth="1"/>
@@ -5910,309 +7149,309 @@
     <col min="8" max="16384" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25">
+      <c r="A4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="56" t="s">
+    <row r="12" spans="1:8" ht="17.25" thickTop="1">
+      <c r="B12" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58" t="s">
+      <c r="C13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="76"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="76"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="B18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" thickBot="1">
+      <c r="B19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" thickTop="1"/>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
+      <c r="B21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
-    </row>
-    <row r="20" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:14">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14">
       <c r="B23" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="16">
         <v>42102</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17.25">
       <c r="B24" s="7"/>
       <c r="C24" s="16">
         <v>42116</v>
       </c>
       <c r="E24" s="25"/>
       <c r="G24" s="8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.25">
       <c r="B25" s="7"/>
       <c r="C25" s="16">
         <v>42137</v>
       </c>
       <c r="E25" s="35"/>
       <c r="G25" s="8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="B26" s="7"/>
       <c r="C26" s="16"/>
       <c r="H26" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="B27" s="7"/>
       <c r="C27" s="16"/>
       <c r="H27" s="33" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="B28" s="7"/>
       <c r="C28" s="16"/>
       <c r="H28" s="33" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="B29" s="7"/>
       <c r="C29" s="16"/>
       <c r="H29" s="42" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="B30" s="7"/>
       <c r="C30" s="16">
         <v>42149</v>
       </c>
       <c r="E30" s="45"/>
       <c r="G30" s="8" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="B31" s="7"/>
       <c r="C31" s="16"/>
       <c r="E31" s="45"/>
       <c r="H31" s="33" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14">
       <c r="B32" s="7"/>
       <c r="C32" s="16"/>
       <c r="E32" s="45"/>
       <c r="H32" s="36" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="B33" s="7"/>
       <c r="C33" s="16"/>
       <c r="E33" s="45"/>
       <c r="H33" s="33" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14">
       <c r="B34" s="7"/>
       <c r="C34" s="16"/>
       <c r="E34" s="45"/>
       <c r="H34" s="33" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
@@ -6220,12 +7459,12 @@
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14">
       <c r="B35" s="7"/>
       <c r="C35" s="16"/>
       <c r="E35" s="45"/>
       <c r="H35" s="33" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
@@ -6233,17 +7472,17 @@
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
     </row>
-    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14">
       <c r="B36" s="7"/>
       <c r="C36" s="16">
         <v>42153</v>
       </c>
-      <c r="E36" s="69"/>
+      <c r="E36" s="52"/>
       <c r="G36" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="H36" s="71" t="s">
-        <v>430</v>
+        <v>403</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>404</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
@@ -6251,37 +7490,174 @@
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:14">
+      <c r="B37" s="7"/>
+      <c r="C37" s="16">
+        <v>42154</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="G37" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="B38" s="7"/>
+      <c r="C38" s="16"/>
+      <c r="E38" s="54"/>
+      <c r="H38" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="B39" s="7"/>
+      <c r="C39" s="16"/>
+      <c r="E39" s="54"/>
+      <c r="H39" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="7"/>
+      <c r="C40" s="16"/>
+      <c r="E40" s="54"/>
+      <c r="H40" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41" s="7"/>
+      <c r="C41" s="16"/>
+      <c r="E41" s="54"/>
+      <c r="H41" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="B42" s="7"/>
+      <c r="C42" s="16"/>
+      <c r="E42" s="54"/>
+      <c r="H42" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" s="7"/>
+      <c r="C43" s="16"/>
+      <c r="E43" s="54"/>
+      <c r="H43" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="7"/>
+      <c r="C44" s="16"/>
+      <c r="E44" s="54"/>
+      <c r="H44" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="7"/>
+      <c r="C45" s="16">
+        <v>42158</v>
+      </c>
+      <c r="E45" s="96"/>
+      <c r="H45" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C47" s="55">
+        <v>42154</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6312,6 +7688,13 @@
     <hyperlink ref="K33" location="若选择的怪物已使用过道具了_则再对该怪物使用道具时_道具不消耗且弹出IM提示_每个怪物只能使用一次道具哦" display="位置2"/>
     <hyperlink ref="H35" location="屏幕上显示摸摸区域_摸摸区域需要一个圆形边框_内部存在半透遮罩。" display="增加摸摸区域的UI显示"/>
     <hyperlink ref="H36" location="配置结构!B12" display="修改食物调用道具通用配置表属性名称"/>
+    <hyperlink ref="H38" location="插入事件等待状态提示" display="补充摸摸插入事件等待状态的提示效果"/>
+    <hyperlink ref="H39" location="封妖结果处理" display="补充封妖结果的处理方法"/>
+    <hyperlink ref="H40" location="隐藏加速图标、托管图标、背包图标、照妖镜图标、怪物血条、名称、等级信息。" display="摸摸镜头拉近怪物后，怪物名称、血条、等级信息隐藏"/>
+    <hyperlink ref="H42" location="UI表现_从怪物胸部向外冒出一个大的桃心_在桃心中央显示摸摸提升的好感度数值_桃心_好感度由小变大_最后爆掉。" display="修改好感度上升提示动画"/>
+    <hyperlink ref="J43" location="每个对局对每只怪物只能完成1次摸摸操作。" display="摸摸操作次数限制变更"/>
+    <hyperlink ref="K43" location="_5_若选中怪物已被玩家成功摸过一次_则弹出提示信息_你已经摸过人家啦" display="位置2"/>
+    <hyperlink ref="H45" location="unitData.csv配置表" display="将怪物固有友好度配置列移到怪物表中"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6319,13 +7702,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X127"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="B16" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="27.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="21" customWidth="1"/>
@@ -6334,66 +7717,66 @@
     <col min="9" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="66" t="s">
+    <row r="1" spans="1:22" ht="21">
+      <c r="E1" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-    </row>
-    <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+    </row>
+    <row r="2" spans="1:22" ht="18">
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="D4" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18">
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="D7" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="18">
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="D11" s="43" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
@@ -6407,9 +7790,9 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="D12" s="43" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -6423,11 +7806,11 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" s="19"/>
       <c r="B13" s="22"/>
       <c r="D13" s="43" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
@@ -6442,10 +7825,10 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="B14" s="22"/>
       <c r="D14" s="43" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
@@ -6460,10 +7843,10 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="B15" s="22"/>
       <c r="D15" s="35" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -6477,10 +7860,10 @@
       <c r="N15" s="35"/>
       <c r="P15" s="19"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="B16" s="22"/>
       <c r="D16" s="35" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -6494,7 +7877,7 @@
       <c r="N16" s="35"/>
       <c r="P16" s="19"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17">
       <c r="B17" s="22"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -6509,102 +7892,102 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="18">
       <c r="B18" s="22"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17">
       <c r="B19" s="22"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17">
       <c r="B20" s="22"/>
       <c r="E20" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17">
       <c r="B21" s="22"/>
       <c r="E21" s="4"/>
       <c r="F21" s="43" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17">
       <c r="B22" s="22"/>
       <c r="E22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17">
       <c r="B23" s="22"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
       <c r="B24" s="22"/>
       <c r="E24" s="4"/>
       <c r="F24" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
       <c r="B25" s="22"/>
       <c r="D25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17">
       <c r="B26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17">
       <c r="B27" s="22"/>
       <c r="F27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17">
       <c r="B28" s="22"/>
       <c r="G28" s="43" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
       <c r="J28" s="43"/>
       <c r="K28" s="43"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17">
       <c r="B29" s="19"/>
       <c r="G29" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17">
       <c r="B30" s="22"/>
       <c r="F30" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="17.25">
       <c r="B31" s="22"/>
       <c r="G31" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17">
       <c r="B32" s="22"/>
       <c r="F32" s="43" t="s">
         <v>54</v>
@@ -6620,13 +8003,13 @@
       <c r="O32" s="43"/>
       <c r="P32" s="43"/>
     </row>
-    <row r="33" spans="1:24" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="33">
       <c r="B33" s="22" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="43" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
@@ -6638,11 +8021,11 @@
       <c r="O33" s="43"/>
       <c r="P33" s="43"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24">
       <c r="B34" s="22"/>
       <c r="F34" s="43"/>
       <c r="G34" s="43" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
@@ -6654,11 +8037,11 @@
       <c r="O34" s="43"/>
       <c r="P34" s="43"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24">
       <c r="B35" s="22"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
@@ -6670,12 +8053,12 @@
       <c r="O35" s="43"/>
       <c r="P35" s="43"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24">
       <c r="A36" s="19"/>
       <c r="B36" s="22"/>
       <c r="F36" s="43"/>
       <c r="G36" s="46" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="H36" s="46"/>
       <c r="I36" s="46"/>
@@ -6687,10 +8070,10 @@
       <c r="O36" s="43"/>
       <c r="P36" s="43"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24">
       <c r="B37" s="22"/>
       <c r="F37" s="43" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="43"/>
@@ -6703,11 +8086,11 @@
       <c r="O37" s="43"/>
       <c r="P37" s="43"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24">
       <c r="B38" s="22"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="H38" s="43"/>
       <c r="I38" s="43"/>
@@ -6719,19 +8102,19 @@
       <c r="O38" s="43"/>
       <c r="P38" s="43"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24">
       <c r="B39" s="22"/>
       <c r="F39" s="3" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="H39" s="25"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24">
       <c r="B40" s="21" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
@@ -6744,86 +8127,86 @@
       <c r="W40" s="19"/>
       <c r="X40" s="19"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24">
       <c r="B41" s="25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24">
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="43" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="43"/>
       <c r="I42" s="43"/>
       <c r="J42" s="43"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24">
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="43"/>
       <c r="G43" s="43" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="H43" s="43"/>
       <c r="I43" s="43"/>
       <c r="J43" s="43"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24">
       <c r="B44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24">
       <c r="E45" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24">
       <c r="F46" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="17.25">
+      <c r="G47" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G47" s="5" t="s">
+    <row r="48" spans="1:24">
+      <c r="A48" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" s="25" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H50" s="43"/>
       <c r="I50" s="43"/>
@@ -6834,11 +8217,11 @@
       <c r="N50" s="43"/>
       <c r="O50" s="43"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" s="19"/>
       <c r="G51" s="43"/>
       <c r="H51" s="43" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I51" s="43"/>
       <c r="J51" s="43"/>
@@ -6848,11 +8231,11 @@
       <c r="N51" s="43"/>
       <c r="O51" s="43"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" s="19"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="I52" s="43"/>
       <c r="J52" s="43"/>
@@ -6862,11 +8245,11 @@
       <c r="N52" s="43"/>
       <c r="O52" s="43"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" s="19"/>
       <c r="G53" s="43"/>
       <c r="H53" s="43" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="I53" s="43"/>
       <c r="J53" s="43"/>
@@ -6876,21 +8259,21 @@
       <c r="N53" s="43"/>
       <c r="O53" s="43"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="G54" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="G55" s="25" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="F56" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
@@ -6901,13 +8284,13 @@
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
     </row>
-    <row r="57" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="33">
       <c r="B57" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -6917,13 +8300,13 @@
       <c r="M57" s="19"/>
       <c r="N57" s="19"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="B58" s="25" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -6933,11 +8316,11 @@
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="B59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -6947,9 +8330,9 @@
       <c r="M59" s="19"/>
       <c r="N59" s="19"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="F60" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
@@ -6960,10 +8343,10 @@
       <c r="M60" s="19"/>
       <c r="N60" s="19"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -6973,13 +8356,13 @@
       <c r="M61" s="19"/>
       <c r="N61" s="19"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="B62" s="21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -6989,13 +8372,13 @@
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="25" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
@@ -7006,45 +8389,43 @@
       <c r="M63" s="19"/>
       <c r="N63" s="19"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F64" s="19"/>
-      <c r="G64" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
+      <c r="G64" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
-        <v>177</v>
-      </c>
+    <row r="65" spans="1:14">
+      <c r="A65" s="20"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
+      <c r="G65" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="19"/>
       <c r="N65" s="19"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14">
       <c r="A66" s="25" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="25" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
@@ -7054,9 +8435,9 @@
       <c r="M66" s="25"/>
       <c r="N66" s="19"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14">
       <c r="F67" s="43" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="G67" s="43"/>
       <c r="H67" s="43"/>
@@ -7064,25 +8445,801 @@
       <c r="J67" s="43"/>
       <c r="K67" s="43"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14">
       <c r="F68" s="43"/>
       <c r="G68" s="43" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="H68" s="43"/>
       <c r="I68" s="43"/>
       <c r="J68" s="43"/>
       <c r="K68" s="43"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14">
       <c r="F69" s="43"/>
       <c r="G69" s="43" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="H69" s="43"/>
       <c r="I69" s="43"/>
       <c r="J69" s="43"/>
       <c r="K69" s="43"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="D70" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="58"/>
+      <c r="M70" s="58"/>
+      <c r="N70" s="58"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="D71" s="57"/>
+      <c r="E71" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="58"/>
+      <c r="N71" s="58"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="D72" s="57"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="D73" s="57"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="D74" s="57"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="58"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="58"/>
+      <c r="N74" s="58"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="D75" s="58"/>
+      <c r="E75" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="58"/>
+      <c r="N77" s="58"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="58"/>
+      <c r="N80" s="58"/>
+    </row>
+    <row r="81" spans="4:14">
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="58"/>
+    </row>
+    <row r="82" spans="4:14">
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="58"/>
+    </row>
+    <row r="83" spans="4:14">
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+    </row>
+    <row r="84" spans="4:14">
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="58"/>
+      <c r="L84" s="58"/>
+      <c r="M84" s="58"/>
+      <c r="N84" s="58"/>
+    </row>
+    <row r="85" spans="4:14">
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="58"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="58"/>
+      <c r="L85" s="58"/>
+      <c r="M85" s="58"/>
+      <c r="N85" s="58"/>
+    </row>
+    <row r="86" spans="4:14">
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="58"/>
+      <c r="N86" s="58" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="4:14">
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="58"/>
+      <c r="M87" s="58"/>
+      <c r="N87" s="58"/>
+    </row>
+    <row r="88" spans="4:14">
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="58"/>
+    </row>
+    <row r="89" spans="4:14">
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="58"/>
+    </row>
+    <row r="90" spans="4:14">
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="58"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="58"/>
+      <c r="L90" s="58"/>
+      <c r="M90" s="58"/>
+      <c r="N90" s="58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="4:14">
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="58"/>
+      <c r="N91" s="58"/>
+    </row>
+    <row r="92" spans="4:14">
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="58"/>
+      <c r="N92" s="58"/>
+    </row>
+    <row r="93" spans="4:14">
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="58"/>
+    </row>
+    <row r="94" spans="4:14">
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="58"/>
+    </row>
+    <row r="95" spans="4:14">
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="58"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="58"/>
+      <c r="N95" s="58"/>
+    </row>
+    <row r="96" spans="4:14">
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="58"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="58"/>
+      <c r="L96" s="58"/>
+      <c r="M96" s="58"/>
+      <c r="N96" s="58"/>
+    </row>
+    <row r="97" spans="4:14">
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="58"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="58"/>
+      <c r="L97" s="58"/>
+      <c r="M97" s="58"/>
+      <c r="N97" s="58"/>
+    </row>
+    <row r="98" spans="4:14">
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="58"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="58"/>
+      <c r="N98" s="58"/>
+    </row>
+    <row r="99" spans="4:14">
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="58"/>
+    </row>
+    <row r="100" spans="4:14">
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="58"/>
+    </row>
+    <row r="101" spans="4:14">
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+    </row>
+    <row r="102" spans="4:14">
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+    </row>
+    <row r="103" spans="4:14">
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+    </row>
+    <row r="104" spans="4:14">
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+    </row>
+    <row r="105" spans="4:14">
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="58"/>
+      <c r="L105" s="58"/>
+      <c r="M105" s="58"/>
+      <c r="N105" s="58"/>
+    </row>
+    <row r="106" spans="4:14">
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="58"/>
+      <c r="J106" s="58"/>
+      <c r="K106" s="58"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="58"/>
+      <c r="N106" s="58"/>
+    </row>
+    <row r="107" spans="4:14">
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="58"/>
+    </row>
+    <row r="108" spans="4:14">
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="58"/>
+    </row>
+    <row r="109" spans="4:14">
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="58"/>
+      <c r="J109" s="58"/>
+      <c r="K109" s="58"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="58"/>
+      <c r="N109" s="58"/>
+    </row>
+    <row r="110" spans="4:14">
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="58"/>
+      <c r="J110" s="58"/>
+      <c r="K110" s="58"/>
+      <c r="L110" s="58"/>
+      <c r="M110" s="58"/>
+      <c r="N110" s="58"/>
+    </row>
+    <row r="111" spans="4:14">
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="74"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="74"/>
+    </row>
+    <row r="112" spans="4:14">
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="74"/>
+      <c r="K112" s="74"/>
+      <c r="L112" s="74"/>
+      <c r="M112" s="74"/>
+      <c r="N112" s="74"/>
+    </row>
+    <row r="113" spans="4:14">
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="74"/>
+      <c r="K113" s="74"/>
+      <c r="L113" s="74"/>
+      <c r="M113" s="74"/>
+      <c r="N113" s="74"/>
+    </row>
+    <row r="114" spans="4:14">
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+      <c r="K114" s="74"/>
+      <c r="L114" s="74"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
+    </row>
+    <row r="115" spans="4:14">
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="74"/>
+    </row>
+    <row r="116" spans="4:14">
+      <c r="D116" s="74"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="74"/>
+      <c r="H116" s="74"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+    </row>
+    <row r="117" spans="4:14">
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="74"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="74"/>
+    </row>
+    <row r="118" spans="4:14">
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="74"/>
+      <c r="H118" s="74"/>
+      <c r="I118" s="74"/>
+      <c r="J118" s="74"/>
+      <c r="K118" s="74"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="74"/>
+      <c r="N118" s="74"/>
+    </row>
+    <row r="119" spans="4:14">
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="74"/>
+      <c r="H119" s="74"/>
+      <c r="I119" s="74"/>
+      <c r="J119" s="74"/>
+      <c r="K119" s="74"/>
+      <c r="L119" s="74"/>
+      <c r="M119" s="74"/>
+      <c r="N119" s="74"/>
+    </row>
+    <row r="120" spans="4:14">
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="74"/>
+      <c r="M120" s="74"/>
+      <c r="N120" s="74"/>
+    </row>
+    <row r="121" spans="4:14">
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="74"/>
+      <c r="I121" s="74"/>
+      <c r="J121" s="74"/>
+      <c r="K121" s="74"/>
+      <c r="L121" s="74"/>
+      <c r="M121" s="74"/>
+      <c r="N121" s="74"/>
+    </row>
+    <row r="122" spans="4:14">
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="74"/>
+      <c r="I122" s="74"/>
+      <c r="J122" s="74"/>
+      <c r="K122" s="74"/>
+      <c r="L122" s="74"/>
+      <c r="M122" s="74"/>
+      <c r="N122" s="74"/>
+    </row>
+    <row r="123" spans="4:14">
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="74"/>
+      <c r="I123" s="74"/>
+      <c r="J123" s="74"/>
+      <c r="K123" s="74"/>
+      <c r="L123" s="74"/>
+      <c r="M123" s="74"/>
+      <c r="N123" s="74"/>
+    </row>
+    <row r="124" spans="4:14">
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="74"/>
+      <c r="I124" s="74"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+    </row>
+    <row r="125" spans="4:14">
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="74"/>
+      <c r="L125" s="74"/>
+      <c r="M125" s="74"/>
+      <c r="N125" s="74"/>
+    </row>
+    <row r="126" spans="4:14">
+      <c r="D126" s="74"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="74"/>
+      <c r="G126" s="74"/>
+      <c r="H126" s="74"/>
+      <c r="I126" s="74"/>
+      <c r="J126" s="74"/>
+      <c r="K126" s="74"/>
+      <c r="L126" s="74"/>
+      <c r="M126" s="74"/>
+      <c r="N126" s="74"/>
+    </row>
+    <row r="127" spans="4:14">
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="74"/>
+      <c r="I127" s="74"/>
+      <c r="J127" s="74"/>
+      <c r="K127" s="74"/>
+      <c r="L127" s="74"/>
+      <c r="M127" s="74"/>
+      <c r="N127" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7100,79 +9257,80 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB258"/>
+  <dimension ref="A1:AB264"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="B188" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="27.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="42.5" style="21" customWidth="1"/>
     <col min="3" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
-      <c r="E1" s="66" t="s">
+    <row r="1" spans="1:28" ht="21">
+      <c r="E1" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-    </row>
-    <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+    </row>
+    <row r="2" spans="1:28" ht="18">
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="18">
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28">
       <c r="A4" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="25" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28">
       <c r="A6" s="25" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -7186,15 +9344,15 @@
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28">
       <c r="A7" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -7207,15 +9365,15 @@
       <c r="AA7" s="19"/>
       <c r="AB7" s="19"/>
     </row>
-    <row r="8" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="33">
       <c r="A8" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -7228,86 +9386,86 @@
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28">
       <c r="A9" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28">
       <c r="A10" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="B11" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="B12" s="25" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O12" s="19"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19">
       <c r="F24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19">
       <c r="D26" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
       <c r="E27" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19">
       <c r="E28" s="3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19">
       <c r="B29" s="21" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19">
       <c r="E30" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
       <c r="E31" s="3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
       <c r="E32" s="25" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
@@ -7324,54 +9482,54 @@
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6">
       <c r="E33" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6">
       <c r="F47" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="E49" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="F50" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20">
       <c r="F51" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="F52" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="G53" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20">
       <c r="G55" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="G56" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="F57" s="35" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
@@ -7382,10 +9540,10 @@
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20">
       <c r="E58" s="19"/>
       <c r="F58" s="25" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
@@ -7402,11 +9560,11 @@
       <c r="S58" s="25"/>
       <c r="T58" s="19"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="E59" s="32"/>
       <c r="F59" s="31"/>
       <c r="G59" s="31" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H59" s="31"/>
       <c r="I59" s="31"/>
@@ -7422,11 +9580,11 @@
       <c r="S59" s="31"/>
       <c r="T59" s="19"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20">
       <c r="E60" s="32"/>
       <c r="F60" s="43"/>
       <c r="G60" s="43" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="H60" s="43"/>
       <c r="I60" s="43"/>
@@ -7442,97 +9600,97 @@
       <c r="S60" s="43"/>
       <c r="T60" s="19"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20">
       <c r="A61" s="25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="T61" s="19"/>
     </row>
-    <row r="62" spans="1:20" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="33">
       <c r="A62" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
     </row>
-    <row r="63" spans="1:20" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="33">
       <c r="A63" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="25"/>
       <c r="B64" s="25" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B65" s="19"/>
       <c r="F65" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67" s="25" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68" s="30" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69" s="31" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="19"/>
       <c r="B70" s="22"/>
       <c r="E70" s="19"/>
@@ -7553,80 +9711,80 @@
       <c r="T70" s="19"/>
       <c r="U70" s="19"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71" s="19"/>
       <c r="B71" s="22"/>
       <c r="E71" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="19"/>
       <c r="B72" s="22"/>
       <c r="F72" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73" s="19"/>
       <c r="B73" s="22"/>
       <c r="G73" s="3" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="G74" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="B75" s="22"/>
       <c r="H75" s="25" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="G76" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="F77" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
       <c r="K78" s="25"/>
       <c r="L78" s="25"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79" s="25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="G79" s="50" t="s">
         <v>52</v>
@@ -7635,9 +9793,9 @@
       <c r="I79" s="50"/>
       <c r="J79" s="50"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="E80" s="31" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
@@ -7651,9 +9809,9 @@
       <c r="O80" s="31"/>
       <c r="P80" s="31"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="E81" s="31" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
@@ -7667,9 +9825,9 @@
       <c r="O81" s="31"/>
       <c r="P81" s="31"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20">
       <c r="D82" s="29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
@@ -7678,24 +9836,24 @@
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="D83" s="25"/>
       <c r="E83" s="25" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="B84" s="22"/>
       <c r="D84" s="25"/>
       <c r="E84" s="25" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
@@ -7703,177 +9861,193 @@
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20">
       <c r="B85" s="22"/>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="25" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" ht="18">
       <c r="B87" s="19"/>
       <c r="C87" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20">
       <c r="B88" s="19"/>
       <c r="D88" s="3" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="B89" s="19"/>
       <c r="D89" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I89" s="19"/>
       <c r="J89" s="19"/>
       <c r="O89" s="19"/>
       <c r="P89" s="19"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="B90" s="19"/>
       <c r="D90" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="B91" s="19"/>
-      <c r="D91" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B92" s="19"/>
-      <c r="D92" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E92" s="25"/>
+      <c r="D91" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="D92" s="4"/>
+      <c r="E92" s="29" t="s">
+        <v>244</v>
+      </c>
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B93" s="19"/>
-      <c r="D93" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D94" s="4"/>
-      <c r="E94" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="E93" s="19"/>
+      <c r="F93" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
       <c r="L94" s="19"/>
       <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
       <c r="R94" s="19"/>
       <c r="S94" s="19"/>
       <c r="T94" s="19"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20">
+      <c r="A95" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="E95" s="19"/>
-      <c r="F95" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
+      <c r="F95" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="27"/>
+      <c r="Q95" s="25"/>
       <c r="R95" s="19"/>
       <c r="S95" s="19"/>
       <c r="T95" s="19"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="20" t="s">
-        <v>171</v>
-      </c>
+    <row r="96" spans="1:20">
       <c r="E96" s="19"/>
       <c r="F96" s="19" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
+      <c r="K96" s="25"/>
       <c r="L96" s="19"/>
       <c r="M96" s="19"/>
-      <c r="N96" s="25"/>
-      <c r="O96" s="25"/>
-      <c r="P96" s="25"/>
-      <c r="Q96" s="25"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
       <c r="R96" s="19"/>
       <c r="S96" s="19"/>
       <c r="T96" s="19"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="20" t="s">
-        <v>171</v>
-      </c>
+    <row r="97" spans="5:20">
       <c r="E97" s="19"/>
-      <c r="F97" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="28"/>
-      <c r="O97" s="27"/>
-      <c r="P97" s="27"/>
-      <c r="Q97" s="25"/>
+      <c r="F97" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="19"/>
       <c r="T97" s="19"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:20">
       <c r="E98" s="19"/>
-      <c r="F98" s="19" t="s">
-        <v>252</v>
-      </c>
+      <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="19"/>
-      <c r="K98" s="25"/>
+      <c r="K98" s="19"/>
       <c r="L98" s="19"/>
       <c r="M98" s="19"/>
       <c r="N98" s="19"/>
@@ -7884,11 +10058,9 @@
       <c r="S98" s="19"/>
       <c r="T98" s="19"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:20">
       <c r="E99" s="19"/>
-      <c r="F99" s="19" t="s">
-        <v>146</v>
-      </c>
+      <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -7904,7 +10076,7 @@
       <c r="S99" s="19"/>
       <c r="T99" s="19"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:20">
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
@@ -7922,7 +10094,7 @@
       <c r="S100" s="19"/>
       <c r="T100" s="19"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:20">
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
@@ -7940,7 +10112,7 @@
       <c r="S101" s="19"/>
       <c r="T101" s="19"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:20">
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
@@ -7958,7 +10130,7 @@
       <c r="S102" s="19"/>
       <c r="T102" s="19"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:20">
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
@@ -7976,7 +10148,7 @@
       <c r="S103" s="19"/>
       <c r="T103" s="19"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:20">
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
@@ -7994,7 +10166,7 @@
       <c r="S104" s="19"/>
       <c r="T104" s="19"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:20">
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
@@ -8012,7 +10184,7 @@
       <c r="S105" s="19"/>
       <c r="T105" s="19"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:20">
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
@@ -8030,7 +10202,7 @@
       <c r="S106" s="19"/>
       <c r="T106" s="19"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:20">
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
@@ -8048,7 +10220,7 @@
       <c r="S107" s="19"/>
       <c r="T107" s="19"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:20">
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
@@ -8066,7 +10238,7 @@
       <c r="S108" s="19"/>
       <c r="T108" s="19"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:20">
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
@@ -8084,7 +10256,7 @@
       <c r="S109" s="19"/>
       <c r="T109" s="19"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:20">
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
@@ -8102,7 +10274,7 @@
       <c r="S110" s="19"/>
       <c r="T110" s="19"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:20">
       <c r="E111" s="19"/>
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
@@ -8120,7 +10292,7 @@
       <c r="S111" s="19"/>
       <c r="T111" s="19"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:20">
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
@@ -8138,8 +10310,10 @@
       <c r="S112" s="19"/>
       <c r="T112" s="19"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E113" s="19"/>
+    <row r="113" spans="1:20">
+      <c r="E113" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
       <c r="H113" s="19"/>
@@ -8156,9 +10330,14 @@
       <c r="S113" s="19"/>
       <c r="T113" s="19"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20">
+      <c r="B114" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
+      <c r="F114" s="19" t="s">
+        <v>318</v>
+      </c>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -8174,11 +10353,14 @@
       <c r="S114" s="19"/>
       <c r="T114" s="19"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E115" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F115" s="19"/>
+    <row r="115" spans="1:20">
+      <c r="B115" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19" t="s">
+        <v>319</v>
+      </c>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -8194,17 +10376,14 @@
       <c r="S115" s="19"/>
       <c r="T115" s="19"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B116" s="21" t="s">
-        <v>186</v>
-      </c>
+    <row r="116" spans="1:20">
       <c r="E116" s="19"/>
-      <c r="F116" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
       <c r="J116" s="19"/>
       <c r="K116" s="19"/>
       <c r="L116" s="19"/>
@@ -8217,13 +10396,10 @@
       <c r="S116" s="19"/>
       <c r="T116" s="19"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B117" s="25" t="s">
-        <v>213</v>
-      </c>
+    <row r="117" spans="1:20">
       <c r="E117" s="19"/>
       <c r="F117" s="19" t="s">
-        <v>336</v>
+        <v>114</v>
       </c>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
@@ -8240,15 +10416,18 @@
       <c r="S117" s="19"/>
       <c r="T117" s="19"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20">
+      <c r="B118" s="21" t="s">
+        <v>180</v>
+      </c>
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
-      <c r="G118" s="44" t="s">
-        <v>337</v>
+      <c r="G118" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="H118" s="43"/>
       <c r="I118" s="43"/>
-      <c r="J118" s="19"/>
+      <c r="J118" s="43"/>
       <c r="K118" s="19"/>
       <c r="L118" s="19"/>
       <c r="M118" s="19"/>
@@ -8260,18 +10439,19 @@
       <c r="S118" s="19"/>
       <c r="T118" s="19"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20">
+      <c r="A119" s="19"/>
       <c r="E119" s="19"/>
-      <c r="F119" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
       <c r="N119" s="19"/>
       <c r="O119" s="19"/>
       <c r="P119" s="19"/>
@@ -8280,18 +10460,15 @@
       <c r="S119" s="19"/>
       <c r="T119" s="19"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B120" s="21" t="s">
-        <v>187</v>
-      </c>
+    <row r="120" spans="1:20">
       <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="H120" s="43"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="43"/>
+      <c r="F120" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
       <c r="K120" s="19"/>
       <c r="L120" s="19"/>
       <c r="M120" s="19"/>
@@ -8303,19 +10480,18 @@
       <c r="S120" s="19"/>
       <c r="T120" s="19"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A121" s="19"/>
+    <row r="121" spans="1:20">
       <c r="E121" s="19"/>
       <c r="F121" s="19"/>
-      <c r="G121" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="25"/>
-      <c r="M121" s="25"/>
+      <c r="G121" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
       <c r="N121" s="19"/>
       <c r="O121" s="19"/>
       <c r="P121" s="19"/>
@@ -8324,11 +10500,9 @@
       <c r="S121" s="19"/>
       <c r="T121" s="19"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20">
       <c r="E122" s="19"/>
-      <c r="F122" s="19" t="s">
-        <v>134</v>
-      </c>
+      <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -8344,15 +10518,15 @@
       <c r="S122" s="19"/>
       <c r="T122" s="19"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20">
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
-      <c r="G123" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="G123" s="19"/>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
+      <c r="J123" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="K123" s="19"/>
       <c r="L123" s="19"/>
       <c r="M123" s="19"/>
@@ -8364,7 +10538,7 @@
       <c r="S123" s="19"/>
       <c r="T123" s="19"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20">
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
@@ -8382,15 +10556,16 @@
       <c r="S124" s="19"/>
       <c r="T124" s="19"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20">
+      <c r="D125" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
-      <c r="J125" s="19" t="s">
-        <v>137</v>
-      </c>
+      <c r="J125" s="19"/>
       <c r="K125" s="19"/>
       <c r="L125" s="19"/>
       <c r="M125" s="19"/>
@@ -8402,8 +10577,11 @@
       <c r="S125" s="19"/>
       <c r="T125" s="19"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E126" s="19"/>
+    <row r="126" spans="1:20">
+      <c r="D126" s="4"/>
+      <c r="E126" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
@@ -8420,11 +10598,11 @@
       <c r="S126" s="19"/>
       <c r="T126" s="19"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D127" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E127" s="19"/>
+    <row r="127" spans="1:20">
+      <c r="D127" s="4"/>
+      <c r="E127" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
@@ -8441,10 +10619,10 @@
       <c r="S127" s="19"/>
       <c r="T127" s="19"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20">
       <c r="D128" s="4"/>
       <c r="E128" s="19" t="s">
-        <v>149</v>
+        <v>433</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
@@ -8462,18 +10640,7 @@
       <c r="S128" s="19"/>
       <c r="T128" s="19"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D129" s="4"/>
-      <c r="E129" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
+    <row r="129" spans="1:20">
       <c r="M129" s="19"/>
       <c r="N129" s="19"/>
       <c r="O129" s="19"/>
@@ -8483,10 +10650,10 @@
       <c r="S129" s="19"/>
       <c r="T129" s="19"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20">
       <c r="D130" s="4"/>
       <c r="E130" s="19" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
@@ -8504,7 +10671,18 @@
       <c r="S130" s="19"/>
       <c r="T130" s="19"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20">
+      <c r="D131" s="4"/>
+      <c r="E131" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
       <c r="M131" s="19"/>
       <c r="N131" s="19"/>
       <c r="O131" s="19"/>
@@ -8514,19 +10692,19 @@
       <c r="S131" s="19"/>
       <c r="T131" s="19"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20">
       <c r="D132" s="4"/>
-      <c r="E132" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
+      <c r="E132" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="25"/>
       <c r="N132" s="19"/>
       <c r="O132" s="19"/>
       <c r="P132" s="19"/>
@@ -8535,102 +10713,99 @@
       <c r="S132" s="19"/>
       <c r="T132" s="19"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20">
       <c r="D133" s="4"/>
-      <c r="E133" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19"/>
-      <c r="O133" s="19"/>
+      <c r="E133" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="31"/>
+      <c r="K133" s="31"/>
+      <c r="L133" s="31"/>
+      <c r="M133" s="31"/>
+      <c r="N133" s="31"/>
+      <c r="O133" s="31"/>
       <c r="P133" s="19"/>
       <c r="Q133" s="19"/>
       <c r="R133" s="19"/>
       <c r="S133" s="19"/>
       <c r="T133" s="19"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20">
       <c r="D134" s="4"/>
-      <c r="E134" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
-      <c r="M134" s="25"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="19"/>
+      <c r="E134" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="F134" s="58"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="58"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="58"/>
+      <c r="L134" s="58"/>
+      <c r="M134" s="58"/>
+      <c r="N134" s="58"/>
+      <c r="O134" s="58"/>
       <c r="P134" s="19"/>
       <c r="Q134" s="19"/>
       <c r="R134" s="19"/>
       <c r="S134" s="19"/>
       <c r="T134" s="19"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20">
       <c r="D135" s="4"/>
-      <c r="E135" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="31"/>
-      <c r="L135" s="31"/>
-      <c r="M135" s="31"/>
-      <c r="N135" s="31"/>
-      <c r="O135" s="31"/>
+      <c r="E135" s="58"/>
+      <c r="F135" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G135" s="58"/>
+      <c r="H135" s="58"/>
+      <c r="I135" s="58"/>
+      <c r="J135" s="58"/>
+      <c r="K135" s="58"/>
+      <c r="L135" s="58"/>
+      <c r="M135" s="58"/>
+      <c r="N135" s="58"/>
+      <c r="O135" s="58"/>
       <c r="P135" s="19"/>
       <c r="Q135" s="19"/>
       <c r="R135" s="19"/>
       <c r="S135" s="19"/>
       <c r="T135" s="19"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20">
       <c r="D136" s="4"/>
-      <c r="E136" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="19"/>
+      <c r="E136" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="F136" s="58"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="58"/>
+      <c r="I136" s="58"/>
+      <c r="J136" s="58"/>
+      <c r="K136" s="58"/>
+      <c r="L136" s="58"/>
+      <c r="M136" s="58"/>
+      <c r="N136" s="58"/>
+      <c r="O136" s="58"/>
       <c r="P136" s="19"/>
       <c r="Q136" s="19"/>
       <c r="R136" s="19"/>
       <c r="S136" s="19"/>
       <c r="T136" s="19"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="20" t="s">
-        <v>178</v>
-      </c>
+    <row r="137" spans="1:20">
       <c r="D137" s="4"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19" t="s">
-        <v>218</v>
-      </c>
+      <c r="E137" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F137" s="19"/>
       <c r="G137" s="19"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
       <c r="J137" s="19"/>
       <c r="K137" s="19"/>
       <c r="L137" s="19"/>
@@ -8643,18 +10818,18 @@
       <c r="S137" s="19"/>
       <c r="T137" s="19"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="25" t="s">
-        <v>215</v>
+    <row r="138" spans="1:20">
+      <c r="A138" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="D138" s="4"/>
-      <c r="E138" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
       <c r="J138" s="19"/>
       <c r="K138" s="19"/>
       <c r="L138" s="19"/>
@@ -8667,19 +10842,19 @@
       <c r="S138" s="19"/>
       <c r="T138" s="19"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="30" t="s">
-        <v>271</v>
+    <row r="139" spans="1:20">
+      <c r="A139" s="25" t="s">
+        <v>208</v>
       </c>
       <c r="D139" s="4"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="19" t="s">
-        <v>225</v>
-      </c>
+      <c r="E139" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F139" s="19"/>
       <c r="G139" s="19"/>
-      <c r="H139" s="25"/>
-      <c r="I139" s="25"/>
-      <c r="J139" s="25"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
       <c r="K139" s="19"/>
       <c r="L139" s="19"/>
       <c r="M139" s="19"/>
@@ -8691,20 +10866,22 @@
       <c r="S139" s="19"/>
       <c r="T139" s="19"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="19"/>
+    <row r="140" spans="1:20">
+      <c r="A140" s="30" t="s">
+        <v>259</v>
+      </c>
       <c r="D140" s="4"/>
       <c r="E140" s="23"/>
-      <c r="F140" s="43" t="s">
-        <v>415</v>
-      </c>
-      <c r="G140" s="43"/>
-      <c r="H140" s="43"/>
-      <c r="I140" s="43"/>
-      <c r="J140" s="43"/>
-      <c r="K140" s="43"/>
-      <c r="L140" s="43"/>
-      <c r="M140" s="19"/>
+      <c r="F140" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="G140" s="19"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="58"/>
+      <c r="L140" s="58"/>
+      <c r="M140" s="58"/>
       <c r="N140" s="19"/>
       <c r="O140" s="19"/>
       <c r="P140" s="19"/>
@@ -8713,23 +10890,19 @@
       <c r="S140" s="19"/>
       <c r="T140" s="19"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A141" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
+    <row r="141" spans="1:20">
+      <c r="A141" s="19"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="G141" s="43"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="43"/>
+      <c r="K141" s="43"/>
+      <c r="L141" s="43"/>
       <c r="M141" s="19"/>
       <c r="N141" s="19"/>
       <c r="O141" s="19"/>
@@ -8739,13 +10912,16 @@
       <c r="S141" s="19"/>
       <c r="T141" s="19"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B142" s="25" t="s">
-        <v>219</v>
+    <row r="142" spans="1:20">
+      <c r="A142" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
@@ -8762,13 +10938,13 @@
       <c r="S142" s="19"/>
       <c r="T142" s="19"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20">
       <c r="B143" s="25" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E143" s="19"/>
       <c r="F143" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
@@ -8785,12 +10961,15 @@
       <c r="S143" s="19"/>
       <c r="T143" s="19"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20">
+      <c r="B144" s="25" t="s">
+        <v>213</v>
+      </c>
       <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19" t="s">
-        <v>126</v>
-      </c>
+      <c r="F144" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="G144" s="19"/>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
       <c r="J144" s="19"/>
@@ -8805,12 +10984,12 @@
       <c r="S144" s="19"/>
       <c r="T144" s="19"/>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:20">
       <c r="E145" s="19"/>
-      <c r="F145" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19" t="s">
+        <v>121</v>
+      </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
       <c r="J145" s="19"/>
@@ -8825,10 +11004,10 @@
       <c r="S145" s="19"/>
       <c r="T145" s="19"/>
     </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:20">
       <c r="E146" s="19"/>
       <c r="F146" s="19" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="G146" s="19"/>
       <c r="H146" s="19"/>
@@ -8845,10 +11024,10 @@
       <c r="S146" s="19"/>
       <c r="T146" s="19"/>
     </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:20">
       <c r="E147" s="19"/>
       <c r="F147" s="19" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="G147" s="19"/>
       <c r="H147" s="19"/>
@@ -8865,15 +11044,12 @@
       <c r="S147" s="19"/>
       <c r="T147" s="19"/>
     </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B148" s="21" t="s">
-        <v>189</v>
-      </c>
+    <row r="148" spans="2:20">
       <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19" t="s">
-        <v>217</v>
-      </c>
+      <c r="F148" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="G148" s="19"/>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
       <c r="J148" s="19"/>
@@ -8888,15 +11064,15 @@
       <c r="S148" s="19"/>
       <c r="T148" s="19"/>
     </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B149" s="25" t="s">
-        <v>216</v>
+    <row r="149" spans="2:20">
+      <c r="B149" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="E149" s="19"/>
-      <c r="F149" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19" t="s">
+        <v>210</v>
+      </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
       <c r="J149" s="19"/>
@@ -8911,12 +11087,15 @@
       <c r="S149" s="19"/>
       <c r="T149" s="19"/>
     </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:20">
+      <c r="B150" s="25" t="s">
+        <v>209</v>
+      </c>
       <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19" t="s">
-        <v>80</v>
-      </c>
+      <c r="F150" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G150" s="19"/>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
       <c r="J150" s="19"/>
@@ -8931,12 +11110,12 @@
       <c r="S150" s="19"/>
       <c r="T150" s="19"/>
     </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:20">
       <c r="E151" s="19"/>
-      <c r="F151" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
       <c r="J151" s="19"/>
@@ -8951,12 +11130,12 @@
       <c r="S151" s="19"/>
       <c r="T151" s="19"/>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:20">
       <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19" t="s">
-        <v>128</v>
-      </c>
+      <c r="F152" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G152" s="19"/>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="19"/>
@@ -8971,10 +11150,12 @@
       <c r="S152" s="19"/>
       <c r="T152" s="19"/>
     </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:20">
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
+      <c r="G153" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
       <c r="J153" s="19"/>
@@ -8989,7 +11170,7 @@
       <c r="S153" s="19"/>
       <c r="T153" s="19"/>
     </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:20">
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
@@ -9007,7 +11188,7 @@
       <c r="S154" s="19"/>
       <c r="T154" s="19"/>
     </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:20">
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
@@ -9025,7 +11206,7 @@
       <c r="S155" s="19"/>
       <c r="T155" s="19"/>
     </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:20">
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
@@ -9043,7 +11224,7 @@
       <c r="S156" s="19"/>
       <c r="T156" s="19"/>
     </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:20">
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
@@ -9061,7 +11242,7 @@
       <c r="S157" s="19"/>
       <c r="T157" s="19"/>
     </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:20">
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -9079,7 +11260,7 @@
       <c r="S158" s="19"/>
       <c r="T158" s="19"/>
     </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:20">
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
@@ -9097,7 +11278,7 @@
       <c r="S159" s="19"/>
       <c r="T159" s="19"/>
     </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:20">
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
@@ -9115,7 +11296,7 @@
       <c r="S160" s="19"/>
       <c r="T160" s="19"/>
     </row>
-    <row r="161" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:20">
       <c r="E161" s="19"/>
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
@@ -9133,7 +11314,7 @@
       <c r="S161" s="19"/>
       <c r="T161" s="19"/>
     </row>
-    <row r="162" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:20">
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
@@ -9151,7 +11332,7 @@
       <c r="S162" s="19"/>
       <c r="T162" s="19"/>
     </row>
-    <row r="163" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:20">
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
@@ -9169,7 +11350,7 @@
       <c r="S163" s="19"/>
       <c r="T163" s="19"/>
     </row>
-    <row r="164" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:20">
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
@@ -9187,7 +11368,7 @@
       <c r="S164" s="19"/>
       <c r="T164" s="19"/>
     </row>
-    <row r="165" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:20">
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
@@ -9205,7 +11386,7 @@
       <c r="S165" s="19"/>
       <c r="T165" s="19"/>
     </row>
-    <row r="166" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:20">
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
@@ -9223,10 +11404,8 @@
       <c r="S166" s="19"/>
       <c r="T166" s="19"/>
     </row>
-    <row r="167" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E167" s="19" t="s">
-        <v>78</v>
-      </c>
+    <row r="167" spans="5:20">
+      <c r="E167" s="19"/>
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
@@ -9243,8 +11422,10 @@
       <c r="S167" s="19"/>
       <c r="T167" s="19"/>
     </row>
-    <row r="168" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E168" s="19"/>
+    <row r="168" spans="5:20">
+      <c r="E168" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
@@ -9261,7 +11442,7 @@
       <c r="S168" s="19"/>
       <c r="T168" s="19"/>
     </row>
-    <row r="169" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:20">
       <c r="E169" s="19"/>
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
@@ -9279,7 +11460,7 @@
       <c r="S169" s="19"/>
       <c r="T169" s="19"/>
     </row>
-    <row r="170" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:20">
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
@@ -9297,10 +11478,8 @@
       <c r="S170" s="19"/>
       <c r="T170" s="19"/>
     </row>
-    <row r="171" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E171" s="23" t="s">
-        <v>65</v>
-      </c>
+    <row r="171" spans="5:20">
+      <c r="E171" s="19"/>
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
@@ -9317,11 +11496,11 @@
       <c r="S171" s="19"/>
       <c r="T171" s="19"/>
     </row>
-    <row r="172" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E172" s="23"/>
-      <c r="F172" s="19" t="s">
-        <v>136</v>
-      </c>
+    <row r="172" spans="5:20">
+      <c r="E172" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F172" s="19"/>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -9337,10 +11516,10 @@
       <c r="S172" s="19"/>
       <c r="T172" s="19"/>
     </row>
-    <row r="173" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E173" s="19"/>
+    <row r="173" spans="5:20">
+      <c r="E173" s="23"/>
       <c r="F173" s="19" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
@@ -9357,22 +11536,18 @@
       <c r="S173" s="19"/>
       <c r="T173" s="19"/>
     </row>
-    <row r="174" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:20">
       <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="F174" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G174" s="19"/>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
-      <c r="J174" s="19" t="s">
-        <v>137</v>
-      </c>
+      <c r="J174" s="19"/>
       <c r="K174" s="19"/>
       <c r="L174" s="19"/>
-      <c r="M174" s="19" t="s">
-        <v>138</v>
-      </c>
+      <c r="M174" s="19"/>
       <c r="N174" s="19"/>
       <c r="O174" s="19"/>
       <c r="P174" s="19"/>
@@ -9381,18 +11556,22 @@
       <c r="S174" s="19"/>
       <c r="T174" s="19"/>
     </row>
-    <row r="175" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:20">
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
       <c r="G175" s="19" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
+      <c r="J175" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="K175" s="19"/>
       <c r="L175" s="19"/>
-      <c r="M175" s="19"/>
+      <c r="M175" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="N175" s="19"/>
       <c r="O175" s="19"/>
       <c r="P175" s="19"/>
@@ -9401,10 +11580,12 @@
       <c r="S175" s="19"/>
       <c r="T175" s="19"/>
     </row>
-    <row r="176" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:20">
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
+      <c r="G176" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
       <c r="J176" s="19"/>
@@ -9419,7 +11600,7 @@
       <c r="S176" s="19"/>
       <c r="T176" s="19"/>
     </row>
-    <row r="177" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:20">
       <c r="E177" s="19"/>
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
@@ -9437,11 +11618,9 @@
       <c r="S177" s="19"/>
       <c r="T177" s="19"/>
     </row>
-    <row r="178" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:20">
       <c r="E178" s="19"/>
-      <c r="F178" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F178" s="19"/>
       <c r="G178" s="19"/>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -9457,14 +11636,14 @@
       <c r="S178" s="19"/>
       <c r="T178" s="19"/>
     </row>
-    <row r="179" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:20">
       <c r="E179" s="19"/>
-      <c r="F179" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G179" s="50"/>
-      <c r="H179" s="50"/>
-      <c r="I179" s="50"/>
+      <c r="F179" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
       <c r="J179" s="19"/>
       <c r="K179" s="19"/>
       <c r="L179" s="19"/>
@@ -9477,13 +11656,14 @@
       <c r="S179" s="19"/>
       <c r="T179" s="19"/>
     </row>
-    <row r="180" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D180" s="23"/>
+    <row r="180" spans="4:20">
       <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
+      <c r="F180" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G180" s="50"/>
+      <c r="H180" s="50"/>
+      <c r="I180" s="50"/>
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
       <c r="L180" s="19"/>
@@ -9496,7 +11676,7 @@
       <c r="S180" s="19"/>
       <c r="T180" s="19"/>
     </row>
-    <row r="181" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:20">
       <c r="D181" s="23"/>
       <c r="E181" s="19"/>
       <c r="F181" s="19"/>
@@ -9515,7 +11695,7 @@
       <c r="S181" s="19"/>
       <c r="T181" s="19"/>
     </row>
-    <row r="182" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:20">
       <c r="D182" s="23"/>
       <c r="E182" s="19"/>
       <c r="F182" s="19"/>
@@ -9534,7 +11714,7 @@
       <c r="S182" s="19"/>
       <c r="T182" s="19"/>
     </row>
-    <row r="183" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:20">
       <c r="D183" s="23"/>
       <c r="E183" s="19"/>
       <c r="F183" s="19"/>
@@ -9553,7 +11733,7 @@
       <c r="S183" s="19"/>
       <c r="T183" s="19"/>
     </row>
-    <row r="184" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:20">
       <c r="D184" s="23"/>
       <c r="E184" s="19"/>
       <c r="F184" s="19"/>
@@ -9572,7 +11752,7 @@
       <c r="S184" s="19"/>
       <c r="T184" s="19"/>
     </row>
-    <row r="185" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:20">
       <c r="D185" s="23"/>
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
@@ -9591,7 +11771,7 @@
       <c r="S185" s="19"/>
       <c r="T185" s="19"/>
     </row>
-    <row r="186" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:20">
       <c r="D186" s="23"/>
       <c r="E186" s="19"/>
       <c r="F186" s="19"/>
@@ -9610,7 +11790,7 @@
       <c r="S186" s="19"/>
       <c r="T186" s="19"/>
     </row>
-    <row r="187" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:20">
       <c r="D187" s="23"/>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
@@ -9629,7 +11809,7 @@
       <c r="S187" s="19"/>
       <c r="T187" s="19"/>
     </row>
-    <row r="188" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:20">
       <c r="D188" s="23"/>
       <c r="E188" s="19"/>
       <c r="F188" s="19"/>
@@ -9648,7 +11828,7 @@
       <c r="S188" s="19"/>
       <c r="T188" s="19"/>
     </row>
-    <row r="189" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:20">
       <c r="D189" s="23"/>
       <c r="E189" s="19"/>
       <c r="F189" s="19"/>
@@ -9667,7 +11847,7 @@
       <c r="S189" s="19"/>
       <c r="T189" s="19"/>
     </row>
-    <row r="190" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:20">
       <c r="D190" s="23"/>
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
@@ -9686,7 +11866,7 @@
       <c r="S190" s="19"/>
       <c r="T190" s="19"/>
     </row>
-    <row r="191" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:20">
       <c r="D191" s="23"/>
       <c r="E191" s="19"/>
       <c r="F191" s="19"/>
@@ -9705,7 +11885,7 @@
       <c r="S191" s="19"/>
       <c r="T191" s="19"/>
     </row>
-    <row r="192" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:20">
       <c r="D192" s="23"/>
       <c r="E192" s="19"/>
       <c r="F192" s="19"/>
@@ -9724,360 +11904,361 @@
       <c r="S192" s="19"/>
       <c r="T192" s="19"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B194" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B195" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D195" s="4"/>
-      <c r="E195" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A196" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A197" s="30" t="s">
-        <v>272</v>
+    <row r="193" spans="1:20">
+      <c r="D193" s="23"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+      <c r="N193" s="19"/>
+      <c r="O193" s="19"/>
+      <c r="P193" s="19"/>
+      <c r="Q193" s="19"/>
+      <c r="R193" s="19"/>
+      <c r="S193" s="19"/>
+      <c r="T193" s="19"/>
+    </row>
+    <row r="194" spans="1:20">
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:20">
+      <c r="B195" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
+      <c r="B196" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="A197" s="31" t="s">
+        <v>261</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A198" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
-      <c r="K198" s="19"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="19"/>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A199" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G199" s="50"/>
-      <c r="H199" s="50"/>
-      <c r="I199" s="50"/>
-      <c r="J199" s="50"/>
-      <c r="K199" s="50"/>
-      <c r="L199" s="50"/>
-      <c r="M199" s="50"/>
-      <c r="N199" s="50"/>
-      <c r="O199" s="50"/>
-      <c r="P199" s="50"/>
-      <c r="Q199" s="50"/>
-      <c r="R199" s="50"/>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A200" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E200" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F200" s="48"/>
-      <c r="G200" s="48"/>
-      <c r="H200" s="48"/>
-      <c r="I200" s="48"/>
-      <c r="J200" s="48"/>
-      <c r="K200" s="48"/>
-      <c r="L200" s="48"/>
-      <c r="M200" s="48"/>
-      <c r="N200" s="48"/>
-      <c r="O200" s="48"/>
-      <c r="P200" s="48"/>
-      <c r="Q200" s="48"/>
-      <c r="R200" s="48"/>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E201" s="48"/>
-      <c r="F201" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="G201" s="48"/>
-      <c r="H201" s="48"/>
-      <c r="I201" s="48"/>
-      <c r="J201" s="48"/>
-      <c r="K201" s="48"/>
-      <c r="L201" s="48"/>
-      <c r="M201" s="48"/>
-      <c r="N201" s="48"/>
-      <c r="O201" s="48"/>
-      <c r="P201" s="48"/>
-      <c r="Q201" s="48"/>
-      <c r="R201" s="48"/>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A202" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E202" s="48"/>
-      <c r="F202" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="G202" s="48"/>
-      <c r="H202" s="48"/>
-      <c r="I202" s="48"/>
-      <c r="J202" s="48"/>
-      <c r="K202" s="48"/>
-      <c r="L202" s="48"/>
-      <c r="M202" s="48"/>
-      <c r="N202" s="48"/>
-      <c r="O202" s="48"/>
-      <c r="P202" s="48"/>
-      <c r="Q202" s="48"/>
-      <c r="R202" s="48"/>
-      <c r="S202" s="19"/>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A203" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E203" s="48"/>
-      <c r="F203" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="G203" s="48"/>
-      <c r="H203" s="48"/>
-      <c r="I203" s="48"/>
-      <c r="J203" s="48"/>
-      <c r="K203" s="48"/>
-      <c r="L203" s="48"/>
-      <c r="M203" s="48"/>
-      <c r="N203" s="48"/>
-      <c r="O203" s="48"/>
-      <c r="P203" s="48"/>
-      <c r="Q203" s="48"/>
-      <c r="R203" s="48"/>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E204" s="48"/>
-      <c r="F204" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="G204" s="48"/>
-      <c r="H204" s="48"/>
-      <c r="I204" s="48"/>
-      <c r="J204" s="48"/>
-      <c r="K204" s="48"/>
-      <c r="L204" s="48"/>
-      <c r="M204" s="48"/>
-      <c r="N204" s="48"/>
-      <c r="O204" s="48"/>
-      <c r="P204" s="48"/>
-      <c r="Q204" s="48"/>
-      <c r="R204" s="48"/>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
+      <c r="A198" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F198" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G198" s="58"/>
+      <c r="H198" s="58"/>
+      <c r="I198" s="58"/>
+      <c r="J198" s="58"/>
+      <c r="K198" s="58"/>
+      <c r="L198" s="58"/>
+      <c r="M198" s="58"/>
+      <c r="N198" s="58"/>
+      <c r="O198" s="58"/>
+      <c r="P198" s="58"/>
+      <c r="Q198" s="58"/>
+    </row>
+    <row r="199" spans="1:20">
+      <c r="A199" s="30"/>
+      <c r="F199" s="58"/>
+      <c r="G199" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="H199" s="58"/>
+      <c r="I199" s="58"/>
+      <c r="J199" s="58"/>
+      <c r="K199" s="58"/>
+      <c r="L199" s="58"/>
+      <c r="M199" s="58"/>
+      <c r="N199" s="58"/>
+      <c r="O199" s="58"/>
+      <c r="P199" s="58"/>
+      <c r="Q199" s="58"/>
+    </row>
+    <row r="200" spans="1:20">
+      <c r="A200" s="30"/>
+      <c r="F200" s="58"/>
+      <c r="G200" s="58" t="s">
+        <v>460</v>
+      </c>
+      <c r="H200" s="58"/>
+      <c r="I200" s="58"/>
+      <c r="J200" s="58"/>
+      <c r="K200" s="58"/>
+      <c r="L200" s="58"/>
+      <c r="M200" s="58"/>
+      <c r="N200" s="58"/>
+      <c r="O200" s="58"/>
+      <c r="P200" s="58"/>
+      <c r="Q200" s="58"/>
+    </row>
+    <row r="201" spans="1:20">
+      <c r="A201" s="30"/>
+      <c r="F201" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="G201" s="65"/>
+      <c r="H201" s="65"/>
+      <c r="I201" s="65"/>
+      <c r="J201" s="65"/>
+      <c r="K201" s="65"/>
+      <c r="L201" s="65"/>
+      <c r="M201" s="65"/>
+      <c r="N201" s="65"/>
+      <c r="O201" s="65"/>
+      <c r="P201" s="65"/>
+      <c r="Q201" s="65"/>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="A202" s="30"/>
+      <c r="F202" s="65"/>
+      <c r="G202" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="H202" s="65"/>
+      <c r="I202" s="66"/>
+      <c r="J202" s="66"/>
+      <c r="K202" s="66"/>
+      <c r="L202" s="65"/>
+      <c r="M202" s="65"/>
+      <c r="N202" s="65"/>
+      <c r="O202" s="65"/>
+      <c r="P202" s="65"/>
+      <c r="Q202" s="65"/>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="A203" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="19"/>
+      <c r="K203" s="19"/>
+      <c r="L203" s="19"/>
+      <c r="M203" s="19"/>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="A204" s="20"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="19"/>
+      <c r="K204" s="19"/>
+      <c r="L204" s="19"/>
+      <c r="M204" s="19"/>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="A205" s="25" t="s">
+        <v>214</v>
+      </c>
       <c r="E205" s="19"/>
-      <c r="F205" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="G205" s="24"/>
-      <c r="H205" s="24"/>
-      <c r="I205" s="24"/>
-      <c r="J205" s="24"/>
-      <c r="K205" s="24"/>
-      <c r="L205" s="24"/>
-      <c r="M205" s="24"/>
-      <c r="N205" s="17"/>
-      <c r="O205" s="17"/>
-      <c r="P205" s="17"/>
-      <c r="Q205" s="17"/>
-      <c r="R205" s="17"/>
-    </row>
-    <row r="220" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D220" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="221" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D221" s="4"/>
-      <c r="E221" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F221" s="19"/>
-      <c r="G221" s="19"/>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="19"/>
-      <c r="K221" s="19"/>
-      <c r="L221" s="19"/>
-      <c r="M221" s="19"/>
-      <c r="N221" s="19"/>
-      <c r="O221" s="19"/>
-      <c r="P221" s="19"/>
-      <c r="Q221" s="19"/>
-      <c r="R221" s="19"/>
-    </row>
-    <row r="222" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D222" s="4"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G222" s="19"/>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="19"/>
-      <c r="L222" s="19"/>
-      <c r="M222" s="19"/>
-      <c r="N222" s="19"/>
-      <c r="O222" s="19"/>
-      <c r="P222" s="19"/>
-      <c r="Q222" s="19"/>
-      <c r="R222" s="19"/>
-    </row>
-    <row r="223" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D223" s="4"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="G223" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="19"/>
-      <c r="K223" s="19"/>
-      <c r="L223" s="19"/>
-      <c r="M223" s="19"/>
-      <c r="N223" s="19"/>
-      <c r="O223" s="19"/>
-      <c r="P223" s="19"/>
-      <c r="Q223" s="19"/>
-      <c r="R223" s="19"/>
-    </row>
-    <row r="224" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D224" s="4"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="19"/>
-      <c r="G224" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="19"/>
-      <c r="K224" s="19"/>
-      <c r="L224" s="19"/>
-      <c r="M224" s="19"/>
-      <c r="N224" s="19"/>
-      <c r="O224" s="19"/>
-      <c r="P224" s="19"/>
-      <c r="Q224" s="19"/>
-      <c r="R224" s="19"/>
-    </row>
-    <row r="225" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D225" s="4"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G225" s="19"/>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="19"/>
-      <c r="K225" s="19"/>
-      <c r="L225" s="19"/>
-      <c r="M225" s="19"/>
-      <c r="N225" s="19"/>
-      <c r="O225" s="19"/>
-      <c r="P225" s="19"/>
-      <c r="Q225" s="19"/>
-      <c r="R225" s="19"/>
-    </row>
-    <row r="226" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D226" s="4"/>
-      <c r="E226" s="19"/>
-      <c r="F226" s="19"/>
-      <c r="G226" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="19"/>
-      <c r="L226" s="19"/>
-      <c r="M226" s="19"/>
-      <c r="N226" s="19"/>
-      <c r="O226" s="19"/>
-      <c r="P226" s="19"/>
-      <c r="Q226" s="19"/>
-      <c r="R226" s="19"/>
-    </row>
-    <row r="227" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F205" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G205" s="50"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="50"/>
+      <c r="J205" s="50"/>
+      <c r="K205" s="50"/>
+      <c r="L205" s="50"/>
+      <c r="M205" s="50"/>
+      <c r="N205" s="50"/>
+      <c r="O205" s="50"/>
+      <c r="P205" s="50"/>
+      <c r="Q205" s="50"/>
+      <c r="R205" s="50"/>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="A206" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E206" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F206" s="48"/>
+      <c r="G206" s="48"/>
+      <c r="H206" s="48"/>
+      <c r="I206" s="48"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="48"/>
+      <c r="L206" s="48"/>
+      <c r="M206" s="48"/>
+      <c r="N206" s="48"/>
+      <c r="O206" s="48"/>
+      <c r="P206" s="48"/>
+      <c r="Q206" s="48"/>
+      <c r="R206" s="48"/>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="E207" s="48"/>
+      <c r="F207" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="G207" s="48"/>
+      <c r="H207" s="48"/>
+      <c r="I207" s="48"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="48"/>
+      <c r="L207" s="48"/>
+      <c r="M207" s="48"/>
+      <c r="N207" s="48"/>
+      <c r="O207" s="48"/>
+      <c r="P207" s="48"/>
+      <c r="Q207" s="48"/>
+      <c r="R207" s="48"/>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E208" s="48"/>
+      <c r="F208" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G208" s="48"/>
+      <c r="H208" s="48"/>
+      <c r="I208" s="48"/>
+      <c r="J208" s="48"/>
+      <c r="K208" s="48"/>
+      <c r="L208" s="48"/>
+      <c r="M208" s="48"/>
+      <c r="N208" s="48"/>
+      <c r="O208" s="48"/>
+      <c r="P208" s="48"/>
+      <c r="Q208" s="48"/>
+      <c r="R208" s="48"/>
+      <c r="S208" s="19"/>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="A209" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E209" s="48"/>
+      <c r="F209" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="G209" s="48"/>
+      <c r="H209" s="48"/>
+      <c r="I209" s="48"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="48"/>
+      <c r="L209" s="48"/>
+      <c r="M209" s="48"/>
+      <c r="N209" s="48"/>
+      <c r="O209" s="48"/>
+      <c r="P209" s="48"/>
+      <c r="Q209" s="48"/>
+      <c r="R209" s="48"/>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="E210" s="48"/>
+      <c r="F210" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G210" s="48"/>
+      <c r="H210" s="48"/>
+      <c r="I210" s="48"/>
+      <c r="J210" s="48"/>
+      <c r="K210" s="48"/>
+      <c r="L210" s="48"/>
+      <c r="M210" s="48"/>
+      <c r="N210" s="48"/>
+      <c r="O210" s="48"/>
+      <c r="P210" s="48"/>
+      <c r="Q210" s="48"/>
+      <c r="R210" s="48"/>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="E211" s="19"/>
+      <c r="F211" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="G211" s="24"/>
+      <c r="H211" s="24"/>
+      <c r="I211" s="24"/>
+      <c r="J211" s="24"/>
+      <c r="K211" s="24"/>
+      <c r="L211" s="24"/>
+      <c r="M211" s="24"/>
+      <c r="N211" s="17"/>
+      <c r="O211" s="17"/>
+      <c r="P211" s="17"/>
+      <c r="Q211" s="17"/>
+      <c r="R211" s="17"/>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="T218" s="19"/>
+    </row>
+    <row r="226" spans="4:18">
+      <c r="D226" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227" spans="4:18">
       <c r="D227" s="4"/>
-      <c r="E227" s="19"/>
+      <c r="E227" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="F227" s="19"/>
-      <c r="G227" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="H227" s="43"/>
-      <c r="I227" s="43"/>
-      <c r="J227" s="43"/>
-      <c r="K227" s="43"/>
-      <c r="L227" s="43"/>
-      <c r="M227" s="43"/>
-      <c r="N227" s="43"/>
-      <c r="O227" s="43"/>
-      <c r="P227" s="43"/>
-      <c r="Q227" s="43"/>
+      <c r="G227" s="19"/>
+      <c r="H227" s="19"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="19"/>
+      <c r="K227" s="19"/>
+      <c r="L227" s="19"/>
+      <c r="M227" s="19"/>
+      <c r="N227" s="19"/>
+      <c r="O227" s="19"/>
+      <c r="P227" s="19"/>
+      <c r="Q227" s="19"/>
       <c r="R227" s="19"/>
     </row>
-    <row r="228" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:18">
       <c r="D228" s="4"/>
       <c r="E228" s="19"/>
-      <c r="F228" s="19"/>
-      <c r="G228" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="H228" s="43"/>
-      <c r="I228" s="43"/>
-      <c r="J228" s="43"/>
-      <c r="K228" s="43"/>
-      <c r="L228" s="43"/>
-      <c r="M228" s="43"/>
-      <c r="N228" s="43"/>
-      <c r="O228" s="43"/>
-      <c r="P228" s="43"/>
-      <c r="Q228" s="43"/>
+      <c r="F228" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G228" s="19"/>
+      <c r="H228" s="19"/>
+      <c r="I228" s="19"/>
+      <c r="J228" s="19"/>
+      <c r="K228" s="19"/>
+      <c r="L228" s="19"/>
+      <c r="M228" s="19"/>
+      <c r="N228" s="19"/>
+      <c r="O228" s="19"/>
+      <c r="P228" s="19"/>
+      <c r="Q228" s="19"/>
       <c r="R228" s="19"/>
     </row>
-    <row r="229" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:18">
       <c r="D229" s="4"/>
       <c r="E229" s="19"/>
       <c r="F229" s="19"/>
       <c r="G229" s="19" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -10091,13 +12272,13 @@
       <c r="Q229" s="19"/>
       <c r="R229" s="19"/>
     </row>
-    <row r="230" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:18">
       <c r="D230" s="4"/>
       <c r="E230" s="19"/>
-      <c r="F230" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="G230" s="19"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
       <c r="J230" s="19"/>
@@ -10110,13 +12291,14 @@
       <c r="Q230" s="19"/>
       <c r="R230" s="19"/>
     </row>
-    <row r="231" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:18">
       <c r="D231" s="4"/>
       <c r="E231" s="19"/>
-      <c r="F231" s="19"/>
-      <c r="G231" s="19" t="s">
-        <v>159</v>
-      </c>
+      <c r="F231" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G231" s="19"/>
+      <c r="H231" s="19"/>
       <c r="I231" s="19"/>
       <c r="J231" s="19"/>
       <c r="K231" s="19"/>
@@ -10128,31 +12310,31 @@
       <c r="Q231" s="19"/>
       <c r="R231" s="19"/>
     </row>
-    <row r="232" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:18">
       <c r="D232" s="4"/>
       <c r="E232" s="19"/>
       <c r="F232" s="19"/>
-      <c r="G232" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="H232" s="43"/>
-      <c r="I232" s="43"/>
-      <c r="J232" s="43"/>
-      <c r="K232" s="43"/>
-      <c r="L232" s="43"/>
-      <c r="M232" s="43"/>
-      <c r="N232" s="43"/>
-      <c r="O232" s="43"/>
-      <c r="P232" s="43"/>
-      <c r="Q232" s="43"/>
+      <c r="G232" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H232" s="19"/>
+      <c r="I232" s="19"/>
+      <c r="J232" s="19"/>
+      <c r="K232" s="19"/>
+      <c r="L232" s="19"/>
+      <c r="M232" s="19"/>
+      <c r="N232" s="19"/>
+      <c r="O232" s="19"/>
+      <c r="P232" s="19"/>
+      <c r="Q232" s="19"/>
       <c r="R232" s="19"/>
     </row>
-    <row r="233" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:18">
       <c r="D233" s="4"/>
       <c r="E233" s="19"/>
       <c r="F233" s="19"/>
       <c r="G233" s="43" t="s">
-        <v>343</v>
+        <v>246</v>
       </c>
       <c r="H233" s="43"/>
       <c r="I233" s="43"/>
@@ -10166,32 +12348,32 @@
       <c r="Q233" s="43"/>
       <c r="R233" s="19"/>
     </row>
-    <row r="234" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:18">
       <c r="D234" s="4"/>
-      <c r="E234" s="19" t="s">
-        <v>141</v>
-      </c>
+      <c r="E234" s="19"/>
       <c r="F234" s="19"/>
-      <c r="G234" s="19"/>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="19"/>
-      <c r="K234" s="19"/>
-      <c r="L234" s="19"/>
-      <c r="M234" s="19"/>
-      <c r="N234" s="19"/>
-      <c r="O234" s="19"/>
-      <c r="P234" s="19"/>
-      <c r="Q234" s="19"/>
+      <c r="G234" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="H234" s="43"/>
+      <c r="I234" s="43"/>
+      <c r="J234" s="43"/>
+      <c r="K234" s="43"/>
+      <c r="L234" s="43"/>
+      <c r="M234" s="43"/>
+      <c r="N234" s="43"/>
+      <c r="O234" s="43"/>
+      <c r="P234" s="43"/>
+      <c r="Q234" s="43"/>
       <c r="R234" s="19"/>
     </row>
-    <row r="235" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:18">
       <c r="D235" s="4"/>
       <c r="E235" s="19"/>
-      <c r="F235" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G235" s="19"/>
+      <c r="F235" s="19"/>
+      <c r="G235" s="19" t="s">
+        <v>247</v>
+      </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -10204,10 +12386,11 @@
       <c r="Q235" s="19"/>
       <c r="R235" s="19"/>
     </row>
-    <row r="236" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:18">
+      <c r="D236" s="4"/>
       <c r="E236" s="19"/>
       <c r="F236" s="19" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="G236" s="19"/>
       <c r="H236" s="19"/>
@@ -10222,13 +12405,13 @@
       <c r="Q236" s="19"/>
       <c r="R236" s="19"/>
     </row>
-    <row r="237" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:18">
+      <c r="D237" s="4"/>
       <c r="E237" s="19"/>
-      <c r="F237" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G237" s="19"/>
-      <c r="H237" s="19"/>
+      <c r="F237" s="19"/>
+      <c r="G237" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
       <c r="K237" s="19"/>
@@ -10240,38 +12423,87 @@
       <c r="Q237" s="19"/>
       <c r="R237" s="19"/>
     </row>
-    <row r="238" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D238" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="239" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E239" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="240" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E240" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="F240" s="35"/>
-      <c r="G240" s="35"/>
-      <c r="H240" s="35"/>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D241" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A242" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D242" s="4"/>
-      <c r="E242" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F242" s="19"/>
+    <row r="238" spans="4:18">
+      <c r="D238" s="4"/>
+      <c r="E238" s="19"/>
+      <c r="F238" s="19"/>
+      <c r="G238" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="H238" s="43"/>
+      <c r="I238" s="43"/>
+      <c r="J238" s="43"/>
+      <c r="K238" s="43"/>
+      <c r="L238" s="43"/>
+      <c r="M238" s="43"/>
+      <c r="N238" s="43"/>
+      <c r="O238" s="43"/>
+      <c r="P238" s="43"/>
+      <c r="Q238" s="43"/>
+      <c r="R238" s="19"/>
+    </row>
+    <row r="239" spans="4:18">
+      <c r="D239" s="4"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="H239" s="43"/>
+      <c r="I239" s="43"/>
+      <c r="J239" s="43"/>
+      <c r="K239" s="43"/>
+      <c r="L239" s="43"/>
+      <c r="M239" s="43"/>
+      <c r="N239" s="43"/>
+      <c r="O239" s="43"/>
+      <c r="P239" s="43"/>
+      <c r="Q239" s="43"/>
+      <c r="R239" s="19"/>
+    </row>
+    <row r="240" spans="4:18">
+      <c r="D240" s="4"/>
+      <c r="E240" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F240" s="19"/>
+      <c r="G240" s="19"/>
+      <c r="H240" s="19"/>
+      <c r="I240" s="19"/>
+      <c r="J240" s="19"/>
+      <c r="K240" s="19"/>
+      <c r="L240" s="19"/>
+      <c r="M240" s="19"/>
+      <c r="N240" s="19"/>
+      <c r="O240" s="19"/>
+      <c r="P240" s="19"/>
+      <c r="Q240" s="19"/>
+      <c r="R240" s="19"/>
+    </row>
+    <row r="241" spans="1:19">
+      <c r="D241" s="4"/>
+      <c r="E241" s="19"/>
+      <c r="F241" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G241" s="19"/>
+      <c r="H241" s="19"/>
+      <c r="I241" s="19"/>
+      <c r="J241" s="19"/>
+      <c r="K241" s="19"/>
+      <c r="L241" s="19"/>
+      <c r="M241" s="19"/>
+      <c r="N241" s="19"/>
+      <c r="O241" s="19"/>
+      <c r="P241" s="19"/>
+      <c r="Q241" s="19"/>
+      <c r="R241" s="19"/>
+    </row>
+    <row r="242" spans="1:19">
+      <c r="E242" s="19"/>
+      <c r="F242" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="G242" s="19"/>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -10285,15 +12517,17 @@
       <c r="Q242" s="19"/>
       <c r="R242" s="19"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A243" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D243" s="4"/>
+    <row r="243" spans="1:19">
       <c r="E243" s="19"/>
-      <c r="F243" s="3" t="s">
-        <v>229</v>
-      </c>
+      <c r="F243" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G243" s="19"/>
+      <c r="H243" s="19"/>
+      <c r="I243" s="19"/>
+      <c r="J243" s="19"/>
+      <c r="K243" s="19"/>
+      <c r="L243" s="19"/>
       <c r="M243" s="19"/>
       <c r="N243" s="19"/>
       <c r="O243" s="19"/>
@@ -10301,212 +12535,274 @@
       <c r="Q243" s="19"/>
       <c r="R243" s="19"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A244" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="B244" s="25" t="s">
+    <row r="244" spans="1:19">
+      <c r="D244" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19">
+      <c r="E245" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19">
+      <c r="E246" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="F246" s="35"/>
+      <c r="G246" s="35"/>
+      <c r="H246" s="35"/>
+    </row>
+    <row r="247" spans="1:19">
+      <c r="D247" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19">
+      <c r="A248" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D248" s="4"/>
+      <c r="E248" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F248" s="19"/>
+      <c r="G248" s="19"/>
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="19"/>
+      <c r="K248" s="19"/>
+      <c r="L248" s="19"/>
+      <c r="M248" s="19"/>
+      <c r="N248" s="19"/>
+      <c r="O248" s="19"/>
+      <c r="P248" s="19"/>
+      <c r="Q248" s="19"/>
+      <c r="R248" s="19"/>
+    </row>
+    <row r="249" spans="1:19">
+      <c r="A249" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M249" s="19"/>
+      <c r="N249" s="19"/>
+      <c r="O249" s="19"/>
+      <c r="P249" s="19"/>
+      <c r="Q249" s="19"/>
+      <c r="R249" s="19"/>
+    </row>
+    <row r="250" spans="1:19">
+      <c r="A250" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D250" s="4"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G250" s="18"/>
+      <c r="H250" s="18"/>
+      <c r="I250" s="18"/>
+      <c r="J250" s="18"/>
+      <c r="K250" s="18"/>
+      <c r="L250" s="18"/>
+      <c r="M250" s="19"/>
+      <c r="N250" s="19"/>
+      <c r="O250" s="19"/>
+      <c r="P250" s="19"/>
+      <c r="Q250" s="19"/>
+      <c r="R250" s="19"/>
+    </row>
+    <row r="251" spans="1:19">
+      <c r="A251" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B251" s="19"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="19"/>
+      <c r="F251" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G251" s="28"/>
+      <c r="H251" s="28"/>
+      <c r="I251" s="28"/>
+      <c r="J251" s="28"/>
+      <c r="K251" s="28"/>
+      <c r="L251" s="28"/>
+      <c r="M251" s="18"/>
+      <c r="N251" s="19"/>
+      <c r="O251" s="19"/>
+      <c r="P251" s="19"/>
+      <c r="Q251" s="19"/>
+      <c r="R251" s="19"/>
+    </row>
+    <row r="252" spans="1:19">
+      <c r="A252" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D252" s="4"/>
+      <c r="E252" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F252" s="24"/>
+      <c r="G252" s="24"/>
+      <c r="H252" s="24"/>
+      <c r="I252" s="24"/>
+      <c r="J252" s="24"/>
+      <c r="K252" s="24"/>
+      <c r="L252" s="24"/>
+      <c r="M252" s="24"/>
+      <c r="N252" s="24"/>
+      <c r="O252" s="24"/>
+      <c r="P252" s="24"/>
+      <c r="Q252" s="24"/>
+      <c r="R252" s="24"/>
+      <c r="S252" s="17"/>
+    </row>
+    <row r="253" spans="1:19" ht="17.25">
+      <c r="D253" s="4"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G253" s="26"/>
+      <c r="H253" s="26"/>
+      <c r="I253" s="26"/>
+      <c r="J253" s="26"/>
+      <c r="K253" s="26"/>
+      <c r="L253" s="26"/>
+      <c r="M253" s="25"/>
+      <c r="N253" s="19"/>
+      <c r="O253" s="19"/>
+      <c r="P253" s="19"/>
+      <c r="Q253" s="19"/>
+      <c r="R253" s="19"/>
+    </row>
+    <row r="254" spans="1:19">
+      <c r="D254" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19">
+      <c r="D255" s="4"/>
+      <c r="E255" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" ht="49.5">
+      <c r="A256" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B256" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D256" s="4"/>
+      <c r="F256" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
+      <c r="A257" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15">
+      <c r="E258" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15">
+      <c r="F259" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D244" s="4"/>
-      <c r="E244" s="19"/>
-      <c r="F244" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G244" s="18"/>
-      <c r="H244" s="18"/>
-      <c r="I244" s="18"/>
-      <c r="J244" s="18"/>
-      <c r="K244" s="18"/>
-      <c r="L244" s="18"/>
-      <c r="M244" s="19"/>
-      <c r="N244" s="19"/>
-      <c r="O244" s="19"/>
-      <c r="P244" s="19"/>
-      <c r="Q244" s="19"/>
-      <c r="R244" s="19"/>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A245" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B245" s="19"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G245" s="28"/>
-      <c r="H245" s="28"/>
-      <c r="I245" s="28"/>
-      <c r="J245" s="28"/>
-      <c r="K245" s="28"/>
-      <c r="L245" s="28"/>
-      <c r="M245" s="18"/>
-      <c r="N245" s="19"/>
-      <c r="O245" s="19"/>
-      <c r="P245" s="19"/>
-      <c r="Q245" s="19"/>
-      <c r="R245" s="19"/>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A246" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="D246" s="4"/>
-      <c r="E246" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F246" s="24"/>
-      <c r="G246" s="24"/>
-      <c r="H246" s="24"/>
-      <c r="I246" s="24"/>
-      <c r="J246" s="24"/>
-      <c r="K246" s="24"/>
-      <c r="L246" s="24"/>
-      <c r="M246" s="24"/>
-      <c r="N246" s="24"/>
-      <c r="O246" s="24"/>
-      <c r="P246" s="24"/>
-      <c r="Q246" s="24"/>
-      <c r="R246" s="24"/>
-      <c r="S246" s="17"/>
-    </row>
-    <row r="247" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D247" s="4"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="G247" s="26"/>
-      <c r="H247" s="26"/>
-      <c r="I247" s="26"/>
-      <c r="J247" s="26"/>
-      <c r="K247" s="26"/>
-      <c r="L247" s="26"/>
-      <c r="M247" s="25"/>
-      <c r="N247" s="19"/>
-      <c r="O247" s="19"/>
-      <c r="P247" s="19"/>
-      <c r="Q247" s="19"/>
-      <c r="R247" s="19"/>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D248" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D249" s="4"/>
-      <c r="E249" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A250" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B250" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D250" s="4"/>
-      <c r="F250" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A251" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B251" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E252" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F253" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="G253" s="25"/>
-      <c r="H253" s="25"/>
-      <c r="I253" s="25"/>
-      <c r="J253" s="25"/>
-      <c r="K253" s="25"/>
-      <c r="L253" s="25"/>
-      <c r="M253" s="25"/>
-      <c r="N253" s="25"/>
-      <c r="O253" s="25"/>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F254" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D255" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E255" s="25"/>
-      <c r="F255" s="25"/>
-      <c r="G255" s="25"/>
-      <c r="H255" s="25"/>
-      <c r="I255" s="25"/>
-      <c r="J255" s="25"/>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D256" s="25"/>
-      <c r="E256" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="F256" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="G256" s="25"/>
-      <c r="H256" s="25"/>
-      <c r="I256" s="25"/>
-      <c r="J256" s="25"/>
-    </row>
-    <row r="257" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D257" s="25"/>
-      <c r="E257" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="F257" s="25"/>
-      <c r="G257" s="25"/>
-      <c r="H257" s="25"/>
-      <c r="I257" s="25"/>
-      <c r="J257" s="25"/>
-    </row>
-    <row r="258" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D258" s="25"/>
-      <c r="E258" s="25"/>
-      <c r="F258" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="G258" s="25"/>
-      <c r="H258" s="25"/>
-      <c r="I258" s="25"/>
-      <c r="J258" s="25"/>
+      <c r="G259" s="25"/>
+      <c r="H259" s="25"/>
+      <c r="I259" s="25"/>
+      <c r="J259" s="25"/>
+      <c r="K259" s="25"/>
+      <c r="L259" s="25"/>
+      <c r="M259" s="25"/>
+      <c r="N259" s="25"/>
+      <c r="O259" s="25"/>
+    </row>
+    <row r="260" spans="1:15">
+      <c r="F260" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15">
+      <c r="D261" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E261" s="25"/>
+      <c r="F261" s="25"/>
+      <c r="G261" s="25"/>
+      <c r="H261" s="25"/>
+      <c r="I261" s="25"/>
+      <c r="J261" s="25"/>
+    </row>
+    <row r="262" spans="1:15">
+      <c r="D262" s="25"/>
+      <c r="E262" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F262" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G262" s="25"/>
+      <c r="H262" s="25"/>
+      <c r="I262" s="25"/>
+      <c r="J262" s="25"/>
+    </row>
+    <row r="263" spans="1:15">
+      <c r="D263" s="25"/>
+      <c r="E263" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F263" s="25"/>
+      <c r="G263" s="25"/>
+      <c r="H263" s="25"/>
+      <c r="I263" s="25"/>
+      <c r="J263" s="25"/>
+    </row>
+    <row r="264" spans="1:15">
+      <c r="D264" s="25"/>
+      <c r="E264" s="25"/>
+      <c r="F264" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G264" s="25"/>
+      <c r="H264" s="25"/>
+      <c r="I264" s="25"/>
+      <c r="J264" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B94:B116 B144:B148 B150:B194 B13:B54 B62:B63 B1:B9 B80:B86 B118:B130 B66:B73 B196:B243 B246:B250 B132:B141 B252:B495 B75:B78">
+  <conditionalFormatting sqref="B145:B149 B151:B195 B197:B249 B252:B256 B258:B501 B116:B128 B130:B142 B92:B114 B13:B54 B62:B63 B1:B9 B80:B86 B66:B73 B75:B78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>B1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G118" location="摸摸位置的逻辑" display="见“摸摸位置的逻辑”"/>
+    <hyperlink ref="G116" location="摸摸位置的逻辑" display="见“摸摸位置的逻辑”"/>
+    <hyperlink ref="F264" location="_4_若选中可摸摸怪物_被选中的怪物脚下出现一个光圈_从光圈向上方缓缓上升星星和桃心的特效_上升到一定高度消失。" display="快速通道"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10516,13 +12812,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="36"/>
     <col min="2" max="3" width="14.25" style="36" customWidth="1"/>
@@ -10534,140 +12830,163 @@
     <col min="9" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="37" t="s">
+      <c r="F3" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="92" t="s">
+        <v>481</v>
+      </c>
+      <c r="B8" s="93"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="93" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" s="93"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="93"/>
+      <c r="B10" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="37" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="93"/>
+      <c r="B11" s="94" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="59.25" customHeight="1">
+      <c r="A12" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="95" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="H4" s="49" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="41" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="36" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" s="67"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="70" t="s">
-        <v>428</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="37"/>
+      <c r="B16" s="36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="90"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="82.5">
+      <c r="A20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>309</v>
+      <c r="B20" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10676,173 +12995,253 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-    </row>
-    <row r="2" spans="1:22" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+    <row r="1" spans="1:22" ht="21">
+      <c r="A1" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+    </row>
+    <row r="2" spans="1:22" s="59" customFormat="1">
+      <c r="A2" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="61" customFormat="1">
+      <c r="A3" s="60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="63" customFormat="1">
+      <c r="A4" s="62"/>
+      <c r="D4" s="63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="E5" s="36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="E6" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="E7" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="D8" s="36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="E9" s="33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="47" customFormat="1" ht="17.25" thickBot="1"/>
+    <row r="11" spans="1:22" s="61" customFormat="1">
+      <c r="A11" s="60" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="63" customFormat="1">
+      <c r="A12" s="62"/>
+      <c r="D12" s="63" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="E13" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="36" t="s">
+    </row>
+    <row r="14" spans="1:22">
+      <c r="D14" s="36" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="E15" s="33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="D16" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
+      <c r="E17" s="51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="47" customFormat="1" ht="17.25" thickBot="1"/>
+    <row r="19" spans="1:6" s="61" customFormat="1">
+      <c r="A19" s="60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="63" customFormat="1">
+      <c r="D20" s="63" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="E21" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="D22" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="E23" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="D24" s="36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="E25" s="36" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="E26" s="33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="E27" s="36" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="E28" s="33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="D29" s="36" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="E30" s="33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="D31" s="36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="E32" s="33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="D33" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="E34" s="33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="E49" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G49" s="36" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E4" s="36" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E5" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="47" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="47" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E8" s="33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D9" s="36" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E10" s="33" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D11" s="36" t="s">
-        <v>418</v>
-      </c>
-      <c r="E11" s="33"/>
-    </row>
-    <row r="12" spans="1:22" s="47" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="51" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E14" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D15" s="36" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E16" s="36" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E17" s="33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="36" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E19" s="33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="36" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E21" s="33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="36" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E36" s="36" t="s">
-        <v>407</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>414</v>
+    <row r="50" spans="1:7" s="47" customFormat="1" ht="17.25" thickBot="1"/>
+    <row r="51" spans="1:7" s="61" customFormat="1">
+      <c r="A51" s="60" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="D52" s="36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="E53" s="33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="D54" s="36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="E55" s="33" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -10851,14 +13250,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F14" location="点击时小手图标表现" display="文档位置2"/>
-    <hyperlink ref="E14" location="进入摸摸模式_游戏屏幕中出现一个小手状的图标。" display="文档位置1"/>
-    <hyperlink ref="E17" location="屏幕左上角设置图标右侧出现一个带翅膀的桃心。" display="文档位置"/>
-    <hyperlink ref="E19" location="玩家点击到错误位置时_怪物无反应_在点击位置出现错误图标提示玩家摸错了_图标出现停留0.5秒消失。" display="文档位置"/>
-    <hyperlink ref="E21" location="屏幕上显示摸摸区域_摸摸区域需要一个圆形边框_内部存在半透遮罩。" display="文档位置"/>
-    <hyperlink ref="E8" location="在道具图标下方_原先照妖镜位置处_增加一个图标_作用为退出使用道具的模式。" display="文档位置"/>
-    <hyperlink ref="E10" location="可使用怪物_投喂的食物道具只能对敌方怪物使用_若玩家点击自己的怪物_则在怪物身上出现禁止使用的图标_闪烁两次后消失。" display="文档位置"/>
-    <hyperlink ref="E12" location="友好度上升动画_投喂食物时使用" display="文档位置"/>
+    <hyperlink ref="F21" location="点击时小手图标表现" display="文档位置2"/>
+    <hyperlink ref="E21" location="进入摸摸模式_游戏屏幕中出现一个小手状的图标。" display="文档位置1"/>
+    <hyperlink ref="E26" location="屏幕左上角设置图标右侧出现一个带翅膀的桃心。" display="文档位置"/>
+    <hyperlink ref="E30" location="玩家点击到错误位置时_怪物无反应_在点击位置出现错误图标提示玩家摸错了_图标出现停留0.5秒消失。" display="文档位置"/>
+    <hyperlink ref="E32" location="屏幕上显示摸摸区域_摸摸区域需要一个圆形边框_内部存在半透遮罩。" display="文档位置"/>
+    <hyperlink ref="E13" location="在道具图标下方_原先照妖镜位置处_增加一个图标_作用为退出使用道具的模式。" display="文档位置"/>
+    <hyperlink ref="E15" location="可使用怪物_投喂的食物道具只能对敌方怪物使用_若玩家点击自己的怪物_则在怪物身上出现禁止使用的图标_闪烁两次后消失。" display="文档位置"/>
+    <hyperlink ref="E17" location="友好度上升动画_投喂食物时使用" display="文档位置"/>
+    <hyperlink ref="E9" location="怪物表现_怪物捂脸_扭动身体、小幅度跺脚做害羞动作。" display="文档位置"/>
+    <hyperlink ref="E7" location="怪物表现_怪物捂脸_扭动身体、小幅度跺脚做害羞动作。" display="文档位置"/>
+    <hyperlink ref="E7:F7" location="怪物反应" display="文档位置"/>
+    <hyperlink ref="E53" location="被抓到的怪物位于屏幕中央_怪物背面出现类似下图特效_特效需求动态旋转。" display="文档位置"/>
+    <hyperlink ref="E55" location="怪物下方写明怪物名称_名称下方有底图。" display="文档位置"/>
+    <hyperlink ref="E23" location="_4_若选中可摸摸怪物_被选中的怪物脚下出现一个光圈_从光圈向上方缓缓上升星星和桃心的特效_上升到一定高度消失。" display="文档位置"/>
+    <hyperlink ref="E28" location="UI动画_玩家摸摸时" display="文档位置"/>
+    <hyperlink ref="E34" location="UI表现_从怪物胸部向外冒出一个大的桃心_由小变大_最后爆掉_然后怪物头左上方冒出友好度增长到的数值_表现同使用道具的情况_。" display="文档位置"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10867,23 +13274,153 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="9" style="36"/>
+    <col min="3" max="3" width="38" style="36" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="47" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A1" s="72"/>
+      <c r="C1" s="73" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="71" customFormat="1">
+      <c r="A2" s="70">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" s="68">
+        <v>2</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="68">
+        <v>2</v>
+      </c>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="68">
+        <v>2</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="68" t="s">
+        <v>471</v>
+      </c>
+      <c r="D6" s="68">
+        <v>2</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="68" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="68">
+        <v>0</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="68" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="68">
+        <v>1</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" s="67">
+        <v>9</v>
+      </c>
+      <c r="E9" s="67">
+        <v>12</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -10891,7 +13428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10899,7 +13436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -10910,7 +13447,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
@@ -10918,7 +13455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
@@ -10926,12 +13463,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="K8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
@@ -10945,7 +13482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
@@ -10953,7 +13490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
@@ -10964,12 +13501,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
@@ -10977,12 +13514,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3">
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
